--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55951BE-570A-44C8-AA9F-8EB439E44D69}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C4C0D97-2D00-47C6-8ACC-A34B9576DC28}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="459">
   <si>
     <t>わたし</t>
   </si>
@@ -1207,6 +1207,325 @@
   </si>
   <si>
     <t>請多保重（對生病的人說）</t>
+  </si>
+  <si>
+    <t>*第3課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここ</t>
+  </si>
+  <si>
+    <t>そこ</t>
+  </si>
+  <si>
+    <t>あそこ</t>
+  </si>
+  <si>
+    <t>どこ</t>
+  </si>
+  <si>
+    <t>こちら</t>
+  </si>
+  <si>
+    <t>そちら</t>
+  </si>
+  <si>
+    <t>あちら</t>
+  </si>
+  <si>
+    <t>どちら</t>
+  </si>
+  <si>
+    <t>這裡,這個地方</t>
+  </si>
+  <si>
+    <t>那裡,那個地方</t>
+  </si>
+  <si>
+    <t>哪裡,哪個地方</t>
+  </si>
+  <si>
+    <t>這邊, ここ 的禮貌形</t>
+  </si>
+  <si>
+    <t>那邊, そこ 的禮貌形</t>
+  </si>
+  <si>
+    <t>那邊, あそこ 的禮貌形</t>
+  </si>
+  <si>
+    <t>哪邊, どこ 的禮貌形</t>
+  </si>
+  <si>
+    <t>きょうしつ</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>しょくどう</t>
+  </si>
+  <si>
+    <t>食堂</t>
+  </si>
+  <si>
+    <t>餐廳, 食堂</t>
+  </si>
+  <si>
+    <t>じむしょ</t>
+  </si>
+  <si>
+    <t>事務所</t>
+  </si>
+  <si>
+    <t>辦公室</t>
+  </si>
+  <si>
+    <t>かいぎしつ</t>
+  </si>
+  <si>
+    <t>会議室</t>
+  </si>
+  <si>
+    <t>會議室</t>
+  </si>
+  <si>
+    <t>うけつけ</t>
+  </si>
+  <si>
+    <t>受付</t>
+  </si>
+  <si>
+    <t>傳達室,接待</t>
+  </si>
+  <si>
+    <t>ロビー</t>
+  </si>
+  <si>
+    <t>大廳,休息室</t>
+  </si>
+  <si>
+    <t>へや</t>
+  </si>
+  <si>
+    <t>部屋</t>
+  </si>
+  <si>
+    <t>房間</t>
+  </si>
+  <si>
+    <t>トイレ</t>
+  </si>
+  <si>
+    <t>廁所,洗手間</t>
+  </si>
+  <si>
+    <t>おてあらい</t>
+  </si>
+  <si>
+    <t>お手洗い</t>
+  </si>
+  <si>
+    <t>かいだん</t>
+  </si>
+  <si>
+    <t>階段</t>
+  </si>
+  <si>
+    <t>樓梯</t>
+  </si>
+  <si>
+    <t>エレベーター</t>
+  </si>
+  <si>
+    <t>電梯</t>
+  </si>
+  <si>
+    <t>エスカレーター</t>
+  </si>
+  <si>
+    <t>電扶梯</t>
+  </si>
+  <si>
+    <t>［お］くに</t>
+  </si>
+  <si>
+    <t>［お］国</t>
+  </si>
+  <si>
+    <t>貴國</t>
+  </si>
+  <si>
+    <t>かいしゃ</t>
+  </si>
+  <si>
+    <t>会社</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>家,房子</t>
+  </si>
+  <si>
+    <t>でんわ</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>くつ</t>
+  </si>
+  <si>
+    <t>靴</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>ネクタイ</t>
+  </si>
+  <si>
+    <t>領帶</t>
+  </si>
+  <si>
+    <t>ワイン</t>
+  </si>
+  <si>
+    <t>葡萄酒</t>
+  </si>
+  <si>
+    <t>たばこ</t>
+  </si>
+  <si>
+    <t>香煙</t>
+  </si>
+  <si>
+    <t>うりば</t>
+  </si>
+  <si>
+    <t>売り場</t>
+  </si>
+  <si>
+    <t>櫃台,賣場</t>
+  </si>
+  <si>
+    <t>ちか</t>
+  </si>
+  <si>
+    <t>地下</t>
+  </si>
+  <si>
+    <t>…かい</t>
+  </si>
+  <si>
+    <t>…階</t>
+  </si>
+  <si>
+    <t>…樓</t>
+  </si>
+  <si>
+    <t>なんがい</t>
+  </si>
+  <si>
+    <t>何階</t>
+  </si>
+  <si>
+    <t>幾樓</t>
+  </si>
+  <si>
+    <t>…えん</t>
+  </si>
+  <si>
+    <t>…円</t>
+  </si>
+  <si>
+    <t>…日元</t>
+  </si>
+  <si>
+    <t>いくら</t>
+  </si>
+  <si>
+    <t>多少錢</t>
+  </si>
+  <si>
+    <t>ひゃく</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>せん</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>まん</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>萬</t>
+  </si>
+  <si>
+    <t>すみません</t>
+  </si>
+  <si>
+    <t>對不起,請問。</t>
+  </si>
+  <si>
+    <t>～で</t>
+  </si>
+  <si>
+    <t>ございます</t>
+  </si>
+  <si>
+    <t>「です」的禮貌形</t>
+  </si>
+  <si>
+    <t>「～を」見せて ください</t>
+  </si>
+  <si>
+    <t>請讓我看一下［～］</t>
+  </si>
+  <si>
+    <t>じゃ</t>
+  </si>
+  <si>
+    <t>那麼</t>
+  </si>
+  <si>
+    <t>「～を」ください</t>
+  </si>
+  <si>
+    <t>請給我［～］</t>
+  </si>
+  <si>
+    <t>しん おお さか</t>
+  </si>
+  <si>
+    <t>新大阪</t>
+  </si>
+  <si>
+    <t>新大阪車站</t>
+  </si>
+  <si>
+    <t>イタリア</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>スイス</t>
+  </si>
+  <si>
+    <t>瑞士</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2545,447 +2864,878 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>240</v>
-      </c>
-      <c r="B102" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>242</v>
-      </c>
-      <c r="B103" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>247</v>
-      </c>
-      <c r="B105" t="s">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>250</v>
-      </c>
-      <c r="B106" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>253</v>
-      </c>
-      <c r="B107" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>256</v>
-      </c>
-      <c r="B108" t="s">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>367</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>259</v>
-      </c>
-      <c r="B109" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="B110" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>277</v>
-      </c>
-      <c r="B115" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="C116" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>283</v>
-      </c>
-      <c r="B117" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>288</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="B119" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>292</v>
-      </c>
-      <c r="B120" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>295</v>
-      </c>
-      <c r="B121" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="C121" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="B122" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
       <c r="C123" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>303</v>
-      </c>
-      <c r="B124" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="C126" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>311</v>
-      </c>
-      <c r="B127" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>316</v>
-      </c>
-      <c r="B129" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="C129" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="C130" t="s">
-        <v>321</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="B131" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>423</v>
+      </c>
+      <c r="B132" t="s">
+        <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>291</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="B134" t="s">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="C134" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" t="s">
-        <v>332</v>
+        <v>432</v>
       </c>
       <c r="C135" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="B136" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>337</v>
+        <v>436</v>
+      </c>
+      <c r="B137" t="s">
+        <v>437</v>
       </c>
       <c r="C137" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>438</v>
+      </c>
+      <c r="B138" t="s">
+        <v>439</v>
       </c>
       <c r="C138" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
       <c r="C139" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>343</v>
+        <v>443</v>
+      </c>
+      <c r="B140" t="s">
+        <v>444</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>345</v>
-      </c>
-      <c r="B141" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
       <c r="C142" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>450</v>
+      </c>
+      <c r="C143" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>452</v>
+      </c>
+      <c r="B144" t="s">
+        <v>453</v>
+      </c>
+      <c r="C144" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>455</v>
+      </c>
+      <c r="C145" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>457</v>
+      </c>
+      <c r="C146" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>242</v>
+      </c>
+      <c r="B149" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>245</v>
+      </c>
+      <c r="C150" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+      <c r="B151" t="s">
+        <v>248</v>
+      </c>
+      <c r="C151" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>250</v>
+      </c>
+      <c r="B152" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>253</v>
+      </c>
+      <c r="B153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C153" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" t="s">
+        <v>257</v>
+      </c>
+      <c r="C154" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>259</v>
+      </c>
+      <c r="B155" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" t="s">
+        <v>263</v>
+      </c>
+      <c r="C156" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>265</v>
+      </c>
+      <c r="B157" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>271</v>
+      </c>
+      <c r="B159" t="s">
+        <v>272</v>
+      </c>
+      <c r="C159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>274</v>
+      </c>
+      <c r="B160" t="s">
+        <v>275</v>
+      </c>
+      <c r="C160" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" t="s">
+        <v>281</v>
+      </c>
+      <c r="C162" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>283</v>
+      </c>
+      <c r="B163" t="s">
+        <v>284</v>
+      </c>
+      <c r="C163" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" t="s">
+        <v>287</v>
+      </c>
+      <c r="C164" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>289</v>
+      </c>
+      <c r="B165" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>292</v>
+      </c>
+      <c r="B166" t="s">
+        <v>293</v>
+      </c>
+      <c r="C166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B167" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>298</v>
+      </c>
+      <c r="B168" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>303</v>
+      </c>
+      <c r="B170" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>306</v>
+      </c>
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>308</v>
+      </c>
+      <c r="B172" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>311</v>
+      </c>
+      <c r="B173" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>314</v>
+      </c>
+      <c r="C174" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>316</v>
+      </c>
+      <c r="B175" t="s">
+        <v>317</v>
+      </c>
+      <c r="C175" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>319</v>
+      </c>
+      <c r="B176" t="s">
+        <v>320</v>
+      </c>
+      <c r="C176" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>322</v>
+      </c>
+      <c r="B177" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>326</v>
+      </c>
+      <c r="B179" t="s">
+        <v>327</v>
+      </c>
+      <c r="C179" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>329</v>
+      </c>
+      <c r="B180" t="s">
+        <v>330</v>
+      </c>
+      <c r="C180" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>332</v>
+      </c>
+      <c r="C181" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182" t="s">
+        <v>335</v>
+      </c>
+      <c r="C182" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>337</v>
+      </c>
+      <c r="C183" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>339</v>
+      </c>
+      <c r="C184" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>341</v>
+      </c>
+      <c r="C185" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>343</v>
+      </c>
+      <c r="C186" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>345</v>
+      </c>
+      <c r="B187" t="s">
+        <v>346</v>
+      </c>
+      <c r="C187" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>348</v>
+      </c>
+      <c r="C188" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>350</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B189" t="s">
         <v>351</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C189" t="s">
         <v>352</v>
       </c>
     </row>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C4C0D97-2D00-47C6-8ACC-A34B9576DC28}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D673F55F-83D0-4F71-8E34-ABE7E111AC05}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*日語拼音</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>これ</t>
   </si>
   <si>
@@ -1526,6 +1522,10 @@
   </si>
   <si>
     <t>瑞士</t>
+  </si>
+  <si>
+    <t>**日語拼音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1898,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1961,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -2014,7 +2014,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -2025,7 +2025,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -2108,1551 +2108,1551 @@
     </row>
     <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
         <v>47</v>
-      </c>
-      <c r="C54" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
         <v>49</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
         <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
         <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
         <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
         <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>63</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>69</v>
-      </c>
-      <c r="C63" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
         <v>71</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
         <v>73</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
         <v>76</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
         <v>79</v>
-      </c>
-      <c r="C67" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
         <v>81</v>
-      </c>
-      <c r="C68" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
         <v>83</v>
       </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
         <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
         <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
         <v>89</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
         <v>91</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>92</v>
-      </c>
-      <c r="C73" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
         <v>94</v>
       </c>
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
         <v>96</v>
-      </c>
-      <c r="B75" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" t="s">
         <v>101</v>
-      </c>
-      <c r="C78" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
         <v>103</v>
-      </c>
-      <c r="C79" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
         <v>105</v>
-      </c>
-      <c r="C80" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s">
         <v>107</v>
-      </c>
-      <c r="C81" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
         <v>109</v>
-      </c>
-      <c r="C82" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
         <v>111</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>112</v>
-      </c>
-      <c r="C83" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
         <v>114</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
         <v>117</v>
-      </c>
-      <c r="C85" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" t="s">
         <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
         <v>121</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
         <v>123</v>
       </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>126</v>
-      </c>
-      <c r="C89" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
         <v>128</v>
       </c>
-      <c r="B90" t="s">
-        <v>129</v>
-      </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
         <v>130</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>131</v>
-      </c>
-      <c r="C91" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" t="s">
         <v>133</v>
-      </c>
-      <c r="C92" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" t="s">
         <v>135</v>
       </c>
-      <c r="B93" t="s">
-        <v>136</v>
-      </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
         <v>140</v>
-      </c>
-      <c r="C95" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
         <v>142</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>143</v>
-      </c>
-      <c r="C96" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
         <v>145</v>
-      </c>
-      <c r="C97" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" t="s">
         <v>147</v>
-      </c>
-      <c r="C98" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
         <v>150</v>
-      </c>
-      <c r="C99" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C107" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>368</v>
+      </c>
+      <c r="B110" t="s">
         <v>369</v>
       </c>
-      <c r="B110" t="s">
-        <v>370</v>
-      </c>
       <c r="C110" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" t="s">
         <v>371</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>372</v>
-      </c>
-      <c r="C111" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>373</v>
+      </c>
+      <c r="B112" t="s">
         <v>374</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>375</v>
-      </c>
-      <c r="C112" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B113" t="s">
         <v>377</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>378</v>
-      </c>
-      <c r="C113" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>379</v>
+      </c>
+      <c r="B114" t="s">
         <v>380</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>381</v>
-      </c>
-      <c r="C114" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>382</v>
+      </c>
+      <c r="C115" t="s">
         <v>383</v>
-      </c>
-      <c r="C115" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>384</v>
+      </c>
+      <c r="B116" t="s">
         <v>385</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>386</v>
-      </c>
-      <c r="C116" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>387</v>
+      </c>
+      <c r="C117" t="s">
         <v>388</v>
-      </c>
-      <c r="C117" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" t="s">
         <v>390</v>
       </c>
-      <c r="B118" t="s">
-        <v>391</v>
-      </c>
       <c r="C118" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" t="s">
         <v>392</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>393</v>
-      </c>
-      <c r="C119" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>394</v>
+      </c>
+      <c r="C120" t="s">
         <v>395</v>
-      </c>
-      <c r="C120" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" t="s">
         <v>397</v>
-      </c>
-      <c r="C121" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>398</v>
+      </c>
+      <c r="B122" t="s">
         <v>399</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>400</v>
-      </c>
-      <c r="C122" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>401</v>
+      </c>
+      <c r="B123" t="s">
         <v>402</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>403</v>
-      </c>
-      <c r="C123" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>404</v>
+      </c>
+      <c r="C124" t="s">
         <v>405</v>
-      </c>
-      <c r="C124" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>406</v>
+      </c>
+      <c r="B125" t="s">
         <v>407</v>
       </c>
-      <c r="B125" t="s">
-        <v>408</v>
-      </c>
       <c r="C125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>408</v>
+      </c>
+      <c r="B126" t="s">
         <v>409</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>410</v>
-      </c>
-      <c r="C126" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" t="s">
         <v>412</v>
-      </c>
-      <c r="C127" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>413</v>
+      </c>
+      <c r="C128" t="s">
         <v>414</v>
-      </c>
-      <c r="C128" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129" t="s">
         <v>416</v>
-      </c>
-      <c r="C129" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>417</v>
+      </c>
+      <c r="B130" t="s">
         <v>418</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>419</v>
-      </c>
-      <c r="C130" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>420</v>
+      </c>
+      <c r="B131" t="s">
         <v>421</v>
       </c>
-      <c r="B131" t="s">
-        <v>422</v>
-      </c>
       <c r="C131" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>422</v>
+      </c>
+      <c r="B132" t="s">
         <v>423</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>424</v>
-      </c>
-      <c r="C132" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133" t="s">
         <v>426</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>427</v>
-      </c>
-      <c r="C133" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>428</v>
+      </c>
+      <c r="B134" t="s">
         <v>429</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>430</v>
-      </c>
-      <c r="C134" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>431</v>
+      </c>
+      <c r="C135" t="s">
         <v>432</v>
-      </c>
-      <c r="C135" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136" t="s">
         <v>434</v>
       </c>
-      <c r="B136" t="s">
-        <v>435</v>
-      </c>
       <c r="C136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>435</v>
+      </c>
+      <c r="B137" t="s">
         <v>436</v>
       </c>
-      <c r="B137" t="s">
-        <v>437</v>
-      </c>
       <c r="C137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>437</v>
+      </c>
+      <c r="B138" t="s">
         <v>438</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>439</v>
-      </c>
-      <c r="C138" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" t="s">
         <v>441</v>
-      </c>
-      <c r="C139" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>442</v>
+      </c>
+      <c r="B140" t="s">
         <v>443</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>444</v>
-      </c>
-      <c r="C140" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>445</v>
+      </c>
+      <c r="C141" t="s">
         <v>446</v>
-      </c>
-      <c r="C141" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>447</v>
+      </c>
+      <c r="C142" t="s">
         <v>448</v>
-      </c>
-      <c r="C142" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>449</v>
+      </c>
+      <c r="C143" t="s">
         <v>450</v>
-      </c>
-      <c r="C143" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>451</v>
+      </c>
+      <c r="B144" t="s">
         <v>452</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>453</v>
-      </c>
-      <c r="C144" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>454</v>
+      </c>
+      <c r="C145" t="s">
         <v>455</v>
-      </c>
-      <c r="C145" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>456</v>
+      </c>
+      <c r="C146" t="s">
         <v>457</v>
-      </c>
-      <c r="C146" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>239</v>
+      </c>
+      <c r="B148" t="s">
         <v>240</v>
       </c>
-      <c r="B148" t="s">
-        <v>241</v>
-      </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>241</v>
+      </c>
+      <c r="B149" t="s">
         <v>242</v>
       </c>
-      <c r="B149" t="s">
-        <v>243</v>
-      </c>
       <c r="C149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>243</v>
+      </c>
+      <c r="B150" t="s">
         <v>244</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>245</v>
-      </c>
-      <c r="C150" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s">
         <v>247</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>248</v>
-      </c>
-      <c r="C151" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" t="s">
         <v>250</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>251</v>
-      </c>
-      <c r="C152" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>252</v>
+      </c>
+      <c r="B153" t="s">
         <v>253</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>254</v>
-      </c>
-      <c r="C153" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>255</v>
+      </c>
+      <c r="B154" t="s">
         <v>256</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>257</v>
-      </c>
-      <c r="C154" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>258</v>
+      </c>
+      <c r="B155" t="s">
         <v>259</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>260</v>
-      </c>
-      <c r="C155" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>261</v>
+      </c>
+      <c r="B156" t="s">
         <v>262</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>263</v>
-      </c>
-      <c r="C156" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" t="s">
         <v>265</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>266</v>
-      </c>
-      <c r="C157" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" t="s">
         <v>268</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>269</v>
-      </c>
-      <c r="C158" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>270</v>
+      </c>
+      <c r="B159" t="s">
         <v>271</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>272</v>
-      </c>
-      <c r="C159" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>273</v>
+      </c>
+      <c r="B160" t="s">
         <v>274</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>275</v>
-      </c>
-      <c r="C160" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>276</v>
+      </c>
+      <c r="B161" t="s">
         <v>277</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>278</v>
-      </c>
-      <c r="C161" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>279</v>
+      </c>
+      <c r="B162" t="s">
         <v>280</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>281</v>
-      </c>
-      <c r="C162" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" t="s">
         <v>283</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>284</v>
-      </c>
-      <c r="C163" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>285</v>
+      </c>
+      <c r="B164" t="s">
         <v>286</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>287</v>
-      </c>
-      <c r="C164" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" t="s">
         <v>289</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>290</v>
-      </c>
-      <c r="C165" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" t="s">
         <v>292</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>293</v>
-      </c>
-      <c r="C166" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" t="s">
         <v>295</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>296</v>
-      </c>
-      <c r="C167" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
         <v>298</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>299</v>
-      </c>
-      <c r="C168" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>300</v>
+      </c>
+      <c r="B169" t="s">
         <v>301</v>
       </c>
-      <c r="B169" t="s">
-        <v>302</v>
-      </c>
       <c r="C169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>302</v>
+      </c>
+      <c r="B170" t="s">
         <v>303</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>304</v>
-      </c>
-      <c r="C170" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>305</v>
+      </c>
+      <c r="B171" t="s">
         <v>306</v>
       </c>
-      <c r="B171" t="s">
-        <v>307</v>
-      </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>307</v>
+      </c>
+      <c r="B172" t="s">
         <v>308</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>309</v>
-      </c>
-      <c r="C172" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>310</v>
+      </c>
+      <c r="B173" t="s">
         <v>311</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>312</v>
-      </c>
-      <c r="C173" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174" t="s">
         <v>314</v>
-      </c>
-      <c r="C174" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>315</v>
+      </c>
+      <c r="B175" t="s">
         <v>316</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>317</v>
-      </c>
-      <c r="C175" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>318</v>
+      </c>
+      <c r="B176" t="s">
         <v>319</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>320</v>
-      </c>
-      <c r="C176" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>321</v>
+      </c>
+      <c r="B177" t="s">
         <v>322</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>323</v>
-      </c>
-      <c r="C177" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>325</v>
+      </c>
+      <c r="B179" t="s">
         <v>326</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>327</v>
-      </c>
-      <c r="C179" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>328</v>
+      </c>
+      <c r="B180" t="s">
         <v>329</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>330</v>
-      </c>
-      <c r="C180" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3660,83 +3660,83 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
+        <v>331</v>
+      </c>
+      <c r="C181" t="s">
         <v>332</v>
-      </c>
-      <c r="C181" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>333</v>
+      </c>
+      <c r="B182" t="s">
         <v>334</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>335</v>
-      </c>
-      <c r="C182" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>336</v>
+      </c>
+      <c r="C183" t="s">
         <v>337</v>
-      </c>
-      <c r="C183" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>338</v>
+      </c>
+      <c r="C184" t="s">
         <v>339</v>
-      </c>
-      <c r="C184" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>340</v>
+      </c>
+      <c r="C185" t="s">
         <v>341</v>
-      </c>
-      <c r="C185" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>342</v>
+      </c>
+      <c r="C186" t="s">
         <v>343</v>
-      </c>
-      <c r="C186" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>344</v>
+      </c>
+      <c r="B187" t="s">
         <v>345</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>346</v>
-      </c>
-      <c r="C187" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>347</v>
+      </c>
+      <c r="C188" t="s">
         <v>348</v>
-      </c>
-      <c r="C188" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" t="s">
         <v>350</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>351</v>
-      </c>
-      <c r="C189" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D673F55F-83D0-4F71-8E34-ABE7E111AC05}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1AC7AF-9E85-4EE5-A099-C09DFDFF8556}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1012">
   <si>
     <t>わたし</t>
   </si>
@@ -1526,6 +1526,1665 @@
   <si>
     <t>**日語拼音</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*地點</t>
+  </si>
+  <si>
+    <t>店</t>
+  </si>
+  <si>
+    <t>みせ</t>
+  </si>
+  <si>
+    <t>車站</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>みち</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>建築物</t>
+  </si>
+  <si>
+    <t>建物</t>
+  </si>
+  <si>
+    <t>たてもの</t>
+  </si>
+  <si>
+    <t>餐廳</t>
+  </si>
+  <si>
+    <t>レストラン</t>
+  </si>
+  <si>
+    <t>れすとらん</t>
+  </si>
+  <si>
+    <t>銀行</t>
+  </si>
+  <si>
+    <t>ぎんこう</t>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>學校</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>がっこう</t>
+  </si>
+  <si>
+    <t>地鐵</t>
+  </si>
+  <si>
+    <t>地下鉄</t>
+  </si>
+  <si>
+    <t>ちかてつ</t>
+  </si>
+  <si>
+    <t>公車站</t>
+  </si>
+  <si>
+    <t>バス停</t>
+  </si>
+  <si>
+    <t>ばすてい</t>
+  </si>
+  <si>
+    <t>咖啡廳、茶館</t>
+  </si>
+  <si>
+    <t>喫茶店</t>
+  </si>
+  <si>
+    <t>きっさてん</t>
+  </si>
+  <si>
+    <t>郵局</t>
+  </si>
+  <si>
+    <t>郵便局</t>
+  </si>
+  <si>
+    <t>ゆうびんきょく</t>
+  </si>
+  <si>
+    <t>圖書館</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <t>としょかん</t>
+  </si>
+  <si>
+    <t>電影院</t>
+  </si>
+  <si>
+    <t>映画館</t>
+  </si>
+  <si>
+    <t>えいがかん</t>
+  </si>
+  <si>
+    <t>十字路口</t>
+  </si>
+  <si>
+    <t>交差点</t>
+  </si>
+  <si>
+    <t>こうさてん</t>
+  </si>
+  <si>
+    <t>入口</t>
+  </si>
+  <si>
+    <t>入り口</t>
+  </si>
+  <si>
+    <t>いりぐち</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>でぐち</t>
+  </si>
+  <si>
+    <t>公寓</t>
+  </si>
+  <si>
+    <t>アパート</t>
+  </si>
+  <si>
+    <t>あぱーと</t>
+  </si>
+  <si>
+    <t>百貨公司</t>
+  </si>
+  <si>
+    <t>デパート</t>
+  </si>
+  <si>
+    <t>でばーと</t>
+  </si>
+  <si>
+    <t>電梯(elevator)</t>
+  </si>
+  <si>
+    <t>えれべーたー</t>
+  </si>
+  <si>
+    <t>旅館、飯店</t>
+  </si>
+  <si>
+    <t>ホテル</t>
+  </si>
+  <si>
+    <t>ほてる</t>
+  </si>
+  <si>
+    <t>廁所</t>
+  </si>
+  <si>
+    <t>といれ</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>ばしょ</t>
+  </si>
+  <si>
+    <t>地點、地方</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>ところ</t>
+  </si>
+  <si>
+    <t>*食物</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>食べ物</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>飯</t>
+  </si>
+  <si>
+    <t>ご飯</t>
+  </si>
+  <si>
+    <t>ごはん</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>果物</t>
+  </si>
+  <si>
+    <t>くだもの</t>
+  </si>
+  <si>
+    <t>點心</t>
+  </si>
+  <si>
+    <t>お菓子</t>
+  </si>
+  <si>
+    <t>おかし</t>
+  </si>
+  <si>
+    <t>咖哩</t>
+  </si>
+  <si>
+    <t>カレー</t>
+  </si>
+  <si>
+    <t>かれー</t>
+  </si>
+  <si>
+    <t>麵包</t>
+  </si>
+  <si>
+    <t>パン</t>
+  </si>
+  <si>
+    <t>ぱん</t>
+  </si>
+  <si>
+    <t>料理</t>
+  </si>
+  <si>
+    <t>りょうり</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>さかな</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>にく</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>ぎゅうにく</t>
+  </si>
+  <si>
+    <t>豬肉</t>
+  </si>
+  <si>
+    <t>豚肉</t>
+  </si>
+  <si>
+    <t>ぶたにく</t>
+  </si>
+  <si>
+    <t>鶏肉</t>
+  </si>
+  <si>
+    <t>とりにく</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>蛋</t>
+  </si>
+  <si>
+    <t>玉子、卵、たまご</t>
+  </si>
+  <si>
+    <t>たまご</t>
+  </si>
+  <si>
+    <t>醬油</t>
+  </si>
+  <si>
+    <t>醤油</t>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+  </si>
+  <si>
+    <t>飲料</t>
+  </si>
+  <si>
+    <t>飲み物</t>
+  </si>
+  <si>
+    <t>のみもの</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>お茶</t>
+  </si>
+  <si>
+    <t>おちゃ</t>
+  </si>
+  <si>
+    <t>紅茶</t>
+  </si>
+  <si>
+    <t>こうちゃ</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>牛乳</t>
+  </si>
+  <si>
+    <t>ぎゅうにゅう</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>お酒</t>
+  </si>
+  <si>
+    <t>おさけ</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>ビール</t>
+  </si>
+  <si>
+    <t>びーる</t>
+  </si>
+  <si>
+    <t>こーひー</t>
+  </si>
+  <si>
+    <t>果汁</t>
+  </si>
+  <si>
+    <t>ジュース</t>
+  </si>
+  <si>
+    <t>じゅーす</t>
+  </si>
+  <si>
+    <t>*物品</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>ふく</t>
+  </si>
+  <si>
+    <t>西服</t>
+  </si>
+  <si>
+    <t>洋服</t>
+  </si>
+  <si>
+    <t>ようふく</t>
+  </si>
+  <si>
+    <t>大衣、外衣</t>
+  </si>
+  <si>
+    <t>コート</t>
+  </si>
+  <si>
+    <t>こーと</t>
+  </si>
+  <si>
+    <t>襯衫(shirt)</t>
+  </si>
+  <si>
+    <t>シャツ</t>
+  </si>
+  <si>
+    <t>しゃつ</t>
+  </si>
+  <si>
+    <t>T裇 (T shirt)</t>
+  </si>
+  <si>
+    <t>Tシャツ</t>
+  </si>
+  <si>
+    <t>Tしゃつ</t>
+  </si>
+  <si>
+    <t>毛衣(sweater)</t>
+  </si>
+  <si>
+    <t>セーター</t>
+  </si>
+  <si>
+    <t>せーたー</t>
+  </si>
+  <si>
+    <t>口袋(pocket)</t>
+  </si>
+  <si>
+    <t>ポケット</t>
+  </si>
+  <si>
+    <t>ぽけっと</t>
+  </si>
+  <si>
+    <t>鈕扣</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>ぼたん</t>
+  </si>
+  <si>
+    <t>長褲</t>
+  </si>
+  <si>
+    <t>ズボン</t>
+  </si>
+  <si>
+    <t>ずぼん</t>
+  </si>
+  <si>
+    <t>短褲</t>
+  </si>
+  <si>
+    <t>半ズボン</t>
+  </si>
+  <si>
+    <t>はんズボン</t>
+  </si>
+  <si>
+    <t>裙子(skirt)</t>
+  </si>
+  <si>
+    <t>スカート</t>
+  </si>
+  <si>
+    <t>すかーと</t>
+  </si>
+  <si>
+    <t>襪子</t>
+  </si>
+  <si>
+    <t>靴下</t>
+  </si>
+  <si>
+    <t>くつした</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>地圖</t>
+  </si>
+  <si>
+    <t>地図</t>
+  </si>
+  <si>
+    <t>ちず</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>手紙</t>
+  </si>
+  <si>
+    <t>てがみ</t>
+  </si>
+  <si>
+    <t>郵票</t>
+  </si>
+  <si>
+    <t>切手</t>
+  </si>
+  <si>
+    <t>きって</t>
+  </si>
+  <si>
+    <t>書架、書櫃</t>
+  </si>
+  <si>
+    <t>本棚</t>
+  </si>
+  <si>
+    <t>ほんだな</t>
+  </si>
+  <si>
+    <t>尺</t>
+  </si>
+  <si>
+    <t>定規</t>
+  </si>
+  <si>
+    <t>じょうぎ</t>
+  </si>
+  <si>
+    <t>鋼筆</t>
+  </si>
+  <si>
+    <t>万年筆</t>
+  </si>
+  <si>
+    <t>まんねんひつ</t>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+  </si>
+  <si>
+    <t>消しゴム</t>
+  </si>
+  <si>
+    <t>けしゴム</t>
+  </si>
+  <si>
+    <t>筆</t>
+  </si>
+  <si>
+    <t>ペン</t>
+  </si>
+  <si>
+    <t>ぺん</t>
+  </si>
+  <si>
+    <t>のーと</t>
+  </si>
+  <si>
+    <t>ぼーるぺん</t>
+  </si>
+  <si>
+    <t>しゃーぷぺんしる</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+  </si>
+  <si>
+    <t>れいぞうこ</t>
+  </si>
+  <si>
+    <t>洗衣機</t>
+  </si>
+  <si>
+    <t>洗濯機</t>
+  </si>
+  <si>
+    <t>せんたくき</t>
+  </si>
+  <si>
+    <t>てれび</t>
+  </si>
+  <si>
+    <t>影片</t>
+  </si>
+  <si>
+    <t>ビデオ</t>
+  </si>
+  <si>
+    <t>びでお</t>
+  </si>
+  <si>
+    <t>相機</t>
+  </si>
+  <si>
+    <t>かめら</t>
+  </si>
+  <si>
+    <t>パソコン</t>
+  </si>
+  <si>
+    <t>ぱそこん</t>
+  </si>
+  <si>
+    <t>冷氣</t>
+  </si>
+  <si>
+    <t>エアコン</t>
+  </si>
+  <si>
+    <t>えあこん</t>
+  </si>
+  <si>
+    <t>*方位</t>
+  </si>
+  <si>
+    <t>上面</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>うえ</t>
+  </si>
+  <si>
+    <t>下面</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>左邊</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>ひだり</t>
+  </si>
+  <si>
+    <t>右邊</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>みぎ</t>
+  </si>
+  <si>
+    <t>中間</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>なか</t>
+  </si>
+  <si>
+    <t>前面</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>まえ</t>
+  </si>
+  <si>
+    <t>後面</t>
+  </si>
+  <si>
+    <t>後ろ</t>
+  </si>
+  <si>
+    <t>うしろ</t>
+  </si>
+  <si>
+    <t>東方</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>ひがし</t>
+  </si>
+  <si>
+    <t>西方</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>にし</t>
+  </si>
+  <si>
+    <t>南方</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>みなみ</t>
+  </si>
+  <si>
+    <t>北方</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>裡面</t>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>外面</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>そと</t>
+  </si>
+  <si>
+    <t>附近</t>
+  </si>
+  <si>
+    <t>辺</t>
+  </si>
+  <si>
+    <t>へん</t>
+  </si>
+  <si>
+    <t>隔壁</t>
+  </si>
+  <si>
+    <t>隣</t>
+  </si>
+  <si>
+    <t>となり</t>
+  </si>
+  <si>
+    <t>隔壁、旁邊</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>よこ</t>
+  </si>
+  <si>
+    <t>*數字</t>
+  </si>
+  <si>
+    <t>いち</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>さん</t>
+  </si>
+  <si>
+    <t>よん</t>
+  </si>
+  <si>
+    <t>ご</t>
+  </si>
+  <si>
+    <t>ろく</t>
+  </si>
+  <si>
+    <t>しち/なな</t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>きゅう</t>
+  </si>
+  <si>
+    <t>じゅう</t>
+  </si>
+  <si>
+    <t>*動詞</t>
+  </si>
+  <si>
+    <t>見面</t>
+  </si>
+  <si>
+    <t>会う</t>
+  </si>
+  <si>
+    <t>あう</t>
+  </si>
+  <si>
+    <t>玩耍</t>
+  </si>
+  <si>
+    <t>遊ぶ</t>
+  </si>
+  <si>
+    <t>あそぶ</t>
+  </si>
+  <si>
+    <t>走路</t>
+  </si>
+  <si>
+    <t>歩く</t>
+  </si>
+  <si>
+    <t>あるく</t>
+  </si>
+  <si>
+    <t>說</t>
+  </si>
+  <si>
+    <t>言う</t>
+  </si>
+  <si>
+    <t>いう</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>行く</t>
+  </si>
+  <si>
+    <t>いく</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <t>要る</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>唱</t>
+  </si>
+  <si>
+    <t>歌う</t>
+  </si>
+  <si>
+    <t>うたう</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>泳ぐ</t>
+  </si>
+  <si>
+    <t>およぐ</t>
+  </si>
+  <si>
+    <t>結束</t>
+  </si>
+  <si>
+    <t>終わる</t>
+  </si>
+  <si>
+    <t>おわる</t>
+  </si>
+  <si>
+    <t>告訴、教導</t>
+  </si>
+  <si>
+    <t>教える</t>
+  </si>
+  <si>
+    <t>おしえる</t>
+  </si>
+  <si>
+    <t>買</t>
+  </si>
+  <si>
+    <t>買う</t>
+  </si>
+  <si>
+    <t>かう</t>
+  </si>
+  <si>
+    <t>寫</t>
+  </si>
+  <si>
+    <t>書く</t>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>花費時間、金錢</t>
+  </si>
+  <si>
+    <t>掛かる</t>
+  </si>
+  <si>
+    <t>かかる</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>帰る</t>
+  </si>
+  <si>
+    <t>かえる</t>
+  </si>
+  <si>
+    <t>請教、聽到</t>
+  </si>
+  <si>
+    <t>聞く</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>答える</t>
+  </si>
+  <si>
+    <t>こたえる</t>
+  </si>
+  <si>
+    <t>困擾、為難</t>
+  </si>
+  <si>
+    <t>困る</t>
+  </si>
+  <si>
+    <t>こまる</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>来る</t>
+  </si>
+  <si>
+    <t>くる</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>死ぬ</t>
+  </si>
+  <si>
+    <t>しぬ</t>
+  </si>
+  <si>
+    <t>居住</t>
+  </si>
+  <si>
+    <t>住む</t>
+  </si>
+  <si>
+    <t>すむ</t>
+  </si>
+  <si>
+    <t>坐下</t>
+  </si>
+  <si>
+    <t>座る</t>
+  </si>
+  <si>
+    <t>すわる</t>
+  </si>
+  <si>
+    <t>站立</t>
+  </si>
+  <si>
+    <t>立つ</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>たべる</t>
+  </si>
+  <si>
+    <t>疲累</t>
+  </si>
+  <si>
+    <t>疲れる</t>
+  </si>
+  <si>
+    <t>つかれる</t>
+  </si>
+  <si>
+    <t>到達</t>
+  </si>
+  <si>
+    <t>着く</t>
+  </si>
+  <si>
+    <t>つく</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>使う</t>
+  </si>
+  <si>
+    <t>つかう</t>
+  </si>
+  <si>
+    <t>做</t>
+  </si>
+  <si>
+    <t>作る</t>
+  </si>
+  <si>
+    <t>つくる</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>止まる</t>
+  </si>
+  <si>
+    <t>とまる</t>
+  </si>
+  <si>
+    <t>飛、突然跳出</t>
+  </si>
+  <si>
+    <t>飛ぶ</t>
+  </si>
+  <si>
+    <t>とぶ</t>
+  </si>
+  <si>
+    <t>哭泣</t>
+  </si>
+  <si>
+    <t>泣く</t>
+  </si>
+  <si>
+    <t>なく</t>
+  </si>
+  <si>
+    <t>睡覺</t>
+  </si>
+  <si>
+    <t>寝る</t>
+  </si>
+  <si>
+    <t>ねる</t>
+  </si>
+  <si>
+    <t>乘坐</t>
+  </si>
+  <si>
+    <t>乗る</t>
+  </si>
+  <si>
+    <t>のる</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>飲む</t>
+  </si>
+  <si>
+    <t>のむ</t>
+  </si>
+  <si>
+    <t>不同、錯誤</t>
+  </si>
+  <si>
+    <t>違う</t>
+  </si>
+  <si>
+    <t>ちがう</t>
+  </si>
+  <si>
+    <t>排列、排隊</t>
+  </si>
+  <si>
+    <t>並ぶ</t>
+  </si>
+  <si>
+    <t>ならぶ</t>
+  </si>
+  <si>
+    <t>進入</t>
+  </si>
+  <si>
+    <t>入る</t>
+  </si>
+  <si>
+    <t>はいる</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>始まる</t>
+  </si>
+  <si>
+    <t>はじまる</t>
+  </si>
+  <si>
+    <t>跑（人）、行駛（車）</t>
+  </si>
+  <si>
+    <t>走る</t>
+  </si>
+  <si>
+    <t>はしる</t>
+  </si>
+  <si>
+    <t>降下</t>
+  </si>
+  <si>
+    <t>降る</t>
+  </si>
+  <si>
+    <t>ふる</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>見る</t>
+  </si>
+  <si>
+    <t>みる</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>待つ</t>
+  </si>
+  <si>
+    <t>まつ</t>
+  </si>
+  <si>
+    <t>閱讀</t>
+  </si>
+  <si>
+    <t>読む</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>*形容詞</t>
+  </si>
+  <si>
+    <t>熱的</t>
+  </si>
+  <si>
+    <t>暑い</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>冷的</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>涼的</t>
+  </si>
+  <si>
+    <t>冷たい</t>
+  </si>
+  <si>
+    <t>つめたい</t>
+  </si>
+  <si>
+    <t>溫暖的</t>
+  </si>
+  <si>
+    <t>暖かい</t>
+  </si>
+  <si>
+    <t>あたたかい</t>
+  </si>
+  <si>
+    <t>涼爽的</t>
+  </si>
+  <si>
+    <t>涼しい</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>厚的</t>
+  </si>
+  <si>
+    <t>厚い</t>
+  </si>
+  <si>
+    <t>薄的、淡的</t>
+  </si>
+  <si>
+    <t>薄い</t>
+  </si>
+  <si>
+    <t>うすい</t>
+  </si>
+  <si>
+    <t>近的</t>
+  </si>
+  <si>
+    <t>近い</t>
+  </si>
+  <si>
+    <t>ちかい</t>
+  </si>
+  <si>
+    <t>遠的</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>弱的</t>
+  </si>
+  <si>
+    <t>弱い</t>
+  </si>
+  <si>
+    <t>よわい</t>
+  </si>
+  <si>
+    <t>強的</t>
+  </si>
+  <si>
+    <t>強い</t>
+  </si>
+  <si>
+    <t>つよい</t>
+  </si>
+  <si>
+    <t>輕的</t>
+  </si>
+  <si>
+    <t>軽い</t>
+  </si>
+  <si>
+    <t>かるい</t>
+  </si>
+  <si>
+    <t>重的</t>
+  </si>
+  <si>
+    <t>重い</t>
+  </si>
+  <si>
+    <t>おもい</t>
+  </si>
+  <si>
+    <t>狹窄</t>
+  </si>
+  <si>
+    <t>狭い</t>
+  </si>
+  <si>
+    <t>せまい</t>
+  </si>
+  <si>
+    <t>寬廣</t>
+  </si>
+  <si>
+    <t>広い</t>
+  </si>
+  <si>
+    <t>ひろい</t>
+  </si>
+  <si>
+    <t>早的</t>
+  </si>
+  <si>
+    <t>早い</t>
+  </si>
+  <si>
+    <t>はやい</t>
+  </si>
+  <si>
+    <t>快的</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>慢、晚、</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>粗的、胖的</t>
+  </si>
+  <si>
+    <t>太い</t>
+  </si>
+  <si>
+    <t>ふとい</t>
+  </si>
+  <si>
+    <t>細的</t>
+  </si>
+  <si>
+    <t>細い</t>
+  </si>
+  <si>
+    <t>ほそい</t>
+  </si>
+  <si>
+    <t>短的</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>長的</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>ながい</t>
+  </si>
+  <si>
+    <t>便宜</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>貴的、高的</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>矮的</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>好的</t>
+  </si>
+  <si>
+    <t>良い</t>
+  </si>
+  <si>
+    <t>いい</t>
+  </si>
+  <si>
+    <t>壞的</t>
+  </si>
+  <si>
+    <t>悪い</t>
+  </si>
+  <si>
+    <t>わるい</t>
+  </si>
+  <si>
+    <t>髒的</t>
+  </si>
+  <si>
+    <t>汚い</t>
+  </si>
+  <si>
+    <t>きたない</t>
+  </si>
+  <si>
+    <t>新的</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>舊的</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>有趣的</t>
+  </si>
+  <si>
+    <t>面白い</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>無聊的</t>
+  </si>
+  <si>
+    <t>つまらない</t>
+  </si>
+  <si>
+    <t>大的</t>
+  </si>
+  <si>
+    <t>大きい</t>
+  </si>
+  <si>
+    <t>おおきい</t>
+  </si>
+  <si>
+    <t>小的</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>ちいさい</t>
+  </si>
+  <si>
+    <t>甜的</t>
+  </si>
+  <si>
+    <t>甘い</t>
+  </si>
+  <si>
+    <t>あまい</t>
+  </si>
+  <si>
+    <t>好吃、好喝</t>
+  </si>
+  <si>
+    <t>美味しい</t>
+  </si>
+  <si>
+    <t>おいしい</t>
+  </si>
+  <si>
+    <t>難吃、難喝</t>
+  </si>
+  <si>
+    <t>まずい</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>簡單</t>
+  </si>
+  <si>
+    <t>易しい</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>困難的</t>
+  </si>
+  <si>
+    <t>難しい</t>
+  </si>
+  <si>
+    <t>むずかしい</t>
+  </si>
+  <si>
+    <t>溫柔</t>
+  </si>
+  <si>
+    <t>優しい</t>
+  </si>
+  <si>
+    <t>嚴格的</t>
+  </si>
+  <si>
+    <t>厳しい</t>
+  </si>
+  <si>
+    <t>きびしい</t>
+  </si>
+  <si>
+    <t>暗暗的</t>
+  </si>
+  <si>
+    <t>暗い</t>
+  </si>
+  <si>
+    <t>くらい</t>
+  </si>
+  <si>
+    <t>明亮的</t>
+  </si>
+  <si>
+    <t>明るい</t>
+  </si>
+  <si>
+    <t>あかるい</t>
+  </si>
+  <si>
+    <t>忙碌</t>
+  </si>
+  <si>
+    <t>忙しい</t>
+  </si>
+  <si>
+    <t>いそがしい</t>
+  </si>
+  <si>
+    <t>可愛</t>
+  </si>
+  <si>
+    <t>可愛い</t>
+  </si>
+  <si>
+    <t>かわいい</t>
+  </si>
+  <si>
+    <t>快樂</t>
+  </si>
+  <si>
+    <t>楽しい</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>吵、囉嗦</t>
+  </si>
+  <si>
+    <t>うるさい</t>
+  </si>
+  <si>
+    <t>漂亮、乾淨</t>
+  </si>
+  <si>
+    <t>綺麗</t>
+  </si>
+  <si>
+    <t>きれい</t>
+  </si>
+  <si>
+    <t>方便</t>
+  </si>
+  <si>
+    <t>便利</t>
+  </si>
+  <si>
+    <t>べんり</t>
+  </si>
+  <si>
+    <t>有名</t>
+  </si>
+  <si>
+    <t>ゆうめい</t>
+  </si>
+  <si>
+    <t>安靜</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>熱鬧、繁華</t>
+  </si>
+  <si>
+    <t>賑やか</t>
+  </si>
+  <si>
+    <t>にぎやか</t>
   </si>
 </sst>
 </file>
@@ -1883,17 +3542,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1912,7 +3571,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +3593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +3604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +3615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +3637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1998,7 +3657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2009,7 +3668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,7 +3679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +3690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2042,7 +3701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +3712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2064,7 +3723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2075,7 +3734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2086,7 +3745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2097,7 +3756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2106,7 +3765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
@@ -2117,7 +3776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
@@ -2128,7 +3787,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -2139,7 +3798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>167</v>
       </c>
@@ -2148,7 +3807,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
@@ -2157,7 +3816,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>170</v>
       </c>
@@ -2168,7 +3827,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>173</v>
       </c>
@@ -2179,7 +3838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
@@ -2188,7 +3847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>179</v>
       </c>
@@ -2196,7 +3855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>181</v>
       </c>
@@ -2204,7 +3863,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -2215,7 +3874,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>186</v>
       </c>
@@ -2226,7 +3885,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>189</v>
       </c>
@@ -2237,7 +3896,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -2246,7 +3905,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>194</v>
       </c>
@@ -2255,7 +3914,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>196</v>
       </c>
@@ -2264,7 +3923,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>197</v>
       </c>
@@ -2275,7 +3934,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>200</v>
       </c>
@@ -2286,7 +3945,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>202</v>
       </c>
@@ -2297,7 +3956,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
@@ -2308,7 +3967,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>206</v>
       </c>
@@ -2319,7 +3978,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>208</v>
       </c>
@@ -2330,7 +3989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
@@ -2339,7 +3998,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>213</v>
       </c>
@@ -2350,7 +4009,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>216</v>
       </c>
@@ -2359,7 +4018,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>218</v>
       </c>
@@ -2370,7 +4029,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>220</v>
       </c>
@@ -2381,7 +4040,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>222</v>
       </c>
@@ -2392,7 +4051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>231</v>
       </c>
@@ -2403,7 +4062,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -2411,7 +4070,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>226</v>
       </c>
@@ -2419,7 +4078,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>228</v>
       </c>
@@ -3737,6 +5396,2340 @@
       </c>
       <c r="C189" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>460</v>
+      </c>
+      <c r="B191" t="s">
+        <v>460</v>
+      </c>
+      <c r="C191" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>462</v>
+      </c>
+      <c r="B192" t="s">
+        <v>463</v>
+      </c>
+      <c r="C192" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>465</v>
+      </c>
+      <c r="B193" t="s">
+        <v>466</v>
+      </c>
+      <c r="C193" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>468</v>
+      </c>
+      <c r="B194" t="s">
+        <v>468</v>
+      </c>
+      <c r="C194" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>470</v>
+      </c>
+      <c r="B196" t="s">
+        <v>471</v>
+      </c>
+      <c r="C196" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>473</v>
+      </c>
+      <c r="B197" t="s">
+        <v>474</v>
+      </c>
+      <c r="C197" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" t="s">
+        <v>402</v>
+      </c>
+      <c r="C198" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>476</v>
+      </c>
+      <c r="B199" t="s">
+        <v>476</v>
+      </c>
+      <c r="C199" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>478</v>
+      </c>
+      <c r="B200" t="s">
+        <v>478</v>
+      </c>
+      <c r="C200" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>163</v>
+      </c>
+      <c r="B201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C201" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>480</v>
+      </c>
+      <c r="B202" t="s">
+        <v>481</v>
+      </c>
+      <c r="C202" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>369</v>
+      </c>
+      <c r="B203" t="s">
+        <v>369</v>
+      </c>
+      <c r="C203" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>483</v>
+      </c>
+      <c r="B204" t="s">
+        <v>484</v>
+      </c>
+      <c r="C204" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>486</v>
+      </c>
+      <c r="B205" t="s">
+        <v>487</v>
+      </c>
+      <c r="C205" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>489</v>
+      </c>
+      <c r="B206" t="s">
+        <v>490</v>
+      </c>
+      <c r="C206" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>492</v>
+      </c>
+      <c r="B207" t="s">
+        <v>493</v>
+      </c>
+      <c r="C207" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>495</v>
+      </c>
+      <c r="B208" t="s">
+        <v>496</v>
+      </c>
+      <c r="C208" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>498</v>
+      </c>
+      <c r="B209" t="s">
+        <v>499</v>
+      </c>
+      <c r="C209" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>501</v>
+      </c>
+      <c r="B210" t="s">
+        <v>502</v>
+      </c>
+      <c r="C210" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>504</v>
+      </c>
+      <c r="B211" t="s">
+        <v>505</v>
+      </c>
+      <c r="C211" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" t="s">
+        <v>507</v>
+      </c>
+      <c r="C212" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>509</v>
+      </c>
+      <c r="B213" t="s">
+        <v>510</v>
+      </c>
+      <c r="C213" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>512</v>
+      </c>
+      <c r="B214" t="s">
+        <v>513</v>
+      </c>
+      <c r="C214" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>515</v>
+      </c>
+      <c r="B215" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>517</v>
+      </c>
+      <c r="B216" t="s">
+        <v>518</v>
+      </c>
+      <c r="C216" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>520</v>
+      </c>
+      <c r="B217" t="s">
+        <v>387</v>
+      </c>
+      <c r="C217" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>522</v>
+      </c>
+      <c r="B218" t="s">
+        <v>522</v>
+      </c>
+      <c r="C218" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>524</v>
+      </c>
+      <c r="B219" t="s">
+        <v>525</v>
+      </c>
+      <c r="C219" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>528</v>
+      </c>
+      <c r="B221" t="s">
+        <v>529</v>
+      </c>
+      <c r="C221" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>531</v>
+      </c>
+      <c r="B222" t="s">
+        <v>532</v>
+      </c>
+      <c r="C222" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>534</v>
+      </c>
+      <c r="B223" t="s">
+        <v>535</v>
+      </c>
+      <c r="C223" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>537</v>
+      </c>
+      <c r="B224" t="s">
+        <v>538</v>
+      </c>
+      <c r="C224" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>540</v>
+      </c>
+      <c r="B225" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>543</v>
+      </c>
+      <c r="B226" t="s">
+        <v>544</v>
+      </c>
+      <c r="C226" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>546</v>
+      </c>
+      <c r="B227" t="s">
+        <v>546</v>
+      </c>
+      <c r="C227" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>548</v>
+      </c>
+      <c r="B228" t="s">
+        <v>548</v>
+      </c>
+      <c r="C228" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>550</v>
+      </c>
+      <c r="B229" t="s">
+        <v>550</v>
+      </c>
+      <c r="C229" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>552</v>
+      </c>
+      <c r="B230" t="s">
+        <v>552</v>
+      </c>
+      <c r="C230" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>554</v>
+      </c>
+      <c r="B231" t="s">
+        <v>555</v>
+      </c>
+      <c r="C231" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>557</v>
+      </c>
+      <c r="B232" t="s">
+        <v>557</v>
+      </c>
+      <c r="C232" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>559</v>
+      </c>
+      <c r="B233" t="s">
+        <v>560</v>
+      </c>
+      <c r="C233" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>562</v>
+      </c>
+      <c r="B234" t="s">
+        <v>563</v>
+      </c>
+      <c r="C234" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>565</v>
+      </c>
+      <c r="B235" t="s">
+        <v>566</v>
+      </c>
+      <c r="C235" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>568</v>
+      </c>
+      <c r="B236" t="s">
+        <v>569</v>
+      </c>
+      <c r="C236" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>571</v>
+      </c>
+      <c r="B237" t="s">
+        <v>571</v>
+      </c>
+      <c r="C237" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>573</v>
+      </c>
+      <c r="B238" t="s">
+        <v>574</v>
+      </c>
+      <c r="C238" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>576</v>
+      </c>
+      <c r="B239" t="s">
+        <v>576</v>
+      </c>
+      <c r="C239" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>578</v>
+      </c>
+      <c r="B240" t="s">
+        <v>579</v>
+      </c>
+      <c r="C240" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>581</v>
+      </c>
+      <c r="B241" t="s">
+        <v>582</v>
+      </c>
+      <c r="C241" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>584</v>
+      </c>
+      <c r="B242" t="s">
+        <v>585</v>
+      </c>
+      <c r="C242" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>121</v>
+      </c>
+      <c r="B243" t="s">
+        <v>120</v>
+      </c>
+      <c r="C243" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>588</v>
+      </c>
+      <c r="B244" t="s">
+        <v>589</v>
+      </c>
+      <c r="C244" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>592</v>
+      </c>
+      <c r="B246" t="s">
+        <v>593</v>
+      </c>
+      <c r="C246" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>595</v>
+      </c>
+      <c r="B247" t="s">
+        <v>596</v>
+      </c>
+      <c r="C247" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>598</v>
+      </c>
+      <c r="B248" t="s">
+        <v>599</v>
+      </c>
+      <c r="C248" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>601</v>
+      </c>
+      <c r="B249" t="s">
+        <v>602</v>
+      </c>
+      <c r="C249" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>604</v>
+      </c>
+      <c r="B250" t="s">
+        <v>605</v>
+      </c>
+      <c r="C250" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>607</v>
+      </c>
+      <c r="B251" t="s">
+        <v>608</v>
+      </c>
+      <c r="C251" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>610</v>
+      </c>
+      <c r="B252" t="s">
+        <v>611</v>
+      </c>
+      <c r="C252" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>613</v>
+      </c>
+      <c r="B253" t="s">
+        <v>614</v>
+      </c>
+      <c r="C253" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>616</v>
+      </c>
+      <c r="B254" t="s">
+        <v>617</v>
+      </c>
+      <c r="C254" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>619</v>
+      </c>
+      <c r="B255" t="s">
+        <v>620</v>
+      </c>
+      <c r="C255" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>622</v>
+      </c>
+      <c r="B256" t="s">
+        <v>623</v>
+      </c>
+      <c r="C256" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>410</v>
+      </c>
+      <c r="B257" t="s">
+        <v>409</v>
+      </c>
+      <c r="C257" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>625</v>
+      </c>
+      <c r="B258" t="s">
+        <v>626</v>
+      </c>
+      <c r="C258" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>628</v>
+      </c>
+      <c r="B259" t="s">
+        <v>59</v>
+      </c>
+      <c r="C259" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>629</v>
+      </c>
+      <c r="B260" t="s">
+        <v>629</v>
+      </c>
+      <c r="C260" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>631</v>
+      </c>
+      <c r="B261" t="s">
+        <v>632</v>
+      </c>
+      <c r="C261" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>634</v>
+      </c>
+      <c r="B262" t="s">
+        <v>62</v>
+      </c>
+      <c r="C262" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>635</v>
+      </c>
+      <c r="B263" t="s">
+        <v>636</v>
+      </c>
+      <c r="C263" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>638</v>
+      </c>
+      <c r="B264" t="s">
+        <v>639</v>
+      </c>
+      <c r="C264" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>641</v>
+      </c>
+      <c r="B265" t="s">
+        <v>642</v>
+      </c>
+      <c r="C265" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>83</v>
+      </c>
+      <c r="B266" t="s">
+        <v>83</v>
+      </c>
+      <c r="C266" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>644</v>
+      </c>
+      <c r="B267" t="s">
+        <v>645</v>
+      </c>
+      <c r="C267" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>647</v>
+      </c>
+      <c r="B268" t="s">
+        <v>648</v>
+      </c>
+      <c r="C268" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>650</v>
+      </c>
+      <c r="B269" t="s">
+        <v>651</v>
+      </c>
+      <c r="C269" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>653</v>
+      </c>
+      <c r="B270" t="s">
+        <v>654</v>
+      </c>
+      <c r="C270" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>71</v>
+      </c>
+      <c r="B271" t="s">
+        <v>70</v>
+      </c>
+      <c r="C271" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>85</v>
+      </c>
+      <c r="B272" t="s">
+        <v>84</v>
+      </c>
+      <c r="C272" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>87</v>
+      </c>
+      <c r="B273" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>407</v>
+      </c>
+      <c r="B274" t="s">
+        <v>407</v>
+      </c>
+      <c r="C274" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>659</v>
+      </c>
+      <c r="B275" t="s">
+        <v>660</v>
+      </c>
+      <c r="C275" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>662</v>
+      </c>
+      <c r="B276" t="s">
+        <v>663</v>
+      </c>
+      <c r="C276" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>103</v>
+      </c>
+      <c r="B277" t="s">
+        <v>102</v>
+      </c>
+      <c r="C277" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>666</v>
+      </c>
+      <c r="B278" t="s">
+        <v>667</v>
+      </c>
+      <c r="C278" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>669</v>
+      </c>
+      <c r="B279" t="s">
+        <v>106</v>
+      </c>
+      <c r="C279" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>109</v>
+      </c>
+      <c r="B280" t="s">
+        <v>671</v>
+      </c>
+      <c r="C280" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>673</v>
+      </c>
+      <c r="B281" t="s">
+        <v>674</v>
+      </c>
+      <c r="C281" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>677</v>
+      </c>
+      <c r="B283" t="s">
+        <v>678</v>
+      </c>
+      <c r="C283" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>680</v>
+      </c>
+      <c r="B284" t="s">
+        <v>681</v>
+      </c>
+      <c r="C284" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>683</v>
+      </c>
+      <c r="B285" t="s">
+        <v>684</v>
+      </c>
+      <c r="C285" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>686</v>
+      </c>
+      <c r="B286" t="s">
+        <v>687</v>
+      </c>
+      <c r="C286" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>689</v>
+      </c>
+      <c r="B287" t="s">
+        <v>690</v>
+      </c>
+      <c r="C287" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>692</v>
+      </c>
+      <c r="B288" t="s">
+        <v>693</v>
+      </c>
+      <c r="C288" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>695</v>
+      </c>
+      <c r="B289" t="s">
+        <v>696</v>
+      </c>
+      <c r="C289" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>698</v>
+      </c>
+      <c r="B290" t="s">
+        <v>699</v>
+      </c>
+      <c r="C290" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>701</v>
+      </c>
+      <c r="B291" t="s">
+        <v>702</v>
+      </c>
+      <c r="C291" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>704</v>
+      </c>
+      <c r="B292" t="s">
+        <v>705</v>
+      </c>
+      <c r="C292" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>707</v>
+      </c>
+      <c r="B293" t="s">
+        <v>708</v>
+      </c>
+      <c r="C293" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>710</v>
+      </c>
+      <c r="B294" t="s">
+        <v>711</v>
+      </c>
+      <c r="C294" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>712</v>
+      </c>
+      <c r="B295" t="s">
+        <v>713</v>
+      </c>
+      <c r="C295" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>715</v>
+      </c>
+      <c r="B296" t="s">
+        <v>716</v>
+      </c>
+      <c r="C296" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>718</v>
+      </c>
+      <c r="B297" t="s">
+        <v>719</v>
+      </c>
+      <c r="C297" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>721</v>
+      </c>
+      <c r="B298" t="s">
+        <v>722</v>
+      </c>
+      <c r="C298" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>6</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>7</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>8</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>9</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>10</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>736</v>
+      </c>
+      <c r="B311" t="s">
+        <v>737</v>
+      </c>
+      <c r="C311" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>739</v>
+      </c>
+      <c r="B312" t="s">
+        <v>740</v>
+      </c>
+      <c r="C312" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>742</v>
+      </c>
+      <c r="B313" t="s">
+        <v>743</v>
+      </c>
+      <c r="C313" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>745</v>
+      </c>
+      <c r="B314" t="s">
+        <v>746</v>
+      </c>
+      <c r="C314" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>748</v>
+      </c>
+      <c r="B315" t="s">
+        <v>749</v>
+      </c>
+      <c r="C315" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>751</v>
+      </c>
+      <c r="B316" t="s">
+        <v>752</v>
+      </c>
+      <c r="C316" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>754</v>
+      </c>
+      <c r="B317" t="s">
+        <v>755</v>
+      </c>
+      <c r="C317" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>757</v>
+      </c>
+      <c r="B318" t="s">
+        <v>758</v>
+      </c>
+      <c r="C318" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>760</v>
+      </c>
+      <c r="B319" t="s">
+        <v>761</v>
+      </c>
+      <c r="C319" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>763</v>
+      </c>
+      <c r="B320" t="s">
+        <v>764</v>
+      </c>
+      <c r="C320" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>766</v>
+      </c>
+      <c r="B321" t="s">
+        <v>767</v>
+      </c>
+      <c r="C321" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>769</v>
+      </c>
+      <c r="B322" t="s">
+        <v>770</v>
+      </c>
+      <c r="C322" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>772</v>
+      </c>
+      <c r="B323" t="s">
+        <v>773</v>
+      </c>
+      <c r="C323" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>775</v>
+      </c>
+      <c r="B324" t="s">
+        <v>776</v>
+      </c>
+      <c r="C324" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>778</v>
+      </c>
+      <c r="B325" t="s">
+        <v>779</v>
+      </c>
+      <c r="C325" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>304</v>
+      </c>
+      <c r="B326" t="s">
+        <v>781</v>
+      </c>
+      <c r="C326" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>783</v>
+      </c>
+      <c r="B327" t="s">
+        <v>784</v>
+      </c>
+      <c r="C327" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>786</v>
+      </c>
+      <c r="B328" t="s">
+        <v>787</v>
+      </c>
+      <c r="C328" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>789</v>
+      </c>
+      <c r="B329" t="s">
+        <v>790</v>
+      </c>
+      <c r="C329" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>792</v>
+      </c>
+      <c r="B330" t="s">
+        <v>793</v>
+      </c>
+      <c r="C330" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>795</v>
+      </c>
+      <c r="B331" t="s">
+        <v>796</v>
+      </c>
+      <c r="C331" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>798</v>
+      </c>
+      <c r="B332" t="s">
+        <v>799</v>
+      </c>
+      <c r="C332" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>801</v>
+      </c>
+      <c r="B333" t="s">
+        <v>802</v>
+      </c>
+      <c r="C333" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>804</v>
+      </c>
+      <c r="B334" t="s">
+        <v>805</v>
+      </c>
+      <c r="C334" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>807</v>
+      </c>
+      <c r="B335" t="s">
+        <v>808</v>
+      </c>
+      <c r="C335" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>810</v>
+      </c>
+      <c r="B336" t="s">
+        <v>811</v>
+      </c>
+      <c r="C336" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>813</v>
+      </c>
+      <c r="B337" t="s">
+        <v>814</v>
+      </c>
+      <c r="C337" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>816</v>
+      </c>
+      <c r="B338" t="s">
+        <v>817</v>
+      </c>
+      <c r="C338" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>819</v>
+      </c>
+      <c r="B339" t="s">
+        <v>820</v>
+      </c>
+      <c r="C339" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>822</v>
+      </c>
+      <c r="B340" t="s">
+        <v>823</v>
+      </c>
+      <c r="C340" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>825</v>
+      </c>
+      <c r="B341" t="s">
+        <v>826</v>
+      </c>
+      <c r="C341" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>828</v>
+      </c>
+      <c r="B342" t="s">
+        <v>829</v>
+      </c>
+      <c r="C342" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>831</v>
+      </c>
+      <c r="B343" t="s">
+        <v>832</v>
+      </c>
+      <c r="C343" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>834</v>
+      </c>
+      <c r="B344" t="s">
+        <v>835</v>
+      </c>
+      <c r="C344" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>837</v>
+      </c>
+      <c r="B345" t="s">
+        <v>838</v>
+      </c>
+      <c r="C345" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>840</v>
+      </c>
+      <c r="B346" t="s">
+        <v>841</v>
+      </c>
+      <c r="C346" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>843</v>
+      </c>
+      <c r="B347" t="s">
+        <v>844</v>
+      </c>
+      <c r="C347" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>846</v>
+      </c>
+      <c r="B348" t="s">
+        <v>847</v>
+      </c>
+      <c r="C348" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>849</v>
+      </c>
+      <c r="B349" t="s">
+        <v>850</v>
+      </c>
+      <c r="C349" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>852</v>
+      </c>
+      <c r="B350" t="s">
+        <v>853</v>
+      </c>
+      <c r="C350" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>855</v>
+      </c>
+      <c r="B351" t="s">
+        <v>856</v>
+      </c>
+      <c r="C351" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>858</v>
+      </c>
+      <c r="B352" t="s">
+        <v>859</v>
+      </c>
+      <c r="C352" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>862</v>
+      </c>
+      <c r="B354" t="s">
+        <v>863</v>
+      </c>
+      <c r="C354" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>865</v>
+      </c>
+      <c r="B355" t="s">
+        <v>866</v>
+      </c>
+      <c r="C355" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>868</v>
+      </c>
+      <c r="B356" t="s">
+        <v>869</v>
+      </c>
+      <c r="C356" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>871</v>
+      </c>
+      <c r="B357" t="s">
+        <v>872</v>
+      </c>
+      <c r="C357" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>874</v>
+      </c>
+      <c r="B358" t="s">
+        <v>875</v>
+      </c>
+      <c r="C358" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>877</v>
+      </c>
+      <c r="B359" t="s">
+        <v>878</v>
+      </c>
+      <c r="C359" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>879</v>
+      </c>
+      <c r="B360" t="s">
+        <v>880</v>
+      </c>
+      <c r="C360" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>882</v>
+      </c>
+      <c r="B361" t="s">
+        <v>883</v>
+      </c>
+      <c r="C361" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>885</v>
+      </c>
+      <c r="B362" t="s">
+        <v>886</v>
+      </c>
+      <c r="C362" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>888</v>
+      </c>
+      <c r="B363" t="s">
+        <v>889</v>
+      </c>
+      <c r="C363" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>891</v>
+      </c>
+      <c r="B364" t="s">
+        <v>892</v>
+      </c>
+      <c r="C364" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>894</v>
+      </c>
+      <c r="B365" t="s">
+        <v>895</v>
+      </c>
+      <c r="C365" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>897</v>
+      </c>
+      <c r="B366" t="s">
+        <v>898</v>
+      </c>
+      <c r="C366" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>900</v>
+      </c>
+      <c r="B367" t="s">
+        <v>901</v>
+      </c>
+      <c r="C367" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>903</v>
+      </c>
+      <c r="B368" t="s">
+        <v>904</v>
+      </c>
+      <c r="C368" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>906</v>
+      </c>
+      <c r="B369" t="s">
+        <v>907</v>
+      </c>
+      <c r="C369" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>909</v>
+      </c>
+      <c r="B370" t="s">
+        <v>910</v>
+      </c>
+      <c r="C370" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>911</v>
+      </c>
+      <c r="B371" t="s">
+        <v>912</v>
+      </c>
+      <c r="C371" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>914</v>
+      </c>
+      <c r="B372" t="s">
+        <v>915</v>
+      </c>
+      <c r="C372" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>917</v>
+      </c>
+      <c r="B373" t="s">
+        <v>918</v>
+      </c>
+      <c r="C373" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>920</v>
+      </c>
+      <c r="B374" t="s">
+        <v>921</v>
+      </c>
+      <c r="C374" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>923</v>
+      </c>
+      <c r="B375" t="s">
+        <v>924</v>
+      </c>
+      <c r="C375" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>926</v>
+      </c>
+      <c r="B376" t="s">
+        <v>927</v>
+      </c>
+      <c r="C376" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>929</v>
+      </c>
+      <c r="B377" t="s">
+        <v>930</v>
+      </c>
+      <c r="C377" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>932</v>
+      </c>
+      <c r="B378" t="s">
+        <v>933</v>
+      </c>
+      <c r="C378" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>935</v>
+      </c>
+      <c r="B379" t="s">
+        <v>936</v>
+      </c>
+      <c r="C379" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>938</v>
+      </c>
+      <c r="B380" t="s">
+        <v>939</v>
+      </c>
+      <c r="C380" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>941</v>
+      </c>
+      <c r="B381" t="s">
+        <v>942</v>
+      </c>
+      <c r="C381" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>944</v>
+      </c>
+      <c r="B382" t="s">
+        <v>945</v>
+      </c>
+      <c r="C382" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>947</v>
+      </c>
+      <c r="B383" t="s">
+        <v>948</v>
+      </c>
+      <c r="C383" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>950</v>
+      </c>
+      <c r="B384" t="s">
+        <v>951</v>
+      </c>
+      <c r="C384" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>953</v>
+      </c>
+      <c r="B385" t="s">
+        <v>954</v>
+      </c>
+      <c r="C385" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>955</v>
+      </c>
+      <c r="B386" t="s">
+        <v>956</v>
+      </c>
+      <c r="C386" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>958</v>
+      </c>
+      <c r="B387" t="s">
+        <v>959</v>
+      </c>
+      <c r="C387" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>961</v>
+      </c>
+      <c r="B388" t="s">
+        <v>962</v>
+      </c>
+      <c r="C388" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>964</v>
+      </c>
+      <c r="B389" t="s">
+        <v>965</v>
+      </c>
+      <c r="C389" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>967</v>
+      </c>
+      <c r="B390" t="s">
+        <v>968</v>
+      </c>
+      <c r="C390" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>970</v>
+      </c>
+      <c r="B391" t="s">
+        <v>971</v>
+      </c>
+      <c r="C391" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>973</v>
+      </c>
+      <c r="B392" t="s">
+        <v>974</v>
+      </c>
+      <c r="C392" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>976</v>
+      </c>
+      <c r="B393" t="s">
+        <v>977</v>
+      </c>
+      <c r="C393" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>978</v>
+      </c>
+      <c r="B394" t="s">
+        <v>979</v>
+      </c>
+      <c r="C394" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>981</v>
+      </c>
+      <c r="B395" t="s">
+        <v>982</v>
+      </c>
+      <c r="C395" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>984</v>
+      </c>
+      <c r="B396" t="s">
+        <v>985</v>
+      </c>
+      <c r="C396" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>987</v>
+      </c>
+      <c r="B397" t="s">
+        <v>988</v>
+      </c>
+      <c r="C397" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>990</v>
+      </c>
+      <c r="B398" t="s">
+        <v>991</v>
+      </c>
+      <c r="C398" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>993</v>
+      </c>
+      <c r="B399" t="s">
+        <v>994</v>
+      </c>
+      <c r="C399" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>996</v>
+      </c>
+      <c r="B400" t="s">
+        <v>997</v>
+      </c>
+      <c r="C400" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>998</v>
+      </c>
+      <c r="B401" t="s">
+        <v>999</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1AC7AF-9E85-4EE5-A099-C09DFDFF8556}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A647D6-CCC4-4A32-B223-CE608676C5EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1178">
   <si>
     <t>わたし</t>
   </si>
@@ -1840,9 +1840,6 @@
     <t>蛋</t>
   </si>
   <si>
-    <t>玉子、卵、たまご</t>
-  </si>
-  <si>
     <t>たまご</t>
   </si>
   <si>
@@ -2356,9 +2353,6 @@
     <t>じゅう</t>
   </si>
   <si>
-    <t>*動詞</t>
-  </si>
-  <si>
     <t>見面</t>
   </si>
   <si>
@@ -3058,9 +3052,6 @@
     <t>まずい</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>簡單</t>
   </si>
   <si>
@@ -3185,6 +3176,513 @@
   </si>
   <si>
     <t>にぎやか</t>
+  </si>
+  <si>
+    <t>*動詞(辭書型)</t>
+  </si>
+  <si>
+    <t>にじゅう</t>
+  </si>
+  <si>
+    <t>さんじゅう</t>
+  </si>
+  <si>
+    <t>よんじゅう</t>
+  </si>
+  <si>
+    <t>ごじゅう</t>
+  </si>
+  <si>
+    <t>ろくじゅう</t>
+  </si>
+  <si>
+    <t>ななじゅう</t>
+  </si>
+  <si>
+    <t>はちじゅう</t>
+  </si>
+  <si>
+    <t>きゅうじゅう</t>
+  </si>
+  <si>
+    <t>にひゃく</t>
+  </si>
+  <si>
+    <t>さんびゃく</t>
+  </si>
+  <si>
+    <t>よんひゃく</t>
+  </si>
+  <si>
+    <t>ごひゃく</t>
+  </si>
+  <si>
+    <t>ろっぴゃく</t>
+  </si>
+  <si>
+    <t>ななひゃく</t>
+  </si>
+  <si>
+    <t>はっぴゃく</t>
+  </si>
+  <si>
+    <t>きゅうひゃく</t>
+  </si>
+  <si>
+    <t>にせん</t>
+  </si>
+  <si>
+    <t>さんぜん</t>
+  </si>
+  <si>
+    <t>よんせん</t>
+  </si>
+  <si>
+    <t>ごせん</t>
+  </si>
+  <si>
+    <t>ろくせん</t>
+  </si>
+  <si>
+    <t>ななせん</t>
+  </si>
+  <si>
+    <t>はっせん</t>
+  </si>
+  <si>
+    <t>きゅうせん</t>
+  </si>
+  <si>
+    <t>いちまん</t>
+  </si>
+  <si>
+    <t>にまん</t>
+  </si>
+  <si>
+    <t>さんまん</t>
+  </si>
+  <si>
+    <t>よんまん</t>
+  </si>
+  <si>
+    <t>ごまん</t>
+  </si>
+  <si>
+    <t>ろくまん</t>
+  </si>
+  <si>
+    <t>ななまん</t>
+  </si>
+  <si>
+    <t>はちまん</t>
+  </si>
+  <si>
+    <t>きゅうまん</t>
+  </si>
+  <si>
+    <t>おく</t>
+  </si>
+  <si>
+    <t>げつようび</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>かようび</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>すいようび</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>もくようび</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>きんようび</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>どようび</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>にちようび</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>きせつ</t>
+  </si>
+  <si>
+    <t>季節</t>
+  </si>
+  <si>
+    <t>しき</t>
+  </si>
+  <si>
+    <t>四季</t>
+  </si>
+  <si>
+    <t>しゅんかしゅうとう</t>
+  </si>
+  <si>
+    <t>春夏秋冬</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>あき</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>いちがつ</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>にがつ</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>さんがつ</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>しがつ</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>ごがつ</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>ろくがつ</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>しちがつ</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>はちがつ</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>くがつ</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>じゅうがつ</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>じゅういちがつ</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>じゅうにがつ</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>せんげつ</t>
+  </si>
+  <si>
+    <t>先月</t>
+  </si>
+  <si>
+    <t>上個月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こんげつ </t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>這個月</t>
+  </si>
+  <si>
+    <t>らいげつ</t>
+  </si>
+  <si>
+    <t>来月</t>
+  </si>
+  <si>
+    <t>下個月</t>
+  </si>
+  <si>
+    <t>いちかげつ</t>
+  </si>
+  <si>
+    <t>一ヶ月</t>
+  </si>
+  <si>
+    <t>一個月</t>
+  </si>
+  <si>
+    <t>にかげつ</t>
+  </si>
+  <si>
+    <t>二ヶ月</t>
+  </si>
+  <si>
+    <t>兩個月</t>
+  </si>
+  <si>
+    <t>みかげつ</t>
+  </si>
+  <si>
+    <t>三ヶ月</t>
+  </si>
+  <si>
+    <t>三個月</t>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+  </si>
+  <si>
+    <t>先週</t>
+  </si>
+  <si>
+    <t>上週</t>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+  </si>
+  <si>
+    <t>今週</t>
+  </si>
+  <si>
+    <t>本週</t>
+  </si>
+  <si>
+    <t>らいしゅう</t>
+  </si>
+  <si>
+    <t>来週</t>
+  </si>
+  <si>
+    <t>下週</t>
+  </si>
+  <si>
+    <t>玉子 卵</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>二十</t>
+  </si>
+  <si>
+    <t>三十</t>
+  </si>
+  <si>
+    <t>四十</t>
+  </si>
+  <si>
+    <t>五十</t>
+  </si>
+  <si>
+    <t>六十</t>
+  </si>
+  <si>
+    <t>七十</t>
+  </si>
+  <si>
+    <t>八十</t>
+  </si>
+  <si>
+    <t>九十</t>
+  </si>
+  <si>
+    <t>兩百</t>
+  </si>
+  <si>
+    <t>三百</t>
+  </si>
+  <si>
+    <t>四百</t>
+  </si>
+  <si>
+    <t>五百</t>
+  </si>
+  <si>
+    <t>六百</t>
+  </si>
+  <si>
+    <t>七百</t>
+  </si>
+  <si>
+    <t>八百</t>
+  </si>
+  <si>
+    <t>九百</t>
+  </si>
+  <si>
+    <t>兩千</t>
+  </si>
+  <si>
+    <t>三千</t>
+  </si>
+  <si>
+    <t>四千</t>
+  </si>
+  <si>
+    <t>五千</t>
+  </si>
+  <si>
+    <t>六千</t>
+  </si>
+  <si>
+    <t>七千</t>
+  </si>
+  <si>
+    <t>八千</t>
+  </si>
+  <si>
+    <t>九千</t>
+  </si>
+  <si>
+    <t>一万</t>
+  </si>
+  <si>
+    <t>兩萬</t>
+  </si>
+  <si>
+    <t>三萬</t>
+  </si>
+  <si>
+    <t>四萬</t>
+  </si>
+  <si>
+    <t>五萬</t>
+  </si>
+  <si>
+    <t>六萬</t>
+  </si>
+  <si>
+    <t>七萬</t>
+  </si>
+  <si>
+    <t>八萬</t>
+  </si>
+  <si>
+    <t>九萬</t>
+  </si>
+  <si>
+    <t>億</t>
+  </si>
+  <si>
+    <t>いっちょう</t>
+  </si>
+  <si>
+    <t>一兆</t>
+  </si>
+  <si>
+    <t>*時間季節</t>
   </si>
 </sst>
 </file>
@@ -3542,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C405"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5405,321 +5903,321 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B191" t="s">
         <v>460</v>
       </c>
       <c r="C191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B192" t="s">
         <v>463</v>
       </c>
       <c r="C192" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B193" t="s">
         <v>466</v>
       </c>
       <c r="C193" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B194" t="s">
         <v>468</v>
       </c>
       <c r="C194" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
         <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B196" t="s">
         <v>471</v>
       </c>
       <c r="C196" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B197" t="s">
         <v>474</v>
       </c>
       <c r="C197" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
         <v>402</v>
       </c>
       <c r="C198" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B199" t="s">
         <v>476</v>
       </c>
       <c r="C199" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B200" t="s">
         <v>478</v>
       </c>
       <c r="C200" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B201" t="s">
         <v>162</v>
       </c>
       <c r="C201" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B202" t="s">
         <v>481</v>
       </c>
       <c r="C202" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B203" t="s">
         <v>369</v>
       </c>
       <c r="C203" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s">
         <v>484</v>
       </c>
       <c r="C204" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B205" t="s">
         <v>487</v>
       </c>
       <c r="C205" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B206" t="s">
         <v>490</v>
       </c>
       <c r="C206" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B207" t="s">
         <v>493</v>
       </c>
       <c r="C207" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B208" t="s">
         <v>496</v>
       </c>
       <c r="C208" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B209" t="s">
         <v>499</v>
       </c>
       <c r="C209" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B210" t="s">
         <v>502</v>
       </c>
       <c r="C210" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B211" t="s">
         <v>505</v>
       </c>
       <c r="C211" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B212" t="s">
         <v>507</v>
       </c>
       <c r="C212" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
         <v>510</v>
       </c>
       <c r="C213" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B214" t="s">
         <v>513</v>
       </c>
       <c r="C214" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B215" t="s">
         <v>394</v>
       </c>
       <c r="C215" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B216" t="s">
         <v>518</v>
       </c>
       <c r="C216" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B217" t="s">
         <v>387</v>
       </c>
       <c r="C217" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B218" t="s">
         <v>522</v>
       </c>
       <c r="C218" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B219" t="s">
         <v>525</v>
       </c>
       <c r="C219" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -5729,178 +6227,178 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B221" t="s">
         <v>529</v>
       </c>
       <c r="C221" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B222" t="s">
         <v>532</v>
       </c>
       <c r="C222" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B223" t="s">
         <v>535</v>
       </c>
       <c r="C223" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B224" t="s">
         <v>538</v>
       </c>
       <c r="C224" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B225" t="s">
         <v>541</v>
       </c>
       <c r="C225" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B226" t="s">
         <v>544</v>
       </c>
       <c r="C226" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B227" t="s">
         <v>546</v>
       </c>
       <c r="C227" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B228" t="s">
         <v>548</v>
       </c>
       <c r="C228" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B229" t="s">
         <v>550</v>
       </c>
       <c r="C229" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B230" t="s">
         <v>552</v>
       </c>
       <c r="C230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B231" t="s">
         <v>555</v>
       </c>
       <c r="C231" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B232" t="s">
         <v>557</v>
       </c>
       <c r="C232" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B233" t="s">
         <v>560</v>
       </c>
       <c r="C233" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>563</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C234" t="s">
         <v>562</v>
-      </c>
-      <c r="B234" t="s">
-        <v>563</v>
-      </c>
-      <c r="C234" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>566</v>
+      </c>
+      <c r="B235" t="s">
         <v>565</v>
       </c>
-      <c r="B235" t="s">
-        <v>566</v>
-      </c>
       <c r="C235" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>569</v>
+      </c>
+      <c r="B236" t="s">
         <v>568</v>
       </c>
-      <c r="B236" t="s">
-        <v>569</v>
-      </c>
       <c r="C236" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -5908,21 +6406,21 @@
         <v>571</v>
       </c>
       <c r="B237" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C237" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>574</v>
+      </c>
+      <c r="B238" t="s">
         <v>573</v>
       </c>
-      <c r="B238" t="s">
-        <v>574</v>
-      </c>
       <c r="C238" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -5930,224 +6428,224 @@
         <v>576</v>
       </c>
       <c r="B239" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C239" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>579</v>
+      </c>
+      <c r="B240" t="s">
         <v>578</v>
       </c>
-      <c r="B240" t="s">
-        <v>579</v>
-      </c>
       <c r="C240" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>582</v>
+      </c>
+      <c r="B241" t="s">
         <v>581</v>
       </c>
-      <c r="B241" t="s">
-        <v>582</v>
-      </c>
       <c r="C241" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>585</v>
+      </c>
+      <c r="B242" t="s">
         <v>584</v>
       </c>
-      <c r="B242" t="s">
-        <v>585</v>
-      </c>
       <c r="C242" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>121</v>
+        <v>586</v>
       </c>
       <c r="B243" t="s">
         <v>120</v>
       </c>
       <c r="C243" t="s">
-        <v>587</v>
+        <v>121</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>589</v>
+      </c>
+      <c r="B244" t="s">
         <v>588</v>
       </c>
-      <c r="B244" t="s">
-        <v>589</v>
-      </c>
       <c r="C244" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>593</v>
+      </c>
+      <c r="B246" t="s">
         <v>592</v>
       </c>
-      <c r="B246" t="s">
-        <v>593</v>
-      </c>
       <c r="C246" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>596</v>
+      </c>
+      <c r="B247" t="s">
         <v>595</v>
       </c>
-      <c r="B247" t="s">
-        <v>596</v>
-      </c>
       <c r="C247" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>599</v>
+      </c>
+      <c r="B248" t="s">
         <v>598</v>
       </c>
-      <c r="B248" t="s">
-        <v>599</v>
-      </c>
       <c r="C248" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>602</v>
+      </c>
+      <c r="B249" t="s">
         <v>601</v>
       </c>
-      <c r="B249" t="s">
-        <v>602</v>
-      </c>
       <c r="C249" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>605</v>
+      </c>
+      <c r="B250" t="s">
         <v>604</v>
       </c>
-      <c r="B250" t="s">
-        <v>605</v>
-      </c>
       <c r="C250" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>608</v>
+      </c>
+      <c r="B251" t="s">
         <v>607</v>
       </c>
-      <c r="B251" t="s">
-        <v>608</v>
-      </c>
       <c r="C251" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>611</v>
+      </c>
+      <c r="B252" t="s">
         <v>610</v>
       </c>
-      <c r="B252" t="s">
-        <v>611</v>
-      </c>
       <c r="C252" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>614</v>
+      </c>
+      <c r="B253" t="s">
         <v>613</v>
       </c>
-      <c r="B253" t="s">
-        <v>614</v>
-      </c>
       <c r="C253" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>617</v>
+      </c>
+      <c r="B254" t="s">
         <v>616</v>
       </c>
-      <c r="B254" t="s">
-        <v>617</v>
-      </c>
       <c r="C254" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>620</v>
+      </c>
+      <c r="B255" t="s">
         <v>619</v>
       </c>
-      <c r="B255" t="s">
-        <v>620</v>
-      </c>
       <c r="C255" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>623</v>
+      </c>
+      <c r="B256" t="s">
         <v>622</v>
       </c>
-      <c r="B256" t="s">
-        <v>623</v>
-      </c>
       <c r="C256" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B257" t="s">
         <v>409</v>
       </c>
       <c r="C257" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>626</v>
+      </c>
+      <c r="B258" t="s">
         <v>625</v>
       </c>
-      <c r="B258" t="s">
-        <v>626</v>
-      </c>
       <c r="C258" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>628</v>
+        <v>58</v>
       </c>
       <c r="B259" t="s">
         <v>59</v>
       </c>
       <c r="C259" t="s">
-        <v>58</v>
+        <v>627</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -6155,208 +6653,208 @@
         <v>629</v>
       </c>
       <c r="B260" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C260" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>632</v>
+      </c>
+      <c r="B261" t="s">
         <v>631</v>
       </c>
-      <c r="B261" t="s">
-        <v>632</v>
-      </c>
       <c r="C261" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>634</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s">
         <v>62</v>
       </c>
       <c r="C262" t="s">
-        <v>61</v>
+        <v>633</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>636</v>
+      </c>
+      <c r="B263" t="s">
         <v>635</v>
       </c>
-      <c r="B263" t="s">
-        <v>636</v>
-      </c>
       <c r="C263" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>639</v>
+      </c>
+      <c r="B264" t="s">
         <v>638</v>
       </c>
-      <c r="B264" t="s">
-        <v>639</v>
-      </c>
       <c r="C264" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>642</v>
+      </c>
+      <c r="B265" t="s">
         <v>641</v>
       </c>
-      <c r="B265" t="s">
-        <v>642</v>
-      </c>
       <c r="C265" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B266" t="s">
         <v>83</v>
       </c>
       <c r="C266" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>645</v>
+      </c>
+      <c r="B267" t="s">
         <v>644</v>
       </c>
-      <c r="B267" t="s">
-        <v>645</v>
-      </c>
       <c r="C267" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>648</v>
+      </c>
+      <c r="B268" t="s">
         <v>647</v>
       </c>
-      <c r="B268" t="s">
-        <v>648</v>
-      </c>
       <c r="C268" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>651</v>
+      </c>
+      <c r="B269" t="s">
         <v>650</v>
       </c>
-      <c r="B269" t="s">
-        <v>651</v>
-      </c>
       <c r="C269" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>654</v>
+      </c>
+      <c r="B270" t="s">
         <v>653</v>
       </c>
-      <c r="B270" t="s">
-        <v>654</v>
-      </c>
       <c r="C270" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>71</v>
+        <v>655</v>
       </c>
       <c r="B271" t="s">
         <v>70</v>
       </c>
       <c r="C271" t="s">
-        <v>656</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>85</v>
+        <v>656</v>
       </c>
       <c r="B272" t="s">
         <v>84</v>
       </c>
       <c r="C272" t="s">
-        <v>657</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>87</v>
+        <v>657</v>
       </c>
       <c r="B273" t="s">
         <v>86</v>
       </c>
       <c r="C273" t="s">
-        <v>658</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B274" t="s">
         <v>407</v>
       </c>
       <c r="C274" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>660</v>
+      </c>
+      <c r="B275" t="s">
         <v>659</v>
       </c>
-      <c r="B275" t="s">
-        <v>660</v>
-      </c>
       <c r="C275" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>663</v>
+      </c>
+      <c r="B276" t="s">
         <v>662</v>
       </c>
-      <c r="B276" t="s">
-        <v>663</v>
-      </c>
       <c r="C276" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>103</v>
+        <v>664</v>
       </c>
       <c r="B277" t="s">
         <v>102</v>
       </c>
       <c r="C277" t="s">
-        <v>665</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>667</v>
+      </c>
+      <c r="B278" t="s">
         <v>666</v>
       </c>
-      <c r="B278" t="s">
-        <v>667</v>
-      </c>
       <c r="C278" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -6367,1369 +6865,2171 @@
         <v>106</v>
       </c>
       <c r="C279" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>671</v>
+      </c>
+      <c r="B280" t="s">
+        <v>670</v>
+      </c>
+      <c r="C280" t="s">
         <v>109</v>
-      </c>
-      <c r="B280" t="s">
-        <v>671</v>
-      </c>
-      <c r="C280" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
+        <v>674</v>
+      </c>
+      <c r="B281" t="s">
         <v>673</v>
       </c>
-      <c r="B281" t="s">
-        <v>674</v>
-      </c>
       <c r="C281" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
+        <v>678</v>
+      </c>
+      <c r="B283" t="s">
         <v>677</v>
       </c>
-      <c r="B283" t="s">
-        <v>678</v>
-      </c>
       <c r="C283" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>681</v>
+      </c>
+      <c r="B284" t="s">
         <v>680</v>
       </c>
-      <c r="B284" t="s">
-        <v>681</v>
-      </c>
       <c r="C284" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>684</v>
+      </c>
+      <c r="B285" t="s">
         <v>683</v>
       </c>
-      <c r="B285" t="s">
-        <v>684</v>
-      </c>
       <c r="C285" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>687</v>
+      </c>
+      <c r="B286" t="s">
         <v>686</v>
       </c>
-      <c r="B286" t="s">
-        <v>687</v>
-      </c>
       <c r="C286" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>690</v>
+      </c>
+      <c r="B287" t="s">
         <v>689</v>
       </c>
-      <c r="B287" t="s">
-        <v>690</v>
-      </c>
       <c r="C287" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>693</v>
+      </c>
+      <c r="B288" t="s">
         <v>692</v>
       </c>
-      <c r="B288" t="s">
-        <v>693</v>
-      </c>
       <c r="C288" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>696</v>
+      </c>
+      <c r="B289" t="s">
         <v>695</v>
       </c>
-      <c r="B289" t="s">
-        <v>696</v>
-      </c>
       <c r="C289" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>699</v>
+      </c>
+      <c r="B290" t="s">
         <v>698</v>
       </c>
-      <c r="B290" t="s">
-        <v>699</v>
-      </c>
       <c r="C290" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>702</v>
+      </c>
+      <c r="B291" t="s">
         <v>701</v>
       </c>
-      <c r="B291" t="s">
-        <v>702</v>
-      </c>
       <c r="C291" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>705</v>
+      </c>
+      <c r="B292" t="s">
         <v>704</v>
       </c>
-      <c r="B292" t="s">
-        <v>705</v>
-      </c>
       <c r="C292" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>708</v>
+      </c>
+      <c r="B293" t="s">
         <v>707</v>
       </c>
-      <c r="B293" t="s">
-        <v>708</v>
-      </c>
       <c r="C293" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>404</v>
+      </c>
+      <c r="B294" t="s">
         <v>710</v>
       </c>
-      <c r="B294" t="s">
-        <v>711</v>
-      </c>
       <c r="C294" t="s">
-        <v>404</v>
+        <v>709</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>713</v>
+      </c>
+      <c r="B295" t="s">
         <v>712</v>
       </c>
-      <c r="B295" t="s">
-        <v>713</v>
-      </c>
       <c r="C295" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>716</v>
+      </c>
+      <c r="B296" t="s">
         <v>715</v>
       </c>
-      <c r="B296" t="s">
-        <v>716</v>
-      </c>
       <c r="C296" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>719</v>
+      </c>
+      <c r="B297" t="s">
         <v>718</v>
       </c>
-      <c r="B297" t="s">
-        <v>719</v>
-      </c>
       <c r="C297" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>722</v>
+      </c>
+      <c r="B298" t="s">
         <v>721</v>
       </c>
-      <c r="B298" t="s">
-        <v>722</v>
-      </c>
       <c r="C298" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>724</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>1</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>2</v>
       </c>
       <c r="B301">
         <v>2</v>
       </c>
       <c r="C301" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>3</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>4</v>
       </c>
       <c r="B303">
         <v>4</v>
       </c>
       <c r="C303" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>5</v>
       </c>
       <c r="B304">
         <v>5</v>
       </c>
       <c r="C304" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>729</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>6</v>
       </c>
       <c r="B305">
         <v>6</v>
       </c>
       <c r="C305" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>7</v>
       </c>
       <c r="B306">
         <v>7</v>
       </c>
       <c r="C306" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307">
-        <v>8</v>
       </c>
       <c r="B307">
         <v>8</v>
       </c>
       <c r="C307" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>9</v>
       </c>
       <c r="B308">
         <v>9</v>
       </c>
       <c r="C308" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>733</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>10</v>
       </c>
       <c r="B309">
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>734</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>735</v>
+        <v>1010</v>
+      </c>
+      <c r="B310">
+        <v>20</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>736</v>
-      </c>
-      <c r="B311" t="s">
-        <v>737</v>
+        <v>1011</v>
+      </c>
+      <c r="B311">
+        <v>30</v>
       </c>
       <c r="C311" t="s">
-        <v>738</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>739</v>
-      </c>
-      <c r="B312" t="s">
-        <v>740</v>
+        <v>1012</v>
+      </c>
+      <c r="B312">
+        <v>40</v>
       </c>
       <c r="C312" t="s">
-        <v>741</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>742</v>
-      </c>
-      <c r="B313" t="s">
-        <v>743</v>
+        <v>1013</v>
+      </c>
+      <c r="B313">
+        <v>50</v>
       </c>
       <c r="C313" t="s">
-        <v>744</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>745</v>
-      </c>
-      <c r="B314" t="s">
-        <v>746</v>
+        <v>1014</v>
+      </c>
+      <c r="B314">
+        <v>60</v>
       </c>
       <c r="C314" t="s">
-        <v>747</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>748</v>
-      </c>
-      <c r="B315" t="s">
-        <v>749</v>
+        <v>1015</v>
+      </c>
+      <c r="B315">
+        <v>70</v>
       </c>
       <c r="C315" t="s">
-        <v>750</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>751</v>
-      </c>
-      <c r="B316" t="s">
-        <v>752</v>
+        <v>1016</v>
+      </c>
+      <c r="B316">
+        <v>80</v>
       </c>
       <c r="C316" t="s">
-        <v>753</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>754</v>
-      </c>
-      <c r="B317" t="s">
-        <v>755</v>
+        <v>1017</v>
+      </c>
+      <c r="B317">
+        <v>90</v>
       </c>
       <c r="C317" t="s">
-        <v>756</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>757</v>
-      </c>
-      <c r="B318" t="s">
-        <v>758</v>
+        <v>433</v>
+      </c>
+      <c r="B318">
+        <v>100</v>
       </c>
       <c r="C318" t="s">
-        <v>759</v>
+        <v>434</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>760</v>
-      </c>
-      <c r="B319" t="s">
-        <v>761</v>
+        <v>1018</v>
+      </c>
+      <c r="B319">
+        <v>200</v>
       </c>
       <c r="C319" t="s">
-        <v>762</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>763</v>
-      </c>
-      <c r="B320" t="s">
-        <v>764</v>
+        <v>1019</v>
+      </c>
+      <c r="B320">
+        <v>300</v>
       </c>
       <c r="C320" t="s">
-        <v>765</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>766</v>
-      </c>
-      <c r="B321" t="s">
-        <v>767</v>
+        <v>1020</v>
+      </c>
+      <c r="B321">
+        <v>400</v>
       </c>
       <c r="C321" t="s">
-        <v>768</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>769</v>
-      </c>
-      <c r="B322" t="s">
-        <v>770</v>
+        <v>1021</v>
+      </c>
+      <c r="B322">
+        <v>500</v>
       </c>
       <c r="C322" t="s">
-        <v>771</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>772</v>
-      </c>
-      <c r="B323" t="s">
-        <v>773</v>
+        <v>1022</v>
+      </c>
+      <c r="B323">
+        <v>600</v>
       </c>
       <c r="C323" t="s">
-        <v>774</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>775</v>
-      </c>
-      <c r="B324" t="s">
-        <v>776</v>
+        <v>1023</v>
+      </c>
+      <c r="B324">
+        <v>700</v>
       </c>
       <c r="C324" t="s">
-        <v>777</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>778</v>
-      </c>
-      <c r="B325" t="s">
-        <v>779</v>
+        <v>1024</v>
+      </c>
+      <c r="B325">
+        <v>800</v>
       </c>
       <c r="C325" t="s">
-        <v>780</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>304</v>
-      </c>
-      <c r="B326" t="s">
-        <v>781</v>
+        <v>1025</v>
+      </c>
+      <c r="B326">
+        <v>900</v>
       </c>
       <c r="C326" t="s">
-        <v>782</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>783</v>
-      </c>
-      <c r="B327" t="s">
-        <v>784</v>
+        <v>435</v>
+      </c>
+      <c r="B327">
+        <v>1000</v>
       </c>
       <c r="C327" t="s">
-        <v>785</v>
+        <v>436</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>786</v>
-      </c>
-      <c r="B328" t="s">
-        <v>787</v>
+        <v>1026</v>
+      </c>
+      <c r="B328">
+        <v>2000</v>
       </c>
       <c r="C328" t="s">
-        <v>788</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>789</v>
-      </c>
-      <c r="B329" t="s">
-        <v>790</v>
+        <v>1027</v>
+      </c>
+      <c r="B329">
+        <v>3000</v>
       </c>
       <c r="C329" t="s">
-        <v>791</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>792</v>
-      </c>
-      <c r="B330" t="s">
-        <v>793</v>
+        <v>1028</v>
+      </c>
+      <c r="B330">
+        <v>4000</v>
       </c>
       <c r="C330" t="s">
-        <v>794</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>795</v>
-      </c>
-      <c r="B331" t="s">
-        <v>796</v>
+        <v>1029</v>
+      </c>
+      <c r="B331">
+        <v>5000</v>
       </c>
       <c r="C331" t="s">
-        <v>797</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>798</v>
-      </c>
-      <c r="B332" t="s">
-        <v>799</v>
+        <v>1030</v>
+      </c>
+      <c r="B332">
+        <v>6000</v>
       </c>
       <c r="C332" t="s">
-        <v>800</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>801</v>
-      </c>
-      <c r="B333" t="s">
-        <v>802</v>
+        <v>1031</v>
+      </c>
+      <c r="B333">
+        <v>7000</v>
       </c>
       <c r="C333" t="s">
-        <v>803</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>804</v>
-      </c>
-      <c r="B334" t="s">
-        <v>805</v>
+        <v>1032</v>
+      </c>
+      <c r="B334">
+        <v>8000</v>
       </c>
       <c r="C334" t="s">
-        <v>806</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>807</v>
-      </c>
-      <c r="B335" t="s">
-        <v>808</v>
+        <v>1033</v>
+      </c>
+      <c r="B335">
+        <v>9000</v>
       </c>
       <c r="C335" t="s">
-        <v>809</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>810</v>
+        <v>1034</v>
       </c>
       <c r="B336" t="s">
-        <v>811</v>
+        <v>1165</v>
       </c>
       <c r="C336" t="s">
-        <v>812</v>
+        <v>439</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>813</v>
-      </c>
-      <c r="B337" t="s">
-        <v>814</v>
+        <v>1035</v>
+      </c>
+      <c r="B337">
+        <v>20000</v>
       </c>
       <c r="C337" t="s">
-        <v>815</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>816</v>
-      </c>
-      <c r="B338" t="s">
-        <v>817</v>
+        <v>1036</v>
+      </c>
+      <c r="B338">
+        <v>30000</v>
       </c>
       <c r="C338" t="s">
-        <v>818</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>819</v>
-      </c>
-      <c r="B339" t="s">
-        <v>820</v>
+        <v>1037</v>
+      </c>
+      <c r="B339">
+        <v>40000</v>
       </c>
       <c r="C339" t="s">
-        <v>821</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>822</v>
-      </c>
-      <c r="B340" t="s">
-        <v>823</v>
+        <v>1038</v>
+      </c>
+      <c r="B340">
+        <v>50000</v>
       </c>
       <c r="C340" t="s">
-        <v>824</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>825</v>
-      </c>
-      <c r="B341" t="s">
-        <v>826</v>
+        <v>1039</v>
+      </c>
+      <c r="B341">
+        <v>60000</v>
       </c>
       <c r="C341" t="s">
-        <v>827</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>828</v>
-      </c>
-      <c r="B342" t="s">
-        <v>829</v>
+        <v>1040</v>
+      </c>
+      <c r="B342">
+        <v>70000</v>
       </c>
       <c r="C342" t="s">
-        <v>830</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>831</v>
-      </c>
-      <c r="B343" t="s">
-        <v>832</v>
+        <v>1041</v>
+      </c>
+      <c r="B343">
+        <v>80000</v>
       </c>
       <c r="C343" t="s">
-        <v>833</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>834</v>
-      </c>
-      <c r="B344" t="s">
-        <v>835</v>
+        <v>1042</v>
+      </c>
+      <c r="B344">
+        <v>90000</v>
       </c>
       <c r="C344" t="s">
-        <v>836</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>837</v>
+        <v>437</v>
       </c>
       <c r="B345" t="s">
-        <v>838</v>
+        <v>438</v>
       </c>
       <c r="C345" t="s">
-        <v>839</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>840</v>
+        <v>1043</v>
       </c>
       <c r="B346" t="s">
-        <v>841</v>
+        <v>1174</v>
       </c>
       <c r="C346" t="s">
-        <v>842</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>843</v>
+        <v>1175</v>
       </c>
       <c r="B347" t="s">
-        <v>844</v>
+        <v>1176</v>
       </c>
       <c r="C347" t="s">
-        <v>845</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>846</v>
-      </c>
-      <c r="B348" t="s">
-        <v>847</v>
-      </c>
-      <c r="C348" t="s">
-        <v>848</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>849</v>
+        <v>736</v>
       </c>
       <c r="B349" t="s">
-        <v>850</v>
+        <v>735</v>
       </c>
       <c r="C349" t="s">
-        <v>851</v>
+        <v>734</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>852</v>
+        <v>739</v>
       </c>
       <c r="B350" t="s">
-        <v>853</v>
+        <v>738</v>
       </c>
       <c r="C350" t="s">
-        <v>854</v>
+        <v>737</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>855</v>
+        <v>742</v>
       </c>
       <c r="B351" t="s">
-        <v>856</v>
+        <v>741</v>
       </c>
       <c r="C351" t="s">
-        <v>857</v>
+        <v>740</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>858</v>
+        <v>745</v>
       </c>
       <c r="B352" t="s">
-        <v>859</v>
+        <v>744</v>
       </c>
       <c r="C352" t="s">
-        <v>860</v>
+        <v>743</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>861</v>
+        <v>748</v>
+      </c>
+      <c r="B353" t="s">
+        <v>747</v>
+      </c>
+      <c r="C353" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>862</v>
+        <v>751</v>
       </c>
       <c r="B354" t="s">
-        <v>863</v>
+        <v>750</v>
       </c>
       <c r="C354" t="s">
-        <v>864</v>
+        <v>749</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>865</v>
+        <v>754</v>
       </c>
       <c r="B355" t="s">
-        <v>866</v>
+        <v>753</v>
       </c>
       <c r="C355" t="s">
-        <v>867</v>
+        <v>752</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>868</v>
+        <v>757</v>
       </c>
       <c r="B356" t="s">
-        <v>869</v>
+        <v>756</v>
       </c>
       <c r="C356" t="s">
-        <v>870</v>
+        <v>755</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>871</v>
+        <v>760</v>
       </c>
       <c r="B357" t="s">
-        <v>872</v>
+        <v>759</v>
       </c>
       <c r="C357" t="s">
-        <v>873</v>
+        <v>758</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>874</v>
+        <v>763</v>
       </c>
       <c r="B358" t="s">
-        <v>875</v>
+        <v>762</v>
       </c>
       <c r="C358" t="s">
-        <v>876</v>
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>877</v>
+        <v>766</v>
       </c>
       <c r="B359" t="s">
-        <v>878</v>
+        <v>765</v>
       </c>
       <c r="C359" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>879</v>
+        <v>769</v>
       </c>
       <c r="B360" t="s">
-        <v>880</v>
+        <v>768</v>
       </c>
       <c r="C360" t="s">
-        <v>881</v>
+        <v>767</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>882</v>
+        <v>772</v>
       </c>
       <c r="B361" t="s">
-        <v>883</v>
+        <v>771</v>
       </c>
       <c r="C361" t="s">
-        <v>884</v>
+        <v>770</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>885</v>
+        <v>775</v>
       </c>
       <c r="B362" t="s">
-        <v>886</v>
+        <v>774</v>
       </c>
       <c r="C362" t="s">
-        <v>887</v>
+        <v>773</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>888</v>
+        <v>778</v>
       </c>
       <c r="B363" t="s">
-        <v>889</v>
+        <v>777</v>
       </c>
       <c r="C363" t="s">
-        <v>890</v>
+        <v>776</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>891</v>
+        <v>780</v>
       </c>
       <c r="B364" t="s">
-        <v>892</v>
+        <v>779</v>
       </c>
       <c r="C364" t="s">
-        <v>893</v>
+        <v>304</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>894</v>
+        <v>783</v>
       </c>
       <c r="B365" t="s">
-        <v>895</v>
+        <v>782</v>
       </c>
       <c r="C365" t="s">
-        <v>896</v>
+        <v>781</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>897</v>
+        <v>786</v>
       </c>
       <c r="B366" t="s">
-        <v>898</v>
+        <v>785</v>
       </c>
       <c r="C366" t="s">
-        <v>899</v>
+        <v>784</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>900</v>
+        <v>789</v>
       </c>
       <c r="B367" t="s">
-        <v>901</v>
+        <v>788</v>
       </c>
       <c r="C367" t="s">
-        <v>902</v>
+        <v>787</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>903</v>
+        <v>792</v>
       </c>
       <c r="B368" t="s">
-        <v>904</v>
+        <v>791</v>
       </c>
       <c r="C368" t="s">
-        <v>905</v>
+        <v>790</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>906</v>
+        <v>795</v>
       </c>
       <c r="B369" t="s">
-        <v>907</v>
+        <v>794</v>
       </c>
       <c r="C369" t="s">
-        <v>908</v>
+        <v>793</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>909</v>
+        <v>798</v>
       </c>
       <c r="B370" t="s">
-        <v>910</v>
+        <v>797</v>
       </c>
       <c r="C370" t="s">
-        <v>908</v>
+        <v>796</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>911</v>
+        <v>801</v>
       </c>
       <c r="B371" t="s">
-        <v>912</v>
+        <v>800</v>
       </c>
       <c r="C371" t="s">
-        <v>913</v>
+        <v>799</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>914</v>
+        <v>804</v>
       </c>
       <c r="B372" t="s">
-        <v>915</v>
+        <v>803</v>
       </c>
       <c r="C372" t="s">
-        <v>916</v>
+        <v>802</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>917</v>
+        <v>807</v>
       </c>
       <c r="B373" t="s">
-        <v>918</v>
+        <v>806</v>
       </c>
       <c r="C373" t="s">
-        <v>919</v>
+        <v>805</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>920</v>
+        <v>810</v>
       </c>
       <c r="B374" t="s">
-        <v>921</v>
+        <v>809</v>
       </c>
       <c r="C374" t="s">
-        <v>922</v>
+        <v>808</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>923</v>
+        <v>813</v>
       </c>
       <c r="B375" t="s">
-        <v>924</v>
+        <v>812</v>
       </c>
       <c r="C375" t="s">
-        <v>925</v>
+        <v>811</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>926</v>
+        <v>816</v>
       </c>
       <c r="B376" t="s">
-        <v>927</v>
+        <v>815</v>
       </c>
       <c r="C376" t="s">
-        <v>928</v>
+        <v>814</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>929</v>
+        <v>819</v>
       </c>
       <c r="B377" t="s">
-        <v>930</v>
+        <v>818</v>
       </c>
       <c r="C377" t="s">
-        <v>931</v>
+        <v>817</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>932</v>
+        <v>822</v>
       </c>
       <c r="B378" t="s">
-        <v>933</v>
+        <v>821</v>
       </c>
       <c r="C378" t="s">
-        <v>934</v>
+        <v>820</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>935</v>
+        <v>825</v>
       </c>
       <c r="B379" t="s">
-        <v>936</v>
+        <v>824</v>
       </c>
       <c r="C379" t="s">
-        <v>937</v>
+        <v>823</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>938</v>
+        <v>828</v>
       </c>
       <c r="B380" t="s">
-        <v>939</v>
+        <v>827</v>
       </c>
       <c r="C380" t="s">
-        <v>940</v>
+        <v>826</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>941</v>
+        <v>831</v>
       </c>
       <c r="B381" t="s">
-        <v>942</v>
+        <v>830</v>
       </c>
       <c r="C381" t="s">
-        <v>943</v>
+        <v>829</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>944</v>
+        <v>834</v>
       </c>
       <c r="B382" t="s">
-        <v>945</v>
+        <v>833</v>
       </c>
       <c r="C382" t="s">
-        <v>946</v>
+        <v>832</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>947</v>
+        <v>837</v>
       </c>
       <c r="B383" t="s">
-        <v>948</v>
+        <v>836</v>
       </c>
       <c r="C383" t="s">
-        <v>949</v>
+        <v>835</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="B384" t="s">
-        <v>951</v>
+        <v>839</v>
       </c>
       <c r="C384" t="s">
-        <v>952</v>
+        <v>838</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>953</v>
+        <v>843</v>
       </c>
       <c r="B385" t="s">
-        <v>954</v>
+        <v>842</v>
       </c>
       <c r="C385" t="s">
-        <v>954</v>
+        <v>841</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>955</v>
+        <v>846</v>
       </c>
       <c r="B386" t="s">
-        <v>956</v>
+        <v>845</v>
       </c>
       <c r="C386" t="s">
-        <v>957</v>
+        <v>844</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>958</v>
+        <v>849</v>
       </c>
       <c r="B387" t="s">
-        <v>959</v>
+        <v>848</v>
       </c>
       <c r="C387" t="s">
-        <v>960</v>
+        <v>847</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>961</v>
+        <v>852</v>
       </c>
       <c r="B388" t="s">
-        <v>962</v>
+        <v>851</v>
       </c>
       <c r="C388" t="s">
-        <v>963</v>
+        <v>850</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>964</v>
+        <v>855</v>
       </c>
       <c r="B389" t="s">
-        <v>965</v>
+        <v>854</v>
       </c>
       <c r="C389" t="s">
-        <v>966</v>
+        <v>853</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="B390" t="s">
-        <v>968</v>
+        <v>857</v>
       </c>
       <c r="C390" t="s">
-        <v>969</v>
+        <v>856</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>970</v>
-      </c>
-      <c r="B391" t="s">
-        <v>971</v>
-      </c>
-      <c r="C391" t="s">
-        <v>972</v>
+        <v>859</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>973</v>
+        <v>862</v>
       </c>
       <c r="B392" t="s">
-        <v>974</v>
+        <v>861</v>
       </c>
       <c r="C392" t="s">
-        <v>975</v>
+        <v>860</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>976</v>
+        <v>865</v>
       </c>
       <c r="B393" t="s">
-        <v>977</v>
+        <v>864</v>
       </c>
       <c r="C393" t="s">
-        <v>972</v>
+        <v>863</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>978</v>
+        <v>868</v>
       </c>
       <c r="B394" t="s">
-        <v>979</v>
+        <v>867</v>
       </c>
       <c r="C394" t="s">
-        <v>980</v>
+        <v>866</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>981</v>
+        <v>871</v>
       </c>
       <c r="B395" t="s">
-        <v>982</v>
+        <v>870</v>
       </c>
       <c r="C395" t="s">
-        <v>983</v>
+        <v>869</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>984</v>
+        <v>874</v>
       </c>
       <c r="B396" t="s">
-        <v>985</v>
+        <v>873</v>
       </c>
       <c r="C396" t="s">
-        <v>986</v>
+        <v>872</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>987</v>
+        <v>862</v>
       </c>
       <c r="B397" t="s">
-        <v>988</v>
+        <v>876</v>
       </c>
       <c r="C397" t="s">
-        <v>989</v>
+        <v>875</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>990</v>
+        <v>879</v>
       </c>
       <c r="B398" t="s">
-        <v>991</v>
+        <v>878</v>
       </c>
       <c r="C398" t="s">
-        <v>992</v>
+        <v>877</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>993</v>
+        <v>882</v>
       </c>
       <c r="B399" t="s">
-        <v>994</v>
+        <v>881</v>
       </c>
       <c r="C399" t="s">
-        <v>995</v>
+        <v>880</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>996</v>
+        <v>885</v>
       </c>
       <c r="B400" t="s">
-        <v>997</v>
+        <v>884</v>
       </c>
       <c r="C400" t="s">
-        <v>969</v>
+        <v>883</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>998</v>
+        <v>888</v>
       </c>
       <c r="B401" t="s">
-        <v>999</v>
+        <v>887</v>
       </c>
       <c r="C401" t="s">
-        <v>1000</v>
+        <v>886</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1001</v>
+        <v>891</v>
       </c>
       <c r="B402" t="s">
-        <v>1002</v>
+        <v>890</v>
       </c>
       <c r="C402" t="s">
-        <v>1003</v>
+        <v>889</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>1004</v>
+        <v>894</v>
       </c>
       <c r="B403" t="s">
-        <v>1004</v>
+        <v>893</v>
       </c>
       <c r="C403" t="s">
-        <v>1005</v>
+        <v>892</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>1006</v>
+        <v>897</v>
       </c>
       <c r="B404" t="s">
-        <v>1007</v>
+        <v>896</v>
       </c>
       <c r="C404" t="s">
-        <v>1008</v>
+        <v>895</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>1009</v>
+        <v>900</v>
       </c>
       <c r="B405" t="s">
-        <v>1010</v>
+        <v>899</v>
       </c>
       <c r="C405" t="s">
-        <v>1011</v>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>903</v>
+      </c>
+      <c r="B406" t="s">
+        <v>902</v>
+      </c>
+      <c r="C406" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>906</v>
+      </c>
+      <c r="B407" t="s">
+        <v>905</v>
+      </c>
+      <c r="C407" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>906</v>
+      </c>
+      <c r="B408" t="s">
+        <v>908</v>
+      </c>
+      <c r="C408" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>911</v>
+      </c>
+      <c r="B409" t="s">
+        <v>910</v>
+      </c>
+      <c r="C409" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>914</v>
+      </c>
+      <c r="B410" t="s">
+        <v>913</v>
+      </c>
+      <c r="C410" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>917</v>
+      </c>
+      <c r="B411" t="s">
+        <v>916</v>
+      </c>
+      <c r="C411" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>920</v>
+      </c>
+      <c r="B412" t="s">
+        <v>919</v>
+      </c>
+      <c r="C412" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>923</v>
+      </c>
+      <c r="B413" t="s">
+        <v>922</v>
+      </c>
+      <c r="C413" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>926</v>
+      </c>
+      <c r="B414" t="s">
+        <v>925</v>
+      </c>
+      <c r="C414" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>929</v>
+      </c>
+      <c r="B415" t="s">
+        <v>928</v>
+      </c>
+      <c r="C415" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>932</v>
+      </c>
+      <c r="B416" t="s">
+        <v>931</v>
+      </c>
+      <c r="C416" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>935</v>
+      </c>
+      <c r="B417" t="s">
+        <v>934</v>
+      </c>
+      <c r="C417" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>938</v>
+      </c>
+      <c r="B418" t="s">
+        <v>937</v>
+      </c>
+      <c r="C418" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>941</v>
+      </c>
+      <c r="B419" t="s">
+        <v>940</v>
+      </c>
+      <c r="C419" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>944</v>
+      </c>
+      <c r="B420" t="s">
+        <v>943</v>
+      </c>
+      <c r="C420" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>947</v>
+      </c>
+      <c r="B421" t="s">
+        <v>946</v>
+      </c>
+      <c r="C421" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>950</v>
+      </c>
+      <c r="B422" t="s">
+        <v>949</v>
+      </c>
+      <c r="C422" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>952</v>
+      </c>
+      <c r="B423" t="s">
+        <v>952</v>
+      </c>
+      <c r="C423" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>955</v>
+      </c>
+      <c r="B424" t="s">
+        <v>954</v>
+      </c>
+      <c r="C424" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>958</v>
+      </c>
+      <c r="B425" t="s">
+        <v>957</v>
+      </c>
+      <c r="C425" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>961</v>
+      </c>
+      <c r="B426" t="s">
+        <v>960</v>
+      </c>
+      <c r="C426" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>964</v>
+      </c>
+      <c r="B427" t="s">
+        <v>963</v>
+      </c>
+      <c r="C427" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>966</v>
+      </c>
+      <c r="C428" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>969</v>
+      </c>
+      <c r="B429" t="s">
+        <v>968</v>
+      </c>
+      <c r="C429" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>972</v>
+      </c>
+      <c r="B430" t="s">
+        <v>971</v>
+      </c>
+      <c r="C430" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>969</v>
+      </c>
+      <c r="B431" t="s">
+        <v>974</v>
+      </c>
+      <c r="C431" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>977</v>
+      </c>
+      <c r="B432" t="s">
+        <v>976</v>
+      </c>
+      <c r="C432" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>980</v>
+      </c>
+      <c r="B433" t="s">
+        <v>979</v>
+      </c>
+      <c r="C433" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>983</v>
+      </c>
+      <c r="B434" t="s">
+        <v>982</v>
+      </c>
+      <c r="C434" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>986</v>
+      </c>
+      <c r="B435" t="s">
+        <v>985</v>
+      </c>
+      <c r="C435" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>989</v>
+      </c>
+      <c r="B436" t="s">
+        <v>988</v>
+      </c>
+      <c r="C436" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>992</v>
+      </c>
+      <c r="B437" t="s">
+        <v>991</v>
+      </c>
+      <c r="C437" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>994</v>
+      </c>
+      <c r="C438" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>997</v>
+      </c>
+      <c r="B439" t="s">
+        <v>996</v>
+      </c>
+      <c r="C439" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B440" t="s">
+        <v>999</v>
+      </c>
+      <c r="C440" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A647D6-CCC4-4A32-B223-CE608676C5EB}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0719A96-317F-4593-B89C-282538462BE5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1561">
   <si>
     <t>わたし</t>
   </si>
@@ -858,14 +858,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*第2課</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*第1課</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>おぼえます</t>
   </si>
   <si>
@@ -1203,10 +1195,6 @@
   </si>
   <si>
     <t>請多保重（對生病的人說）</t>
-  </si>
-  <si>
-    <t>*第3課</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ここ</t>
@@ -3683,6 +3671,1187 @@
   </si>
   <si>
     <t>*時間季節</t>
+  </si>
+  <si>
+    <t>おきます</t>
+  </si>
+  <si>
+    <t>起きます</t>
+  </si>
+  <si>
+    <t>起床 起來</t>
+  </si>
+  <si>
+    <t>ねます</t>
+  </si>
+  <si>
+    <t>寝ます</t>
+  </si>
+  <si>
+    <t>睡覺 就寢</t>
+  </si>
+  <si>
+    <t>はたらきます</t>
+  </si>
+  <si>
+    <t>働きます</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>やすみます</t>
+  </si>
+  <si>
+    <t>休みます</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>べんきょうします</t>
+  </si>
+  <si>
+    <t>勉強します</t>
+  </si>
+  <si>
+    <t>念書 用功</t>
+  </si>
+  <si>
+    <t>おわります</t>
+  </si>
+  <si>
+    <t>終わります</t>
+  </si>
+  <si>
+    <t>びじゅつかん</t>
+  </si>
+  <si>
+    <t>美術館</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>現在</t>
+  </si>
+  <si>
+    <t>…じ</t>
+  </si>
+  <si>
+    <t>…時</t>
+  </si>
+  <si>
+    <t>…點(鐘)</t>
+  </si>
+  <si>
+    <t>…ふん …ぷん</t>
+  </si>
+  <si>
+    <t>…分</t>
+  </si>
+  <si>
+    <t>…分(鐘)</t>
+  </si>
+  <si>
+    <t>はん</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>なんじ</t>
+  </si>
+  <si>
+    <t>何時</t>
+  </si>
+  <si>
+    <t>幾點</t>
+  </si>
+  <si>
+    <t>なんぷん</t>
+  </si>
+  <si>
+    <t>何分</t>
+  </si>
+  <si>
+    <t>幾分</t>
+  </si>
+  <si>
+    <t>ごぜん</t>
+  </si>
+  <si>
+    <t>午前</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>ごご</t>
+  </si>
+  <si>
+    <t>午後</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>あさ</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>早上</t>
+  </si>
+  <si>
+    <t>ひる</t>
+  </si>
+  <si>
+    <t>昼</t>
+  </si>
+  <si>
+    <t>白天 中午</t>
+  </si>
+  <si>
+    <t>ばん(よる)</t>
+  </si>
+  <si>
+    <t>晩(夜)</t>
+  </si>
+  <si>
+    <t>晚上 夜晚</t>
+  </si>
+  <si>
+    <t>おととい</t>
+  </si>
+  <si>
+    <t>前天</t>
+  </si>
+  <si>
+    <t>きのう</t>
+  </si>
+  <si>
+    <t>昨天</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>あした</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>あさって</t>
+  </si>
+  <si>
+    <t>後天</t>
+  </si>
+  <si>
+    <t>けさ</t>
+  </si>
+  <si>
+    <t>今天早上</t>
+  </si>
+  <si>
+    <t>こんばん</t>
+  </si>
+  <si>
+    <t>今晩</t>
+  </si>
+  <si>
+    <t>今天晚上</t>
+  </si>
+  <si>
+    <t>やすみ</t>
+  </si>
+  <si>
+    <t>休み</t>
+  </si>
+  <si>
+    <t>休息，休假</t>
+  </si>
+  <si>
+    <t>ひるやすみ</t>
+  </si>
+  <si>
+    <t>昼休み</t>
+  </si>
+  <si>
+    <t>午休</t>
+  </si>
+  <si>
+    <t>まいあさ</t>
+  </si>
+  <si>
+    <t>毎朝</t>
+  </si>
+  <si>
+    <t>每天早上</t>
+  </si>
+  <si>
+    <t>まいばん</t>
+  </si>
+  <si>
+    <t>毎晩</t>
+  </si>
+  <si>
+    <t>每天晚上</t>
+  </si>
+  <si>
+    <t>まいにち</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>星期天</t>
+  </si>
+  <si>
+    <t>なんようび</t>
+  </si>
+  <si>
+    <t>何曜日</t>
+  </si>
+  <si>
+    <t>星期幾</t>
+  </si>
+  <si>
+    <t>ばんごう</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>號碼</t>
+  </si>
+  <si>
+    <t>なんばん</t>
+  </si>
+  <si>
+    <t>何番</t>
+  </si>
+  <si>
+    <t>幾號</t>
+  </si>
+  <si>
+    <t>～から</t>
+  </si>
+  <si>
+    <t>從～</t>
+  </si>
+  <si>
+    <t>～まで</t>
+  </si>
+  <si>
+    <t>到～</t>
+  </si>
+  <si>
+    <t>～と～</t>
+  </si>
+  <si>
+    <t>和(用於連接名詞)</t>
+  </si>
+  <si>
+    <t>貴</t>
+  </si>
+  <si>
+    <t>你們</t>
+  </si>
+  <si>
+    <t>たいへんですね</t>
+  </si>
+  <si>
+    <t>大変ですね</t>
+  </si>
+  <si>
+    <t>夠嗆 不得了(表示同情和慰問方的心情)</t>
+  </si>
+  <si>
+    <t>え―と</t>
+  </si>
+  <si>
+    <t>嗯 我看看</t>
+  </si>
+  <si>
+    <t>おねがいします</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>お願いします</t>
+  </si>
+  <si>
+    <t>麻煩你(請對方幫忙時)</t>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+  </si>
+  <si>
+    <t>我明白了 遵命。</t>
+  </si>
+  <si>
+    <t>おといあわせの ばんごう  お問い合わせの 番号</t>
+  </si>
+  <si>
+    <t>您查詢的號碼</t>
+  </si>
+  <si>
+    <t>どうも ありがとう ございました</t>
+  </si>
+  <si>
+    <t>非常謝謝您。</t>
+  </si>
+  <si>
+    <t>ニューヨーク</t>
+  </si>
+  <si>
+    <t>紐約</t>
+  </si>
+  <si>
+    <t>ぺキン</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>ロンドン</t>
+  </si>
+  <si>
+    <t>倫敦</t>
+  </si>
+  <si>
+    <t>バンコク</t>
+  </si>
+  <si>
+    <t>曼谷</t>
+  </si>
+  <si>
+    <t>ロサンゼルス</t>
+  </si>
+  <si>
+    <t>洛杉磯</t>
+  </si>
+  <si>
+    <t>おお  さか</t>
+  </si>
+  <si>
+    <t>おおさかデパート</t>
+  </si>
+  <si>
+    <t>大阪百貨公司</t>
+  </si>
+  <si>
+    <t>アップル銀行</t>
+  </si>
+  <si>
+    <t>蘋果銀行</t>
+  </si>
+  <si>
+    <t>いきます</t>
+  </si>
+  <si>
+    <t>行きます</t>
+  </si>
+  <si>
+    <t>きます</t>
+  </si>
+  <si>
+    <t>来ます</t>
+  </si>
+  <si>
+    <t>かえります</t>
+  </si>
+  <si>
+    <t>帰ります</t>
+  </si>
+  <si>
+    <t>回家 回去</t>
+  </si>
+  <si>
+    <t>スーパー</t>
+  </si>
+  <si>
+    <t>超級市場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火車站 </t>
+  </si>
+  <si>
+    <t>ひこうき</t>
+  </si>
+  <si>
+    <t>飛行機</t>
+  </si>
+  <si>
+    <t>飛機</t>
+  </si>
+  <si>
+    <t>ふね</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>地下鐵</t>
+  </si>
+  <si>
+    <t>しんかんせん</t>
+  </si>
+  <si>
+    <t>新幹線</t>
+  </si>
+  <si>
+    <t>バス</t>
+  </si>
+  <si>
+    <t>公車 巴士</t>
+  </si>
+  <si>
+    <t>タクシー</t>
+  </si>
+  <si>
+    <t>計程車</t>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
+  </si>
+  <si>
+    <t>自転車</t>
+  </si>
+  <si>
+    <t>自行車 腳踏車</t>
+  </si>
+  <si>
+    <t>あるいて</t>
+  </si>
+  <si>
+    <t>歩いて</t>
+  </si>
+  <si>
+    <t>步行</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>友達</t>
+  </si>
+  <si>
+    <t>朋友</t>
+  </si>
+  <si>
+    <t>かれ</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>他 男朋友 情人</t>
+  </si>
+  <si>
+    <t>かのじょ</t>
+  </si>
+  <si>
+    <t>彼女</t>
+  </si>
+  <si>
+    <t>她 女朋友 情人</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>家人 家屬</t>
+  </si>
+  <si>
+    <t>ひとりで</t>
+  </si>
+  <si>
+    <t>一人で</t>
+  </si>
+  <si>
+    <t>一個人 獨自</t>
+  </si>
+  <si>
+    <t>上週 上星期</t>
+  </si>
+  <si>
+    <t>本週 這星期</t>
+  </si>
+  <si>
+    <t>下週 下星期</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>きょねん</t>
+  </si>
+  <si>
+    <t>去年</t>
+  </si>
+  <si>
+    <t>ことし</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>らいねん</t>
+  </si>
+  <si>
+    <t>来年</t>
+  </si>
+  <si>
+    <t>明年</t>
+  </si>
+  <si>
+    <t>…がつ</t>
+  </si>
+  <si>
+    <t>…月</t>
+  </si>
+  <si>
+    <t>なんがつ</t>
+  </si>
+  <si>
+    <t>何月</t>
+  </si>
+  <si>
+    <t>幾月</t>
+  </si>
+  <si>
+    <t>ついたち</t>
+  </si>
+  <si>
+    <t>1日</t>
+  </si>
+  <si>
+    <t>1日 1號</t>
+  </si>
+  <si>
+    <t>ふつか</t>
+  </si>
+  <si>
+    <t>2日</t>
+  </si>
+  <si>
+    <t>2日 2號</t>
+  </si>
+  <si>
+    <t>みっか</t>
+  </si>
+  <si>
+    <t>3日</t>
+  </si>
+  <si>
+    <t>3日 3號</t>
+  </si>
+  <si>
+    <t>よっか</t>
+  </si>
+  <si>
+    <t>4日</t>
+  </si>
+  <si>
+    <t>4日 4號</t>
+  </si>
+  <si>
+    <t>いつか</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>5日 5號</t>
+  </si>
+  <si>
+    <t>むいか</t>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>6日 6號</t>
+  </si>
+  <si>
+    <t>なのか</t>
+  </si>
+  <si>
+    <t>7日</t>
+  </si>
+  <si>
+    <t>7日 7號</t>
+  </si>
+  <si>
+    <t>ようか</t>
+  </si>
+  <si>
+    <t>8日</t>
+  </si>
+  <si>
+    <t>8日 8號</t>
+  </si>
+  <si>
+    <t>ここのか</t>
+  </si>
+  <si>
+    <t>9日</t>
+  </si>
+  <si>
+    <t>9日 9號</t>
+  </si>
+  <si>
+    <t>とおか</t>
+  </si>
+  <si>
+    <t>10日</t>
+  </si>
+  <si>
+    <t>10日 10號</t>
+  </si>
+  <si>
+    <t>じゅうよっか</t>
+  </si>
+  <si>
+    <t>14日</t>
+  </si>
+  <si>
+    <t>14日 14號</t>
+  </si>
+  <si>
+    <t>はつか</t>
+  </si>
+  <si>
+    <t>20日</t>
+  </si>
+  <si>
+    <t>20日 20號</t>
+  </si>
+  <si>
+    <t>にじゅうよっか</t>
+  </si>
+  <si>
+    <t>24日</t>
+  </si>
+  <si>
+    <t>24日 24號</t>
+  </si>
+  <si>
+    <t>…にち</t>
+  </si>
+  <si>
+    <t>…日</t>
+  </si>
+  <si>
+    <t>…日 …號</t>
+  </si>
+  <si>
+    <t>なんにち</t>
+  </si>
+  <si>
+    <t>何日</t>
+  </si>
+  <si>
+    <t>幾日 幾號</t>
+  </si>
+  <si>
+    <t>いつ</t>
+  </si>
+  <si>
+    <t>什麼時候</t>
+  </si>
+  <si>
+    <t>たんじょうび</t>
+  </si>
+  <si>
+    <t>誕生日</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>ふつう</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>普通車</t>
+  </si>
+  <si>
+    <t>きゅうこう</t>
+  </si>
+  <si>
+    <t>急行</t>
+  </si>
+  <si>
+    <t>快車</t>
+  </si>
+  <si>
+    <t>とっきゅう</t>
+  </si>
+  <si>
+    <t>特急</t>
+  </si>
+  <si>
+    <t>特快車</t>
+  </si>
+  <si>
+    <t>つぎの</t>
+  </si>
+  <si>
+    <t>次の</t>
+  </si>
+  <si>
+    <t>下一個 下一次</t>
+  </si>
+  <si>
+    <t>どう いたしまして</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不客氣 哪裡哪裡</t>
+  </si>
+  <si>
+    <t>…ばん せん</t>
+  </si>
+  <si>
+    <t>…番線</t>
+  </si>
+  <si>
+    <t>第…月台</t>
+  </si>
+  <si>
+    <t>はかた</t>
+  </si>
+  <si>
+    <t>博多</t>
+  </si>
+  <si>
+    <t>博多(在九州)</t>
+  </si>
+  <si>
+    <t>こうしえん</t>
+  </si>
+  <si>
+    <t>甲子園</t>
+  </si>
+  <si>
+    <t>甲子園(大阪)</t>
+  </si>
+  <si>
+    <t>おお さか じょう</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪城(大阪的城堡)</t>
+  </si>
+  <si>
+    <t>たべます</t>
+  </si>
+  <si>
+    <t>食べます</t>
+  </si>
+  <si>
+    <t>喝 飲 服用</t>
+  </si>
+  <si>
+    <t>すいます</t>
+  </si>
+  <si>
+    <t>吸います</t>
+  </si>
+  <si>
+    <t>吸〔煙〕</t>
+  </si>
+  <si>
+    <t>たばこ を すいます</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>たばこ を 吸います</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸煙</t>
+  </si>
+  <si>
+    <t>みます</t>
+  </si>
+  <si>
+    <t>見ます</t>
+  </si>
+  <si>
+    <t>ききます</t>
+  </si>
+  <si>
+    <t>聞きます</t>
+  </si>
+  <si>
+    <t>聽</t>
+  </si>
+  <si>
+    <t>よみます</t>
+  </si>
+  <si>
+    <t>読みます</t>
+  </si>
+  <si>
+    <t>かきます</t>
+  </si>
+  <si>
+    <t>書きます</t>
+  </si>
+  <si>
+    <t>書寫</t>
+  </si>
+  <si>
+    <t>かいます</t>
+  </si>
+  <si>
+    <t>買います</t>
+  </si>
+  <si>
+    <t>購買</t>
+  </si>
+  <si>
+    <t>とります</t>
+  </si>
+  <si>
+    <t>撮ります</t>
+  </si>
+  <si>
+    <t>拍(照) 攝(影)</t>
+  </si>
+  <si>
+    <t>しゃしん を とります</t>
+  </si>
+  <si>
+    <t>写真 を 撮ります</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照 攝影</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>します</t>
+  </si>
+  <si>
+    <t>あいます</t>
+  </si>
+  <si>
+    <t>会います</t>
+  </si>
+  <si>
+    <t>遇見 碰見(朋友)</t>
+  </si>
+  <si>
+    <t>ともだち に あいます</t>
+  </si>
+  <si>
+    <t>友達 に 会います</t>
+  </si>
+  <si>
+    <t>遇見 碰見朋友</t>
+  </si>
+  <si>
+    <t>餐，米飯</t>
+  </si>
+  <si>
+    <t>あさごはん</t>
+  </si>
+  <si>
+    <t>朝ごはん</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>ひるごはん</t>
+  </si>
+  <si>
+    <t>昼ごはん</t>
+  </si>
+  <si>
+    <t>中餐</t>
+  </si>
+  <si>
+    <t>ばんごはん</t>
+  </si>
+  <si>
+    <t>晩ごはん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晚餐 </t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>雞蛋</t>
+  </si>
+  <si>
+    <t>ミルク</t>
+  </si>
+  <si>
+    <t>[お]さけ</t>
+  </si>
+  <si>
+    <t>[お]酒</t>
+  </si>
+  <si>
+    <t>酒類 日本酒</t>
+  </si>
+  <si>
+    <t>錄影帶 錄影機</t>
+  </si>
+  <si>
+    <t>えいが</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>電影</t>
+  </si>
+  <si>
+    <t>レポート</t>
+  </si>
+  <si>
+    <t>報告</t>
+  </si>
+  <si>
+    <t>しゃしん</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>相片</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>にわ</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>院子</t>
+  </si>
+  <si>
+    <t>しゅくだい</t>
+  </si>
+  <si>
+    <t>宿題</t>
+  </si>
+  <si>
+    <t>作業</t>
+  </si>
+  <si>
+    <t>しゅくだい を します</t>
+  </si>
+  <si>
+    <t>宿題 を します</t>
+  </si>
+  <si>
+    <t>做作業</t>
+  </si>
+  <si>
+    <t>テニス</t>
+  </si>
+  <si>
+    <t>網球</t>
+  </si>
+  <si>
+    <t>テニス を します</t>
+  </si>
+  <si>
+    <t>打網球</t>
+  </si>
+  <si>
+    <t>サッカー</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>サッカー を します</t>
+  </si>
+  <si>
+    <t>踢足球</t>
+  </si>
+  <si>
+    <t>[お]はなみ</t>
+  </si>
+  <si>
+    <t>[お]花見</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賞花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[お]はなみ を します</t>
+  </si>
+  <si>
+    <t>[お]花見をします</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去賞花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>なに</t>
+  </si>
+  <si>
+    <t>いっしょに</t>
+  </si>
+  <si>
+    <t>一起</t>
+  </si>
+  <si>
+    <t>ちょっと</t>
+  </si>
+  <si>
+    <t>一下子 稍</t>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>總是</t>
+  </si>
+  <si>
+    <t>ときどき</t>
+  </si>
+  <si>
+    <t>時々</t>
+  </si>
+  <si>
+    <t>時常 有時</t>
+  </si>
+  <si>
+    <t>それから</t>
+  </si>
+  <si>
+    <t>然後</t>
+  </si>
+  <si>
+    <t>ええ</t>
+  </si>
+  <si>
+    <t>是 嗯(表贊同)</t>
+  </si>
+  <si>
+    <t>いいですね</t>
+  </si>
+  <si>
+    <t>好呀。</t>
+  </si>
+  <si>
+    <t>わかりました</t>
+  </si>
+  <si>
+    <t>我明白了 我知道了</t>
+  </si>
+  <si>
+    <t>なんですか</t>
+  </si>
+  <si>
+    <t>何ですか</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>什麼事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃ、また［あした］</t>
+  </si>
+  <si>
+    <t>那麼明天見。</t>
+  </si>
+  <si>
+    <t>メキシコ</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおさかじょう こうえん</t>
+  </si>
+  <si>
+    <t>大阪城公園</t>
+  </si>
+  <si>
+    <t>*1~3課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*4~6課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**第2課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**第1課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**第3課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**第4課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**第5課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**第6課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4040,22 +5209,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C479"/>
+  <dimension ref="A1:C668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:C479"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s">
         <v>44</v>
@@ -4066,746 +5235,743 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="1" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
         <v>97</v>
@@ -4813,4223 +5979,6125 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>352</v>
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>353</v>
-      </c>
-      <c r="C102" t="s">
-        <v>361</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C103" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>368</v>
-      </c>
-      <c r="B110" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C110" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C111" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B112" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C113" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>382</v>
+        <v>376</v>
+      </c>
+      <c r="B115" t="s">
+        <v>377</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>384</v>
-      </c>
-      <c r="B116" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>387</v>
+        <v>381</v>
+      </c>
+      <c r="B117" t="s">
+        <v>382</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>389</v>
-      </c>
-      <c r="B118" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>394</v>
+        <v>388</v>
+      </c>
+      <c r="B120" t="s">
+        <v>389</v>
       </c>
       <c r="C120" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C121" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>398</v>
-      </c>
-      <c r="B122" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>404</v>
+        <v>398</v>
+      </c>
+      <c r="B124" t="s">
+        <v>399</v>
       </c>
       <c r="C124" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>406</v>
-      </c>
-      <c r="B125" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C125" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C126" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>411</v>
+        <v>405</v>
+      </c>
+      <c r="B127" t="s">
+        <v>406</v>
       </c>
       <c r="C127" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C128" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>417</v>
-      </c>
-      <c r="B130" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C130" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B131" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C131" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C132" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C133" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C134" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>431</v>
+        <v>425</v>
+      </c>
+      <c r="B135" t="s">
+        <v>426</v>
       </c>
       <c r="C135" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>433</v>
-      </c>
-      <c r="B136" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C136" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C137" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B138" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="B139" t="s">
+        <v>435</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>442</v>
-      </c>
-      <c r="B140" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C140" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>445</v>
+        <v>439</v>
+      </c>
+      <c r="B141" t="s">
+        <v>440</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C142" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C143" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>451</v>
-      </c>
-      <c r="B144" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C144" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>454</v>
+        <v>448</v>
+      </c>
+      <c r="B145" t="s">
+        <v>449</v>
       </c>
       <c r="C145" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C146" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>453</v>
+      </c>
+      <c r="C147" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>239</v>
-      </c>
-      <c r="B148" t="s">
-        <v>240</v>
-      </c>
-      <c r="C148" t="s">
-        <v>234</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>241</v>
-      </c>
-      <c r="B149" t="s">
-        <v>242</v>
-      </c>
-      <c r="C149" t="s">
-        <v>235</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>1175</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>1176</v>
       </c>
       <c r="C150" t="s">
-        <v>245</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>1178</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>1179</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>249</v>
+        <v>1181</v>
       </c>
       <c r="B152" t="s">
-        <v>250</v>
+        <v>1182</v>
       </c>
       <c r="C152" t="s">
-        <v>251</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>1184</v>
       </c>
       <c r="B153" t="s">
-        <v>253</v>
+        <v>1185</v>
       </c>
       <c r="C153" t="s">
-        <v>254</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>255</v>
+        <v>1187</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>1188</v>
       </c>
       <c r="C154" t="s">
-        <v>257</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>258</v>
+        <v>1190</v>
       </c>
       <c r="B155" t="s">
-        <v>259</v>
+        <v>1191</v>
       </c>
       <c r="C155" t="s">
-        <v>260</v>
+        <v>755</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>261</v>
-      </c>
-      <c r="B156" t="s">
-        <v>262</v>
+        <v>510</v>
       </c>
       <c r="C156" t="s">
-        <v>263</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>264</v>
+        <v>474</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>267</v>
+        <v>491</v>
       </c>
       <c r="B158" t="s">
-        <v>268</v>
+        <v>490</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>270</v>
+        <v>494</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>493</v>
       </c>
       <c r="C159" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>1192</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>1193</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>1194</v>
       </c>
       <c r="B161" t="s">
-        <v>277</v>
+        <v>1195</v>
       </c>
       <c r="C161" t="s">
-        <v>278</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>279</v>
+        <v>1197</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>1198</v>
       </c>
       <c r="C162" t="s">
-        <v>281</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>282</v>
+        <v>1200</v>
       </c>
       <c r="B163" t="s">
-        <v>283</v>
+        <v>1201</v>
       </c>
       <c r="C163" t="s">
-        <v>284</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>1203</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
+        <v>1204</v>
       </c>
       <c r="C164" t="s">
-        <v>287</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>1205</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>1206</v>
       </c>
       <c r="C165" t="s">
-        <v>290</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>1208</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>1209</v>
       </c>
       <c r="C166" t="s">
-        <v>293</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>1211</v>
       </c>
       <c r="B167" t="s">
-        <v>295</v>
+        <v>1212</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>1214</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>1215</v>
       </c>
       <c r="C168" t="s">
-        <v>299</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>300</v>
+        <v>1217</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>1218</v>
       </c>
       <c r="C169" t="s">
-        <v>301</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>302</v>
+        <v>1220</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>1221</v>
       </c>
       <c r="C170" t="s">
-        <v>304</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>1223</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>1224</v>
       </c>
       <c r="C171" t="s">
-        <v>306</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>307</v>
+        <v>1226</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
-      </c>
-      <c r="C172" t="s">
-        <v>309</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>1228</v>
       </c>
       <c r="B173" t="s">
-        <v>311</v>
-      </c>
-      <c r="C173" t="s">
-        <v>312</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>313</v>
-      </c>
-      <c r="C174" t="s">
-        <v>314</v>
+        <v>1230</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>315</v>
-      </c>
-      <c r="B175" t="s">
-        <v>316</v>
+        <v>1232</v>
       </c>
       <c r="C175" t="s">
-        <v>317</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>318</v>
-      </c>
-      <c r="B176" t="s">
-        <v>319</v>
+        <v>1234</v>
       </c>
       <c r="C176" t="s">
-        <v>320</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>321</v>
-      </c>
-      <c r="B177" t="s">
-        <v>322</v>
+        <v>1236</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>324</v>
+        <v>1238</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1239</v>
       </c>
       <c r="C178" t="s">
-        <v>290</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>1241</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>1242</v>
       </c>
       <c r="C179" t="s">
-        <v>327</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>1244</v>
       </c>
       <c r="B180" t="s">
-        <v>329</v>
+        <v>1245</v>
       </c>
       <c r="C180" t="s">
-        <v>330</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>1247</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>1248</v>
       </c>
       <c r="C181" t="s">
-        <v>332</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>333</v>
+        <v>1250</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
+        <v>1251</v>
       </c>
       <c r="C182" t="s">
-        <v>335</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>336</v>
+        <v>1253</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1254</v>
       </c>
       <c r="C183" t="s">
-        <v>337</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>338</v>
+        <v>1041</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1042</v>
       </c>
       <c r="C184" t="s">
-        <v>339</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>340</v>
+        <v>1044</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1045</v>
       </c>
       <c r="C185" t="s">
-        <v>341</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>342</v>
+        <v>1047</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1048</v>
       </c>
       <c r="C186" t="s">
-        <v>343</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>1050</v>
       </c>
       <c r="B187" t="s">
-        <v>345</v>
+        <v>1051</v>
       </c>
       <c r="C187" t="s">
-        <v>346</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>347</v>
+        <v>1053</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1054</v>
       </c>
       <c r="C188" t="s">
-        <v>348</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>349</v>
+        <v>1056</v>
       </c>
       <c r="B189" t="s">
-        <v>350</v>
+        <v>1057</v>
       </c>
       <c r="C189" t="s">
-        <v>351</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>459</v>
+        <v>1059</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>461</v>
+        <v>1257</v>
       </c>
       <c r="B191" t="s">
-        <v>460</v>
+        <v>1258</v>
       </c>
       <c r="C191" t="s">
-        <v>460</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>464</v>
+        <v>1260</v>
       </c>
       <c r="B192" t="s">
-        <v>463</v>
+        <v>1261</v>
       </c>
       <c r="C192" t="s">
-        <v>462</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>467</v>
+        <v>1263</v>
       </c>
       <c r="B193" t="s">
-        <v>466</v>
+        <v>1264</v>
       </c>
       <c r="C193" t="s">
-        <v>465</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>469</v>
-      </c>
-      <c r="B194" t="s">
-        <v>468</v>
+        <v>1266</v>
       </c>
       <c r="C194" t="s">
-        <v>468</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>384</v>
-      </c>
-      <c r="B195" t="s">
-        <v>385</v>
+        <v>1268</v>
       </c>
       <c r="C195" t="s">
-        <v>386</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>472</v>
-      </c>
-      <c r="B196" t="s">
-        <v>471</v>
+        <v>1270</v>
       </c>
       <c r="C196" t="s">
-        <v>470</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="B197" t="s">
-        <v>474</v>
+        <v>1272</v>
       </c>
       <c r="C197" t="s">
-        <v>473</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>1274</v>
       </c>
       <c r="B198" t="s">
-        <v>402</v>
+        <v>1275</v>
       </c>
       <c r="C198" t="s">
-        <v>403</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>477</v>
-      </c>
-      <c r="B199" t="s">
-        <v>476</v>
+        <v>1277</v>
       </c>
       <c r="C199" t="s">
-        <v>476</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>479</v>
+        <v>1279</v>
       </c>
       <c r="B200" t="s">
-        <v>478</v>
+        <v>1280</v>
       </c>
       <c r="C200" t="s">
-        <v>478</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>161</v>
-      </c>
-      <c r="B201" t="s">
-        <v>162</v>
+        <v>1282</v>
       </c>
       <c r="C201" t="s">
-        <v>163</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>482</v>
+        <v>1284</v>
       </c>
       <c r="B202" t="s">
-        <v>481</v>
-      </c>
-      <c r="C202" t="s">
-        <v>480</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>368</v>
-      </c>
-      <c r="B203" t="s">
-        <v>369</v>
+        <v>1286</v>
       </c>
       <c r="C203" t="s">
-        <v>369</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>485</v>
-      </c>
-      <c r="B204" t="s">
-        <v>484</v>
+        <v>1288</v>
       </c>
       <c r="C204" t="s">
-        <v>483</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>488</v>
-      </c>
-      <c r="B205" t="s">
-        <v>487</v>
+        <v>1290</v>
       </c>
       <c r="C205" t="s">
-        <v>486</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>491</v>
-      </c>
-      <c r="B206" t="s">
-        <v>490</v>
+        <v>1292</v>
       </c>
       <c r="C206" t="s">
-        <v>489</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>494</v>
-      </c>
-      <c r="B207" t="s">
-        <v>493</v>
+        <v>1294</v>
       </c>
       <c r="C207" t="s">
-        <v>492</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>497</v>
-      </c>
-      <c r="B208" t="s">
-        <v>496</v>
+        <v>1296</v>
       </c>
       <c r="C208" t="s">
-        <v>495</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>500</v>
+        <v>1192</v>
       </c>
       <c r="B209" t="s">
-        <v>499</v>
+        <v>1193</v>
       </c>
       <c r="C209" t="s">
-        <v>498</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>503</v>
-      </c>
-      <c r="B210" t="s">
-        <v>502</v>
-      </c>
-      <c r="C210" t="s">
-        <v>501</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>506</v>
-      </c>
-      <c r="B211" t="s">
-        <v>505</v>
+        <v>1299</v>
       </c>
       <c r="C211" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B212" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C212" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="B213" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="C213" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>514</v>
-      </c>
-      <c r="B214" t="s">
-        <v>513</v>
+        <v>1301</v>
       </c>
       <c r="C214" t="s">
-        <v>512</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>516</v>
-      </c>
-      <c r="B215" t="s">
-        <v>394</v>
-      </c>
-      <c r="C215" t="s">
-        <v>515</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>519</v>
+        <v>1303</v>
       </c>
       <c r="B216" t="s">
-        <v>518</v>
+        <v>1304</v>
       </c>
       <c r="C216" t="s">
-        <v>517</v>
+        <v>743</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>521</v>
+        <v>1305</v>
       </c>
       <c r="B217" t="s">
-        <v>387</v>
+        <v>1306</v>
       </c>
       <c r="C217" t="s">
-        <v>520</v>
+        <v>781</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>523</v>
+        <v>1307</v>
       </c>
       <c r="B218" t="s">
-        <v>522</v>
+        <v>1308</v>
       </c>
       <c r="C218" t="s">
-        <v>522</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="B219" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="C219" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>527</v>
+        <v>1310</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="B221" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="C221" t="s">
-        <v>528</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>533</v>
+        <v>1313</v>
       </c>
       <c r="B222" t="s">
-        <v>532</v>
+        <v>1314</v>
       </c>
       <c r="C222" t="s">
-        <v>531</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>536</v>
+        <v>1316</v>
       </c>
       <c r="B223" t="s">
-        <v>535</v>
+        <v>1317</v>
       </c>
       <c r="C223" t="s">
-        <v>534</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>539</v>
+        <v>1318</v>
       </c>
       <c r="B224" t="s">
-        <v>538</v>
+        <v>1319</v>
       </c>
       <c r="C224" t="s">
-        <v>537</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="B225" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="C225" t="s">
-        <v>540</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>545</v>
+        <v>1321</v>
       </c>
       <c r="B226" t="s">
-        <v>544</v>
+        <v>1322</v>
       </c>
       <c r="C226" t="s">
-        <v>543</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>547</v>
-      </c>
-      <c r="B227" t="s">
-        <v>546</v>
+        <v>1323</v>
       </c>
       <c r="C227" t="s">
-        <v>546</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>549</v>
-      </c>
-      <c r="B228" t="s">
-        <v>548</v>
+        <v>1325</v>
       </c>
       <c r="C228" t="s">
-        <v>548</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>551</v>
+        <v>1327</v>
       </c>
       <c r="B229" t="s">
-        <v>550</v>
+        <v>1328</v>
       </c>
       <c r="C229" t="s">
-        <v>550</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>553</v>
+        <v>1330</v>
       </c>
       <c r="B230" t="s">
-        <v>552</v>
+        <v>1331</v>
       </c>
       <c r="C230" t="s">
-        <v>552</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="B231" t="s">
-        <v>555</v>
+        <v>1334</v>
       </c>
       <c r="C231" t="s">
-        <v>554</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>558</v>
+        <v>1335</v>
       </c>
       <c r="B232" t="s">
-        <v>557</v>
+        <v>1336</v>
       </c>
       <c r="C232" t="s">
-        <v>557</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>561</v>
+        <v>1338</v>
       </c>
       <c r="B233" t="s">
-        <v>560</v>
+        <v>1339</v>
       </c>
       <c r="C233" t="s">
-        <v>559</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>563</v>
+        <v>1341</v>
       </c>
       <c r="B234" t="s">
-        <v>1130</v>
+        <v>1342</v>
       </c>
       <c r="C234" t="s">
-        <v>562</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>566</v>
+        <v>1344</v>
       </c>
       <c r="B235" t="s">
-        <v>565</v>
+        <v>1345</v>
       </c>
       <c r="C235" t="s">
-        <v>564</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>569</v>
+        <v>1347</v>
       </c>
       <c r="B236" t="s">
-        <v>568</v>
+        <v>1348</v>
       </c>
       <c r="C236" t="s">
-        <v>567</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>571</v>
+        <v>1118</v>
       </c>
       <c r="B237" t="s">
-        <v>570</v>
+        <v>1119</v>
       </c>
       <c r="C237" t="s">
-        <v>570</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>574</v>
+        <v>1121</v>
       </c>
       <c r="B238" t="s">
-        <v>573</v>
+        <v>1122</v>
       </c>
       <c r="C238" t="s">
-        <v>572</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>576</v>
+        <v>1124</v>
       </c>
       <c r="B239" t="s">
-        <v>575</v>
+        <v>1125</v>
       </c>
       <c r="C239" t="s">
-        <v>575</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>579</v>
+        <v>1100</v>
       </c>
       <c r="B240" t="s">
-        <v>578</v>
+        <v>1101</v>
       </c>
       <c r="C240" t="s">
-        <v>577</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>582</v>
+        <v>1353</v>
       </c>
       <c r="B241" t="s">
-        <v>581</v>
+        <v>1104</v>
       </c>
       <c r="C241" t="s">
-        <v>580</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>585</v>
+        <v>1106</v>
       </c>
       <c r="B242" t="s">
-        <v>584</v>
+        <v>1107</v>
       </c>
       <c r="C242" t="s">
-        <v>583</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>586</v>
+        <v>1354</v>
       </c>
       <c r="B243" t="s">
-        <v>120</v>
+        <v>1355</v>
       </c>
       <c r="C243" t="s">
-        <v>121</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>589</v>
-      </c>
-      <c r="B244" t="s">
-        <v>588</v>
+        <v>1356</v>
       </c>
       <c r="C244" t="s">
-        <v>587</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>590</v>
+        <v>1358</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>593</v>
+        <v>1361</v>
       </c>
       <c r="B246" t="s">
-        <v>592</v>
+        <v>1362</v>
       </c>
       <c r="C246" t="s">
-        <v>591</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>596</v>
+        <v>1363</v>
       </c>
       <c r="B247" t="s">
-        <v>595</v>
+        <v>1364</v>
       </c>
       <c r="C247" t="s">
-        <v>594</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>599</v>
+        <v>1366</v>
       </c>
       <c r="B248" t="s">
-        <v>598</v>
+        <v>1367</v>
       </c>
       <c r="C248" t="s">
-        <v>597</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>602</v>
+        <v>1369</v>
       </c>
       <c r="B249" t="s">
-        <v>601</v>
+        <v>1370</v>
       </c>
       <c r="C249" t="s">
-        <v>600</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>605</v>
+        <v>1372</v>
       </c>
       <c r="B250" t="s">
-        <v>604</v>
+        <v>1373</v>
       </c>
       <c r="C250" t="s">
-        <v>603</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>608</v>
+        <v>1375</v>
       </c>
       <c r="B251" t="s">
-        <v>607</v>
+        <v>1376</v>
       </c>
       <c r="C251" t="s">
-        <v>606</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>611</v>
+        <v>1378</v>
       </c>
       <c r="B252" t="s">
-        <v>610</v>
+        <v>1379</v>
       </c>
       <c r="C252" t="s">
-        <v>609</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>614</v>
+        <v>1381</v>
       </c>
       <c r="B253" t="s">
-        <v>613</v>
+        <v>1382</v>
       </c>
       <c r="C253" t="s">
-        <v>612</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>617</v>
+        <v>1384</v>
       </c>
       <c r="B254" t="s">
-        <v>616</v>
+        <v>1385</v>
       </c>
       <c r="C254" t="s">
-        <v>615</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>620</v>
+        <v>1387</v>
       </c>
       <c r="B255" t="s">
-        <v>619</v>
+        <v>1388</v>
       </c>
       <c r="C255" t="s">
-        <v>618</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>623</v>
+        <v>1390</v>
       </c>
       <c r="B256" t="s">
-        <v>622</v>
+        <v>1391</v>
       </c>
       <c r="C256" t="s">
-        <v>621</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>408</v>
+        <v>1393</v>
       </c>
       <c r="B257" t="s">
-        <v>409</v>
+        <v>1394</v>
       </c>
       <c r="C257" t="s">
-        <v>410</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>626</v>
+        <v>1396</v>
       </c>
       <c r="B258" t="s">
-        <v>625</v>
+        <v>1397</v>
       </c>
       <c r="C258" t="s">
-        <v>624</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>58</v>
+        <v>1399</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>1400</v>
       </c>
       <c r="C259" t="s">
-        <v>627</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>629</v>
+        <v>1402</v>
       </c>
       <c r="B260" t="s">
-        <v>628</v>
+        <v>1403</v>
       </c>
       <c r="C260" t="s">
-        <v>628</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>632</v>
+        <v>1405</v>
       </c>
       <c r="B261" t="s">
-        <v>631</v>
+        <v>1406</v>
       </c>
       <c r="C261" t="s">
-        <v>630</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>61</v>
+        <v>1408</v>
       </c>
       <c r="B262" t="s">
-        <v>62</v>
+        <v>1409</v>
       </c>
       <c r="C262" t="s">
-        <v>633</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>636</v>
-      </c>
-      <c r="B263" t="s">
-        <v>635</v>
+        <v>1411</v>
       </c>
       <c r="C263" t="s">
-        <v>634</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>639</v>
+        <v>1413</v>
       </c>
       <c r="B264" t="s">
-        <v>638</v>
+        <v>1414</v>
       </c>
       <c r="C264" t="s">
-        <v>637</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>642</v>
+        <v>1416</v>
       </c>
       <c r="B265" t="s">
-        <v>641</v>
+        <v>1417</v>
       </c>
       <c r="C265" t="s">
-        <v>640</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>82</v>
+        <v>1419</v>
       </c>
       <c r="B266" t="s">
-        <v>83</v>
+        <v>1420</v>
       </c>
       <c r="C266" t="s">
-        <v>83</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>645</v>
+        <v>1422</v>
       </c>
       <c r="B267" t="s">
-        <v>644</v>
+        <v>1423</v>
       </c>
       <c r="C267" t="s">
-        <v>643</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>648</v>
+        <v>1425</v>
       </c>
       <c r="B268" t="s">
-        <v>647</v>
+        <v>1426</v>
       </c>
       <c r="C268" t="s">
-        <v>646</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>651</v>
-      </c>
-      <c r="B269" t="s">
-        <v>650</v>
+        <v>1428</v>
       </c>
       <c r="C269" t="s">
-        <v>649</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>654</v>
+        <v>1430</v>
       </c>
       <c r="B270" t="s">
-        <v>653</v>
+        <v>1431</v>
       </c>
       <c r="C270" t="s">
-        <v>652</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>655</v>
+        <v>1433</v>
       </c>
       <c r="B271" t="s">
-        <v>70</v>
+        <v>1434</v>
       </c>
       <c r="C271" t="s">
-        <v>71</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>656</v>
+        <v>1436</v>
       </c>
       <c r="B272" t="s">
-        <v>84</v>
+        <v>1437</v>
       </c>
       <c r="C272" t="s">
-        <v>85</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>657</v>
+        <v>1439</v>
       </c>
       <c r="B273" t="s">
-        <v>86</v>
+        <v>1440</v>
       </c>
       <c r="C273" t="s">
-        <v>87</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>406</v>
-      </c>
-      <c r="B274" t="s">
-        <v>407</v>
-      </c>
-      <c r="C274" t="s">
-        <v>407</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>660</v>
+        <v>1442</v>
       </c>
       <c r="B275" t="s">
-        <v>659</v>
+        <v>1443</v>
       </c>
       <c r="C275" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>663</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>662</v>
+        <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>661</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>664</v>
+        <v>1445</v>
       </c>
       <c r="B277" t="s">
-        <v>102</v>
+        <v>1446</v>
       </c>
       <c r="C277" t="s">
-        <v>103</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>667</v>
+        <v>1448</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>1449</v>
       </c>
       <c r="C278" t="s">
-        <v>665</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>669</v>
+        <v>1451</v>
       </c>
       <c r="B279" t="s">
-        <v>106</v>
+        <v>1452</v>
       </c>
       <c r="C279" t="s">
-        <v>668</v>
+        <v>847</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>671</v>
+        <v>1453</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>1454</v>
       </c>
       <c r="C280" t="s">
-        <v>109</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>674</v>
+        <v>1456</v>
       </c>
       <c r="B281" t="s">
-        <v>673</v>
+        <v>1457</v>
       </c>
       <c r="C281" t="s">
-        <v>672</v>
+        <v>853</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>675</v>
+        <v>1458</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>678</v>
+        <v>1461</v>
       </c>
       <c r="B283" t="s">
-        <v>677</v>
+        <v>1462</v>
       </c>
       <c r="C283" t="s">
-        <v>676</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>681</v>
+        <v>1464</v>
       </c>
       <c r="B284" t="s">
-        <v>680</v>
+        <v>1465</v>
       </c>
       <c r="C284" t="s">
-        <v>679</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>684</v>
+        <v>1467</v>
       </c>
       <c r="B285" t="s">
-        <v>683</v>
+        <v>1468</v>
       </c>
       <c r="C285" t="s">
-        <v>682</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>687</v>
-      </c>
-      <c r="B286" t="s">
-        <v>686</v>
+        <v>1470</v>
       </c>
       <c r="C286" t="s">
-        <v>685</v>
+        <v>808</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>690</v>
+        <v>1471</v>
       </c>
       <c r="B287" t="s">
-        <v>689</v>
+        <v>1472</v>
       </c>
       <c r="C287" t="s">
-        <v>688</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>693</v>
+        <v>1474</v>
       </c>
       <c r="B288" t="s">
-        <v>692</v>
+        <v>1475</v>
       </c>
       <c r="C288" t="s">
-        <v>691</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>696</v>
-      </c>
-      <c r="B289" t="s">
-        <v>695</v>
+        <v>530</v>
       </c>
       <c r="C289" t="s">
-        <v>694</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>699</v>
+        <v>1478</v>
       </c>
       <c r="B290" t="s">
-        <v>698</v>
+        <v>1479</v>
       </c>
       <c r="C290" t="s">
-        <v>697</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>702</v>
+        <v>1481</v>
       </c>
       <c r="B291" t="s">
-        <v>701</v>
+        <v>1482</v>
       </c>
       <c r="C291" t="s">
-        <v>700</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>705</v>
+        <v>1484</v>
       </c>
       <c r="B292" t="s">
-        <v>704</v>
+        <v>1485</v>
       </c>
       <c r="C292" t="s">
-        <v>703</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>708</v>
-      </c>
-      <c r="B293" t="s">
-        <v>707</v>
+        <v>541</v>
       </c>
       <c r="C293" t="s">
-        <v>706</v>
+        <v>540</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>404</v>
+        <v>560</v>
       </c>
       <c r="B294" t="s">
-        <v>710</v>
+        <v>1487</v>
       </c>
       <c r="C294" t="s">
-        <v>709</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>713</v>
+        <v>548</v>
       </c>
       <c r="B295" t="s">
-        <v>712</v>
+        <v>547</v>
       </c>
       <c r="C295" t="s">
-        <v>711</v>
+        <v>547</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>716</v>
+        <v>546</v>
       </c>
       <c r="B296" t="s">
-        <v>715</v>
+        <v>545</v>
       </c>
       <c r="C296" t="s">
-        <v>714</v>
+        <v>545</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>719</v>
+        <v>558</v>
       </c>
       <c r="B297" t="s">
-        <v>718</v>
+        <v>557</v>
       </c>
       <c r="C297" t="s">
-        <v>717</v>
+        <v>556</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>722</v>
+        <v>533</v>
       </c>
       <c r="B298" t="s">
-        <v>721</v>
+        <v>532</v>
       </c>
       <c r="C298" t="s">
-        <v>720</v>
+        <v>531</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>723</v>
+        <v>568</v>
+      </c>
+      <c r="B299" t="s">
+        <v>567</v>
+      </c>
+      <c r="C299" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>724</v>
-      </c>
-      <c r="B300">
-        <v>1</v>
+        <v>571</v>
+      </c>
+      <c r="B300" t="s">
+        <v>570</v>
       </c>
       <c r="C300" t="s">
-        <v>1131</v>
+        <v>569</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>725</v>
-      </c>
-      <c r="B301">
-        <v>2</v>
+        <v>573</v>
+      </c>
+      <c r="B301" t="s">
+        <v>572</v>
       </c>
       <c r="C301" t="s">
-        <v>1132</v>
+        <v>572</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>726</v>
-      </c>
-      <c r="B302">
-        <v>3</v>
+        <v>576</v>
+      </c>
+      <c r="B302" t="s">
+        <v>575</v>
       </c>
       <c r="C302" t="s">
-        <v>1133</v>
+        <v>574</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>727</v>
-      </c>
-      <c r="B303">
-        <v>4</v>
+        <v>1489</v>
+      </c>
+      <c r="B303" t="s">
+        <v>575</v>
       </c>
       <c r="C303" t="s">
-        <v>1134</v>
+        <v>574</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>728</v>
-      </c>
-      <c r="B304">
-        <v>5</v>
+        <v>585</v>
       </c>
       <c r="C304" t="s">
-        <v>1135</v>
+        <v>584</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>729</v>
-      </c>
-      <c r="B305">
-        <v>6</v>
+        <v>581</v>
       </c>
       <c r="C305" t="s">
-        <v>1136</v>
+        <v>580</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>730</v>
-      </c>
-      <c r="B306">
-        <v>7</v>
+        <v>1490</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1491</v>
       </c>
       <c r="C306" t="s">
-        <v>1137</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>731</v>
-      </c>
-      <c r="B307">
-        <v>8</v>
+        <v>663</v>
       </c>
       <c r="C307" t="s">
-        <v>1138</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>732</v>
-      </c>
-      <c r="B308">
-        <v>9</v>
+        <v>1494</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1495</v>
       </c>
       <c r="C308" t="s">
-        <v>1139</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>733</v>
-      </c>
-      <c r="B309">
-        <v>10</v>
+        <v>633</v>
+      </c>
+      <c r="B309" t="s">
+        <v>632</v>
       </c>
       <c r="C309" t="s">
-        <v>1140</v>
+        <v>631</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B310">
-        <v>20</v>
+        <v>1497</v>
       </c>
       <c r="C310" t="s">
-        <v>1141</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B311">
-        <v>30</v>
+        <v>1499</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1500</v>
       </c>
       <c r="C311" t="s">
-        <v>1142</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B312">
-        <v>40</v>
+        <v>458</v>
+      </c>
+      <c r="B312" t="s">
+        <v>457</v>
       </c>
       <c r="C312" t="s">
-        <v>1143</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B313">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="C313" t="s">
-        <v>1144</v>
+        <v>470</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B314">
-        <v>60</v>
+        <v>1503</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1504</v>
       </c>
       <c r="C314" t="s">
-        <v>1145</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B315">
-        <v>70</v>
+        <v>1506</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1507</v>
       </c>
       <c r="C315" t="s">
-        <v>1146</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B316">
-        <v>80</v>
+        <v>1509</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1510</v>
       </c>
       <c r="C316" t="s">
-        <v>1147</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B317">
-        <v>90</v>
+        <v>1512</v>
       </c>
       <c r="C317" t="s">
-        <v>1148</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>433</v>
-      </c>
-      <c r="B318">
-        <v>100</v>
+        <v>1514</v>
       </c>
       <c r="C318" t="s">
-        <v>434</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B319">
-        <v>200</v>
+        <v>1516</v>
       </c>
       <c r="C319" t="s">
-        <v>1149</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B320">
-        <v>300</v>
+        <v>1518</v>
       </c>
       <c r="C320" t="s">
-        <v>1150</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B321">
-        <v>400</v>
+        <v>1520</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1521</v>
       </c>
       <c r="C321" t="s">
-        <v>1151</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B322">
-        <v>500</v>
+        <v>1523</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1524</v>
       </c>
       <c r="C322" t="s">
-        <v>1152</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B323">
-        <v>600</v>
+        <v>1526</v>
+      </c>
+      <c r="B323" t="s">
+        <v>130</v>
       </c>
       <c r="C323" t="s">
-        <v>1153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B324">
-        <v>700</v>
+        <v>1527</v>
       </c>
       <c r="C324" t="s">
-        <v>1154</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B325">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="C325" t="s">
-        <v>1155</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B326">
-        <v>900</v>
+        <v>1531</v>
       </c>
       <c r="C326" t="s">
-        <v>1156</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>435</v>
-      </c>
-      <c r="B327">
-        <v>1000</v>
+        <v>1533</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1534</v>
       </c>
       <c r="C327" t="s">
-        <v>436</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B328">
-        <v>2000</v>
+        <v>1536</v>
       </c>
       <c r="C328" t="s">
-        <v>1157</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B329">
-        <v>3000</v>
+        <v>1538</v>
       </c>
       <c r="C329" t="s">
-        <v>1158</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B330">
-        <v>4000</v>
+        <v>1540</v>
       </c>
       <c r="C330" t="s">
-        <v>1159</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B331">
-        <v>5000</v>
+        <v>1542</v>
       </c>
       <c r="C331" t="s">
-        <v>1160</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B332">
-        <v>6000</v>
+        <v>1544</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1545</v>
       </c>
       <c r="C332" t="s">
-        <v>1161</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B333">
-        <v>7000</v>
+        <v>1547</v>
       </c>
       <c r="C333" t="s">
-        <v>1162</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B334">
-        <v>8000</v>
+        <v>1549</v>
       </c>
       <c r="C334" t="s">
-        <v>1163</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B335">
-        <v>9000</v>
+        <v>1551</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1552</v>
       </c>
       <c r="C335" t="s">
-        <v>1164</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C336" t="s">
-        <v>439</v>
+        <v>236</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B337">
-        <v>20000</v>
+        <v>237</v>
+      </c>
+      <c r="B337" t="s">
+        <v>238</v>
       </c>
       <c r="C337" t="s">
-        <v>1166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B338">
-        <v>30000</v>
+        <v>239</v>
+      </c>
+      <c r="B338" t="s">
+        <v>240</v>
       </c>
       <c r="C338" t="s">
-        <v>1167</v>
+        <v>235</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B339">
-        <v>40000</v>
+        <v>241</v>
+      </c>
+      <c r="B339" t="s">
+        <v>242</v>
       </c>
       <c r="C339" t="s">
-        <v>1168</v>
+        <v>243</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B340">
-        <v>50000</v>
+        <v>244</v>
+      </c>
+      <c r="B340" t="s">
+        <v>245</v>
       </c>
       <c r="C340" t="s">
-        <v>1169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B341">
-        <v>60000</v>
+        <v>247</v>
+      </c>
+      <c r="B341" t="s">
+        <v>248</v>
       </c>
       <c r="C341" t="s">
-        <v>1170</v>
+        <v>249</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B342">
-        <v>70000</v>
+        <v>250</v>
+      </c>
+      <c r="B342" t="s">
+        <v>251</v>
       </c>
       <c r="C342" t="s">
-        <v>1171</v>
+        <v>252</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B343">
-        <v>80000</v>
+        <v>253</v>
+      </c>
+      <c r="B343" t="s">
+        <v>254</v>
       </c>
       <c r="C343" t="s">
-        <v>1172</v>
+        <v>255</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B344">
-        <v>90000</v>
+        <v>256</v>
+      </c>
+      <c r="B344" t="s">
+        <v>257</v>
       </c>
       <c r="C344" t="s">
-        <v>1173</v>
+        <v>258</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>437</v>
+        <v>259</v>
       </c>
       <c r="B345" t="s">
-        <v>438</v>
+        <v>260</v>
       </c>
       <c r="C345" t="s">
-        <v>439</v>
+        <v>261</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>1043</v>
+        <v>262</v>
       </c>
       <c r="B346" t="s">
-        <v>1174</v>
+        <v>263</v>
       </c>
       <c r="C346" t="s">
-        <v>1174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>1175</v>
+        <v>265</v>
       </c>
       <c r="B347" t="s">
-        <v>1176</v>
+        <v>266</v>
       </c>
       <c r="C347" t="s">
-        <v>1176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>1009</v>
+        <v>268</v>
+      </c>
+      <c r="B348" t="s">
+        <v>269</v>
+      </c>
+      <c r="C348" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>736</v>
+        <v>271</v>
       </c>
       <c r="B349" t="s">
-        <v>735</v>
+        <v>272</v>
       </c>
       <c r="C349" t="s">
-        <v>734</v>
+        <v>273</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>739</v>
+        <v>274</v>
       </c>
       <c r="B350" t="s">
-        <v>738</v>
+        <v>275</v>
       </c>
       <c r="C350" t="s">
-        <v>737</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>742</v>
+        <v>277</v>
       </c>
       <c r="B351" t="s">
-        <v>741</v>
+        <v>278</v>
       </c>
       <c r="C351" t="s">
-        <v>740</v>
+        <v>279</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>745</v>
+        <v>280</v>
       </c>
       <c r="B352" t="s">
-        <v>744</v>
+        <v>281</v>
       </c>
       <c r="C352" t="s">
-        <v>743</v>
+        <v>282</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>748</v>
+        <v>283</v>
       </c>
       <c r="B353" t="s">
-        <v>747</v>
+        <v>284</v>
       </c>
       <c r="C353" t="s">
-        <v>746</v>
+        <v>285</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>751</v>
+        <v>286</v>
       </c>
       <c r="B354" t="s">
-        <v>750</v>
+        <v>287</v>
       </c>
       <c r="C354" t="s">
-        <v>749</v>
+        <v>288</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>754</v>
+        <v>289</v>
       </c>
       <c r="B355" t="s">
-        <v>753</v>
+        <v>290</v>
       </c>
       <c r="C355" t="s">
-        <v>752</v>
+        <v>291</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>757</v>
+        <v>292</v>
       </c>
       <c r="B356" t="s">
-        <v>756</v>
+        <v>293</v>
       </c>
       <c r="C356" t="s">
-        <v>755</v>
+        <v>294</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>760</v>
+        <v>295</v>
       </c>
       <c r="B357" t="s">
-        <v>759</v>
+        <v>296</v>
       </c>
       <c r="C357" t="s">
-        <v>758</v>
+        <v>297</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>763</v>
+        <v>298</v>
       </c>
       <c r="B358" t="s">
-        <v>762</v>
+        <v>299</v>
       </c>
       <c r="C358" t="s">
-        <v>761</v>
+        <v>299</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>766</v>
+        <v>300</v>
       </c>
       <c r="B359" t="s">
-        <v>765</v>
+        <v>301</v>
       </c>
       <c r="C359" t="s">
-        <v>764</v>
+        <v>302</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="B360" t="s">
-        <v>768</v>
+        <v>304</v>
       </c>
       <c r="C360" t="s">
-        <v>767</v>
+        <v>304</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>772</v>
+        <v>305</v>
       </c>
       <c r="B361" t="s">
-        <v>771</v>
+        <v>306</v>
       </c>
       <c r="C361" t="s">
-        <v>770</v>
+        <v>307</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>775</v>
+        <v>308</v>
       </c>
       <c r="B362" t="s">
-        <v>774</v>
+        <v>309</v>
       </c>
       <c r="C362" t="s">
-        <v>773</v>
+        <v>310</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>778</v>
-      </c>
-      <c r="B363" t="s">
-        <v>777</v>
+        <v>311</v>
       </c>
       <c r="C363" t="s">
-        <v>776</v>
+        <v>312</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>780</v>
+        <v>313</v>
       </c>
       <c r="B364" t="s">
-        <v>779</v>
+        <v>314</v>
       </c>
       <c r="C364" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>783</v>
+        <v>316</v>
       </c>
       <c r="B365" t="s">
-        <v>782</v>
+        <v>317</v>
       </c>
       <c r="C365" t="s">
-        <v>781</v>
+        <v>318</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>786</v>
+        <v>319</v>
       </c>
       <c r="B366" t="s">
-        <v>785</v>
+        <v>320</v>
       </c>
       <c r="C366" t="s">
-        <v>784</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>789</v>
-      </c>
-      <c r="B367" t="s">
-        <v>788</v>
+        <v>322</v>
       </c>
       <c r="C367" t="s">
-        <v>787</v>
+        <v>288</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>792</v>
+        <v>323</v>
       </c>
       <c r="B368" t="s">
-        <v>791</v>
+        <v>324</v>
       </c>
       <c r="C368" t="s">
-        <v>790</v>
+        <v>325</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>795</v>
+        <v>326</v>
       </c>
       <c r="B369" t="s">
-        <v>794</v>
+        <v>327</v>
       </c>
       <c r="C369" t="s">
-        <v>793</v>
+        <v>328</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>798</v>
+        <v>21</v>
       </c>
       <c r="B370" t="s">
-        <v>797</v>
+        <v>329</v>
       </c>
       <c r="C370" t="s">
-        <v>796</v>
+        <v>330</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>801</v>
+        <v>331</v>
       </c>
       <c r="B371" t="s">
-        <v>800</v>
+        <v>332</v>
       </c>
       <c r="C371" t="s">
-        <v>799</v>
+        <v>333</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>804</v>
-      </c>
-      <c r="B372" t="s">
-        <v>803</v>
+        <v>334</v>
       </c>
       <c r="C372" t="s">
-        <v>802</v>
+        <v>335</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>807</v>
-      </c>
-      <c r="B373" t="s">
-        <v>806</v>
+        <v>336</v>
       </c>
       <c r="C373" t="s">
-        <v>805</v>
+        <v>337</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>810</v>
-      </c>
-      <c r="B374" t="s">
-        <v>809</v>
+        <v>338</v>
       </c>
       <c r="C374" t="s">
-        <v>808</v>
+        <v>339</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>813</v>
-      </c>
-      <c r="B375" t="s">
-        <v>812</v>
+        <v>340</v>
       </c>
       <c r="C375" t="s">
-        <v>811</v>
+        <v>341</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>816</v>
+        <v>342</v>
       </c>
       <c r="B376" t="s">
-        <v>815</v>
+        <v>343</v>
       </c>
       <c r="C376" t="s">
-        <v>814</v>
+        <v>344</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>819</v>
-      </c>
-      <c r="B377" t="s">
-        <v>818</v>
+        <v>345</v>
       </c>
       <c r="C377" t="s">
-        <v>817</v>
+        <v>346</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>822</v>
+        <v>347</v>
       </c>
       <c r="B378" t="s">
-        <v>821</v>
+        <v>348</v>
       </c>
       <c r="C378" t="s">
-        <v>820</v>
+        <v>349</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>825</v>
-      </c>
-      <c r="B379" t="s">
-        <v>824</v>
-      </c>
-      <c r="C379" t="s">
-        <v>823</v>
+        <v>456</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>828</v>
+        <v>458</v>
       </c>
       <c r="B380" t="s">
-        <v>827</v>
+        <v>457</v>
       </c>
       <c r="C380" t="s">
-        <v>826</v>
+        <v>457</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>831</v>
+        <v>461</v>
       </c>
       <c r="B381" t="s">
-        <v>830</v>
+        <v>460</v>
       </c>
       <c r="C381" t="s">
-        <v>829</v>
+        <v>459</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>834</v>
+        <v>464</v>
       </c>
       <c r="B382" t="s">
-        <v>833</v>
+        <v>463</v>
       </c>
       <c r="C382" t="s">
-        <v>832</v>
+        <v>462</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>837</v>
+        <v>466</v>
       </c>
       <c r="B383" t="s">
-        <v>836</v>
+        <v>465</v>
       </c>
       <c r="C383" t="s">
-        <v>835</v>
+        <v>465</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>840</v>
+        <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>839</v>
+        <v>382</v>
       </c>
       <c r="C384" t="s">
-        <v>838</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>843</v>
+        <v>469</v>
       </c>
       <c r="B385" t="s">
-        <v>842</v>
+        <v>468</v>
       </c>
       <c r="C385" t="s">
-        <v>841</v>
+        <v>467</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>846</v>
+        <v>472</v>
       </c>
       <c r="B386" t="s">
-        <v>845</v>
+        <v>471</v>
       </c>
       <c r="C386" t="s">
-        <v>844</v>
+        <v>470</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>849</v>
+        <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>848</v>
+        <v>399</v>
       </c>
       <c r="C387" t="s">
-        <v>847</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>852</v>
+        <v>474</v>
       </c>
       <c r="B388" t="s">
-        <v>851</v>
+        <v>473</v>
       </c>
       <c r="C388" t="s">
-        <v>850</v>
+        <v>473</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>855</v>
+        <v>476</v>
       </c>
       <c r="B389" t="s">
-        <v>854</v>
+        <v>475</v>
       </c>
       <c r="C389" t="s">
-        <v>853</v>
+        <v>475</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>858</v>
+        <v>161</v>
       </c>
       <c r="B390" t="s">
-        <v>857</v>
+        <v>162</v>
       </c>
       <c r="C390" t="s">
-        <v>856</v>
+        <v>163</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>859</v>
+        <v>479</v>
+      </c>
+      <c r="B391" t="s">
+        <v>478</v>
+      </c>
+      <c r="C391" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>862</v>
+        <v>365</v>
       </c>
       <c r="B392" t="s">
-        <v>861</v>
+        <v>366</v>
       </c>
       <c r="C392" t="s">
-        <v>860</v>
+        <v>366</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>865</v>
+        <v>482</v>
       </c>
       <c r="B393" t="s">
-        <v>864</v>
+        <v>481</v>
       </c>
       <c r="C393" t="s">
-        <v>863</v>
+        <v>480</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>868</v>
+        <v>485</v>
       </c>
       <c r="B394" t="s">
-        <v>867</v>
+        <v>484</v>
       </c>
       <c r="C394" t="s">
-        <v>866</v>
+        <v>483</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>871</v>
+        <v>488</v>
       </c>
       <c r="B395" t="s">
-        <v>870</v>
+        <v>487</v>
       </c>
       <c r="C395" t="s">
-        <v>869</v>
+        <v>486</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>874</v>
+        <v>491</v>
       </c>
       <c r="B396" t="s">
-        <v>873</v>
+        <v>490</v>
       </c>
       <c r="C396" t="s">
-        <v>872</v>
+        <v>489</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>862</v>
+        <v>494</v>
       </c>
       <c r="B397" t="s">
-        <v>876</v>
+        <v>493</v>
       </c>
       <c r="C397" t="s">
-        <v>875</v>
+        <v>492</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>879</v>
+        <v>497</v>
       </c>
       <c r="B398" t="s">
-        <v>878</v>
+        <v>496</v>
       </c>
       <c r="C398" t="s">
-        <v>877</v>
+        <v>495</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>882</v>
+        <v>500</v>
       </c>
       <c r="B399" t="s">
-        <v>881</v>
+        <v>499</v>
       </c>
       <c r="C399" t="s">
-        <v>880</v>
+        <v>498</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>885</v>
+        <v>503</v>
       </c>
       <c r="B400" t="s">
-        <v>884</v>
+        <v>502</v>
       </c>
       <c r="C400" t="s">
-        <v>883</v>
+        <v>501</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>888</v>
+        <v>505</v>
       </c>
       <c r="B401" t="s">
-        <v>887</v>
+        <v>504</v>
       </c>
       <c r="C401" t="s">
-        <v>886</v>
+        <v>504</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>891</v>
+        <v>508</v>
       </c>
       <c r="B402" t="s">
-        <v>890</v>
+        <v>507</v>
       </c>
       <c r="C402" t="s">
-        <v>889</v>
+        <v>506</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>894</v>
+        <v>511</v>
       </c>
       <c r="B403" t="s">
-        <v>893</v>
+        <v>510</v>
       </c>
       <c r="C403" t="s">
-        <v>892</v>
+        <v>509</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>897</v>
+        <v>513</v>
       </c>
       <c r="B404" t="s">
-        <v>896</v>
+        <v>391</v>
       </c>
       <c r="C404" t="s">
-        <v>895</v>
+        <v>512</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>900</v>
+        <v>516</v>
       </c>
       <c r="B405" t="s">
-        <v>899</v>
+        <v>515</v>
       </c>
       <c r="C405" t="s">
-        <v>898</v>
+        <v>514</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>903</v>
+        <v>518</v>
       </c>
       <c r="B406" t="s">
-        <v>902</v>
+        <v>384</v>
       </c>
       <c r="C406" t="s">
-        <v>901</v>
+        <v>517</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>906</v>
+        <v>520</v>
       </c>
       <c r="B407" t="s">
-        <v>905</v>
+        <v>519</v>
       </c>
       <c r="C407" t="s">
-        <v>904</v>
+        <v>519</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>906</v>
+        <v>523</v>
       </c>
       <c r="B408" t="s">
-        <v>908</v>
+        <v>522</v>
       </c>
       <c r="C408" t="s">
-        <v>907</v>
+        <v>521</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>911</v>
-      </c>
-      <c r="B409" t="s">
-        <v>910</v>
-      </c>
-      <c r="C409" t="s">
-        <v>909</v>
+        <v>524</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>914</v>
+        <v>527</v>
       </c>
       <c r="B410" t="s">
-        <v>913</v>
+        <v>526</v>
       </c>
       <c r="C410" t="s">
-        <v>912</v>
+        <v>525</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>917</v>
+        <v>530</v>
       </c>
       <c r="B411" t="s">
-        <v>916</v>
+        <v>529</v>
       </c>
       <c r="C411" t="s">
-        <v>915</v>
+        <v>528</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>920</v>
+        <v>533</v>
       </c>
       <c r="B412" t="s">
-        <v>919</v>
+        <v>532</v>
       </c>
       <c r="C412" t="s">
-        <v>918</v>
+        <v>531</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>923</v>
+        <v>536</v>
       </c>
       <c r="B413" t="s">
-        <v>922</v>
+        <v>535</v>
       </c>
       <c r="C413" t="s">
-        <v>921</v>
+        <v>534</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>926</v>
+        <v>539</v>
       </c>
       <c r="B414" t="s">
-        <v>925</v>
+        <v>538</v>
       </c>
       <c r="C414" t="s">
-        <v>924</v>
+        <v>537</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>929</v>
+        <v>542</v>
       </c>
       <c r="B415" t="s">
-        <v>928</v>
+        <v>541</v>
       </c>
       <c r="C415" t="s">
-        <v>927</v>
+        <v>540</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>932</v>
+        <v>544</v>
       </c>
       <c r="B416" t="s">
-        <v>931</v>
+        <v>543</v>
       </c>
       <c r="C416" t="s">
-        <v>930</v>
+        <v>543</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>935</v>
+        <v>546</v>
       </c>
       <c r="B417" t="s">
-        <v>934</v>
+        <v>545</v>
       </c>
       <c r="C417" t="s">
-        <v>933</v>
+        <v>545</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>938</v>
+        <v>548</v>
       </c>
       <c r="B418" t="s">
-        <v>937</v>
+        <v>547</v>
       </c>
       <c r="C418" t="s">
-        <v>936</v>
+        <v>547</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>941</v>
+        <v>550</v>
       </c>
       <c r="B419" t="s">
-        <v>940</v>
+        <v>549</v>
       </c>
       <c r="C419" t="s">
-        <v>939</v>
+        <v>549</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>944</v>
+        <v>553</v>
       </c>
       <c r="B420" t="s">
-        <v>943</v>
+        <v>552</v>
       </c>
       <c r="C420" t="s">
-        <v>942</v>
+        <v>551</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>947</v>
+        <v>555</v>
       </c>
       <c r="B421" t="s">
-        <v>946</v>
+        <v>554</v>
       </c>
       <c r="C421" t="s">
-        <v>945</v>
+        <v>554</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>950</v>
+        <v>558</v>
       </c>
       <c r="B422" t="s">
-        <v>949</v>
+        <v>557</v>
       </c>
       <c r="C422" t="s">
-        <v>948</v>
+        <v>556</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>952</v>
+        <v>560</v>
       </c>
       <c r="B423" t="s">
-        <v>952</v>
+        <v>1127</v>
       </c>
       <c r="C423" t="s">
-        <v>951</v>
+        <v>559</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>955</v>
+        <v>563</v>
       </c>
       <c r="B424" t="s">
-        <v>954</v>
+        <v>562</v>
       </c>
       <c r="C424" t="s">
-        <v>953</v>
+        <v>561</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>958</v>
+        <v>566</v>
       </c>
       <c r="B425" t="s">
-        <v>957</v>
+        <v>565</v>
       </c>
       <c r="C425" t="s">
-        <v>956</v>
+        <v>564</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>961</v>
+        <v>568</v>
       </c>
       <c r="B426" t="s">
-        <v>960</v>
+        <v>567</v>
       </c>
       <c r="C426" t="s">
-        <v>959</v>
+        <v>567</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>964</v>
+        <v>571</v>
       </c>
       <c r="B427" t="s">
-        <v>963</v>
+        <v>570</v>
       </c>
       <c r="C427" t="s">
-        <v>962</v>
+        <v>569</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>966</v>
+        <v>573</v>
+      </c>
+      <c r="B428" t="s">
+        <v>572</v>
       </c>
       <c r="C428" t="s">
-        <v>965</v>
+        <v>572</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>969</v>
+        <v>576</v>
       </c>
       <c r="B429" t="s">
-        <v>968</v>
+        <v>575</v>
       </c>
       <c r="C429" t="s">
-        <v>967</v>
+        <v>574</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>972</v>
+        <v>579</v>
       </c>
       <c r="B430" t="s">
-        <v>971</v>
+        <v>578</v>
       </c>
       <c r="C430" t="s">
-        <v>970</v>
+        <v>577</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>969</v>
+        <v>582</v>
       </c>
       <c r="B431" t="s">
-        <v>974</v>
+        <v>581</v>
       </c>
       <c r="C431" t="s">
-        <v>973</v>
+        <v>580</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>977</v>
+        <v>583</v>
       </c>
       <c r="B432" t="s">
-        <v>976</v>
+        <v>120</v>
       </c>
       <c r="C432" t="s">
-        <v>975</v>
+        <v>121</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>980</v>
+        <v>586</v>
       </c>
       <c r="B433" t="s">
-        <v>979</v>
+        <v>585</v>
       </c>
       <c r="C433" t="s">
-        <v>978</v>
+        <v>584</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>983</v>
-      </c>
-      <c r="B434" t="s">
-        <v>982</v>
-      </c>
-      <c r="C434" t="s">
-        <v>981</v>
+        <v>587</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>986</v>
+        <v>590</v>
       </c>
       <c r="B435" t="s">
-        <v>985</v>
+        <v>589</v>
       </c>
       <c r="C435" t="s">
-        <v>984</v>
+        <v>588</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>989</v>
+        <v>593</v>
       </c>
       <c r="B436" t="s">
-        <v>988</v>
+        <v>592</v>
       </c>
       <c r="C436" t="s">
-        <v>987</v>
+        <v>591</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>992</v>
+        <v>596</v>
       </c>
       <c r="B437" t="s">
-        <v>991</v>
+        <v>595</v>
       </c>
       <c r="C437" t="s">
-        <v>990</v>
+        <v>594</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>994</v>
+        <v>599</v>
+      </c>
+      <c r="B438" t="s">
+        <v>598</v>
       </c>
       <c r="C438" t="s">
-        <v>993</v>
+        <v>597</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>997</v>
+        <v>602</v>
       </c>
       <c r="B439" t="s">
-        <v>996</v>
+        <v>601</v>
       </c>
       <c r="C439" t="s">
-        <v>995</v>
+        <v>600</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>1000</v>
+        <v>605</v>
       </c>
       <c r="B440" t="s">
-        <v>999</v>
+        <v>604</v>
       </c>
       <c r="C440" t="s">
-        <v>998</v>
+        <v>603</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>1002</v>
+        <v>608</v>
       </c>
       <c r="B441" t="s">
-        <v>1001</v>
+        <v>607</v>
       </c>
       <c r="C441" t="s">
-        <v>1001</v>
+        <v>606</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>1005</v>
+        <v>611</v>
       </c>
       <c r="B442" t="s">
-        <v>1004</v>
+        <v>610</v>
       </c>
       <c r="C442" t="s">
-        <v>1003</v>
+        <v>609</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>1008</v>
+        <v>614</v>
       </c>
       <c r="B443" t="s">
-        <v>1007</v>
+        <v>613</v>
       </c>
       <c r="C443" t="s">
-        <v>1006</v>
+        <v>612</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>1177</v>
+        <v>617</v>
+      </c>
+      <c r="B444" t="s">
+        <v>616</v>
+      </c>
+      <c r="C444" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>1044</v>
+        <v>620</v>
       </c>
       <c r="B445" t="s">
-        <v>1045</v>
+        <v>619</v>
       </c>
       <c r="C445" t="s">
-        <v>1046</v>
+        <v>618</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>1047</v>
+        <v>405</v>
       </c>
       <c r="B446" t="s">
-        <v>1048</v>
+        <v>406</v>
       </c>
       <c r="C446" t="s">
-        <v>1049</v>
+        <v>407</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>1050</v>
+        <v>623</v>
       </c>
       <c r="B447" t="s">
-        <v>1051</v>
+        <v>622</v>
       </c>
       <c r="C447" t="s">
-        <v>1052</v>
+        <v>621</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>1053</v>
+        <v>58</v>
       </c>
       <c r="B448" t="s">
-        <v>1054</v>
+        <v>59</v>
       </c>
       <c r="C448" t="s">
-        <v>1055</v>
+        <v>624</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>1056</v>
+        <v>626</v>
       </c>
       <c r="B449" t="s">
-        <v>1057</v>
+        <v>625</v>
       </c>
       <c r="C449" t="s">
-        <v>1058</v>
+        <v>625</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>1059</v>
+        <v>629</v>
       </c>
       <c r="B450" t="s">
-        <v>1060</v>
+        <v>628</v>
       </c>
       <c r="C450" t="s">
-        <v>1061</v>
+        <v>627</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>1062</v>
+        <v>61</v>
       </c>
       <c r="B451" t="s">
-        <v>1063</v>
+        <v>62</v>
       </c>
       <c r="C451" t="s">
-        <v>1064</v>
+        <v>630</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>1065</v>
+        <v>633</v>
       </c>
       <c r="B452" t="s">
-        <v>1066</v>
+        <v>632</v>
       </c>
       <c r="C452" t="s">
-        <v>1066</v>
+        <v>631</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>1067</v>
+        <v>636</v>
       </c>
       <c r="B453" t="s">
-        <v>1068</v>
+        <v>635</v>
       </c>
       <c r="C453" t="s">
-        <v>1068</v>
+        <v>634</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>1069</v>
+        <v>639</v>
       </c>
       <c r="B454" t="s">
-        <v>1070</v>
+        <v>638</v>
       </c>
       <c r="C454" t="s">
-        <v>1070</v>
+        <v>637</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>1071</v>
+        <v>82</v>
       </c>
       <c r="B455" t="s">
-        <v>1072</v>
+        <v>83</v>
       </c>
       <c r="C455" t="s">
-        <v>1072</v>
+        <v>83</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>1073</v>
+        <v>642</v>
       </c>
       <c r="B456" t="s">
-        <v>1074</v>
+        <v>641</v>
       </c>
       <c r="C456" t="s">
-        <v>1074</v>
+        <v>640</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>1075</v>
+        <v>645</v>
       </c>
       <c r="B457" t="s">
-        <v>1076</v>
+        <v>644</v>
       </c>
       <c r="C457" t="s">
-        <v>1076</v>
+        <v>643</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>1077</v>
+        <v>648</v>
       </c>
       <c r="B458" t="s">
-        <v>1078</v>
+        <v>647</v>
       </c>
       <c r="C458" t="s">
-        <v>1078</v>
+        <v>646</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>1079</v>
+        <v>651</v>
       </c>
       <c r="B459" t="s">
-        <v>1080</v>
+        <v>650</v>
       </c>
       <c r="C459" t="s">
-        <v>1080</v>
+        <v>649</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>1081</v>
+        <v>652</v>
       </c>
       <c r="B460" t="s">
-        <v>1082</v>
+        <v>70</v>
       </c>
       <c r="C460" t="s">
-        <v>1082</v>
+        <v>71</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>1083</v>
+        <v>653</v>
       </c>
       <c r="B461" t="s">
-        <v>1084</v>
+        <v>84</v>
       </c>
       <c r="C461" t="s">
-        <v>1084</v>
+        <v>85</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>1085</v>
+        <v>654</v>
       </c>
       <c r="B462" t="s">
-        <v>1086</v>
+        <v>86</v>
       </c>
       <c r="C462" t="s">
-        <v>1086</v>
+        <v>87</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>1087</v>
+        <v>403</v>
       </c>
       <c r="B463" t="s">
-        <v>1088</v>
+        <v>404</v>
       </c>
       <c r="C463" t="s">
-        <v>1088</v>
+        <v>404</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>1089</v>
+        <v>657</v>
       </c>
       <c r="B464" t="s">
-        <v>1090</v>
+        <v>656</v>
       </c>
       <c r="C464" t="s">
-        <v>1090</v>
+        <v>655</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>1091</v>
+        <v>660</v>
       </c>
       <c r="B465" t="s">
-        <v>1092</v>
+        <v>659</v>
       </c>
       <c r="C465" t="s">
-        <v>1092</v>
+        <v>658</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>1093</v>
+        <v>661</v>
       </c>
       <c r="B466" t="s">
-        <v>1094</v>
+        <v>102</v>
       </c>
       <c r="C466" t="s">
-        <v>1094</v>
+        <v>103</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>1095</v>
+        <v>664</v>
       </c>
       <c r="B467" t="s">
-        <v>1096</v>
+        <v>663</v>
       </c>
       <c r="C467" t="s">
-        <v>1096</v>
+        <v>662</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>1097</v>
+        <v>666</v>
       </c>
       <c r="B468" t="s">
-        <v>1098</v>
+        <v>106</v>
       </c>
       <c r="C468" t="s">
-        <v>1098</v>
+        <v>665</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>1099</v>
+        <v>668</v>
       </c>
       <c r="B469" t="s">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="C469" t="s">
-        <v>1100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>1101</v>
+        <v>671</v>
       </c>
       <c r="B470" t="s">
-        <v>1102</v>
+        <v>670</v>
       </c>
       <c r="C470" t="s">
-        <v>1102</v>
+        <v>669</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B471" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C471" t="s">
-        <v>1105</v>
+        <v>672</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>1106</v>
+        <v>675</v>
       </c>
       <c r="B472" t="s">
-        <v>1107</v>
+        <v>674</v>
       </c>
       <c r="C472" t="s">
-        <v>1108</v>
+        <v>673</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>1109</v>
+        <v>678</v>
       </c>
       <c r="B473" t="s">
-        <v>1110</v>
+        <v>677</v>
       </c>
       <c r="C473" t="s">
-        <v>1111</v>
+        <v>676</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>1112</v>
+        <v>681</v>
       </c>
       <c r="B474" t="s">
-        <v>1113</v>
+        <v>680</v>
       </c>
       <c r="C474" t="s">
-        <v>1114</v>
+        <v>679</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>1115</v>
+        <v>684</v>
       </c>
       <c r="B475" t="s">
-        <v>1116</v>
+        <v>683</v>
       </c>
       <c r="C475" t="s">
-        <v>1117</v>
+        <v>682</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>1118</v>
+        <v>687</v>
       </c>
       <c r="B476" t="s">
-        <v>1119</v>
+        <v>686</v>
       </c>
       <c r="C476" t="s">
-        <v>1120</v>
+        <v>685</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>1121</v>
+        <v>690</v>
       </c>
       <c r="B477" t="s">
-        <v>1122</v>
+        <v>689</v>
       </c>
       <c r="C477" t="s">
-        <v>1123</v>
+        <v>688</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>1124</v>
+        <v>693</v>
       </c>
       <c r="B478" t="s">
-        <v>1125</v>
+        <v>692</v>
       </c>
       <c r="C478" t="s">
-        <v>1126</v>
+        <v>691</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>1127</v>
+        <v>696</v>
       </c>
       <c r="B479" t="s">
+        <v>695</v>
+      </c>
+      <c r="C479" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>699</v>
+      </c>
+      <c r="B480" t="s">
+        <v>698</v>
+      </c>
+      <c r="C480" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>702</v>
+      </c>
+      <c r="B481" t="s">
+        <v>701</v>
+      </c>
+      <c r="C481" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>705</v>
+      </c>
+      <c r="B482" t="s">
+        <v>704</v>
+      </c>
+      <c r="C482" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>401</v>
+      </c>
+      <c r="B483" t="s">
+        <v>707</v>
+      </c>
+      <c r="C483" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>710</v>
+      </c>
+      <c r="B484" t="s">
+        <v>709</v>
+      </c>
+      <c r="C484" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>713</v>
+      </c>
+      <c r="B485" t="s">
+        <v>712</v>
+      </c>
+      <c r="C485" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>716</v>
+      </c>
+      <c r="B486" t="s">
+        <v>715</v>
+      </c>
+      <c r="C486" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>719</v>
+      </c>
+      <c r="B487" t="s">
+        <v>718</v>
+      </c>
+      <c r="C487" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>721</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489" t="s">
         <v>1128</v>
       </c>
-      <c r="C479" t="s">
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>722</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
+      </c>
+      <c r="C490" t="s">
         <v>1129</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>723</v>
+      </c>
+      <c r="B491">
+        <v>3</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>724</v>
+      </c>
+      <c r="B492">
+        <v>4</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>725</v>
+      </c>
+      <c r="B493">
+        <v>5</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>726</v>
+      </c>
+      <c r="B494">
+        <v>6</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>727</v>
+      </c>
+      <c r="B495">
+        <v>7</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>728</v>
+      </c>
+      <c r="B496">
+        <v>8</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>729</v>
+      </c>
+      <c r="B497">
+        <v>9</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>730</v>
+      </c>
+      <c r="B498">
+        <v>10</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B499">
+        <v>20</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B500">
+        <v>30</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B501">
+        <v>40</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B502">
+        <v>50</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B503">
+        <v>60</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B504">
+        <v>70</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B505">
+        <v>80</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B506">
+        <v>90</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>430</v>
+      </c>
+      <c r="B507">
+        <v>100</v>
+      </c>
+      <c r="C507" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B508">
+        <v>200</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B509">
+        <v>300</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B510">
+        <v>400</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B511">
+        <v>500</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B512">
+        <v>600</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B513">
+        <v>700</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B514">
+        <v>800</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B515">
+        <v>900</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>432</v>
+      </c>
+      <c r="B516">
+        <v>1000</v>
+      </c>
+      <c r="C516" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B517">
+        <v>2000</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B518">
+        <v>3000</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B519">
+        <v>4000</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B520">
+        <v>5000</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B521">
+        <v>6000</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B522">
+        <v>7000</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B523">
+        <v>8000</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B524">
+        <v>9000</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C525" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B526">
+        <v>20000</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B527">
+        <v>30000</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B528">
+        <v>40000</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B529">
+        <v>50000</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B530">
+        <v>60000</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B531">
+        <v>70000</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B532">
+        <v>80000</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B533">
+        <v>90000</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>434</v>
+      </c>
+      <c r="B534" t="s">
+        <v>435</v>
+      </c>
+      <c r="C534" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>733</v>
+      </c>
+      <c r="B538" t="s">
+        <v>732</v>
+      </c>
+      <c r="C538" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>736</v>
+      </c>
+      <c r="B539" t="s">
+        <v>735</v>
+      </c>
+      <c r="C539" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>739</v>
+      </c>
+      <c r="B540" t="s">
+        <v>738</v>
+      </c>
+      <c r="C540" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>742</v>
+      </c>
+      <c r="B541" t="s">
+        <v>741</v>
+      </c>
+      <c r="C541" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>745</v>
+      </c>
+      <c r="B542" t="s">
+        <v>744</v>
+      </c>
+      <c r="C542" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>748</v>
+      </c>
+      <c r="B543" t="s">
+        <v>747</v>
+      </c>
+      <c r="C543" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>751</v>
+      </c>
+      <c r="B544" t="s">
+        <v>750</v>
+      </c>
+      <c r="C544" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>754</v>
+      </c>
+      <c r="B545" t="s">
+        <v>753</v>
+      </c>
+      <c r="C545" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>757</v>
+      </c>
+      <c r="B546" t="s">
+        <v>756</v>
+      </c>
+      <c r="C546" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>760</v>
+      </c>
+      <c r="B547" t="s">
+        <v>759</v>
+      </c>
+      <c r="C547" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>763</v>
+      </c>
+      <c r="B548" t="s">
+        <v>762</v>
+      </c>
+      <c r="C548" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>766</v>
+      </c>
+      <c r="B549" t="s">
+        <v>765</v>
+      </c>
+      <c r="C549" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>769</v>
+      </c>
+      <c r="B550" t="s">
+        <v>768</v>
+      </c>
+      <c r="C550" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>772</v>
+      </c>
+      <c r="B551" t="s">
+        <v>771</v>
+      </c>
+      <c r="C551" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>775</v>
+      </c>
+      <c r="B552" t="s">
+        <v>774</v>
+      </c>
+      <c r="C552" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>777</v>
+      </c>
+      <c r="B553" t="s">
+        <v>776</v>
+      </c>
+      <c r="C553" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>780</v>
+      </c>
+      <c r="B554" t="s">
+        <v>779</v>
+      </c>
+      <c r="C554" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>783</v>
+      </c>
+      <c r="B555" t="s">
+        <v>782</v>
+      </c>
+      <c r="C555" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>786</v>
+      </c>
+      <c r="B556" t="s">
+        <v>785</v>
+      </c>
+      <c r="C556" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>789</v>
+      </c>
+      <c r="B557" t="s">
+        <v>788</v>
+      </c>
+      <c r="C557" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>792</v>
+      </c>
+      <c r="B558" t="s">
+        <v>791</v>
+      </c>
+      <c r="C558" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>795</v>
+      </c>
+      <c r="B559" t="s">
+        <v>794</v>
+      </c>
+      <c r="C559" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>798</v>
+      </c>
+      <c r="B560" t="s">
+        <v>797</v>
+      </c>
+      <c r="C560" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>801</v>
+      </c>
+      <c r="B561" t="s">
+        <v>800</v>
+      </c>
+      <c r="C561" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>804</v>
+      </c>
+      <c r="B562" t="s">
+        <v>803</v>
+      </c>
+      <c r="C562" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>807</v>
+      </c>
+      <c r="B563" t="s">
+        <v>806</v>
+      </c>
+      <c r="C563" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>810</v>
+      </c>
+      <c r="B564" t="s">
+        <v>809</v>
+      </c>
+      <c r="C564" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>813</v>
+      </c>
+      <c r="B565" t="s">
+        <v>812</v>
+      </c>
+      <c r="C565" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>816</v>
+      </c>
+      <c r="B566" t="s">
+        <v>815</v>
+      </c>
+      <c r="C566" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>819</v>
+      </c>
+      <c r="B567" t="s">
+        <v>818</v>
+      </c>
+      <c r="C567" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>822</v>
+      </c>
+      <c r="B568" t="s">
+        <v>821</v>
+      </c>
+      <c r="C568" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>825</v>
+      </c>
+      <c r="B569" t="s">
+        <v>824</v>
+      </c>
+      <c r="C569" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>828</v>
+      </c>
+      <c r="B570" t="s">
+        <v>827</v>
+      </c>
+      <c r="C570" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>831</v>
+      </c>
+      <c r="B571" t="s">
+        <v>830</v>
+      </c>
+      <c r="C571" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>834</v>
+      </c>
+      <c r="B572" t="s">
+        <v>833</v>
+      </c>
+      <c r="C572" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>837</v>
+      </c>
+      <c r="B573" t="s">
+        <v>836</v>
+      </c>
+      <c r="C573" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>840</v>
+      </c>
+      <c r="B574" t="s">
+        <v>839</v>
+      </c>
+      <c r="C574" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>843</v>
+      </c>
+      <c r="B575" t="s">
+        <v>842</v>
+      </c>
+      <c r="C575" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>846</v>
+      </c>
+      <c r="B576" t="s">
+        <v>845</v>
+      </c>
+      <c r="C576" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>849</v>
+      </c>
+      <c r="B577" t="s">
+        <v>848</v>
+      </c>
+      <c r="C577" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>852</v>
+      </c>
+      <c r="B578" t="s">
+        <v>851</v>
+      </c>
+      <c r="C578" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>855</v>
+      </c>
+      <c r="B579" t="s">
+        <v>854</v>
+      </c>
+      <c r="C579" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>859</v>
+      </c>
+      <c r="B581" t="s">
+        <v>858</v>
+      </c>
+      <c r="C581" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>862</v>
+      </c>
+      <c r="B582" t="s">
+        <v>861</v>
+      </c>
+      <c r="C582" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>865</v>
+      </c>
+      <c r="B583" t="s">
+        <v>864</v>
+      </c>
+      <c r="C583" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>868</v>
+      </c>
+      <c r="B584" t="s">
+        <v>867</v>
+      </c>
+      <c r="C584" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>871</v>
+      </c>
+      <c r="B585" t="s">
+        <v>870</v>
+      </c>
+      <c r="C585" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>859</v>
+      </c>
+      <c r="B586" t="s">
+        <v>873</v>
+      </c>
+      <c r="C586" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>876</v>
+      </c>
+      <c r="B587" t="s">
+        <v>875</v>
+      </c>
+      <c r="C587" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>879</v>
+      </c>
+      <c r="B588" t="s">
+        <v>878</v>
+      </c>
+      <c r="C588" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>882</v>
+      </c>
+      <c r="B589" t="s">
+        <v>881</v>
+      </c>
+      <c r="C589" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>885</v>
+      </c>
+      <c r="B590" t="s">
+        <v>884</v>
+      </c>
+      <c r="C590" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>888</v>
+      </c>
+      <c r="B591" t="s">
+        <v>887</v>
+      </c>
+      <c r="C591" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>891</v>
+      </c>
+      <c r="B592" t="s">
+        <v>890</v>
+      </c>
+      <c r="C592" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>894</v>
+      </c>
+      <c r="B593" t="s">
+        <v>893</v>
+      </c>
+      <c r="C593" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>897</v>
+      </c>
+      <c r="B594" t="s">
+        <v>896</v>
+      </c>
+      <c r="C594" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>900</v>
+      </c>
+      <c r="B595" t="s">
+        <v>899</v>
+      </c>
+      <c r="C595" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>903</v>
+      </c>
+      <c r="B596" t="s">
+        <v>902</v>
+      </c>
+      <c r="C596" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>903</v>
+      </c>
+      <c r="B597" t="s">
+        <v>905</v>
+      </c>
+      <c r="C597" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>908</v>
+      </c>
+      <c r="B598" t="s">
+        <v>907</v>
+      </c>
+      <c r="C598" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>911</v>
+      </c>
+      <c r="B599" t="s">
+        <v>910</v>
+      </c>
+      <c r="C599" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>914</v>
+      </c>
+      <c r="B600" t="s">
+        <v>913</v>
+      </c>
+      <c r="C600" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>917</v>
+      </c>
+      <c r="B601" t="s">
+        <v>916</v>
+      </c>
+      <c r="C601" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>920</v>
+      </c>
+      <c r="B602" t="s">
+        <v>919</v>
+      </c>
+      <c r="C602" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>923</v>
+      </c>
+      <c r="B603" t="s">
+        <v>922</v>
+      </c>
+      <c r="C603" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>926</v>
+      </c>
+      <c r="B604" t="s">
+        <v>925</v>
+      </c>
+      <c r="C604" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>929</v>
+      </c>
+      <c r="B605" t="s">
+        <v>928</v>
+      </c>
+      <c r="C605" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>932</v>
+      </c>
+      <c r="B606" t="s">
+        <v>931</v>
+      </c>
+      <c r="C606" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>935</v>
+      </c>
+      <c r="B607" t="s">
+        <v>934</v>
+      </c>
+      <c r="C607" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>938</v>
+      </c>
+      <c r="B608" t="s">
+        <v>937</v>
+      </c>
+      <c r="C608" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>941</v>
+      </c>
+      <c r="B609" t="s">
+        <v>940</v>
+      </c>
+      <c r="C609" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>944</v>
+      </c>
+      <c r="B610" t="s">
+        <v>943</v>
+      </c>
+      <c r="C610" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>947</v>
+      </c>
+      <c r="B611" t="s">
+        <v>946</v>
+      </c>
+      <c r="C611" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>949</v>
+      </c>
+      <c r="B612" t="s">
+        <v>949</v>
+      </c>
+      <c r="C612" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>952</v>
+      </c>
+      <c r="B613" t="s">
+        <v>951</v>
+      </c>
+      <c r="C613" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>955</v>
+      </c>
+      <c r="B614" t="s">
+        <v>954</v>
+      </c>
+      <c r="C614" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>958</v>
+      </c>
+      <c r="B615" t="s">
+        <v>957</v>
+      </c>
+      <c r="C615" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>961</v>
+      </c>
+      <c r="B616" t="s">
+        <v>960</v>
+      </c>
+      <c r="C616" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>963</v>
+      </c>
+      <c r="C617" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>966</v>
+      </c>
+      <c r="B618" t="s">
+        <v>965</v>
+      </c>
+      <c r="C618" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>969</v>
+      </c>
+      <c r="B619" t="s">
+        <v>968</v>
+      </c>
+      <c r="C619" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>966</v>
+      </c>
+      <c r="B620" t="s">
+        <v>971</v>
+      </c>
+      <c r="C620" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>974</v>
+      </c>
+      <c r="B621" t="s">
+        <v>973</v>
+      </c>
+      <c r="C621" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>977</v>
+      </c>
+      <c r="B622" t="s">
+        <v>976</v>
+      </c>
+      <c r="C622" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>980</v>
+      </c>
+      <c r="B623" t="s">
+        <v>979</v>
+      </c>
+      <c r="C623" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>983</v>
+      </c>
+      <c r="B624" t="s">
+        <v>982</v>
+      </c>
+      <c r="C624" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>986</v>
+      </c>
+      <c r="B625" t="s">
+        <v>985</v>
+      </c>
+      <c r="C625" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>989</v>
+      </c>
+      <c r="B626" t="s">
+        <v>988</v>
+      </c>
+      <c r="C626" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>991</v>
+      </c>
+      <c r="C627" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>994</v>
+      </c>
+      <c r="B628" t="s">
+        <v>993</v>
+      </c>
+      <c r="C628" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>997</v>
+      </c>
+      <c r="B629" t="s">
+        <v>996</v>
+      </c>
+      <c r="C629" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>999</v>
+      </c>
+      <c r="B630" t="s">
+        <v>998</v>
+      </c>
+      <c r="C630" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0719A96-317F-4593-B89C-282538462BE5}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C87C74-79AE-462A-907C-3021AAE2D7B7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4744,9 +4744,6 @@
     <t>いっしょに</t>
   </si>
   <si>
-    <t>一起</t>
-  </si>
-  <si>
     <t>ちょっと</t>
   </si>
   <si>
@@ -4851,6 +4848,10 @@
   </si>
   <si>
     <t>**第6課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起(去做~)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5211,8 +5212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5235,12 +5236,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
@@ -5763,7 +5764,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6195,7 +6196,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6626,12 +6627,12 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -7282,7 +7283,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -7907,7 +7908,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -8418,104 +8419,104 @@
         <v>1527</v>
       </c>
       <c r="C324" t="s">
-        <v>1528</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C325" t="s">
         <v>1529</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C326" t="s">
         <v>1531</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B327" t="s">
         <v>1533</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>1534</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C328" t="s">
         <v>1536</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C329" t="s">
         <v>1538</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C330" t="s">
         <v>1540</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C331" t="s">
         <v>1542</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B332" t="s">
         <v>1544</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>1545</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C333" t="s">
         <v>1547</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C334" t="s">
         <v>1549</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B335" t="s">
         <v>1551</v>
       </c>
-      <c r="B335" t="s">
-        <v>1552</v>
-      </c>
       <c r="C335" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C87C74-79AE-462A-907C-3021AAE2D7B7}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A31B7C5-63A1-411A-9E0F-433DCE9004DB}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1563">
   <si>
     <t>わたし</t>
   </si>
@@ -4001,9 +4001,6 @@
     <t>我明白了 遵命。</t>
   </si>
   <si>
-    <t>おといあわせの ばんごう  お問い合わせの 番号</t>
-  </si>
-  <si>
     <t>您查詢的號碼</t>
   </si>
   <si>
@@ -4049,9 +4046,6 @@
     <t>おおさかデパート</t>
   </si>
   <si>
-    <t>大阪百貨公司</t>
-  </si>
-  <si>
     <t>アップル銀行</t>
   </si>
   <si>
@@ -4253,135 +4247,90 @@
     <t>1日</t>
   </si>
   <si>
-    <t>1日 1號</t>
-  </si>
-  <si>
     <t>ふつか</t>
   </si>
   <si>
     <t>2日</t>
   </si>
   <si>
-    <t>2日 2號</t>
-  </si>
-  <si>
     <t>みっか</t>
   </si>
   <si>
     <t>3日</t>
   </si>
   <si>
-    <t>3日 3號</t>
-  </si>
-  <si>
     <t>よっか</t>
   </si>
   <si>
     <t>4日</t>
   </si>
   <si>
-    <t>4日 4號</t>
-  </si>
-  <si>
     <t>いつか</t>
   </si>
   <si>
     <t>5日</t>
   </si>
   <si>
-    <t>5日 5號</t>
-  </si>
-  <si>
     <t>むいか</t>
   </si>
   <si>
     <t>6日</t>
   </si>
   <si>
-    <t>6日 6號</t>
-  </si>
-  <si>
     <t>なのか</t>
   </si>
   <si>
     <t>7日</t>
   </si>
   <si>
-    <t>7日 7號</t>
-  </si>
-  <si>
     <t>ようか</t>
   </si>
   <si>
     <t>8日</t>
   </si>
   <si>
-    <t>8日 8號</t>
-  </si>
-  <si>
     <t>ここのか</t>
   </si>
   <si>
     <t>9日</t>
   </si>
   <si>
-    <t>9日 9號</t>
-  </si>
-  <si>
     <t>とおか</t>
   </si>
   <si>
     <t>10日</t>
   </si>
   <si>
-    <t>10日 10號</t>
-  </si>
-  <si>
     <t>じゅうよっか</t>
   </si>
   <si>
     <t>14日</t>
   </si>
   <si>
-    <t>14日 14號</t>
-  </si>
-  <si>
     <t>はつか</t>
   </si>
   <si>
     <t>20日</t>
   </si>
   <si>
-    <t>20日 20號</t>
-  </si>
-  <si>
     <t>にじゅうよっか</t>
   </si>
   <si>
     <t>24日</t>
   </si>
   <si>
-    <t>24日 24號</t>
-  </si>
-  <si>
     <t>…にち</t>
   </si>
   <si>
     <t>…日</t>
   </si>
   <si>
-    <t>…日 …號</t>
-  </si>
-  <si>
     <t>なんにち</t>
   </si>
   <si>
     <t>何日</t>
   </si>
   <si>
-    <t>幾日 幾號</t>
-  </si>
-  <si>
     <t>いつ</t>
   </si>
   <si>
@@ -4428,18 +4377,12 @@
   </si>
   <si>
     <t>次の</t>
-  </si>
-  <si>
-    <t>下一個 下一次</t>
   </si>
   <si>
     <t>どう いたしまして</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不客氣 哪裡哪裡</t>
-  </si>
-  <si>
     <t>…ばん せん</t>
   </si>
   <si>
@@ -4786,9 +4729,6 @@
     <t>わかりました</t>
   </si>
   <si>
-    <t>我明白了 我知道了</t>
-  </si>
-  <si>
     <t>なんですか</t>
   </si>
   <si>
@@ -4803,9 +4743,6 @@
     <t>じゃ、また［あした］</t>
   </si>
   <si>
-    <t>那麼明天見。</t>
-  </si>
-  <si>
     <t>メキシコ</t>
   </si>
   <si>
@@ -4852,6 +4789,90 @@
   </si>
   <si>
     <t>一起(去做~)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>おといあわせの ばんごう</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>お問い合わせの 番号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪百貨公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1日,1號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2日,2號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3日,3號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4日,4號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日,5號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6日,6號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7日,7號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8日,8號</t>
+  </si>
+  <si>
+    <t>9日,9號</t>
+  </si>
+  <si>
+    <t>10日,10號</t>
+  </si>
+  <si>
+    <t>14日,14號</t>
+  </si>
+  <si>
+    <t>20日,20號</t>
+  </si>
+  <si>
+    <t>24日,24號</t>
+  </si>
+  <si>
+    <t>…日,…號</t>
+  </si>
+  <si>
+    <t>幾日,幾號</t>
+  </si>
+  <si>
+    <t>下一個,下一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不客氣,哪裡哪裡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我明白了,我知道了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>那麼明天見</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5212,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5236,12 +5257,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
@@ -5764,7 +5785,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6196,7 +6217,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6627,12 +6648,12 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -6878,7 +6899,7 @@
       <c r="A172" t="s">
         <v>1226</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -6886,7 +6907,7 @@
       <c r="A173" t="s">
         <v>1228</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -6894,7 +6915,7 @@
       <c r="A174" t="s">
         <v>1230</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -7173,58 +7194,61 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C202" t="s">
         <v>1284</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C203" t="s">
         <v>1286</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C204" t="s">
         <v>1288</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C205" t="s">
         <v>1290</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C206" t="s">
         <v>1292</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C207" t="s">
         <v>1294</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C208" t="s">
         <v>1296</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -7240,15 +7264,21 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1298</v>
+        <v>1297</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C211" t="s">
-        <v>1300</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -7275,23 +7305,23 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C214" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B216" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C216" t="s">
         <v>743</v>
@@ -7299,10 +7329,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B217" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C217" t="s">
         <v>781</v>
@@ -7310,13 +7340,13 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C218" t="s">
         <v>1307</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -7332,10 +7362,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C220" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -7346,40 +7376,40 @@
         <v>460</v>
       </c>
       <c r="C221" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C222" t="s">
         <v>1313</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C222" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B223" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C223" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B224" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C224" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -7390,122 +7420,122 @@
         <v>481</v>
       </c>
       <c r="C225" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B226" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C226" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C227" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C228" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C229" t="s">
         <v>1327</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C230" t="s">
         <v>1330</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B231" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C231" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C232" t="s">
         <v>1335</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C233" t="s">
         <v>1338</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C234" t="s">
         <v>1341</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C235" t="s">
         <v>1344</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C236" t="s">
         <v>1347</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -7516,7 +7546,7 @@
         <v>1119</v>
       </c>
       <c r="C237" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -7527,7 +7557,7 @@
         <v>1122</v>
       </c>
       <c r="C238" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -7538,7 +7568,7 @@
         <v>1125</v>
       </c>
       <c r="C239" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -7554,7 +7584,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B241" t="s">
         <v>1104</v>
@@ -7576,347 +7606,347 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B243" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C243" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C244" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C245" t="s">
         <v>1358</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B246" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C246" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C247" t="s">
         <v>1363</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B248" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C248" t="s">
-        <v>1368</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B249" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C249" t="s">
-        <v>1371</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B250" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C250" t="s">
-        <v>1374</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B251" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="C251" t="s">
-        <v>1377</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="B252" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="C252" t="s">
-        <v>1380</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="B253" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="C253" t="s">
-        <v>1383</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="B254" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="C254" t="s">
-        <v>1386</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="B255" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="C255" t="s">
-        <v>1389</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="B256" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="C256" t="s">
-        <v>1392</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="B257" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="C257" t="s">
-        <v>1395</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="B258" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="C258" t="s">
-        <v>1398</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="B259" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="C259" t="s">
-        <v>1401</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="B260" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="C260" t="s">
-        <v>1404</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="B261" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="C261" t="s">
-        <v>1407</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="B262" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="C262" t="s">
-        <v>1410</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1411</v>
+        <v>1394</v>
       </c>
       <c r="C263" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="B264" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="C264" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
       <c r="B265" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="C265" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="B266" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="C266" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="B267" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="C267" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="B268" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="C268" t="s">
-        <v>1427</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="C269" t="s">
-        <v>1429</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1430</v>
+        <v>1411</v>
       </c>
       <c r="B270" t="s">
-        <v>1431</v>
+        <v>1412</v>
       </c>
       <c r="C270" t="s">
-        <v>1432</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1433</v>
+        <v>1414</v>
       </c>
       <c r="B271" t="s">
-        <v>1434</v>
+        <v>1415</v>
       </c>
       <c r="C271" t="s">
-        <v>1435</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
       <c r="B272" t="s">
-        <v>1437</v>
+        <v>1418</v>
       </c>
       <c r="C272" t="s">
-        <v>1438</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1439</v>
+        <v>1420</v>
       </c>
       <c r="B273" t="s">
-        <v>1440</v>
+        <v>1421</v>
       </c>
       <c r="C273" t="s">
-        <v>1441</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1442</v>
+        <v>1423</v>
       </c>
       <c r="B275" t="s">
-        <v>1443</v>
+        <v>1424</v>
       </c>
       <c r="C275" t="s">
         <v>796</v>
@@ -7930,37 +7960,37 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>1444</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>1445</v>
+        <v>1426</v>
       </c>
       <c r="B277" t="s">
-        <v>1446</v>
+        <v>1427</v>
       </c>
       <c r="C277" t="s">
-        <v>1447</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>1448</v>
+        <v>1429</v>
       </c>
       <c r="B278" t="s">
-        <v>1449</v>
+        <v>1430</v>
       </c>
       <c r="C278" t="s">
-        <v>1450</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>1451</v>
+        <v>1432</v>
       </c>
       <c r="B279" t="s">
-        <v>1452</v>
+        <v>1433</v>
       </c>
       <c r="C279" t="s">
         <v>847</v>
@@ -7968,21 +7998,21 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>1453</v>
+        <v>1434</v>
       </c>
       <c r="B280" t="s">
-        <v>1454</v>
+        <v>1435</v>
       </c>
       <c r="C280" t="s">
-        <v>1455</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>1456</v>
+        <v>1437</v>
       </c>
       <c r="B281" t="s">
-        <v>1457</v>
+        <v>1438</v>
       </c>
       <c r="C281" t="s">
         <v>853</v>
@@ -7990,51 +8020,51 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>1458</v>
+        <v>1439</v>
       </c>
       <c r="B282" t="s">
-        <v>1459</v>
+        <v>1440</v>
       </c>
       <c r="C282" t="s">
-        <v>1460</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>1461</v>
+        <v>1442</v>
       </c>
       <c r="B283" t="s">
-        <v>1462</v>
+        <v>1443</v>
       </c>
       <c r="C283" t="s">
-        <v>1463</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>1464</v>
+        <v>1445</v>
       </c>
       <c r="B284" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
       <c r="C284" t="s">
-        <v>1466</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1467</v>
+        <v>1448</v>
       </c>
       <c r="B285" t="s">
-        <v>1468</v>
+        <v>1449</v>
       </c>
       <c r="C285" t="s">
-        <v>1469</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1470</v>
+        <v>1451</v>
       </c>
       <c r="C286" t="s">
         <v>808</v>
@@ -8042,24 +8072,24 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1471</v>
+        <v>1452</v>
       </c>
       <c r="B287" t="s">
-        <v>1472</v>
+        <v>1453</v>
       </c>
       <c r="C287" t="s">
-        <v>1473</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1474</v>
+        <v>1455</v>
       </c>
       <c r="B288" t="s">
-        <v>1475</v>
+        <v>1456</v>
       </c>
       <c r="C288" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -8067,40 +8097,40 @@
         <v>530</v>
       </c>
       <c r="C289" t="s">
-        <v>1477</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
       <c r="B290" t="s">
-        <v>1479</v>
+        <v>1460</v>
       </c>
       <c r="C290" t="s">
-        <v>1480</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1481</v>
+        <v>1462</v>
       </c>
       <c r="B291" t="s">
-        <v>1482</v>
+        <v>1463</v>
       </c>
       <c r="C291" t="s">
-        <v>1483</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1484</v>
+        <v>1465</v>
       </c>
       <c r="B292" t="s">
-        <v>1485</v>
+        <v>1466</v>
       </c>
       <c r="C292" t="s">
-        <v>1486</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -8116,10 +8146,10 @@
         <v>560</v>
       </c>
       <c r="B294" t="s">
-        <v>1487</v>
+        <v>1468</v>
       </c>
       <c r="C294" t="s">
-        <v>1488</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -8212,7 +8242,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1489</v>
+        <v>1470</v>
       </c>
       <c r="B303" t="s">
         <v>575</v>
@@ -8239,13 +8269,13 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1490</v>
+        <v>1471</v>
       </c>
       <c r="B306" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
       <c r="C306" t="s">
-        <v>1492</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -8253,18 +8283,18 @@
         <v>663</v>
       </c>
       <c r="C307" t="s">
-        <v>1493</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>1494</v>
+        <v>1475</v>
       </c>
       <c r="B308" t="s">
-        <v>1495</v>
+        <v>1476</v>
       </c>
       <c r="C308" t="s">
-        <v>1496</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -8280,21 +8310,21 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1497</v>
+        <v>1478</v>
       </c>
       <c r="C310" t="s">
-        <v>1498</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1499</v>
+        <v>1480</v>
       </c>
       <c r="B311" t="s">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="C311" t="s">
-        <v>1501</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -8305,7 +8335,7 @@
         <v>457</v>
       </c>
       <c r="C312" t="s">
-        <v>1502</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -8318,94 +8348,94 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1503</v>
+        <v>1484</v>
       </c>
       <c r="B314" t="s">
-        <v>1504</v>
+        <v>1485</v>
       </c>
       <c r="C314" t="s">
-        <v>1505</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1506</v>
+        <v>1487</v>
       </c>
       <c r="B315" t="s">
-        <v>1507</v>
+        <v>1488</v>
       </c>
       <c r="C315" t="s">
-        <v>1508</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1509</v>
+        <v>1490</v>
       </c>
       <c r="B316" t="s">
-        <v>1510</v>
+        <v>1491</v>
       </c>
       <c r="C316" t="s">
-        <v>1511</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1512</v>
+        <v>1493</v>
       </c>
       <c r="C317" t="s">
-        <v>1513</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>1514</v>
+        <v>1495</v>
       </c>
       <c r="C318" t="s">
-        <v>1515</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1516</v>
+        <v>1497</v>
       </c>
       <c r="C319" t="s">
-        <v>1517</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1518</v>
+        <v>1499</v>
       </c>
       <c r="C320" t="s">
-        <v>1519</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1520</v>
+        <v>1501</v>
       </c>
       <c r="B321" t="s">
-        <v>1521</v>
+        <v>1502</v>
       </c>
       <c r="C321" t="s">
-        <v>1522</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="B322" t="s">
-        <v>1524</v>
+        <v>1505</v>
       </c>
       <c r="C322" t="s">
-        <v>1525</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1526</v>
+        <v>1507</v>
       </c>
       <c r="B323" t="s">
         <v>130</v>
@@ -8416,107 +8446,107 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>1527</v>
+        <v>1508</v>
       </c>
       <c r="C324" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1528</v>
+        <v>1509</v>
       </c>
       <c r="C325" t="s">
-        <v>1529</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1530</v>
+        <v>1511</v>
       </c>
       <c r="C326" t="s">
-        <v>1531</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>1532</v>
+        <v>1513</v>
       </c>
       <c r="B327" t="s">
-        <v>1533</v>
+        <v>1514</v>
       </c>
       <c r="C327" t="s">
-        <v>1534</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1535</v>
+        <v>1516</v>
       </c>
       <c r="C328" t="s">
-        <v>1536</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1537</v>
+        <v>1518</v>
       </c>
       <c r="C329" t="s">
-        <v>1538</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1539</v>
+        <v>1520</v>
       </c>
       <c r="C330" t="s">
-        <v>1540</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1541</v>
+        <v>1522</v>
       </c>
       <c r="C331" t="s">
-        <v>1542</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="B332" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="C332" t="s">
-        <v>1545</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1546</v>
+        <v>1526</v>
       </c>
       <c r="C333" t="s">
-        <v>1547</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="C334" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
       <c r="B335" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="C335" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A31B7C5-63A1-411A-9E0F-433DCE9004DB}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CDF7536-DC23-4E55-8286-2C79EF4A3F67}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24696" yWindow="312" windowWidth="22860" windowHeight="13104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1812">
   <si>
     <t>わたし</t>
   </si>
@@ -4874,6 +4874,764 @@
   <si>
     <t>那麼明天見</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第7課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>きります</t>
+  </si>
+  <si>
+    <t>切ります</t>
+  </si>
+  <si>
+    <t>剪 切</t>
+  </si>
+  <si>
+    <t>おくります</t>
+  </si>
+  <si>
+    <t>送ります</t>
+  </si>
+  <si>
+    <t>寄送</t>
+  </si>
+  <si>
+    <t>あげます</t>
+  </si>
+  <si>
+    <t>給/送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>もらいます</t>
+  </si>
+  <si>
+    <t>接受/得到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>かします</t>
+  </si>
+  <si>
+    <t>貸します</t>
+  </si>
+  <si>
+    <t>借(出)</t>
+  </si>
+  <si>
+    <t>かります</t>
+  </si>
+  <si>
+    <t>借ります</t>
+  </si>
+  <si>
+    <t>借(入)</t>
+  </si>
+  <si>
+    <t>おしえます</t>
+  </si>
+  <si>
+    <t>教えます</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>ならいます</t>
+  </si>
+  <si>
+    <t>習います</t>
+  </si>
+  <si>
+    <t>學習</t>
+  </si>
+  <si>
+    <t>かけます</t>
+  </si>
+  <si>
+    <t>打(電話)</t>
+  </si>
+  <si>
+    <t>でんわ を かけます</t>
+  </si>
+  <si>
+    <t>電話をかけます</t>
+  </si>
+  <si>
+    <t>打電話</t>
+  </si>
+  <si>
+    <t>て</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>はし</t>
+  </si>
+  <si>
+    <t>筷子</t>
+  </si>
+  <si>
+    <t>スプーン</t>
+  </si>
+  <si>
+    <t>湯匙</t>
+  </si>
+  <si>
+    <t>ナイフ</t>
+  </si>
+  <si>
+    <t>小刀</t>
+  </si>
+  <si>
+    <t>フォーク</t>
+  </si>
+  <si>
+    <t>叉子</t>
+  </si>
+  <si>
+    <t>はさみ</t>
+  </si>
+  <si>
+    <t>剪刀</t>
+  </si>
+  <si>
+    <t>ファクス</t>
+  </si>
+  <si>
+    <t>傳真</t>
+  </si>
+  <si>
+    <t>ワープロ</t>
+  </si>
+  <si>
+    <t>文字處理機</t>
+  </si>
+  <si>
+    <t>個人電腦</t>
+  </si>
+  <si>
+    <t>パンチ</t>
+  </si>
+  <si>
+    <t>打孔機</t>
+  </si>
+  <si>
+    <t>ホッチキス</t>
+  </si>
+  <si>
+    <t>釘書機</t>
+  </si>
+  <si>
+    <t>セロテープ</t>
+  </si>
+  <si>
+    <t>透明膠帶</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>襯衫</t>
+  </si>
+  <si>
+    <t>プレゼント</t>
+  </si>
+  <si>
+    <t>禮物</t>
+  </si>
+  <si>
+    <t>にもつ</t>
+  </si>
+  <si>
+    <t>荷物</t>
+  </si>
+  <si>
+    <t>行李</t>
+  </si>
+  <si>
+    <t>おかね</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>錢</t>
+  </si>
+  <si>
+    <t>きっぷ</t>
+  </si>
+  <si>
+    <t>切符</t>
+  </si>
+  <si>
+    <t>票</t>
+  </si>
+  <si>
+    <t>クリスマス</t>
+  </si>
+  <si>
+    <t>聖誕節</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>家父</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>家母</t>
+  </si>
+  <si>
+    <t>おとうさん</t>
+  </si>
+  <si>
+    <t>お父さん</t>
+  </si>
+  <si>
+    <t>(他人的)父親</t>
+  </si>
+  <si>
+    <t>おかあさん</t>
+  </si>
+  <si>
+    <t>お母さん</t>
+  </si>
+  <si>
+    <t>(他人的)母親</t>
+  </si>
+  <si>
+    <t>もう</t>
+  </si>
+  <si>
+    <t>已經</t>
+  </si>
+  <si>
+    <t>まだ</t>
+  </si>
+  <si>
+    <t>尚未/還沒有</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>これから</t>
+  </si>
+  <si>
+    <t>從現在起/這就</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>～すてきですね</t>
+  </si>
+  <si>
+    <t>～,好棒喲</t>
+  </si>
+  <si>
+    <t>ごめんください</t>
+  </si>
+  <si>
+    <t>對不起/有人在家嗎？/我能進來嗎？(去別人家時用)</t>
+  </si>
+  <si>
+    <t>いらっしゃい</t>
+  </si>
+  <si>
+    <t>歡迎(歡迎訪客的寒暄)</t>
+  </si>
+  <si>
+    <t>どうぞ おあがり ください</t>
+  </si>
+  <si>
+    <t>どうぞ お上がり ください</t>
+  </si>
+  <si>
+    <t>請進</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>しつれい します</t>
+  </si>
+  <si>
+    <t>失礼します</t>
+  </si>
+  <si>
+    <t>對不起/打擾了</t>
+  </si>
+  <si>
+    <t>(～)は いかがですか</t>
+  </si>
+  <si>
+    <t>你覺得(～)怎麼樣？(推薦某物給人時用)</t>
+  </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <t>謝謝/我不客氣了 (用在吃前)</t>
+  </si>
+  <si>
+    <t>りょこう</t>
+  </si>
+  <si>
+    <t>旅行</t>
+  </si>
+  <si>
+    <t>りょこう を します</t>
+  </si>
+  <si>
+    <t>去旅行</t>
+  </si>
+  <si>
+    <t>おみやげ</t>
+  </si>
+  <si>
+    <t>お土産</t>
+  </si>
+  <si>
+    <t>土產 記念品</t>
+  </si>
+  <si>
+    <t>ヨーロッパ</t>
+  </si>
+  <si>
+    <t>歐洲</t>
+  </si>
+  <si>
+    <t>スペイン</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>*第8課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハンサム な</t>
+  </si>
+  <si>
+    <t>英俊的</t>
+  </si>
+  <si>
+    <t>きれい な</t>
+  </si>
+  <si>
+    <t>美麗的/乾凈的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>しずか な</t>
+  </si>
+  <si>
+    <t>静かな</t>
+  </si>
+  <si>
+    <t>安靜的</t>
+  </si>
+  <si>
+    <t>にぎやか な</t>
+  </si>
+  <si>
+    <t>熱鬧的</t>
+  </si>
+  <si>
+    <t>ゆうめい な</t>
+  </si>
+  <si>
+    <t>有名な</t>
+  </si>
+  <si>
+    <t>有名的</t>
+  </si>
+  <si>
+    <t>しんせつ な</t>
+  </si>
+  <si>
+    <t>親切な</t>
+  </si>
+  <si>
+    <t>親切的</t>
+  </si>
+  <si>
+    <t>げんき な</t>
+  </si>
+  <si>
+    <t>元気な</t>
+  </si>
+  <si>
+    <t>身體好的/健康的</t>
+  </si>
+  <si>
+    <t>ひま な</t>
+  </si>
+  <si>
+    <t>暇な</t>
+  </si>
+  <si>
+    <t>空閒的</t>
+  </si>
+  <si>
+    <t>べんり な</t>
+  </si>
+  <si>
+    <t>便利な</t>
+  </si>
+  <si>
+    <t>方便的</t>
+  </si>
+  <si>
+    <t>すてき な</t>
+  </si>
+  <si>
+    <t>很好的/很棒的</t>
+  </si>
+  <si>
+    <t>おおき い</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>ちいさ い</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>あたらし い</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>ふる い</t>
+  </si>
+  <si>
+    <t>舊</t>
+  </si>
+  <si>
+    <t>いい(よい)</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>わる い</t>
+  </si>
+  <si>
+    <t>壞</t>
+  </si>
+  <si>
+    <t>あつ い</t>
+  </si>
+  <si>
+    <t>暑い、熱い</t>
+  </si>
+  <si>
+    <t>さむ い</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
+    <t>つめた い</t>
+  </si>
+  <si>
+    <t>涼</t>
+  </si>
+  <si>
+    <t>むずか しい</t>
+  </si>
+  <si>
+    <t>難</t>
+  </si>
+  <si>
+    <t>やさ しい</t>
+  </si>
+  <si>
+    <t>たか い</t>
+  </si>
+  <si>
+    <t>高/貴</t>
+  </si>
+  <si>
+    <t>やす い</t>
+  </si>
+  <si>
+    <t>ひく い</t>
+  </si>
+  <si>
+    <t>低/矮</t>
+  </si>
+  <si>
+    <t>有趣/有意思</t>
+  </si>
+  <si>
+    <t>美味/好吃</t>
+  </si>
+  <si>
+    <t>いそが しい</t>
+  </si>
+  <si>
+    <t>忙祿</t>
+  </si>
+  <si>
+    <t>たの しい</t>
+  </si>
+  <si>
+    <t>愉快/高興</t>
+  </si>
+  <si>
+    <t>しろ い</t>
+  </si>
+  <si>
+    <t>白い</t>
+  </si>
+  <si>
+    <t>白色的</t>
+  </si>
+  <si>
+    <t>くろ い</t>
+  </si>
+  <si>
+    <t>黒い</t>
+  </si>
+  <si>
+    <t>黑色的</t>
+  </si>
+  <si>
+    <t>あか い</t>
+  </si>
+  <si>
+    <t>赤い</t>
+  </si>
+  <si>
+    <t>紅色的</t>
+  </si>
+  <si>
+    <t>あお い</t>
+  </si>
+  <si>
+    <t>青い</t>
+  </si>
+  <si>
+    <t>藍色的</t>
+  </si>
+  <si>
+    <t>さくら</t>
+  </si>
+  <si>
+    <t>桜</t>
+  </si>
+  <si>
+    <t>櫻花</t>
+  </si>
+  <si>
+    <t>やま</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>町</t>
+  </si>
+  <si>
+    <t>城市/城鎮</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>場所 地方</t>
+  </si>
+  <si>
+    <t>りょう</t>
+  </si>
+  <si>
+    <t>寮</t>
+  </si>
+  <si>
+    <t>宿舍</t>
+  </si>
+  <si>
+    <t>べんきょう</t>
+  </si>
+  <si>
+    <t>勉強</t>
+  </si>
+  <si>
+    <t>學習/用功</t>
+  </si>
+  <si>
+    <t>せいかつ</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>(お)しごと</t>
+  </si>
+  <si>
+    <t>(お)仕事</t>
+  </si>
+  <si>
+    <t>工作/職業</t>
+  </si>
+  <si>
+    <t>(お)しごと を します</t>
+  </si>
+  <si>
+    <t>(お)仕事 を します</t>
+  </si>
+  <si>
+    <t>どう</t>
+  </si>
+  <si>
+    <t>怎麼樣</t>
+  </si>
+  <si>
+    <t>どんな～</t>
+  </si>
+  <si>
+    <t>什麼樣的～</t>
+  </si>
+  <si>
+    <t>どれ</t>
+  </si>
+  <si>
+    <t>哪個</t>
+  </si>
+  <si>
+    <t>とても</t>
+  </si>
+  <si>
+    <t>很/非常</t>
+  </si>
+  <si>
+    <t>あまり</t>
+  </si>
+  <si>
+    <t>不太(用於否定句)</t>
+  </si>
+  <si>
+    <t>そして</t>
+  </si>
+  <si>
+    <t>而且/還用(用於接續句子)</t>
+  </si>
+  <si>
+    <t>～が、～</t>
+  </si>
+  <si>
+    <t>～,但是～</t>
+  </si>
+  <si>
+    <t>おげんきですか お元気ですか</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好嗎？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうですね</t>
+  </si>
+  <si>
+    <t>是呀(用於思考回答時)</t>
+  </si>
+  <si>
+    <t>(~)もう いっぱい いかがですか</t>
+  </si>
+  <si>
+    <t>(~)もう 一杯 いかがですか</t>
+  </si>
+  <si>
+    <t>再來一杯(～)怎麼樣？</t>
+  </si>
+  <si>
+    <t>いいえ、けっこうです</t>
+  </si>
+  <si>
+    <t>不用了,夠了</t>
+  </si>
+  <si>
+    <t>もう～です(ね)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經～了吧(不是嗎？)</t>
+  </si>
+  <si>
+    <t>そろそろ しつれい します</t>
+  </si>
+  <si>
+    <t>そろそろ 失礼します</t>
+  </si>
+  <si>
+    <t>我該告辭了。</t>
+  </si>
+  <si>
+    <t>また いらっしゃって ください</t>
+  </si>
+  <si>
+    <t>歡迎再來。</t>
+  </si>
+  <si>
+    <t>ふじさん</t>
+  </si>
+  <si>
+    <t>富士山</t>
+  </si>
+  <si>
+    <t>びわこ</t>
+  </si>
+  <si>
+    <t>琵琶湖</t>
+  </si>
+  <si>
+    <t>琵琶湖(日本最大的湖)</t>
+  </si>
+  <si>
+    <t>シャンハイ</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>しちにん の さむらい</t>
+  </si>
+  <si>
+    <t>七人の侍</t>
+  </si>
+  <si>
+    <t>七名武士(黑澤明導演的電影)</t>
+  </si>
+  <si>
+    <t>きん かく じ</t>
+  </si>
+  <si>
+    <t>金閣寺</t>
   </si>
 </sst>
 </file>
@@ -5231,10 +5989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C668"/>
+  <dimension ref="A1:C782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C334" sqref="C334"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8551,3583 +9309,4678 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>236</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>237</v>
+        <v>1564</v>
       </c>
       <c r="B337" t="s">
-        <v>238</v>
+        <v>1565</v>
       </c>
       <c r="C337" t="s">
-        <v>234</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>239</v>
+        <v>1567</v>
       </c>
       <c r="B338" t="s">
-        <v>240</v>
+        <v>1568</v>
       </c>
       <c r="C338" t="s">
-        <v>235</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>241</v>
-      </c>
-      <c r="B339" t="s">
-        <v>242</v>
+        <v>1570</v>
       </c>
       <c r="C339" t="s">
-        <v>243</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>244</v>
-      </c>
-      <c r="B340" t="s">
-        <v>245</v>
+        <v>1572</v>
       </c>
       <c r="C340" t="s">
-        <v>246</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>247</v>
+        <v>1574</v>
       </c>
       <c r="B341" t="s">
-        <v>248</v>
+        <v>1575</v>
       </c>
       <c r="C341" t="s">
-        <v>249</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>250</v>
+        <v>1577</v>
       </c>
       <c r="B342" t="s">
-        <v>251</v>
+        <v>1578</v>
       </c>
       <c r="C342" t="s">
-        <v>252</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>253</v>
+        <v>1580</v>
       </c>
       <c r="B343" t="s">
-        <v>254</v>
+        <v>1581</v>
       </c>
       <c r="C343" t="s">
-        <v>255</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>256</v>
+        <v>1583</v>
       </c>
       <c r="B344" t="s">
-        <v>257</v>
+        <v>1584</v>
       </c>
       <c r="C344" t="s">
-        <v>258</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>259</v>
-      </c>
-      <c r="B345" t="s">
-        <v>260</v>
+        <v>1586</v>
       </c>
       <c r="C345" t="s">
-        <v>261</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>262</v>
+        <v>1588</v>
       </c>
       <c r="B346" t="s">
-        <v>263</v>
+        <v>1589</v>
       </c>
       <c r="C346" t="s">
-        <v>264</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>265</v>
+        <v>1591</v>
       </c>
       <c r="B347" t="s">
-        <v>266</v>
+        <v>1592</v>
       </c>
       <c r="C347" t="s">
-        <v>267</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>268</v>
-      </c>
-      <c r="B348" t="s">
-        <v>269</v>
+        <v>1593</v>
       </c>
       <c r="C348" t="s">
-        <v>270</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>271</v>
-      </c>
-      <c r="B349" t="s">
-        <v>272</v>
+        <v>1595</v>
       </c>
       <c r="C349" t="s">
-        <v>273</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>274</v>
-      </c>
-      <c r="B350" t="s">
-        <v>275</v>
+        <v>1597</v>
       </c>
       <c r="C350" t="s">
-        <v>276</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>277</v>
-      </c>
-      <c r="B351" t="s">
-        <v>278</v>
+        <v>1599</v>
       </c>
       <c r="C351" t="s">
-        <v>279</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>280</v>
-      </c>
-      <c r="B352" t="s">
-        <v>281</v>
+        <v>1601</v>
       </c>
       <c r="C352" t="s">
-        <v>282</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>283</v>
-      </c>
-      <c r="B353" t="s">
-        <v>284</v>
+        <v>1603</v>
       </c>
       <c r="C353" t="s">
-        <v>285</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>286</v>
-      </c>
-      <c r="B354" t="s">
-        <v>287</v>
+        <v>1605</v>
       </c>
       <c r="C354" t="s">
-        <v>288</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>289</v>
-      </c>
-      <c r="B355" t="s">
-        <v>290</v>
+        <v>667</v>
       </c>
       <c r="C355" t="s">
-        <v>291</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>292</v>
-      </c>
-      <c r="B356" t="s">
-        <v>293</v>
+        <v>1608</v>
       </c>
       <c r="C356" t="s">
-        <v>294</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>295</v>
-      </c>
-      <c r="B357" t="s">
-        <v>296</v>
+        <v>1610</v>
       </c>
       <c r="C357" t="s">
-        <v>297</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>298</v>
-      </c>
-      <c r="B358" t="s">
-        <v>299</v>
+        <v>1612</v>
       </c>
       <c r="C358" t="s">
-        <v>299</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>300</v>
+        <v>648</v>
       </c>
       <c r="B359" t="s">
-        <v>301</v>
+        <v>647</v>
       </c>
       <c r="C359" t="s">
-        <v>302</v>
+        <v>646</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B360" t="s">
-        <v>304</v>
+        <v>625</v>
       </c>
       <c r="C360" t="s">
-        <v>304</v>
+        <v>625</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>305</v>
+        <v>1614</v>
       </c>
       <c r="B361" t="s">
-        <v>306</v>
+        <v>1615</v>
       </c>
       <c r="C361" t="s">
-        <v>307</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>308</v>
-      </c>
-      <c r="B362" t="s">
-        <v>309</v>
+        <v>598</v>
       </c>
       <c r="C362" t="s">
-        <v>310</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>311</v>
+        <v>1617</v>
       </c>
       <c r="C363" t="s">
-        <v>312</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>313</v>
+        <v>1619</v>
       </c>
       <c r="B364" t="s">
-        <v>314</v>
+        <v>1620</v>
       </c>
       <c r="C364" t="s">
-        <v>315</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>316</v>
+        <v>1622</v>
       </c>
       <c r="B365" t="s">
-        <v>317</v>
+        <v>1623</v>
       </c>
       <c r="C365" t="s">
-        <v>318</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>319</v>
+        <v>1625</v>
       </c>
       <c r="B366" t="s">
-        <v>320</v>
+        <v>1626</v>
       </c>
       <c r="C366" t="s">
-        <v>321</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>322</v>
+        <v>1628</v>
       </c>
       <c r="C367" t="s">
-        <v>288</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>323</v>
+        <v>1630</v>
       </c>
       <c r="B368" t="s">
-        <v>324</v>
+        <v>1631</v>
       </c>
       <c r="C368" t="s">
-        <v>325</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>326</v>
+        <v>1633</v>
       </c>
       <c r="B369" t="s">
-        <v>327</v>
+        <v>1634</v>
       </c>
       <c r="C369" t="s">
-        <v>328</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>21</v>
+        <v>1636</v>
       </c>
       <c r="B370" t="s">
-        <v>329</v>
+        <v>1637</v>
       </c>
       <c r="C370" t="s">
-        <v>330</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>331</v>
+        <v>1639</v>
       </c>
       <c r="B371" t="s">
-        <v>332</v>
+        <v>1640</v>
       </c>
       <c r="C371" t="s">
-        <v>333</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>334</v>
+        <v>1642</v>
       </c>
       <c r="C372" t="s">
-        <v>335</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>336</v>
+        <v>1644</v>
       </c>
       <c r="C373" t="s">
-        <v>337</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>338</v>
+        <v>1646</v>
       </c>
       <c r="C374" t="s">
-        <v>339</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>340</v>
+        <v>1648</v>
       </c>
       <c r="C375" t="s">
-        <v>341</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>342</v>
-      </c>
-      <c r="B376" t="s">
-        <v>343</v>
+        <v>1650</v>
       </c>
       <c r="C376" t="s">
-        <v>344</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>345</v>
+        <v>1652</v>
       </c>
       <c r="C377" t="s">
-        <v>346</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>347</v>
+        <v>1654</v>
       </c>
       <c r="B378" t="s">
-        <v>348</v>
+        <v>1655</v>
       </c>
       <c r="C378" t="s">
-        <v>349</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>456</v>
+        <v>1657</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>458</v>
-      </c>
-      <c r="B380" t="s">
-        <v>457</v>
+        <v>1660</v>
       </c>
       <c r="C380" t="s">
-        <v>457</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>461</v>
-      </c>
-      <c r="B381" t="s">
-        <v>460</v>
+        <v>1662</v>
       </c>
       <c r="C381" t="s">
-        <v>459</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>464</v>
-      </c>
-      <c r="B382" t="s">
-        <v>463</v>
+        <v>1664</v>
       </c>
       <c r="C382" t="s">
-        <v>462</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>466</v>
-      </c>
-      <c r="B383" t="s">
-        <v>465</v>
+        <v>1666</v>
       </c>
       <c r="C383" t="s">
-        <v>465</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>381</v>
+        <v>1668</v>
       </c>
       <c r="B384" t="s">
-        <v>382</v>
+        <v>1669</v>
       </c>
       <c r="C384" t="s">
-        <v>383</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>469</v>
-      </c>
-      <c r="B385" t="s">
-        <v>468</v>
+        <v>1671</v>
       </c>
       <c r="C385" t="s">
-        <v>467</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>472</v>
-      </c>
-      <c r="B386" t="s">
-        <v>471</v>
+        <v>1673</v>
       </c>
       <c r="C386" t="s">
-        <v>470</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>398</v>
-      </c>
-      <c r="B387" t="s">
-        <v>399</v>
-      </c>
-      <c r="C387" t="s">
-        <v>400</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>474</v>
-      </c>
-      <c r="B388" t="s">
-        <v>473</v>
+        <v>1676</v>
       </c>
       <c r="C388" t="s">
-        <v>473</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>476</v>
-      </c>
-      <c r="B389" t="s">
-        <v>475</v>
+        <v>1678</v>
       </c>
       <c r="C389" t="s">
-        <v>475</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>161</v>
+        <v>1680</v>
       </c>
       <c r="B390" t="s">
-        <v>162</v>
+        <v>1681</v>
       </c>
       <c r="C390" t="s">
-        <v>163</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>479</v>
-      </c>
-      <c r="B391" t="s">
-        <v>478</v>
+        <v>1683</v>
       </c>
       <c r="C391" t="s">
-        <v>477</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>365</v>
+        <v>1685</v>
       </c>
       <c r="B392" t="s">
-        <v>366</v>
+        <v>1686</v>
       </c>
       <c r="C392" t="s">
-        <v>366</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>482</v>
+        <v>1688</v>
       </c>
       <c r="B393" t="s">
-        <v>481</v>
+        <v>1689</v>
       </c>
       <c r="C393" t="s">
-        <v>480</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>485</v>
+        <v>1691</v>
       </c>
       <c r="B394" t="s">
-        <v>484</v>
+        <v>1692</v>
       </c>
       <c r="C394" t="s">
-        <v>483</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>488</v>
+        <v>1694</v>
       </c>
       <c r="B395" t="s">
-        <v>487</v>
+        <v>1695</v>
       </c>
       <c r="C395" t="s">
-        <v>486</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>491</v>
+        <v>1697</v>
       </c>
       <c r="B396" t="s">
-        <v>490</v>
+        <v>1698</v>
       </c>
       <c r="C396" t="s">
-        <v>489</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>494</v>
-      </c>
-      <c r="B397" t="s">
-        <v>493</v>
+        <v>1700</v>
       </c>
       <c r="C397" t="s">
-        <v>492</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>497</v>
+        <v>1702</v>
       </c>
       <c r="B398" t="s">
-        <v>496</v>
+        <v>951</v>
       </c>
       <c r="C398" t="s">
-        <v>495</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>500</v>
+        <v>1704</v>
       </c>
       <c r="B399" t="s">
-        <v>499</v>
+        <v>954</v>
       </c>
       <c r="C399" t="s">
-        <v>498</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>503</v>
+        <v>1706</v>
       </c>
       <c r="B400" t="s">
-        <v>502</v>
+        <v>940</v>
       </c>
       <c r="C400" t="s">
-        <v>501</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>505</v>
+        <v>1708</v>
       </c>
       <c r="B401" t="s">
-        <v>504</v>
+        <v>943</v>
       </c>
       <c r="C401" t="s">
-        <v>504</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>508</v>
-      </c>
-      <c r="B402" t="s">
-        <v>507</v>
+        <v>1710</v>
       </c>
       <c r="C402" t="s">
-        <v>506</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>511</v>
+        <v>1712</v>
       </c>
       <c r="B403" t="s">
-        <v>510</v>
+        <v>934</v>
       </c>
       <c r="C403" t="s">
-        <v>509</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>513</v>
+        <v>1714</v>
       </c>
       <c r="B404" t="s">
-        <v>391</v>
+        <v>1715</v>
       </c>
       <c r="C404" t="s">
-        <v>512</v>
+        <v>314</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>516</v>
+        <v>1716</v>
       </c>
       <c r="B405" t="s">
-        <v>515</v>
+        <v>861</v>
       </c>
       <c r="C405" t="s">
-        <v>514</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>518</v>
+        <v>1718</v>
       </c>
       <c r="B406" t="s">
-        <v>384</v>
+        <v>864</v>
       </c>
       <c r="C406" t="s">
-        <v>517</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>520</v>
+        <v>1720</v>
       </c>
       <c r="B407" t="s">
-        <v>519</v>
+        <v>968</v>
       </c>
       <c r="C407" t="s">
-        <v>519</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>523</v>
+        <v>1722</v>
       </c>
       <c r="B408" t="s">
-        <v>522</v>
+        <v>965</v>
       </c>
       <c r="C408" t="s">
-        <v>521</v>
+        <v>964</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>524</v>
+        <v>1723</v>
+      </c>
+      <c r="B409" t="s">
+        <v>925</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>527</v>
+        <v>1725</v>
       </c>
       <c r="B410" t="s">
-        <v>526</v>
+        <v>922</v>
       </c>
       <c r="C410" t="s">
-        <v>525</v>
+        <v>921</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>530</v>
+        <v>1726</v>
       </c>
       <c r="B411" t="s">
-        <v>529</v>
+        <v>928</v>
       </c>
       <c r="C411" t="s">
-        <v>528</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>533</v>
-      </c>
-      <c r="B412" t="s">
-        <v>532</v>
+        <v>947</v>
       </c>
       <c r="C412" t="s">
-        <v>531</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>536</v>
-      </c>
-      <c r="B413" t="s">
-        <v>535</v>
+        <v>961</v>
       </c>
       <c r="C413" t="s">
-        <v>534</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>539</v>
+        <v>1730</v>
       </c>
       <c r="B414" t="s">
-        <v>538</v>
+        <v>982</v>
       </c>
       <c r="C414" t="s">
-        <v>537</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>542</v>
+        <v>1732</v>
       </c>
       <c r="B415" t="s">
-        <v>541</v>
+        <v>988</v>
       </c>
       <c r="C415" t="s">
-        <v>540</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>544</v>
+        <v>1734</v>
       </c>
       <c r="B416" t="s">
-        <v>543</v>
+        <v>1735</v>
       </c>
       <c r="C416" t="s">
-        <v>543</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>546</v>
+        <v>1737</v>
       </c>
       <c r="B417" t="s">
-        <v>545</v>
+        <v>1738</v>
       </c>
       <c r="C417" t="s">
-        <v>545</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>548</v>
+        <v>1740</v>
       </c>
       <c r="B418" t="s">
-        <v>547</v>
+        <v>1741</v>
       </c>
       <c r="C418" t="s">
-        <v>547</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>550</v>
+        <v>1743</v>
       </c>
       <c r="B419" t="s">
-        <v>549</v>
+        <v>1744</v>
       </c>
       <c r="C419" t="s">
-        <v>549</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>553</v>
+        <v>1746</v>
       </c>
       <c r="B420" t="s">
-        <v>552</v>
+        <v>1747</v>
       </c>
       <c r="C420" t="s">
-        <v>551</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>555</v>
+        <v>1749</v>
       </c>
       <c r="B421" t="s">
-        <v>554</v>
+        <v>1750</v>
       </c>
       <c r="C421" t="s">
-        <v>554</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>558</v>
+        <v>1751</v>
       </c>
       <c r="B422" t="s">
-        <v>557</v>
+        <v>1752</v>
       </c>
       <c r="C422" t="s">
-        <v>556</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="B423" t="s">
-        <v>1127</v>
+        <v>526</v>
       </c>
       <c r="C423" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>563</v>
+        <v>1754</v>
       </c>
       <c r="B424" t="s">
-        <v>562</v>
+        <v>1755</v>
       </c>
       <c r="C424" t="s">
-        <v>561</v>
+        <v>112</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="B425" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="C425" t="s">
-        <v>564</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>568</v>
+        <v>1757</v>
       </c>
       <c r="B426" t="s">
-        <v>567</v>
+        <v>1758</v>
       </c>
       <c r="C426" t="s">
-        <v>567</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>571</v>
+        <v>1760</v>
       </c>
       <c r="B427" t="s">
-        <v>570</v>
+        <v>1761</v>
       </c>
       <c r="C427" t="s">
-        <v>569</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>573</v>
+        <v>1763</v>
       </c>
       <c r="B428" t="s">
-        <v>572</v>
+        <v>1764</v>
       </c>
       <c r="C428" t="s">
-        <v>572</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>576</v>
+        <v>1765</v>
       </c>
       <c r="B429" t="s">
-        <v>575</v>
+        <v>1766</v>
       </c>
       <c r="C429" t="s">
-        <v>574</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>579</v>
+        <v>1768</v>
       </c>
       <c r="B430" t="s">
-        <v>578</v>
+        <v>1769</v>
       </c>
       <c r="C430" t="s">
-        <v>577</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>582</v>
-      </c>
-      <c r="B431" t="s">
-        <v>581</v>
+        <v>1770</v>
       </c>
       <c r="C431" t="s">
-        <v>580</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>583</v>
-      </c>
-      <c r="B432" t="s">
-        <v>120</v>
+        <v>1772</v>
       </c>
       <c r="C432" t="s">
-        <v>121</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>586</v>
-      </c>
-      <c r="B433" t="s">
-        <v>585</v>
+        <v>1774</v>
       </c>
       <c r="C433" t="s">
-        <v>584</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>587</v>
+        <v>1776</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1777</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>590</v>
-      </c>
-      <c r="B435" t="s">
-        <v>589</v>
+        <v>1778</v>
       </c>
       <c r="C435" t="s">
-        <v>588</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>593</v>
-      </c>
-      <c r="B436" t="s">
-        <v>592</v>
+        <v>1780</v>
       </c>
       <c r="C436" t="s">
-        <v>591</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>596</v>
-      </c>
-      <c r="B437" t="s">
-        <v>595</v>
+        <v>1782</v>
       </c>
       <c r="C437" t="s">
-        <v>594</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>599</v>
-      </c>
-      <c r="B438" t="s">
-        <v>598</v>
+        <v>1784</v>
       </c>
       <c r="C438" t="s">
-        <v>597</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>602</v>
-      </c>
-      <c r="B439" t="s">
-        <v>601</v>
+        <v>1786</v>
       </c>
       <c r="C439" t="s">
-        <v>600</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>605</v>
+        <v>1788</v>
       </c>
       <c r="B440" t="s">
-        <v>604</v>
+        <v>1789</v>
       </c>
       <c r="C440" t="s">
-        <v>603</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>608</v>
-      </c>
-      <c r="B441" t="s">
-        <v>607</v>
+        <v>1791</v>
       </c>
       <c r="C441" t="s">
-        <v>606</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>611</v>
-      </c>
-      <c r="B442" t="s">
-        <v>610</v>
+        <v>1793</v>
       </c>
       <c r="C442" t="s">
-        <v>609</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>614</v>
+        <v>1795</v>
       </c>
       <c r="B443" t="s">
-        <v>613</v>
+        <v>1796</v>
       </c>
       <c r="C443" t="s">
-        <v>612</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>617</v>
-      </c>
-      <c r="B444" t="s">
-        <v>616</v>
+        <v>1798</v>
       </c>
       <c r="C444" t="s">
-        <v>615</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>620</v>
+        <v>1800</v>
       </c>
       <c r="B445" t="s">
-        <v>619</v>
+        <v>1801</v>
       </c>
       <c r="C445" t="s">
-        <v>618</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>405</v>
+        <v>1802</v>
       </c>
       <c r="B446" t="s">
-        <v>406</v>
+        <v>1803</v>
       </c>
       <c r="C446" t="s">
-        <v>407</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>623</v>
-      </c>
-      <c r="B447" t="s">
-        <v>622</v>
+        <v>1805</v>
       </c>
       <c r="C447" t="s">
-        <v>621</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>58</v>
+        <v>1807</v>
       </c>
       <c r="B448" t="s">
-        <v>59</v>
+        <v>1808</v>
       </c>
       <c r="C448" t="s">
-        <v>624</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>626</v>
+        <v>1810</v>
       </c>
       <c r="B449" t="s">
-        <v>625</v>
+        <v>1811</v>
       </c>
       <c r="C449" t="s">
-        <v>625</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>629</v>
-      </c>
-      <c r="B450" t="s">
-        <v>628</v>
-      </c>
-      <c r="C450" t="s">
-        <v>627</v>
+        <v>236</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="B451" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="C451" t="s">
-        <v>630</v>
+        <v>234</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>633</v>
+        <v>239</v>
       </c>
       <c r="B452" t="s">
-        <v>632</v>
+        <v>240</v>
       </c>
       <c r="C452" t="s">
-        <v>631</v>
+        <v>235</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>636</v>
+        <v>241</v>
       </c>
       <c r="B453" t="s">
-        <v>635</v>
+        <v>242</v>
       </c>
       <c r="C453" t="s">
-        <v>634</v>
+        <v>243</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>639</v>
+        <v>244</v>
       </c>
       <c r="B454" t="s">
-        <v>638</v>
+        <v>245</v>
       </c>
       <c r="C454" t="s">
-        <v>637</v>
+        <v>246</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="B455" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="C455" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>642</v>
+        <v>250</v>
       </c>
       <c r="B456" t="s">
-        <v>641</v>
+        <v>251</v>
       </c>
       <c r="C456" t="s">
-        <v>640</v>
+        <v>252</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>645</v>
+        <v>253</v>
       </c>
       <c r="B457" t="s">
-        <v>644</v>
+        <v>254</v>
       </c>
       <c r="C457" t="s">
-        <v>643</v>
+        <v>255</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>648</v>
+        <v>256</v>
       </c>
       <c r="B458" t="s">
-        <v>647</v>
+        <v>257</v>
       </c>
       <c r="C458" t="s">
-        <v>646</v>
+        <v>258</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>651</v>
+        <v>259</v>
       </c>
       <c r="B459" t="s">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="C459" t="s">
-        <v>649</v>
+        <v>261</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>652</v>
+        <v>262</v>
       </c>
       <c r="B460" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="C460" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>653</v>
+        <v>265</v>
       </c>
       <c r="B461" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="C461" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>654</v>
+        <v>268</v>
       </c>
       <c r="B462" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="C462" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>403</v>
+        <v>271</v>
       </c>
       <c r="B463" t="s">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="C463" t="s">
-        <v>404</v>
+        <v>273</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>657</v>
+        <v>274</v>
       </c>
       <c r="B464" t="s">
-        <v>656</v>
+        <v>275</v>
       </c>
       <c r="C464" t="s">
-        <v>655</v>
+        <v>276</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>660</v>
+        <v>277</v>
       </c>
       <c r="B465" t="s">
-        <v>659</v>
+        <v>278</v>
       </c>
       <c r="C465" t="s">
-        <v>658</v>
+        <v>279</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>661</v>
+        <v>280</v>
       </c>
       <c r="B466" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="C466" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>664</v>
+        <v>283</v>
       </c>
       <c r="B467" t="s">
-        <v>663</v>
+        <v>284</v>
       </c>
       <c r="C467" t="s">
-        <v>662</v>
+        <v>285</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>666</v>
+        <v>286</v>
       </c>
       <c r="B468" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="C468" t="s">
-        <v>665</v>
+        <v>288</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>668</v>
+        <v>289</v>
       </c>
       <c r="B469" t="s">
-        <v>667</v>
+        <v>290</v>
       </c>
       <c r="C469" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>671</v>
+        <v>292</v>
       </c>
       <c r="B470" t="s">
-        <v>670</v>
+        <v>293</v>
       </c>
       <c r="C470" t="s">
-        <v>669</v>
+        <v>294</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>672</v>
+        <v>295</v>
+      </c>
+      <c r="B471" t="s">
+        <v>296</v>
+      </c>
+      <c r="C471" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>675</v>
+        <v>298</v>
       </c>
       <c r="B472" t="s">
-        <v>674</v>
+        <v>299</v>
       </c>
       <c r="C472" t="s">
-        <v>673</v>
+        <v>299</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>678</v>
+        <v>300</v>
       </c>
       <c r="B473" t="s">
-        <v>677</v>
+        <v>301</v>
       </c>
       <c r="C473" t="s">
-        <v>676</v>
+        <v>302</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>681</v>
+        <v>303</v>
       </c>
       <c r="B474" t="s">
-        <v>680</v>
+        <v>304</v>
       </c>
       <c r="C474" t="s">
-        <v>679</v>
+        <v>304</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>684</v>
+        <v>305</v>
       </c>
       <c r="B475" t="s">
-        <v>683</v>
+        <v>306</v>
       </c>
       <c r="C475" t="s">
-        <v>682</v>
+        <v>307</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>687</v>
+        <v>308</v>
       </c>
       <c r="B476" t="s">
-        <v>686</v>
+        <v>309</v>
       </c>
       <c r="C476" t="s">
-        <v>685</v>
+        <v>310</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>690</v>
-      </c>
-      <c r="B477" t="s">
-        <v>689</v>
+        <v>311</v>
       </c>
       <c r="C477" t="s">
-        <v>688</v>
+        <v>312</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>693</v>
+        <v>313</v>
       </c>
       <c r="B478" t="s">
-        <v>692</v>
+        <v>314</v>
       </c>
       <c r="C478" t="s">
-        <v>691</v>
+        <v>315</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>696</v>
+        <v>316</v>
       </c>
       <c r="B479" t="s">
-        <v>695</v>
+        <v>317</v>
       </c>
       <c r="C479" t="s">
-        <v>694</v>
+        <v>318</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>699</v>
+        <v>319</v>
       </c>
       <c r="B480" t="s">
-        <v>698</v>
+        <v>320</v>
       </c>
       <c r="C480" t="s">
-        <v>697</v>
+        <v>321</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>702</v>
-      </c>
-      <c r="B481" t="s">
-        <v>701</v>
+        <v>322</v>
       </c>
       <c r="C481" t="s">
-        <v>700</v>
+        <v>288</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>705</v>
+        <v>323</v>
       </c>
       <c r="B482" t="s">
-        <v>704</v>
+        <v>324</v>
       </c>
       <c r="C482" t="s">
-        <v>703</v>
+        <v>325</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>401</v>
+        <v>326</v>
       </c>
       <c r="B483" t="s">
-        <v>707</v>
+        <v>327</v>
       </c>
       <c r="C483" t="s">
-        <v>706</v>
+        <v>328</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>710</v>
+        <v>21</v>
       </c>
       <c r="B484" t="s">
-        <v>709</v>
+        <v>329</v>
       </c>
       <c r="C484" t="s">
-        <v>708</v>
+        <v>330</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>713</v>
+        <v>331</v>
       </c>
       <c r="B485" t="s">
-        <v>712</v>
+        <v>332</v>
       </c>
       <c r="C485" t="s">
-        <v>711</v>
+        <v>333</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>716</v>
-      </c>
-      <c r="B486" t="s">
-        <v>715</v>
+        <v>334</v>
       </c>
       <c r="C486" t="s">
-        <v>714</v>
+        <v>335</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>719</v>
-      </c>
-      <c r="B487" t="s">
-        <v>718</v>
+        <v>336</v>
       </c>
       <c r="C487" t="s">
-        <v>717</v>
+        <v>337</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>720</v>
+        <v>338</v>
+      </c>
+      <c r="C488" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>721</v>
-      </c>
-      <c r="B489">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="C489" t="s">
-        <v>1128</v>
+        <v>341</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>722</v>
-      </c>
-      <c r="B490">
-        <v>2</v>
+        <v>342</v>
+      </c>
+      <c r="B490" t="s">
+        <v>343</v>
       </c>
       <c r="C490" t="s">
-        <v>1129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>723</v>
-      </c>
-      <c r="B491">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="C491" t="s">
-        <v>1130</v>
+        <v>346</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>724</v>
-      </c>
-      <c r="B492">
-        <v>4</v>
+        <v>347</v>
+      </c>
+      <c r="B492" t="s">
+        <v>348</v>
       </c>
       <c r="C492" t="s">
-        <v>1131</v>
+        <v>349</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>725</v>
-      </c>
-      <c r="B493">
-        <v>5</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1132</v>
+        <v>456</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>726</v>
-      </c>
-      <c r="B494">
-        <v>6</v>
+        <v>458</v>
+      </c>
+      <c r="B494" t="s">
+        <v>457</v>
       </c>
       <c r="C494" t="s">
-        <v>1133</v>
+        <v>457</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>727</v>
-      </c>
-      <c r="B495">
-        <v>7</v>
+        <v>461</v>
+      </c>
+      <c r="B495" t="s">
+        <v>460</v>
       </c>
       <c r="C495" t="s">
-        <v>1134</v>
+        <v>459</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>728</v>
-      </c>
-      <c r="B496">
-        <v>8</v>
+        <v>464</v>
+      </c>
+      <c r="B496" t="s">
+        <v>463</v>
       </c>
       <c r="C496" t="s">
-        <v>1135</v>
+        <v>462</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>729</v>
-      </c>
-      <c r="B497">
-        <v>9</v>
+        <v>466</v>
+      </c>
+      <c r="B497" t="s">
+        <v>465</v>
       </c>
       <c r="C497" t="s">
-        <v>1136</v>
+        <v>465</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>730</v>
-      </c>
-      <c r="B498">
-        <v>10</v>
+        <v>381</v>
+      </c>
+      <c r="B498" t="s">
+        <v>382</v>
       </c>
       <c r="C498" t="s">
-        <v>1137</v>
+        <v>383</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B499">
-        <v>20</v>
+        <v>469</v>
+      </c>
+      <c r="B499" t="s">
+        <v>468</v>
       </c>
       <c r="C499" t="s">
-        <v>1138</v>
+        <v>467</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B500">
-        <v>30</v>
+        <v>472</v>
+      </c>
+      <c r="B500" t="s">
+        <v>471</v>
       </c>
       <c r="C500" t="s">
-        <v>1139</v>
+        <v>470</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B501">
-        <v>40</v>
+        <v>398</v>
+      </c>
+      <c r="B501" t="s">
+        <v>399</v>
       </c>
       <c r="C501" t="s">
-        <v>1140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B502">
-        <v>50</v>
+        <v>474</v>
+      </c>
+      <c r="B502" t="s">
+        <v>473</v>
       </c>
       <c r="C502" t="s">
-        <v>1141</v>
+        <v>473</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B503">
-        <v>60</v>
+        <v>476</v>
+      </c>
+      <c r="B503" t="s">
+        <v>475</v>
       </c>
       <c r="C503" t="s">
-        <v>1142</v>
+        <v>475</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B504">
-        <v>70</v>
+        <v>161</v>
+      </c>
+      <c r="B504" t="s">
+        <v>162</v>
       </c>
       <c r="C504" t="s">
-        <v>1143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B505">
-        <v>80</v>
+        <v>479</v>
+      </c>
+      <c r="B505" t="s">
+        <v>478</v>
       </c>
       <c r="C505" t="s">
-        <v>1144</v>
+        <v>477</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B506">
-        <v>90</v>
+        <v>365</v>
+      </c>
+      <c r="B506" t="s">
+        <v>366</v>
       </c>
       <c r="C506" t="s">
-        <v>1145</v>
+        <v>366</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>430</v>
-      </c>
-      <c r="B507">
-        <v>100</v>
+        <v>482</v>
+      </c>
+      <c r="B507" t="s">
+        <v>481</v>
       </c>
       <c r="C507" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B508">
-        <v>200</v>
+        <v>485</v>
+      </c>
+      <c r="B508" t="s">
+        <v>484</v>
       </c>
       <c r="C508" t="s">
-        <v>1146</v>
+        <v>483</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B509">
-        <v>300</v>
+        <v>488</v>
+      </c>
+      <c r="B509" t="s">
+        <v>487</v>
       </c>
       <c r="C509" t="s">
-        <v>1147</v>
+        <v>486</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B510">
-        <v>400</v>
+        <v>491</v>
+      </c>
+      <c r="B510" t="s">
+        <v>490</v>
       </c>
       <c r="C510" t="s">
-        <v>1148</v>
+        <v>489</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B511">
-        <v>500</v>
+        <v>494</v>
+      </c>
+      <c r="B511" t="s">
+        <v>493</v>
       </c>
       <c r="C511" t="s">
-        <v>1149</v>
+        <v>492</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B512">
-        <v>600</v>
+        <v>497</v>
+      </c>
+      <c r="B512" t="s">
+        <v>496</v>
       </c>
       <c r="C512" t="s">
-        <v>1150</v>
+        <v>495</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B513">
-        <v>700</v>
+        <v>500</v>
+      </c>
+      <c r="B513" t="s">
+        <v>499</v>
       </c>
       <c r="C513" t="s">
-        <v>1151</v>
+        <v>498</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B514">
-        <v>800</v>
+        <v>503</v>
+      </c>
+      <c r="B514" t="s">
+        <v>502</v>
       </c>
       <c r="C514" t="s">
-        <v>1152</v>
+        <v>501</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B515">
-        <v>900</v>
+        <v>505</v>
+      </c>
+      <c r="B515" t="s">
+        <v>504</v>
       </c>
       <c r="C515" t="s">
-        <v>1153</v>
+        <v>504</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>432</v>
-      </c>
-      <c r="B516">
-        <v>1000</v>
+        <v>508</v>
+      </c>
+      <c r="B516" t="s">
+        <v>507</v>
       </c>
       <c r="C516" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B517">
-        <v>2000</v>
+        <v>511</v>
+      </c>
+      <c r="B517" t="s">
+        <v>510</v>
       </c>
       <c r="C517" t="s">
-        <v>1154</v>
+        <v>509</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B518">
-        <v>3000</v>
+        <v>513</v>
+      </c>
+      <c r="B518" t="s">
+        <v>391</v>
       </c>
       <c r="C518" t="s">
-        <v>1155</v>
+        <v>512</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B519">
-        <v>4000</v>
+        <v>516</v>
+      </c>
+      <c r="B519" t="s">
+        <v>515</v>
       </c>
       <c r="C519" t="s">
-        <v>1156</v>
+        <v>514</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B520">
-        <v>5000</v>
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>384</v>
       </c>
       <c r="C520" t="s">
-        <v>1157</v>
+        <v>517</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B521">
-        <v>6000</v>
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
+        <v>519</v>
       </c>
       <c r="C521" t="s">
-        <v>1158</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B522">
-        <v>7000</v>
+        <v>523</v>
+      </c>
+      <c r="B522" t="s">
+        <v>522</v>
       </c>
       <c r="C522" t="s">
-        <v>1159</v>
+        <v>521</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B523">
-        <v>8000</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1160</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B524">
-        <v>9000</v>
+        <v>527</v>
+      </c>
+      <c r="B524" t="s">
+        <v>526</v>
       </c>
       <c r="C524" t="s">
-        <v>1161</v>
+        <v>525</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1031</v>
+        <v>530</v>
       </c>
       <c r="B525" t="s">
-        <v>1162</v>
+        <v>529</v>
       </c>
       <c r="C525" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B526">
-        <v>20000</v>
+        <v>533</v>
+      </c>
+      <c r="B526" t="s">
+        <v>532</v>
       </c>
       <c r="C526" t="s">
-        <v>1163</v>
+        <v>531</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B527">
-        <v>30000</v>
+        <v>536</v>
+      </c>
+      <c r="B527" t="s">
+        <v>535</v>
       </c>
       <c r="C527" t="s">
-        <v>1164</v>
+        <v>534</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B528">
-        <v>40000</v>
+        <v>539</v>
+      </c>
+      <c r="B528" t="s">
+        <v>538</v>
       </c>
       <c r="C528" t="s">
-        <v>1165</v>
+        <v>537</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B529">
-        <v>50000</v>
+        <v>542</v>
+      </c>
+      <c r="B529" t="s">
+        <v>541</v>
       </c>
       <c r="C529" t="s">
-        <v>1166</v>
+        <v>540</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B530">
-        <v>60000</v>
+        <v>544</v>
+      </c>
+      <c r="B530" t="s">
+        <v>543</v>
       </c>
       <c r="C530" t="s">
-        <v>1167</v>
+        <v>543</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B531">
-        <v>70000</v>
+        <v>546</v>
+      </c>
+      <c r="B531" t="s">
+        <v>545</v>
       </c>
       <c r="C531" t="s">
-        <v>1168</v>
+        <v>545</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B532">
-        <v>80000</v>
+        <v>548</v>
+      </c>
+      <c r="B532" t="s">
+        <v>547</v>
       </c>
       <c r="C532" t="s">
-        <v>1169</v>
+        <v>547</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B533">
-        <v>90000</v>
+        <v>550</v>
+      </c>
+      <c r="B533" t="s">
+        <v>549</v>
       </c>
       <c r="C533" t="s">
-        <v>1170</v>
+        <v>549</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
       <c r="B534" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
       <c r="C534" t="s">
-        <v>436</v>
+        <v>551</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1040</v>
+        <v>555</v>
       </c>
       <c r="B535" t="s">
-        <v>1171</v>
+        <v>554</v>
       </c>
       <c r="C535" t="s">
-        <v>1171</v>
+        <v>554</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1172</v>
+        <v>558</v>
       </c>
       <c r="B536" t="s">
-        <v>1173</v>
+        <v>557</v>
       </c>
       <c r="C536" t="s">
-        <v>1173</v>
+        <v>556</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1006</v>
+        <v>560</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C537" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>733</v>
+        <v>563</v>
       </c>
       <c r="B538" t="s">
-        <v>732</v>
+        <v>562</v>
       </c>
       <c r="C538" t="s">
-        <v>731</v>
+        <v>561</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>736</v>
+        <v>566</v>
       </c>
       <c r="B539" t="s">
-        <v>735</v>
+        <v>565</v>
       </c>
       <c r="C539" t="s">
-        <v>734</v>
+        <v>564</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>739</v>
+        <v>568</v>
       </c>
       <c r="B540" t="s">
-        <v>738</v>
+        <v>567</v>
       </c>
       <c r="C540" t="s">
-        <v>737</v>
+        <v>567</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>742</v>
+        <v>571</v>
       </c>
       <c r="B541" t="s">
-        <v>741</v>
+        <v>570</v>
       </c>
       <c r="C541" t="s">
-        <v>740</v>
+        <v>569</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>745</v>
+        <v>573</v>
       </c>
       <c r="B542" t="s">
-        <v>744</v>
+        <v>572</v>
       </c>
       <c r="C542" t="s">
-        <v>743</v>
+        <v>572</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>748</v>
+        <v>576</v>
       </c>
       <c r="B543" t="s">
-        <v>747</v>
+        <v>575</v>
       </c>
       <c r="C543" t="s">
-        <v>746</v>
+        <v>574</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>751</v>
+        <v>579</v>
       </c>
       <c r="B544" t="s">
-        <v>750</v>
+        <v>578</v>
       </c>
       <c r="C544" t="s">
-        <v>749</v>
+        <v>577</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>754</v>
+        <v>582</v>
       </c>
       <c r="B545" t="s">
-        <v>753</v>
+        <v>581</v>
       </c>
       <c r="C545" t="s">
-        <v>752</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>757</v>
+        <v>583</v>
       </c>
       <c r="B546" t="s">
-        <v>756</v>
+        <v>120</v>
       </c>
       <c r="C546" t="s">
-        <v>755</v>
+        <v>121</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>760</v>
+        <v>586</v>
       </c>
       <c r="B547" t="s">
-        <v>759</v>
+        <v>585</v>
       </c>
       <c r="C547" t="s">
-        <v>758</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>763</v>
-      </c>
-      <c r="B548" t="s">
-        <v>762</v>
-      </c>
-      <c r="C548" t="s">
-        <v>761</v>
+        <v>587</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>766</v>
+        <v>590</v>
       </c>
       <c r="B549" t="s">
-        <v>765</v>
+        <v>589</v>
       </c>
       <c r="C549" t="s">
-        <v>764</v>
+        <v>588</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>769</v>
+        <v>593</v>
       </c>
       <c r="B550" t="s">
-        <v>768</v>
+        <v>592</v>
       </c>
       <c r="C550" t="s">
-        <v>767</v>
+        <v>591</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>772</v>
+        <v>596</v>
       </c>
       <c r="B551" t="s">
-        <v>771</v>
+        <v>595</v>
       </c>
       <c r="C551" t="s">
-        <v>770</v>
+        <v>594</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>775</v>
+        <v>599</v>
       </c>
       <c r="B552" t="s">
-        <v>774</v>
+        <v>598</v>
       </c>
       <c r="C552" t="s">
-        <v>773</v>
+        <v>597</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>777</v>
+        <v>602</v>
       </c>
       <c r="B553" t="s">
-        <v>776</v>
+        <v>601</v>
       </c>
       <c r="C553" t="s">
-        <v>302</v>
+        <v>600</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>780</v>
+        <v>605</v>
       </c>
       <c r="B554" t="s">
-        <v>779</v>
+        <v>604</v>
       </c>
       <c r="C554" t="s">
-        <v>778</v>
+        <v>603</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>783</v>
+        <v>608</v>
       </c>
       <c r="B555" t="s">
-        <v>782</v>
+        <v>607</v>
       </c>
       <c r="C555" t="s">
-        <v>781</v>
+        <v>606</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>786</v>
+        <v>611</v>
       </c>
       <c r="B556" t="s">
-        <v>785</v>
+        <v>610</v>
       </c>
       <c r="C556" t="s">
-        <v>784</v>
+        <v>609</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>789</v>
+        <v>614</v>
       </c>
       <c r="B557" t="s">
-        <v>788</v>
+        <v>613</v>
       </c>
       <c r="C557" t="s">
-        <v>787</v>
+        <v>612</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>792</v>
+        <v>617</v>
       </c>
       <c r="B558" t="s">
-        <v>791</v>
+        <v>616</v>
       </c>
       <c r="C558" t="s">
-        <v>790</v>
+        <v>615</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>795</v>
+        <v>620</v>
       </c>
       <c r="B559" t="s">
-        <v>794</v>
+        <v>619</v>
       </c>
       <c r="C559" t="s">
-        <v>793</v>
+        <v>618</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>798</v>
+        <v>405</v>
       </c>
       <c r="B560" t="s">
-        <v>797</v>
+        <v>406</v>
       </c>
       <c r="C560" t="s">
-        <v>796</v>
+        <v>407</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>801</v>
+        <v>623</v>
       </c>
       <c r="B561" t="s">
-        <v>800</v>
+        <v>622</v>
       </c>
       <c r="C561" t="s">
-        <v>799</v>
+        <v>621</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>804</v>
+        <v>58</v>
       </c>
       <c r="B562" t="s">
-        <v>803</v>
+        <v>59</v>
       </c>
       <c r="C562" t="s">
-        <v>802</v>
+        <v>624</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>807</v>
+        <v>626</v>
       </c>
       <c r="B563" t="s">
-        <v>806</v>
+        <v>625</v>
       </c>
       <c r="C563" t="s">
-        <v>805</v>
+        <v>625</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>810</v>
+        <v>629</v>
       </c>
       <c r="B564" t="s">
-        <v>809</v>
+        <v>628</v>
       </c>
       <c r="C564" t="s">
-        <v>808</v>
+        <v>627</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>813</v>
+        <v>61</v>
       </c>
       <c r="B565" t="s">
-        <v>812</v>
+        <v>62</v>
       </c>
       <c r="C565" t="s">
-        <v>811</v>
+        <v>630</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>816</v>
+        <v>633</v>
       </c>
       <c r="B566" t="s">
-        <v>815</v>
+        <v>632</v>
       </c>
       <c r="C566" t="s">
-        <v>814</v>
+        <v>631</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>819</v>
+        <v>636</v>
       </c>
       <c r="B567" t="s">
-        <v>818</v>
+        <v>635</v>
       </c>
       <c r="C567" t="s">
-        <v>817</v>
+        <v>634</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>822</v>
+        <v>639</v>
       </c>
       <c r="B568" t="s">
-        <v>821</v>
+        <v>638</v>
       </c>
       <c r="C568" t="s">
-        <v>820</v>
+        <v>637</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>825</v>
+        <v>82</v>
       </c>
       <c r="B569" t="s">
-        <v>824</v>
+        <v>83</v>
       </c>
       <c r="C569" t="s">
-        <v>823</v>
+        <v>83</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>828</v>
+        <v>642</v>
       </c>
       <c r="B570" t="s">
-        <v>827</v>
+        <v>641</v>
       </c>
       <c r="C570" t="s">
-        <v>826</v>
+        <v>640</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>831</v>
+        <v>645</v>
       </c>
       <c r="B571" t="s">
-        <v>830</v>
+        <v>644</v>
       </c>
       <c r="C571" t="s">
-        <v>829</v>
+        <v>643</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>834</v>
+        <v>648</v>
       </c>
       <c r="B572" t="s">
-        <v>833</v>
+        <v>647</v>
       </c>
       <c r="C572" t="s">
-        <v>832</v>
+        <v>646</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>837</v>
+        <v>651</v>
       </c>
       <c r="B573" t="s">
-        <v>836</v>
+        <v>650</v>
       </c>
       <c r="C573" t="s">
-        <v>835</v>
+        <v>649</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>840</v>
+        <v>652</v>
       </c>
       <c r="B574" t="s">
-        <v>839</v>
+        <v>70</v>
       </c>
       <c r="C574" t="s">
-        <v>838</v>
+        <v>71</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>843</v>
+        <v>653</v>
       </c>
       <c r="B575" t="s">
-        <v>842</v>
+        <v>84</v>
       </c>
       <c r="C575" t="s">
-        <v>841</v>
+        <v>85</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>846</v>
+        <v>654</v>
       </c>
       <c r="B576" t="s">
-        <v>845</v>
+        <v>86</v>
       </c>
       <c r="C576" t="s">
-        <v>844</v>
+        <v>87</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>849</v>
+        <v>403</v>
       </c>
       <c r="B577" t="s">
-        <v>848</v>
+        <v>404</v>
       </c>
       <c r="C577" t="s">
-        <v>847</v>
+        <v>404</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>852</v>
+        <v>657</v>
       </c>
       <c r="B578" t="s">
-        <v>851</v>
+        <v>656</v>
       </c>
       <c r="C578" t="s">
-        <v>850</v>
+        <v>655</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>855</v>
+        <v>660</v>
       </c>
       <c r="B579" t="s">
-        <v>854</v>
+        <v>659</v>
       </c>
       <c r="C579" t="s">
-        <v>853</v>
+        <v>658</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>856</v>
+        <v>661</v>
+      </c>
+      <c r="B580" t="s">
+        <v>102</v>
+      </c>
+      <c r="C580" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>859</v>
+        <v>664</v>
       </c>
       <c r="B581" t="s">
-        <v>858</v>
+        <v>663</v>
       </c>
       <c r="C581" t="s">
-        <v>857</v>
+        <v>662</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>862</v>
+        <v>666</v>
       </c>
       <c r="B582" t="s">
-        <v>861</v>
+        <v>106</v>
       </c>
       <c r="C582" t="s">
-        <v>860</v>
+        <v>665</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>865</v>
+        <v>668</v>
       </c>
       <c r="B583" t="s">
-        <v>864</v>
+        <v>667</v>
       </c>
       <c r="C583" t="s">
-        <v>863</v>
+        <v>109</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>868</v>
+        <v>671</v>
       </c>
       <c r="B584" t="s">
-        <v>867</v>
+        <v>670</v>
       </c>
       <c r="C584" t="s">
-        <v>866</v>
+        <v>669</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>871</v>
-      </c>
-      <c r="B585" t="s">
-        <v>870</v>
-      </c>
-      <c r="C585" t="s">
-        <v>869</v>
+        <v>672</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>859</v>
+        <v>675</v>
       </c>
       <c r="B586" t="s">
-        <v>873</v>
+        <v>674</v>
       </c>
       <c r="C586" t="s">
-        <v>872</v>
+        <v>673</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>876</v>
+        <v>678</v>
       </c>
       <c r="B587" t="s">
-        <v>875</v>
+        <v>677</v>
       </c>
       <c r="C587" t="s">
-        <v>874</v>
+        <v>676</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>879</v>
+        <v>681</v>
       </c>
       <c r="B588" t="s">
-        <v>878</v>
+        <v>680</v>
       </c>
       <c r="C588" t="s">
-        <v>877</v>
+        <v>679</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>882</v>
+        <v>684</v>
       </c>
       <c r="B589" t="s">
-        <v>881</v>
+        <v>683</v>
       </c>
       <c r="C589" t="s">
-        <v>880</v>
+        <v>682</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>885</v>
+        <v>687</v>
       </c>
       <c r="B590" t="s">
-        <v>884</v>
+        <v>686</v>
       </c>
       <c r="C590" t="s">
-        <v>883</v>
+        <v>685</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>888</v>
+        <v>690</v>
       </c>
       <c r="B591" t="s">
-        <v>887</v>
+        <v>689</v>
       </c>
       <c r="C591" t="s">
-        <v>886</v>
+        <v>688</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>891</v>
+        <v>693</v>
       </c>
       <c r="B592" t="s">
-        <v>890</v>
+        <v>692</v>
       </c>
       <c r="C592" t="s">
-        <v>889</v>
+        <v>691</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>894</v>
+        <v>696</v>
       </c>
       <c r="B593" t="s">
-        <v>893</v>
+        <v>695</v>
       </c>
       <c r="C593" t="s">
-        <v>892</v>
+        <v>694</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>897</v>
+        <v>699</v>
       </c>
       <c r="B594" t="s">
-        <v>896</v>
+        <v>698</v>
       </c>
       <c r="C594" t="s">
-        <v>895</v>
+        <v>697</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>900</v>
+        <v>702</v>
       </c>
       <c r="B595" t="s">
-        <v>899</v>
+        <v>701</v>
       </c>
       <c r="C595" t="s">
-        <v>898</v>
+        <v>700</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>903</v>
+        <v>705</v>
       </c>
       <c r="B596" t="s">
-        <v>902</v>
+        <v>704</v>
       </c>
       <c r="C596" t="s">
-        <v>901</v>
+        <v>703</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>903</v>
+        <v>401</v>
       </c>
       <c r="B597" t="s">
-        <v>905</v>
+        <v>707</v>
       </c>
       <c r="C597" t="s">
-        <v>904</v>
+        <v>706</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>908</v>
+        <v>710</v>
       </c>
       <c r="B598" t="s">
-        <v>907</v>
+        <v>709</v>
       </c>
       <c r="C598" t="s">
-        <v>906</v>
+        <v>708</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>911</v>
+        <v>713</v>
       </c>
       <c r="B599" t="s">
-        <v>910</v>
+        <v>712</v>
       </c>
       <c r="C599" t="s">
-        <v>909</v>
+        <v>711</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>914</v>
+        <v>716</v>
       </c>
       <c r="B600" t="s">
-        <v>913</v>
+        <v>715</v>
       </c>
       <c r="C600" t="s">
-        <v>912</v>
+        <v>714</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>917</v>
+        <v>719</v>
       </c>
       <c r="B601" t="s">
-        <v>916</v>
+        <v>718</v>
       </c>
       <c r="C601" t="s">
-        <v>915</v>
+        <v>717</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>920</v>
-      </c>
-      <c r="B602" t="s">
-        <v>919</v>
-      </c>
-      <c r="C602" t="s">
-        <v>918</v>
+        <v>720</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>923</v>
-      </c>
-      <c r="B603" t="s">
-        <v>922</v>
+        <v>721</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
       </c>
       <c r="C603" t="s">
-        <v>921</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>926</v>
-      </c>
-      <c r="B604" t="s">
-        <v>925</v>
+        <v>722</v>
+      </c>
+      <c r="B604">
+        <v>2</v>
       </c>
       <c r="C604" t="s">
-        <v>924</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>929</v>
-      </c>
-      <c r="B605" t="s">
-        <v>928</v>
+        <v>723</v>
+      </c>
+      <c r="B605">
+        <v>3</v>
       </c>
       <c r="C605" t="s">
-        <v>927</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>932</v>
-      </c>
-      <c r="B606" t="s">
-        <v>931</v>
+        <v>724</v>
+      </c>
+      <c r="B606">
+        <v>4</v>
       </c>
       <c r="C606" t="s">
-        <v>930</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>935</v>
-      </c>
-      <c r="B607" t="s">
-        <v>934</v>
+        <v>725</v>
+      </c>
+      <c r="B607">
+        <v>5</v>
       </c>
       <c r="C607" t="s">
-        <v>933</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>938</v>
-      </c>
-      <c r="B608" t="s">
-        <v>937</v>
+        <v>726</v>
+      </c>
+      <c r="B608">
+        <v>6</v>
       </c>
       <c r="C608" t="s">
-        <v>936</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>941</v>
-      </c>
-      <c r="B609" t="s">
-        <v>940</v>
+        <v>727</v>
+      </c>
+      <c r="B609">
+        <v>7</v>
       </c>
       <c r="C609" t="s">
-        <v>939</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>944</v>
-      </c>
-      <c r="B610" t="s">
-        <v>943</v>
+        <v>728</v>
+      </c>
+      <c r="B610">
+        <v>8</v>
       </c>
       <c r="C610" t="s">
-        <v>942</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>947</v>
-      </c>
-      <c r="B611" t="s">
-        <v>946</v>
+        <v>729</v>
+      </c>
+      <c r="B611">
+        <v>9</v>
       </c>
       <c r="C611" t="s">
-        <v>945</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>949</v>
-      </c>
-      <c r="B612" t="s">
-        <v>949</v>
+        <v>730</v>
+      </c>
+      <c r="B612">
+        <v>10</v>
       </c>
       <c r="C612" t="s">
-        <v>948</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>952</v>
-      </c>
-      <c r="B613" t="s">
-        <v>951</v>
+        <v>1007</v>
+      </c>
+      <c r="B613">
+        <v>20</v>
       </c>
       <c r="C613" t="s">
-        <v>950</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>955</v>
-      </c>
-      <c r="B614" t="s">
-        <v>954</v>
+        <v>1008</v>
+      </c>
+      <c r="B614">
+        <v>30</v>
       </c>
       <c r="C614" t="s">
-        <v>953</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>958</v>
-      </c>
-      <c r="B615" t="s">
-        <v>957</v>
+        <v>1009</v>
+      </c>
+      <c r="B615">
+        <v>40</v>
       </c>
       <c r="C615" t="s">
-        <v>956</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>961</v>
-      </c>
-      <c r="B616" t="s">
-        <v>960</v>
+        <v>1010</v>
+      </c>
+      <c r="B616">
+        <v>50</v>
       </c>
       <c r="C616" t="s">
-        <v>959</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>963</v>
+        <v>1011</v>
+      </c>
+      <c r="B617">
+        <v>60</v>
       </c>
       <c r="C617" t="s">
-        <v>962</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>966</v>
-      </c>
-      <c r="B618" t="s">
-        <v>965</v>
+        <v>1012</v>
+      </c>
+      <c r="B618">
+        <v>70</v>
       </c>
       <c r="C618" t="s">
-        <v>964</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>969</v>
-      </c>
-      <c r="B619" t="s">
-        <v>968</v>
+        <v>1013</v>
+      </c>
+      <c r="B619">
+        <v>80</v>
       </c>
       <c r="C619" t="s">
-        <v>967</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>966</v>
-      </c>
-      <c r="B620" t="s">
-        <v>971</v>
+        <v>1014</v>
+      </c>
+      <c r="B620">
+        <v>90</v>
       </c>
       <c r="C620" t="s">
-        <v>970</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>974</v>
-      </c>
-      <c r="B621" t="s">
-        <v>973</v>
+        <v>430</v>
+      </c>
+      <c r="B621">
+        <v>100</v>
       </c>
       <c r="C621" t="s">
-        <v>972</v>
+        <v>431</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>977</v>
-      </c>
-      <c r="B622" t="s">
-        <v>976</v>
+        <v>1015</v>
+      </c>
+      <c r="B622">
+        <v>200</v>
       </c>
       <c r="C622" t="s">
-        <v>975</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>980</v>
-      </c>
-      <c r="B623" t="s">
-        <v>979</v>
+        <v>1016</v>
+      </c>
+      <c r="B623">
+        <v>300</v>
       </c>
       <c r="C623" t="s">
-        <v>978</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>983</v>
-      </c>
-      <c r="B624" t="s">
-        <v>982</v>
+        <v>1017</v>
+      </c>
+      <c r="B624">
+        <v>400</v>
       </c>
       <c r="C624" t="s">
-        <v>981</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>986</v>
-      </c>
-      <c r="B625" t="s">
-        <v>985</v>
+        <v>1018</v>
+      </c>
+      <c r="B625">
+        <v>500</v>
       </c>
       <c r="C625" t="s">
-        <v>984</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>989</v>
-      </c>
-      <c r="B626" t="s">
-        <v>988</v>
+        <v>1019</v>
+      </c>
+      <c r="B626">
+        <v>600</v>
       </c>
       <c r="C626" t="s">
-        <v>987</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>991</v>
+        <v>1020</v>
+      </c>
+      <c r="B627">
+        <v>700</v>
       </c>
       <c r="C627" t="s">
-        <v>990</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>994</v>
-      </c>
-      <c r="B628" t="s">
-        <v>993</v>
+        <v>1021</v>
+      </c>
+      <c r="B628">
+        <v>800</v>
       </c>
       <c r="C628" t="s">
-        <v>992</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>997</v>
-      </c>
-      <c r="B629" t="s">
-        <v>996</v>
+        <v>1022</v>
+      </c>
+      <c r="B629">
+        <v>900</v>
       </c>
       <c r="C629" t="s">
-        <v>995</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>999</v>
-      </c>
-      <c r="B630" t="s">
-        <v>998</v>
+        <v>432</v>
+      </c>
+      <c r="B630">
+        <v>1000</v>
       </c>
       <c r="C630" t="s">
-        <v>998</v>
+        <v>433</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1001</v>
+        <v>1023</v>
+      </c>
+      <c r="B631">
+        <v>2000</v>
       </c>
       <c r="C631" t="s">
-        <v>1000</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1004</v>
+        <v>1024</v>
+      </c>
+      <c r="B632">
+        <v>3000</v>
       </c>
       <c r="C632" t="s">
-        <v>1003</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1174</v>
+        <v>1025</v>
+      </c>
+      <c r="B633">
+        <v>4000</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1042</v>
+        <v>1026</v>
+      </c>
+      <c r="B634">
+        <v>5000</v>
       </c>
       <c r="C634" t="s">
-        <v>1043</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1045</v>
+        <v>1027</v>
+      </c>
+      <c r="B635">
+        <v>6000</v>
       </c>
       <c r="C635" t="s">
-        <v>1046</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1048</v>
+        <v>1028</v>
+      </c>
+      <c r="B636">
+        <v>7000</v>
       </c>
       <c r="C636" t="s">
-        <v>1049</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1051</v>
+        <v>1029</v>
+      </c>
+      <c r="B637">
+        <v>8000</v>
       </c>
       <c r="C637" t="s">
-        <v>1052</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1054</v>
+        <v>1030</v>
+      </c>
+      <c r="B638">
+        <v>9000</v>
       </c>
       <c r="C638" t="s">
-        <v>1055</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="B639" t="s">
-        <v>1057</v>
+        <v>1162</v>
       </c>
       <c r="C639" t="s">
-        <v>1058</v>
+        <v>436</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1060</v>
+        <v>1032</v>
+      </c>
+      <c r="B640">
+        <v>20000</v>
       </c>
       <c r="C640" t="s">
-        <v>1061</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1063</v>
+        <v>1033</v>
+      </c>
+      <c r="B641">
+        <v>30000</v>
       </c>
       <c r="C641" t="s">
-        <v>1063</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1065</v>
+        <v>1034</v>
+      </c>
+      <c r="B642">
+        <v>40000</v>
       </c>
       <c r="C642" t="s">
-        <v>1065</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1067</v>
+        <v>1035</v>
+      </c>
+      <c r="B643">
+        <v>50000</v>
       </c>
       <c r="C643" t="s">
-        <v>1067</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1069</v>
+        <v>1036</v>
+      </c>
+      <c r="B644">
+        <v>60000</v>
       </c>
       <c r="C644" t="s">
-        <v>1069</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1071</v>
+        <v>1037</v>
+      </c>
+      <c r="B645">
+        <v>70000</v>
       </c>
       <c r="C645" t="s">
-        <v>1071</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1073</v>
+        <v>1038</v>
+      </c>
+      <c r="B646">
+        <v>80000</v>
       </c>
       <c r="C646" t="s">
-        <v>1073</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1075</v>
+        <v>1039</v>
+      </c>
+      <c r="B647">
+        <v>90000</v>
       </c>
       <c r="C647" t="s">
-        <v>1075</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1076</v>
+        <v>434</v>
       </c>
       <c r="B648" t="s">
-        <v>1077</v>
+        <v>435</v>
       </c>
       <c r="C648" t="s">
-        <v>1077</v>
+        <v>436</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1078</v>
+        <v>1040</v>
       </c>
       <c r="B649" t="s">
-        <v>1079</v>
+        <v>1171</v>
       </c>
       <c r="C649" t="s">
-        <v>1079</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1080</v>
+        <v>1172</v>
       </c>
       <c r="B650" t="s">
-        <v>1081</v>
+        <v>1173</v>
       </c>
       <c r="C650" t="s">
-        <v>1081</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C651" t="s">
-        <v>1083</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1084</v>
+        <v>733</v>
       </c>
       <c r="B652" t="s">
-        <v>1085</v>
+        <v>732</v>
       </c>
       <c r="C652" t="s">
-        <v>1085</v>
+        <v>731</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1086</v>
+        <v>736</v>
       </c>
       <c r="B653" t="s">
-        <v>1087</v>
+        <v>735</v>
       </c>
       <c r="C653" t="s">
-        <v>1087</v>
+        <v>734</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1088</v>
+        <v>739</v>
       </c>
       <c r="B654" t="s">
-        <v>1089</v>
+        <v>738</v>
       </c>
       <c r="C654" t="s">
-        <v>1089</v>
+        <v>737</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1090</v>
+        <v>742</v>
       </c>
       <c r="B655" t="s">
-        <v>1091</v>
+        <v>741</v>
       </c>
       <c r="C655" t="s">
-        <v>1091</v>
+        <v>740</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1092</v>
+        <v>745</v>
       </c>
       <c r="B656" t="s">
-        <v>1093</v>
+        <v>744</v>
       </c>
       <c r="C656" t="s">
-        <v>1093</v>
+        <v>743</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1094</v>
+        <v>748</v>
       </c>
       <c r="B657" t="s">
-        <v>1095</v>
+        <v>747</v>
       </c>
       <c r="C657" t="s">
-        <v>1095</v>
+        <v>746</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1096</v>
+        <v>751</v>
       </c>
       <c r="B658" t="s">
-        <v>1097</v>
+        <v>750</v>
       </c>
       <c r="C658" t="s">
-        <v>1097</v>
+        <v>749</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1098</v>
+        <v>754</v>
       </c>
       <c r="B659" t="s">
-        <v>1099</v>
+        <v>753</v>
       </c>
       <c r="C659" t="s">
-        <v>1099</v>
+        <v>752</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1100</v>
+        <v>757</v>
       </c>
       <c r="B660" t="s">
-        <v>1101</v>
+        <v>756</v>
       </c>
       <c r="C660" t="s">
-        <v>1102</v>
+        <v>755</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1103</v>
+        <v>760</v>
       </c>
       <c r="B661" t="s">
-        <v>1104</v>
+        <v>759</v>
       </c>
       <c r="C661" t="s">
-        <v>1105</v>
+        <v>758</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1106</v>
+        <v>763</v>
       </c>
       <c r="B662" t="s">
-        <v>1107</v>
+        <v>762</v>
       </c>
       <c r="C662" t="s">
-        <v>1108</v>
+        <v>761</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1109</v>
+        <v>766</v>
       </c>
       <c r="B663" t="s">
-        <v>1110</v>
+        <v>765</v>
       </c>
       <c r="C663" t="s">
-        <v>1111</v>
+        <v>764</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1112</v>
+        <v>769</v>
       </c>
       <c r="B664" t="s">
-        <v>1113</v>
+        <v>768</v>
       </c>
       <c r="C664" t="s">
-        <v>1114</v>
+        <v>767</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1115</v>
+        <v>772</v>
       </c>
       <c r="B665" t="s">
-        <v>1116</v>
+        <v>771</v>
       </c>
       <c r="C665" t="s">
-        <v>1117</v>
+        <v>770</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>1118</v>
+        <v>775</v>
       </c>
       <c r="B666" t="s">
-        <v>1119</v>
+        <v>774</v>
       </c>
       <c r="C666" t="s">
-        <v>1120</v>
+        <v>773</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1121</v>
+        <v>777</v>
       </c>
       <c r="B667" t="s">
-        <v>1122</v>
+        <v>776</v>
       </c>
       <c r="C667" t="s">
-        <v>1123</v>
+        <v>302</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
+        <v>780</v>
+      </c>
+      <c r="B668" t="s">
+        <v>779</v>
+      </c>
+      <c r="C668" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>783</v>
+      </c>
+      <c r="B669" t="s">
+        <v>782</v>
+      </c>
+      <c r="C669" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>786</v>
+      </c>
+      <c r="B670" t="s">
+        <v>785</v>
+      </c>
+      <c r="C670" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>789</v>
+      </c>
+      <c r="B671" t="s">
+        <v>788</v>
+      </c>
+      <c r="C671" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>792</v>
+      </c>
+      <c r="B672" t="s">
+        <v>791</v>
+      </c>
+      <c r="C672" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>795</v>
+      </c>
+      <c r="B673" t="s">
+        <v>794</v>
+      </c>
+      <c r="C673" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>798</v>
+      </c>
+      <c r="B674" t="s">
+        <v>797</v>
+      </c>
+      <c r="C674" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>801</v>
+      </c>
+      <c r="B675" t="s">
+        <v>800</v>
+      </c>
+      <c r="C675" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>804</v>
+      </c>
+      <c r="B676" t="s">
+        <v>803</v>
+      </c>
+      <c r="C676" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>807</v>
+      </c>
+      <c r="B677" t="s">
+        <v>806</v>
+      </c>
+      <c r="C677" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>810</v>
+      </c>
+      <c r="B678" t="s">
+        <v>809</v>
+      </c>
+      <c r="C678" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>813</v>
+      </c>
+      <c r="B679" t="s">
+        <v>812</v>
+      </c>
+      <c r="C679" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>816</v>
+      </c>
+      <c r="B680" t="s">
+        <v>815</v>
+      </c>
+      <c r="C680" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>819</v>
+      </c>
+      <c r="B681" t="s">
+        <v>818</v>
+      </c>
+      <c r="C681" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>822</v>
+      </c>
+      <c r="B682" t="s">
+        <v>821</v>
+      </c>
+      <c r="C682" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>825</v>
+      </c>
+      <c r="B683" t="s">
+        <v>824</v>
+      </c>
+      <c r="C683" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>828</v>
+      </c>
+      <c r="B684" t="s">
+        <v>827</v>
+      </c>
+      <c r="C684" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>831</v>
+      </c>
+      <c r="B685" t="s">
+        <v>830</v>
+      </c>
+      <c r="C685" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>834</v>
+      </c>
+      <c r="B686" t="s">
+        <v>833</v>
+      </c>
+      <c r="C686" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>837</v>
+      </c>
+      <c r="B687" t="s">
+        <v>836</v>
+      </c>
+      <c r="C687" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>840</v>
+      </c>
+      <c r="B688" t="s">
+        <v>839</v>
+      </c>
+      <c r="C688" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>843</v>
+      </c>
+      <c r="B689" t="s">
+        <v>842</v>
+      </c>
+      <c r="C689" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>846</v>
+      </c>
+      <c r="B690" t="s">
+        <v>845</v>
+      </c>
+      <c r="C690" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>849</v>
+      </c>
+      <c r="B691" t="s">
+        <v>848</v>
+      </c>
+      <c r="C691" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>852</v>
+      </c>
+      <c r="B692" t="s">
+        <v>851</v>
+      </c>
+      <c r="C692" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>855</v>
+      </c>
+      <c r="B693" t="s">
+        <v>854</v>
+      </c>
+      <c r="C693" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>859</v>
+      </c>
+      <c r="B695" t="s">
+        <v>858</v>
+      </c>
+      <c r="C695" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>862</v>
+      </c>
+      <c r="B696" t="s">
+        <v>861</v>
+      </c>
+      <c r="C696" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>865</v>
+      </c>
+      <c r="B697" t="s">
+        <v>864</v>
+      </c>
+      <c r="C697" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>868</v>
+      </c>
+      <c r="B698" t="s">
+        <v>867</v>
+      </c>
+      <c r="C698" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>871</v>
+      </c>
+      <c r="B699" t="s">
+        <v>870</v>
+      </c>
+      <c r="C699" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>859</v>
+      </c>
+      <c r="B700" t="s">
+        <v>873</v>
+      </c>
+      <c r="C700" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>876</v>
+      </c>
+      <c r="B701" t="s">
+        <v>875</v>
+      </c>
+      <c r="C701" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>879</v>
+      </c>
+      <c r="B702" t="s">
+        <v>878</v>
+      </c>
+      <c r="C702" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>882</v>
+      </c>
+      <c r="B703" t="s">
+        <v>881</v>
+      </c>
+      <c r="C703" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>885</v>
+      </c>
+      <c r="B704" t="s">
+        <v>884</v>
+      </c>
+      <c r="C704" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>888</v>
+      </c>
+      <c r="B705" t="s">
+        <v>887</v>
+      </c>
+      <c r="C705" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>891</v>
+      </c>
+      <c r="B706" t="s">
+        <v>890</v>
+      </c>
+      <c r="C706" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>894</v>
+      </c>
+      <c r="B707" t="s">
+        <v>893</v>
+      </c>
+      <c r="C707" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>897</v>
+      </c>
+      <c r="B708" t="s">
+        <v>896</v>
+      </c>
+      <c r="C708" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>900</v>
+      </c>
+      <c r="B709" t="s">
+        <v>899</v>
+      </c>
+      <c r="C709" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>903</v>
+      </c>
+      <c r="B710" t="s">
+        <v>902</v>
+      </c>
+      <c r="C710" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>903</v>
+      </c>
+      <c r="B711" t="s">
+        <v>905</v>
+      </c>
+      <c r="C711" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>908</v>
+      </c>
+      <c r="B712" t="s">
+        <v>907</v>
+      </c>
+      <c r="C712" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>911</v>
+      </c>
+      <c r="B713" t="s">
+        <v>910</v>
+      </c>
+      <c r="C713" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>914</v>
+      </c>
+      <c r="B714" t="s">
+        <v>913</v>
+      </c>
+      <c r="C714" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>917</v>
+      </c>
+      <c r="B715" t="s">
+        <v>916</v>
+      </c>
+      <c r="C715" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>920</v>
+      </c>
+      <c r="B716" t="s">
+        <v>919</v>
+      </c>
+      <c r="C716" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>923</v>
+      </c>
+      <c r="B717" t="s">
+        <v>922</v>
+      </c>
+      <c r="C717" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>926</v>
+      </c>
+      <c r="B718" t="s">
+        <v>925</v>
+      </c>
+      <c r="C718" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>929</v>
+      </c>
+      <c r="B719" t="s">
+        <v>928</v>
+      </c>
+      <c r="C719" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>932</v>
+      </c>
+      <c r="B720" t="s">
+        <v>931</v>
+      </c>
+      <c r="C720" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>935</v>
+      </c>
+      <c r="B721" t="s">
+        <v>934</v>
+      </c>
+      <c r="C721" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>938</v>
+      </c>
+      <c r="B722" t="s">
+        <v>937</v>
+      </c>
+      <c r="C722" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>941</v>
+      </c>
+      <c r="B723" t="s">
+        <v>940</v>
+      </c>
+      <c r="C723" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>944</v>
+      </c>
+      <c r="B724" t="s">
+        <v>943</v>
+      </c>
+      <c r="C724" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>947</v>
+      </c>
+      <c r="B725" t="s">
+        <v>946</v>
+      </c>
+      <c r="C725" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>949</v>
+      </c>
+      <c r="B726" t="s">
+        <v>949</v>
+      </c>
+      <c r="C726" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>952</v>
+      </c>
+      <c r="B727" t="s">
+        <v>951</v>
+      </c>
+      <c r="C727" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>955</v>
+      </c>
+      <c r="B728" t="s">
+        <v>954</v>
+      </c>
+      <c r="C728" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>958</v>
+      </c>
+      <c r="B729" t="s">
+        <v>957</v>
+      </c>
+      <c r="C729" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>961</v>
+      </c>
+      <c r="B730" t="s">
+        <v>960</v>
+      </c>
+      <c r="C730" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>963</v>
+      </c>
+      <c r="C731" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>966</v>
+      </c>
+      <c r="B732" t="s">
+        <v>965</v>
+      </c>
+      <c r="C732" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>969</v>
+      </c>
+      <c r="B733" t="s">
+        <v>968</v>
+      </c>
+      <c r="C733" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>966</v>
+      </c>
+      <c r="B734" t="s">
+        <v>971</v>
+      </c>
+      <c r="C734" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>974</v>
+      </c>
+      <c r="B735" t="s">
+        <v>973</v>
+      </c>
+      <c r="C735" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>977</v>
+      </c>
+      <c r="B736" t="s">
+        <v>976</v>
+      </c>
+      <c r="C736" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>980</v>
+      </c>
+      <c r="B737" t="s">
+        <v>979</v>
+      </c>
+      <c r="C737" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>983</v>
+      </c>
+      <c r="B738" t="s">
+        <v>982</v>
+      </c>
+      <c r="C738" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>986</v>
+      </c>
+      <c r="B739" t="s">
+        <v>985</v>
+      </c>
+      <c r="C739" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>989</v>
+      </c>
+      <c r="B740" t="s">
+        <v>988</v>
+      </c>
+      <c r="C740" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>991</v>
+      </c>
+      <c r="C741" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>994</v>
+      </c>
+      <c r="B742" t="s">
+        <v>993</v>
+      </c>
+      <c r="C742" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>997</v>
+      </c>
+      <c r="B743" t="s">
+        <v>996</v>
+      </c>
+      <c r="C743" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>999</v>
+      </c>
+      <c r="B744" t="s">
+        <v>998</v>
+      </c>
+      <c r="C744" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
         <v>1124</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B782" t="s">
         <v>1125</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C782" t="s">
         <v>1126</v>
       </c>
     </row>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CDF7536-DC23-4E55-8286-2C79EF4A3F67}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E482AA-1625-42AD-8941-78FEDC671F43}"/>
   <bookViews>
-    <workbookView xWindow="-24696" yWindow="312" windowWidth="22860" windowHeight="13104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1813">
   <si>
     <t>わたし</t>
   </si>
@@ -5547,10 +5547,6 @@
     <t>～,但是～</t>
   </si>
   <si>
-    <t>おげんきですか お元気ですか</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>你好嗎？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5632,6 +5628,14 @@
   </si>
   <si>
     <t>金閣寺</t>
+  </si>
+  <si>
+    <t>おげんきですか</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>お元気ですか</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5991,18 +5995,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B441" sqref="B441"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>455</v>
       </c>
@@ -6013,17 +6017,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6078,7 +6082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6098,7 +6102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -6142,7 +6146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -6279,7 +6283,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>181</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>189</v>
       </c>
@@ -6348,7 +6352,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -6375,7 +6379,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>200</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>202</v>
       </c>
@@ -6408,7 +6412,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>204</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>208</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>211</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>220</v>
       </c>
@@ -6492,7 +6496,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -6503,7 +6507,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>231</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
@@ -6541,12 +6545,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -6554,7 +6558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -6627,7 +6631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6638,7 +6642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -6695,7 +6699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -6711,7 +6715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -6757,7 +6761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -6789,7 +6793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -6903,7 +6907,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -6973,12 +6977,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>350</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>351</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>352</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>353</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>354</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>355</v>
       </c>
@@ -7026,7 +7030,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>356</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>357</v>
       </c>
@@ -7042,7 +7046,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>365</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>367</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>370</v>
       </c>
@@ -7075,7 +7079,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>373</v>
       </c>
@@ -7086,7 +7090,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>376</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>379</v>
       </c>
@@ -7105,7 +7109,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>381</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>384</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>386</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>388</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>391</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>395</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>398</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>401</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>403</v>
       </c>
@@ -7203,7 +7207,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>405</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>408</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>410</v>
       </c>
@@ -7230,7 +7234,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>412</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>414</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>417</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>419</v>
       </c>
@@ -7271,7 +7275,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>422</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>425</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>428</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>430</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>432</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>434</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>437</v>
       </c>
@@ -7342,7 +7346,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>439</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>446</v>
       </c>
@@ -7377,7 +7381,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>448</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>451</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>453</v>
       </c>
@@ -7404,17 +7408,17 @@
         <v>454</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1175</v>
       </c>
@@ -7425,7 +7429,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1178</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1181</v>
       </c>
@@ -7447,7 +7451,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1184</v>
       </c>
@@ -7458,7 +7462,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1187</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1190</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>510</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>474</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>491</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>494</v>
       </c>
@@ -7521,7 +7525,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1192</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1194</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1197</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1200</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1203</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1205</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1208</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1211</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1214</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1217</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1220</v>
       </c>
@@ -7642,7 +7646,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1223</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1226</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1228</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1230</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1232</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1234</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1236</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1238</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1241</v>
       </c>
@@ -7723,7 +7727,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1244</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1247</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1250</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1253</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1041</v>
       </c>
@@ -7778,7 +7782,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1044</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1047</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1050</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1053</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1056</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1059</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1257</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1260</v>
       </c>
@@ -7866,7 +7870,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1263</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1266</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1268</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1270</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>355</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1274</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1277</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1279</v>
       </c>
@@ -7942,7 +7946,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1282</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1540</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1285</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1287</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1289</v>
       </c>
@@ -7985,7 +7989,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1291</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1293</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1295</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1192</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1297</v>
       </c>
@@ -8031,7 +8035,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1298</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>494</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>474</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1299</v>
       </c>
@@ -8069,12 +8073,12 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1301</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1303</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1305</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>479</v>
       </c>
@@ -8118,7 +8122,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1308</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>461</v>
       </c>
@@ -8137,7 +8141,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1311</v>
       </c>
@@ -8148,7 +8152,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1314</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1316</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -8181,7 +8185,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1319</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1321</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1323</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1325</v>
       </c>
@@ -8219,7 +8223,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1328</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1331</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1333</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1336</v>
       </c>
@@ -8263,7 +8267,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1339</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1342</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1345</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1118</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1121</v>
       </c>
@@ -8318,7 +8322,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1124</v>
       </c>
@@ -8329,7 +8333,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1100</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1351</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1106</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1352</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1354</v>
       </c>
@@ -8381,7 +8385,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1356</v>
       </c>
@@ -8392,7 +8396,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1359</v>
       </c>
@@ -8403,7 +8407,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1361</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1364</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1366</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1368</v>
       </c>
@@ -8447,7 +8451,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1370</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1372</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1374</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1376</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1378</v>
       </c>
@@ -8502,7 +8506,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1380</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1382</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1384</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1386</v>
       </c>
@@ -8546,7 +8550,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1388</v>
       </c>
@@ -8557,7 +8561,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1390</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1392</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1394</v>
       </c>
@@ -8587,7 +8591,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1396</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1399</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1402</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1405</v>
       </c>
@@ -8631,7 +8635,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1408</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1410</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1411</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1414</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1417</v>
       </c>
@@ -8683,7 +8687,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1420</v>
       </c>
@@ -8694,12 +8698,12 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1423</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -8721,7 +8725,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1426</v>
       </c>
@@ -8732,7 +8736,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1429</v>
       </c>
@@ -8743,7 +8747,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1432</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1434</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1437</v>
       </c>
@@ -8776,7 +8780,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1439</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1442</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1445</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1448</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1451</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1452</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1455</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>530</v>
       </c>
@@ -8858,7 +8862,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1459</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1462</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1465</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>541</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>560</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>548</v>
       </c>
@@ -8921,7 +8925,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>546</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>558</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>533</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>568</v>
       </c>
@@ -8965,7 +8969,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>571</v>
       </c>
@@ -8976,7 +8980,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>573</v>
       </c>
@@ -8987,7 +8991,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>576</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1470</v>
       </c>
@@ -9009,7 +9013,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>585</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>581</v>
       </c>
@@ -9025,7 +9029,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1471</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>663</v>
       </c>
@@ -9044,7 +9048,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1475</v>
       </c>
@@ -9055,7 +9059,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>633</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1478</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1480</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>458</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>471</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1484</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1487</v>
       </c>
@@ -9126,7 +9130,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1490</v>
       </c>
@@ -9137,7 +9141,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1493</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1495</v>
       </c>
@@ -9153,7 +9157,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1497</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1499</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1501</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1504</v>
       </c>
@@ -9191,7 +9195,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1507</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1508</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1509</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1511</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1513</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1516</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1518</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1520</v>
       </c>
@@ -9261,7 +9265,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1522</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1523</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1526</v>
       </c>
@@ -9288,7 +9292,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1527</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1529</v>
       </c>
@@ -9307,12 +9311,12 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1564</v>
       </c>
@@ -9323,7 +9327,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1567</v>
       </c>
@@ -9334,7 +9338,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1570</v>
       </c>
@@ -9342,7 +9346,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1572</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1574</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1577</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1580</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1583</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1586</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1588</v>
       </c>
@@ -9413,7 +9417,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1591</v>
       </c>
@@ -9424,7 +9428,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1593</v>
       </c>
@@ -9432,7 +9436,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1595</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1597</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1599</v>
       </c>
@@ -9456,7 +9460,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1601</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1603</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1605</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>667</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1608</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1610</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1612</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>648</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>626</v>
       </c>
@@ -9534,7 +9538,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1614</v>
       </c>
@@ -9545,7 +9549,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>598</v>
       </c>
@@ -9553,7 +9557,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1617</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1619</v>
       </c>
@@ -9572,7 +9576,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1622</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1625</v>
       </c>
@@ -9594,7 +9598,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1628</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1630</v>
       </c>
@@ -9613,7 +9617,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1633</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1636</v>
       </c>
@@ -9635,7 +9639,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1639</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1642</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1644</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1646</v>
       </c>
@@ -9670,7 +9674,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1648</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1650</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1652</v>
       </c>
@@ -9694,7 +9698,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1654</v>
       </c>
@@ -9705,7 +9709,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1657</v>
       </c>
@@ -9716,7 +9720,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1660</v>
       </c>
@@ -9724,7 +9728,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1662</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1664</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1666</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1668</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1671</v>
       </c>
@@ -9767,7 +9771,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1673</v>
       </c>
@@ -9775,12 +9779,12 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1676</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1678</v>
       </c>
@@ -9796,7 +9800,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1680</v>
       </c>
@@ -9807,7 +9811,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1683</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1685</v>
       </c>
@@ -9826,7 +9830,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1688</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1691</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1694</v>
       </c>
@@ -9859,7 +9863,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1697</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1700</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1702</v>
       </c>
@@ -9889,7 +9893,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1704</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1706</v>
       </c>
@@ -9911,7 +9915,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1708</v>
       </c>
@@ -9922,7 +9926,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1710</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1712</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1714</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1716</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1718</v>
       </c>
@@ -9974,7 +9978,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1720</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1722</v>
       </c>
@@ -9996,7 +10000,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1723</v>
       </c>
@@ -10007,7 +10011,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1725</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1726</v>
       </c>
@@ -10029,7 +10033,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>947</v>
       </c>
@@ -10037,7 +10041,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>961</v>
       </c>
@@ -10045,7 +10049,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1730</v>
       </c>
@@ -10056,7 +10060,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1732</v>
       </c>
@@ -10067,7 +10071,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1734</v>
       </c>
@@ -10078,7 +10082,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1737</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1740</v>
       </c>
@@ -10100,7 +10104,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1743</v>
       </c>
@@ -10111,7 +10115,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1746</v>
       </c>
@@ -10122,7 +10126,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1749</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1751</v>
       </c>
@@ -10144,7 +10148,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>527</v>
       </c>
@@ -10155,7 +10159,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1754</v>
       </c>
@@ -10166,7 +10170,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>523</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1757</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1760</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1763</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1765</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1768</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1770</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1772</v>
       </c>
@@ -10248,7 +10252,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1774</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1776</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1778</v>
       </c>
@@ -10272,7 +10276,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1780</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1782</v>
       </c>
@@ -10288,126 +10292,129 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C438" t="s">
         <v>1784</v>
       </c>
-      <c r="C438" t="s">
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+      <c r="C439" t="s">
         <v>1786</v>
       </c>
-      <c r="C439" t="s">
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+      <c r="B440" t="s">
         <v>1788</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>1789</v>
       </c>
-      <c r="C440" t="s">
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+      <c r="C441" t="s">
         <v>1791</v>
       </c>
-      <c r="C441" t="s">
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+      <c r="C442" t="s">
         <v>1793</v>
       </c>
-      <c r="C442" t="s">
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+      <c r="B443" t="s">
         <v>1795</v>
       </c>
-      <c r="B443" t="s">
+      <c r="C443" t="s">
         <v>1796</v>
       </c>
-      <c r="C443" t="s">
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+      <c r="C444" t="s">
         <v>1798</v>
       </c>
-      <c r="C444" t="s">
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+      <c r="B445" t="s">
         <v>1800</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
         <v>1801</v>
       </c>
-      <c r="C445" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+      <c r="B446" t="s">
         <v>1802</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>1803</v>
       </c>
-      <c r="C446" t="s">
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+      <c r="C447" t="s">
         <v>1805</v>
       </c>
-      <c r="C447" t="s">
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+      <c r="B448" t="s">
         <v>1807</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>1808</v>
       </c>
-      <c r="C448" t="s">
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+      <c r="B449" t="s">
         <v>1810</v>
       </c>
-      <c r="B449" t="s">
-        <v>1811</v>
-      </c>
       <c r="C449" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>237</v>
       </c>
@@ -10418,7 +10425,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>239</v>
       </c>
@@ -10429,7 +10436,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>241</v>
       </c>
@@ -10440,7 +10447,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>244</v>
       </c>
@@ -10451,7 +10458,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>247</v>
       </c>
@@ -10462,7 +10469,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>250</v>
       </c>
@@ -10473,7 +10480,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>253</v>
       </c>
@@ -10484,7 +10491,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>256</v>
       </c>
@@ -10495,7 +10502,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>259</v>
       </c>
@@ -10506,7 +10513,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>262</v>
       </c>
@@ -10517,7 +10524,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>265</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>268</v>
       </c>
@@ -10539,7 +10546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>271</v>
       </c>
@@ -10550,7 +10557,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>274</v>
       </c>
@@ -10561,7 +10568,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>277</v>
       </c>
@@ -10572,7 +10579,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>280</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>283</v>
       </c>
@@ -10594,7 +10601,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>286</v>
       </c>
@@ -10605,7 +10612,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>289</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>292</v>
       </c>
@@ -10627,7 +10634,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>295</v>
       </c>
@@ -10638,7 +10645,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>298</v>
       </c>
@@ -10649,7 +10656,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>300</v>
       </c>
@@ -10660,7 +10667,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>303</v>
       </c>
@@ -10671,7 +10678,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>305</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>308</v>
       </c>
@@ -10693,7 +10700,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>311</v>
       </c>
@@ -10701,7 +10708,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>313</v>
       </c>
@@ -10712,7 +10719,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>316</v>
       </c>
@@ -10723,7 +10730,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>319</v>
       </c>
@@ -10734,7 +10741,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>322</v>
       </c>
@@ -10742,7 +10749,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>323</v>
       </c>
@@ -10753,7 +10760,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>326</v>
       </c>
@@ -10764,7 +10771,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>21</v>
       </c>
@@ -10775,7 +10782,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>331</v>
       </c>
@@ -10786,7 +10793,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>334</v>
       </c>
@@ -10794,7 +10801,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>336</v>
       </c>
@@ -10802,7 +10809,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>338</v>
       </c>
@@ -10810,7 +10817,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>340</v>
       </c>
@@ -10818,7 +10825,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>342</v>
       </c>
@@ -10829,7 +10836,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>345</v>
       </c>
@@ -10837,7 +10844,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>347</v>
       </c>
@@ -10848,12 +10855,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>458</v>
       </c>
@@ -10864,7 +10871,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>461</v>
       </c>
@@ -10875,7 +10882,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>464</v>
       </c>
@@ -10886,7 +10893,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>466</v>
       </c>
@@ -10897,7 +10904,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>381</v>
       </c>
@@ -10908,7 +10915,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>469</v>
       </c>
@@ -10919,7 +10926,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>472</v>
       </c>
@@ -10930,7 +10937,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>398</v>
       </c>
@@ -10941,7 +10948,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>474</v>
       </c>
@@ -10952,7 +10959,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>476</v>
       </c>
@@ -10963,7 +10970,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>161</v>
       </c>
@@ -10974,7 +10981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>479</v>
       </c>
@@ -10985,7 +10992,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>365</v>
       </c>
@@ -10996,7 +11003,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>482</v>
       </c>
@@ -11007,7 +11014,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>485</v>
       </c>
@@ -11018,7 +11025,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>488</v>
       </c>
@@ -11029,7 +11036,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>491</v>
       </c>
@@ -11040,7 +11047,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>494</v>
       </c>
@@ -11051,7 +11058,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>497</v>
       </c>
@@ -11062,7 +11069,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>500</v>
       </c>
@@ -11073,7 +11080,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>503</v>
       </c>
@@ -11084,7 +11091,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>505</v>
       </c>
@@ -11095,7 +11102,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>508</v>
       </c>
@@ -11106,7 +11113,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>511</v>
       </c>
@@ -11117,7 +11124,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>513</v>
       </c>
@@ -11128,7 +11135,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>516</v>
       </c>
@@ -11139,7 +11146,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>518</v>
       </c>
@@ -11150,7 +11157,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -11161,7 +11168,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>523</v>
       </c>
@@ -11172,12 +11179,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>527</v>
       </c>
@@ -11188,7 +11195,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>530</v>
       </c>
@@ -11199,7 +11206,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>533</v>
       </c>
@@ -11210,7 +11217,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>536</v>
       </c>
@@ -11221,7 +11228,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>539</v>
       </c>
@@ -11232,7 +11239,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>542</v>
       </c>
@@ -11243,7 +11250,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>544</v>
       </c>
@@ -11254,7 +11261,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>546</v>
       </c>
@@ -11265,7 +11272,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>548</v>
       </c>
@@ -11276,7 +11283,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>550</v>
       </c>
@@ -11287,7 +11294,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>553</v>
       </c>
@@ -11298,7 +11305,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>555</v>
       </c>
@@ -11309,7 +11316,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>558</v>
       </c>
@@ -11320,7 +11327,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>560</v>
       </c>
@@ -11331,7 +11338,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>563</v>
       </c>
@@ -11342,7 +11349,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>566</v>
       </c>
@@ -11353,7 +11360,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>568</v>
       </c>
@@ -11364,7 +11371,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>571</v>
       </c>
@@ -11375,7 +11382,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>573</v>
       </c>
@@ -11386,7 +11393,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>576</v>
       </c>
@@ -11397,7 +11404,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>579</v>
       </c>
@@ -11408,7 +11415,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>582</v>
       </c>
@@ -11419,7 +11426,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>583</v>
       </c>
@@ -11430,7 +11437,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>586</v>
       </c>
@@ -11441,12 +11448,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>590</v>
       </c>
@@ -11457,7 +11464,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>593</v>
       </c>
@@ -11468,7 +11475,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -11479,7 +11486,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>599</v>
       </c>
@@ -11490,7 +11497,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>602</v>
       </c>
@@ -11501,7 +11508,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>605</v>
       </c>
@@ -11512,7 +11519,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>608</v>
       </c>
@@ -11523,7 +11530,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>611</v>
       </c>
@@ -11534,7 +11541,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>614</v>
       </c>
@@ -11545,7 +11552,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>617</v>
       </c>
@@ -11556,7 +11563,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>620</v>
       </c>
@@ -11567,7 +11574,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>405</v>
       </c>
@@ -11578,7 +11585,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>623</v>
       </c>
@@ -11589,7 +11596,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>58</v>
       </c>
@@ -11600,7 +11607,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>626</v>
       </c>
@@ -11611,7 +11618,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>629</v>
       </c>
@@ -11622,7 +11629,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>61</v>
       </c>
@@ -11633,7 +11640,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>633</v>
       </c>
@@ -11644,7 +11651,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>636</v>
       </c>
@@ -11655,7 +11662,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>639</v>
       </c>
@@ -11666,7 +11673,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>82</v>
       </c>
@@ -11677,7 +11684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>642</v>
       </c>
@@ -11688,7 +11695,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>645</v>
       </c>
@@ -11699,7 +11706,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>648</v>
       </c>
@@ -11710,7 +11717,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>651</v>
       </c>
@@ -11721,7 +11728,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>652</v>
       </c>
@@ -11732,7 +11739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>653</v>
       </c>
@@ -11743,7 +11750,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>654</v>
       </c>
@@ -11754,7 +11761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>403</v>
       </c>
@@ -11765,7 +11772,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>657</v>
       </c>
@@ -11776,7 +11783,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>660</v>
       </c>
@@ -11787,7 +11794,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>661</v>
       </c>
@@ -11798,7 +11805,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>664</v>
       </c>
@@ -11809,7 +11816,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>666</v>
       </c>
@@ -11820,7 +11827,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>668</v>
       </c>
@@ -11831,7 +11838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>671</v>
       </c>
@@ -11842,12 +11849,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>675</v>
       </c>
@@ -11858,7 +11865,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>678</v>
       </c>
@@ -11869,7 +11876,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>681</v>
       </c>
@@ -11880,7 +11887,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>684</v>
       </c>
@@ -11891,7 +11898,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>687</v>
       </c>
@@ -11902,7 +11909,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>690</v>
       </c>
@@ -11913,7 +11920,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>693</v>
       </c>
@@ -11924,7 +11931,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>696</v>
       </c>
@@ -11935,7 +11942,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>699</v>
       </c>
@@ -11946,7 +11953,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>702</v>
       </c>
@@ -11957,7 +11964,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>705</v>
       </c>
@@ -11968,7 +11975,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>401</v>
       </c>
@@ -11979,7 +11986,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>710</v>
       </c>
@@ -11990,7 +11997,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>713</v>
       </c>
@@ -12001,7 +12008,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>716</v>
       </c>
@@ -12012,7 +12019,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>719</v>
       </c>
@@ -12023,12 +12030,12 @@
         <v>717</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>721</v>
       </c>
@@ -12039,7 +12046,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>722</v>
       </c>
@@ -12050,7 +12057,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>723</v>
       </c>
@@ -12061,7 +12068,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>724</v>
       </c>
@@ -12072,7 +12079,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>725</v>
       </c>
@@ -12083,7 +12090,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>726</v>
       </c>
@@ -12094,7 +12101,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>727</v>
       </c>
@@ -12105,7 +12112,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>728</v>
       </c>
@@ -12116,7 +12123,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>729</v>
       </c>
@@ -12127,7 +12134,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>730</v>
       </c>
@@ -12138,7 +12145,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1007</v>
       </c>
@@ -12149,7 +12156,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1008</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1009</v>
       </c>
@@ -12171,7 +12178,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1010</v>
       </c>
@@ -12182,7 +12189,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1011</v>
       </c>
@@ -12193,7 +12200,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1012</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1013</v>
       </c>
@@ -12215,7 +12222,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1014</v>
       </c>
@@ -12226,7 +12233,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>430</v>
       </c>
@@ -12237,7 +12244,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1015</v>
       </c>
@@ -12248,7 +12255,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1016</v>
       </c>
@@ -12259,7 +12266,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1017</v>
       </c>
@@ -12270,7 +12277,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1018</v>
       </c>
@@ -12281,7 +12288,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1019</v>
       </c>
@@ -12292,7 +12299,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1020</v>
       </c>
@@ -12303,7 +12310,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1021</v>
       </c>
@@ -12314,7 +12321,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1022</v>
       </c>
@@ -12325,7 +12332,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>432</v>
       </c>
@@ -12336,7 +12343,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1023</v>
       </c>
@@ -12347,7 +12354,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1024</v>
       </c>
@@ -12358,7 +12365,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1025</v>
       </c>
@@ -12369,7 +12376,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1026</v>
       </c>
@@ -12380,7 +12387,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1027</v>
       </c>
@@ -12391,7 +12398,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1028</v>
       </c>
@@ -12402,7 +12409,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1029</v>
       </c>
@@ -12413,7 +12420,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1030</v>
       </c>
@@ -12424,7 +12431,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1031</v>
       </c>
@@ -12435,7 +12442,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1032</v>
       </c>
@@ -12446,7 +12453,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1033</v>
       </c>
@@ -12457,7 +12464,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1034</v>
       </c>
@@ -12468,7 +12475,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1035</v>
       </c>
@@ -12479,7 +12486,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1036</v>
       </c>
@@ -12490,7 +12497,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1037</v>
       </c>
@@ -12501,7 +12508,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1038</v>
       </c>
@@ -12512,7 +12519,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1039</v>
       </c>
@@ -12523,7 +12530,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>434</v>
       </c>
@@ -12534,7 +12541,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1040</v>
       </c>
@@ -12545,7 +12552,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1172</v>
       </c>
@@ -12556,12 +12563,12 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>733</v>
       </c>
@@ -12572,7 +12579,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>736</v>
       </c>
@@ -12583,7 +12590,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>739</v>
       </c>
@@ -12594,7 +12601,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>742</v>
       </c>
@@ -12605,7 +12612,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>745</v>
       </c>
@@ -12616,7 +12623,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>748</v>
       </c>
@@ -12627,7 +12634,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>751</v>
       </c>
@@ -12638,7 +12645,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>754</v>
       </c>
@@ -12649,7 +12656,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>757</v>
       </c>
@@ -12660,7 +12667,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>760</v>
       </c>
@@ -12671,7 +12678,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>763</v>
       </c>
@@ -12682,7 +12689,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>766</v>
       </c>
@@ -12693,7 +12700,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>769</v>
       </c>
@@ -12704,7 +12711,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>772</v>
       </c>
@@ -12715,7 +12722,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>775</v>
       </c>
@@ -12726,7 +12733,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>777</v>
       </c>
@@ -12737,7 +12744,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>780</v>
       </c>
@@ -12748,7 +12755,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>783</v>
       </c>
@@ -12759,7 +12766,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>786</v>
       </c>
@@ -12770,7 +12777,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>789</v>
       </c>
@@ -12781,7 +12788,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>792</v>
       </c>
@@ -12792,7 +12799,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>795</v>
       </c>
@@ -12803,7 +12810,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>798</v>
       </c>
@@ -12814,7 +12821,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>801</v>
       </c>
@@ -12825,7 +12832,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>804</v>
       </c>
@@ -12836,7 +12843,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>807</v>
       </c>
@@ -12847,7 +12854,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>810</v>
       </c>
@@ -12858,7 +12865,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>813</v>
       </c>
@@ -12869,7 +12876,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>816</v>
       </c>
@@ -12880,7 +12887,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>819</v>
       </c>
@@ -12891,7 +12898,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>822</v>
       </c>
@@ -12902,7 +12909,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>825</v>
       </c>
@@ -12913,7 +12920,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>828</v>
       </c>
@@ -12924,7 +12931,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>831</v>
       </c>
@@ -12935,7 +12942,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>834</v>
       </c>
@@ -12946,7 +12953,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>837</v>
       </c>
@@ -12957,7 +12964,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>840</v>
       </c>
@@ -12968,7 +12975,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>843</v>
       </c>
@@ -12979,7 +12986,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>846</v>
       </c>
@@ -12990,7 +12997,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>849</v>
       </c>
@@ -13001,7 +13008,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>852</v>
       </c>
@@ -13012,7 +13019,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>855</v>
       </c>
@@ -13023,12 +13030,12 @@
         <v>853</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>859</v>
       </c>
@@ -13039,7 +13046,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>862</v>
       </c>
@@ -13050,7 +13057,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>865</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>868</v>
       </c>
@@ -13072,7 +13079,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>871</v>
       </c>
@@ -13083,7 +13090,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>859</v>
       </c>
@@ -13094,7 +13101,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>876</v>
       </c>
@@ -13105,7 +13112,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>879</v>
       </c>
@@ -13116,7 +13123,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>882</v>
       </c>
@@ -13127,7 +13134,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>885</v>
       </c>
@@ -13138,7 +13145,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>888</v>
       </c>
@@ -13149,7 +13156,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>891</v>
       </c>
@@ -13160,7 +13167,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>894</v>
       </c>
@@ -13171,7 +13178,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>897</v>
       </c>
@@ -13182,7 +13189,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>900</v>
       </c>
@@ -13193,7 +13200,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>903</v>
       </c>
@@ -13204,7 +13211,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>903</v>
       </c>
@@ -13215,7 +13222,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>908</v>
       </c>
@@ -13226,7 +13233,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>911</v>
       </c>
@@ -13237,7 +13244,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>914</v>
       </c>
@@ -13248,7 +13255,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>917</v>
       </c>
@@ -13259,7 +13266,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>920</v>
       </c>
@@ -13270,7 +13277,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>923</v>
       </c>
@@ -13281,7 +13288,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>926</v>
       </c>
@@ -13292,7 +13299,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>929</v>
       </c>
@@ -13303,7 +13310,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>932</v>
       </c>
@@ -13314,7 +13321,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>935</v>
       </c>
@@ -13325,7 +13332,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>938</v>
       </c>
@@ -13336,7 +13343,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>941</v>
       </c>
@@ -13347,7 +13354,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>944</v>
       </c>
@@ -13358,7 +13365,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>947</v>
       </c>
@@ -13369,7 +13376,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>949</v>
       </c>
@@ -13380,7 +13387,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>952</v>
       </c>
@@ -13391,7 +13398,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>955</v>
       </c>
@@ -13402,7 +13409,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>958</v>
       </c>
@@ -13413,7 +13420,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>961</v>
       </c>
@@ -13424,7 +13431,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>963</v>
       </c>
@@ -13432,7 +13439,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>966</v>
       </c>
@@ -13443,7 +13450,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>969</v>
       </c>
@@ -13454,7 +13461,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>966</v>
       </c>
@@ -13465,7 +13472,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>974</v>
       </c>
@@ -13476,7 +13483,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>977</v>
       </c>
@@ -13487,7 +13494,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>980</v>
       </c>
@@ -13498,7 +13505,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>983</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>986</v>
       </c>
@@ -13520,7 +13527,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>989</v>
       </c>
@@ -13531,7 +13538,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>991</v>
       </c>
@@ -13539,7 +13546,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>994</v>
       </c>
@@ -13550,7 +13557,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>997</v>
       </c>
@@ -13561,7 +13568,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>999</v>
       </c>
@@ -13572,7 +13579,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1002</v>
       </c>
@@ -13583,7 +13590,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1005</v>
       </c>
@@ -13594,12 +13601,12 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1041</v>
       </c>
@@ -13610,7 +13617,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1044</v>
       </c>
@@ -13621,7 +13628,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1047</v>
       </c>
@@ -13632,7 +13639,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1050</v>
       </c>
@@ -13643,7 +13650,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1053</v>
       </c>
@@ -13654,7 +13661,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1056</v>
       </c>
@@ -13665,7 +13672,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1059</v>
       </c>
@@ -13676,7 +13683,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1062</v>
       </c>
@@ -13687,7 +13694,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1064</v>
       </c>
@@ -13698,7 +13705,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1066</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1068</v>
       </c>
@@ -13720,7 +13727,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1070</v>
       </c>
@@ -13731,7 +13738,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1072</v>
       </c>
@@ -13742,7 +13749,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1074</v>
       </c>
@@ -13753,7 +13760,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1076</v>
       </c>
@@ -13764,7 +13771,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1078</v>
       </c>
@@ -13775,7 +13782,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1080</v>
       </c>
@@ -13786,7 +13793,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1082</v>
       </c>
@@ -13797,7 +13804,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1084</v>
       </c>
@@ -13808,7 +13815,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1086</v>
       </c>
@@ -13819,7 +13826,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1088</v>
       </c>
@@ -13830,7 +13837,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1090</v>
       </c>
@@ -13841,7 +13848,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1092</v>
       </c>
@@ -13852,7 +13859,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1094</v>
       </c>
@@ -13863,7 +13870,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1096</v>
       </c>
@@ -13874,7 +13881,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1098</v>
       </c>
@@ -13885,7 +13892,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1100</v>
       </c>
@@ -13896,7 +13903,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1103</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1106</v>
       </c>
@@ -13918,7 +13925,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1109</v>
       </c>
@@ -13929,7 +13936,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1112</v>
       </c>
@@ -13940,7 +13947,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1115</v>
       </c>
@@ -13951,7 +13958,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1118</v>
       </c>
@@ -13962,7 +13969,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1121</v>
       </c>
@@ -13973,7 +13980,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1124</v>
       </c>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E482AA-1625-42AD-8941-78FEDC671F43}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B5DB60-889D-46CE-873D-D39AE0B4E5A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="2340" windowWidth="16140" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1940">
   <si>
     <t>わたし</t>
   </si>
@@ -5636,6 +5636,389 @@
   <si>
     <t>お元気ですか</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第9課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>わかります</t>
+  </si>
+  <si>
+    <t>了解/明白/懂</t>
+  </si>
+  <si>
+    <t>あります</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>すき(な)</t>
+  </si>
+  <si>
+    <t>好き(な)</t>
+  </si>
+  <si>
+    <t>喜歡(的)/愛好(的)</t>
+  </si>
+  <si>
+    <t>きらい(な)</t>
+  </si>
+  <si>
+    <t>嫌い(な)</t>
+  </si>
+  <si>
+    <t>討厭(的)/不喜歡(的)</t>
+  </si>
+  <si>
+    <t>じょうず(な)</t>
+  </si>
+  <si>
+    <t>上手(な)</t>
+  </si>
+  <si>
+    <t>好(的)/高明(的)</t>
+  </si>
+  <si>
+    <t>へた(な)</t>
+  </si>
+  <si>
+    <t>下手(な)</t>
+  </si>
+  <si>
+    <t>不行(的)/笨拙(的)</t>
+  </si>
+  <si>
+    <t>料理/菜</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>運動/體育</t>
+  </si>
+  <si>
+    <t>スポーツ を します</t>
+  </si>
+  <si>
+    <t>做運動</t>
+  </si>
+  <si>
+    <t>やきゅう</t>
+  </si>
+  <si>
+    <t>野球</t>
+  </si>
+  <si>
+    <t>棒球</t>
+  </si>
+  <si>
+    <t>やきゅう を します</t>
+  </si>
+  <si>
+    <t>野球をします</t>
+  </si>
+  <si>
+    <t>打棒球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダンス </t>
+  </si>
+  <si>
+    <t>跳舞/舞蹈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダンス を します </t>
+  </si>
+  <si>
+    <t>跳舞</t>
+  </si>
+  <si>
+    <t>おんがく</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>うた</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>歌曲/歌</t>
+  </si>
+  <si>
+    <t>クラシック</t>
+  </si>
+  <si>
+    <t>古典音樂</t>
+  </si>
+  <si>
+    <t>ジャズ</t>
+  </si>
+  <si>
+    <t>爵士樂</t>
+  </si>
+  <si>
+    <t>コンサート</t>
+  </si>
+  <si>
+    <t>音樂會/演奏會</t>
+  </si>
+  <si>
+    <t>カラオケ</t>
+  </si>
+  <si>
+    <t>卡拉OK</t>
+  </si>
+  <si>
+    <t>かぶき</t>
+  </si>
+  <si>
+    <t>歌舞伎</t>
+  </si>
+  <si>
+    <t>え</t>
+  </si>
+  <si>
+    <t>絵</t>
+  </si>
+  <si>
+    <t>畫</t>
+  </si>
+  <si>
+    <t>じ</t>
+  </si>
+  <si>
+    <t>字</t>
+  </si>
+  <si>
+    <t>かんじ</t>
+  </si>
+  <si>
+    <t>漢字</t>
+  </si>
+  <si>
+    <t>ひらがな</t>
+  </si>
+  <si>
+    <t>平假名</t>
+  </si>
+  <si>
+    <t>かたかな</t>
+  </si>
+  <si>
+    <t>片假名</t>
+  </si>
+  <si>
+    <t>ローマじ</t>
+  </si>
+  <si>
+    <t>ローマ字</t>
+  </si>
+  <si>
+    <t>羅馬拼音</t>
+  </si>
+  <si>
+    <t>こまかい おかね</t>
+  </si>
+  <si>
+    <t>細かい お金</t>
+  </si>
+  <si>
+    <t>零錢</t>
+  </si>
+  <si>
+    <t>チケット</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>ようじ</t>
+  </si>
+  <si>
+    <t>用事</t>
+  </si>
+  <si>
+    <t>(必須辦的)事情/工作</t>
+  </si>
+  <si>
+    <t>やくそく</t>
+  </si>
+  <si>
+    <t>約束</t>
+  </si>
+  <si>
+    <t>約定/承諾</t>
+  </si>
+  <si>
+    <t>ごしゅじん</t>
+  </si>
+  <si>
+    <t>ご主人</t>
+  </si>
+  <si>
+    <t>(他人的)丈夫</t>
+  </si>
+  <si>
+    <t>おっと</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>(自己的)丈夫</t>
+  </si>
+  <si>
+    <t>しゅじん</t>
+  </si>
+  <si>
+    <t>主人</t>
+  </si>
+  <si>
+    <t>おくさん</t>
+  </si>
+  <si>
+    <t>奥さん</t>
+  </si>
+  <si>
+    <t>(他人的)妻子</t>
+  </si>
+  <si>
+    <t>つま</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>(自己的)妻子</t>
+  </si>
+  <si>
+    <t>かない</t>
+  </si>
+  <si>
+    <t>家内</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>子ども</t>
+  </si>
+  <si>
+    <t>小孩</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>很/十分</t>
+  </si>
+  <si>
+    <t>だいたい</t>
+  </si>
+  <si>
+    <t>大致/大概</t>
+  </si>
+  <si>
+    <t>たくさん</t>
+  </si>
+  <si>
+    <t>很多</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>少し</t>
+  </si>
+  <si>
+    <t>少/稍微</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>全然</t>
+  </si>
+  <si>
+    <t>完全/一點也(用於否定句)</t>
+  </si>
+  <si>
+    <t>はやく</t>
+  </si>
+  <si>
+    <t>早く、速く</t>
+  </si>
+  <si>
+    <t>早些/快些</t>
+  </si>
+  <si>
+    <t>因為～</t>
+  </si>
+  <si>
+    <t>どうして</t>
+  </si>
+  <si>
+    <t>為什麼</t>
+  </si>
+  <si>
+    <t>ざんねんです(ね)</t>
+  </si>
+  <si>
+    <t>残念です(ね)</t>
+  </si>
+  <si>
+    <t>真遺憾(呀)</t>
+  </si>
+  <si>
+    <t>很抱歉</t>
+  </si>
+  <si>
+    <t>もしもし</t>
+  </si>
+  <si>
+    <t>喂(用於打電話時)</t>
+  </si>
+  <si>
+    <t>ああ</t>
+  </si>
+  <si>
+    <t>啊</t>
+  </si>
+  <si>
+    <t>いっしょに いかがですか</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起來如何？</t>
+  </si>
+  <si>
+    <t>(～は)ちょっと……</t>
+  </si>
+  <si>
+    <t>(～)稍微有點困難(拒絕的表達)</t>
+  </si>
+  <si>
+    <t>だめですか</t>
+  </si>
+  <si>
+    <t>不行嗎？</t>
+  </si>
+  <si>
+    <t>また こんど おねがい しますまた 今度</t>
+  </si>
+  <si>
+    <t>下次請再叫我(婉轉拒絕對方的邀請)</t>
   </si>
 </sst>
 </file>
@@ -5993,20 +6376,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C782"/>
+  <dimension ref="A1:C838"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C451" sqref="C451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>455</v>
       </c>
@@ -6017,17 +6400,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6049,7 +6432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6060,7 +6443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6082,7 +6465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -6093,7 +6476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6102,7 +6485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -6113,7 +6496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -6124,7 +6507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6135,7 +6518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -6146,7 +6529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6157,7 +6540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -6168,7 +6551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -6179,7 +6562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6190,7 +6573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -6201,7 +6584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -6212,7 +6595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6221,7 +6604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6232,7 +6615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -6243,7 +6626,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -6254,7 +6637,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -6263,7 +6646,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -6272,7 +6655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -6283,7 +6666,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -6294,7 +6677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -6303,7 +6686,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
@@ -6311,7 +6694,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>181</v>
       </c>
@@ -6319,7 +6702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -6330,7 +6713,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
@@ -6341,7 +6724,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>189</v>
       </c>
@@ -6352,7 +6735,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
@@ -6361,7 +6744,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
@@ -6370,7 +6753,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -6379,7 +6762,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
@@ -6390,7 +6773,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>200</v>
       </c>
@@ -6401,7 +6784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>202</v>
       </c>
@@ -6412,7 +6795,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>204</v>
       </c>
@@ -6423,7 +6806,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -6434,7 +6817,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>208</v>
       </c>
@@ -6445,7 +6828,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>211</v>
       </c>
@@ -6454,7 +6837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -6465,7 +6848,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
@@ -6474,7 +6857,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
@@ -6485,7 +6868,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>220</v>
       </c>
@@ -6496,7 +6879,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -6507,7 +6890,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>231</v>
       </c>
@@ -6518,7 +6901,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -6526,7 +6909,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
@@ -6534,7 +6917,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
@@ -6545,12 +6928,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -6558,7 +6941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -6566,7 +6949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -6574,7 +6957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -6582,7 +6965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -6590,7 +6973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -6598,7 +6981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6609,7 +6992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6620,7 +7003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -6631,7 +7014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6642,7 +7025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -6650,7 +7033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -6661,7 +7044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -6672,7 +7055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -6680,7 +7063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -6688,7 +7071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -6699,7 +7082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6707,7 +7090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -6715,7 +7098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -6723,7 +7106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -6734,7 +7117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -6745,7 +7128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -6753,7 +7136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -6761,7 +7144,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -6769,7 +7152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -6777,7 +7160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -6785,7 +7168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -6793,7 +7176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -6801,7 +7184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -6809,7 +7192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -6820,7 +7203,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -6831,7 +7214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6839,7 +7222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -6847,7 +7230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -6855,7 +7238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -6866,7 +7249,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -6877,7 +7260,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -6888,7 +7271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -6899,7 +7282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -6907,7 +7290,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -6918,7 +7301,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -6926,7 +7309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -6934,7 +7317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>141</v>
       </c>
@@ -6945,7 +7328,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -6953,7 +7336,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -6961,7 +7344,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -6969,7 +7352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -6977,12 +7360,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>350</v>
       </c>
@@ -6990,7 +7373,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>351</v>
       </c>
@@ -6998,7 +7381,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>352</v>
       </c>
@@ -7006,7 +7389,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>353</v>
       </c>
@@ -7014,7 +7397,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>354</v>
       </c>
@@ -7022,7 +7405,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>355</v>
       </c>
@@ -7030,7 +7413,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>356</v>
       </c>
@@ -7038,7 +7421,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>357</v>
       </c>
@@ -7046,7 +7429,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>365</v>
       </c>
@@ -7057,7 +7440,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>367</v>
       </c>
@@ -7068,7 +7451,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>370</v>
       </c>
@@ -7079,7 +7462,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>373</v>
       </c>
@@ -7090,7 +7473,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>376</v>
       </c>
@@ -7101,7 +7484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>379</v>
       </c>
@@ -7109,7 +7492,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>381</v>
       </c>
@@ -7120,7 +7503,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>384</v>
       </c>
@@ -7128,7 +7511,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>386</v>
       </c>
@@ -7139,7 +7522,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>388</v>
       </c>
@@ -7150,7 +7533,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>391</v>
       </c>
@@ -7158,7 +7541,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>393</v>
       </c>
@@ -7166,7 +7549,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>395</v>
       </c>
@@ -7177,7 +7560,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>398</v>
       </c>
@@ -7188,7 +7571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>401</v>
       </c>
@@ -7196,7 +7579,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>403</v>
       </c>
@@ -7207,7 +7590,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>405</v>
       </c>
@@ -7218,7 +7601,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>408</v>
       </c>
@@ -7226,7 +7609,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>410</v>
       </c>
@@ -7234,7 +7617,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>412</v>
       </c>
@@ -7242,7 +7625,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>414</v>
       </c>
@@ -7253,7 +7636,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>417</v>
       </c>
@@ -7264,7 +7647,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>419</v>
       </c>
@@ -7275,7 +7658,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>422</v>
       </c>
@@ -7286,7 +7669,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>425</v>
       </c>
@@ -7297,7 +7680,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>428</v>
       </c>
@@ -7305,7 +7688,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>430</v>
       </c>
@@ -7316,7 +7699,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>432</v>
       </c>
@@ -7327,7 +7710,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>434</v>
       </c>
@@ -7338,7 +7721,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>437</v>
       </c>
@@ -7346,7 +7729,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>439</v>
       </c>
@@ -7357,7 +7740,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -7365,7 +7748,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -7373,7 +7756,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>446</v>
       </c>
@@ -7381,7 +7764,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>448</v>
       </c>
@@ -7392,7 +7775,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>451</v>
       </c>
@@ -7400,7 +7783,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>453</v>
       </c>
@@ -7408,17 +7791,17 @@
         <v>454</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1175</v>
       </c>
@@ -7429,7 +7812,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1178</v>
       </c>
@@ -7440,7 +7823,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1181</v>
       </c>
@@ -7451,7 +7834,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1184</v>
       </c>
@@ -7462,7 +7845,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1187</v>
       </c>
@@ -7473,7 +7856,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1190</v>
       </c>
@@ -7484,7 +7867,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>510</v>
       </c>
@@ -7492,7 +7875,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>474</v>
       </c>
@@ -7503,7 +7886,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>491</v>
       </c>
@@ -7514,7 +7897,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>494</v>
       </c>
@@ -7525,7 +7908,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1192</v>
       </c>
@@ -7536,7 +7919,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1194</v>
       </c>
@@ -7547,7 +7930,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1197</v>
       </c>
@@ -7558,7 +7941,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1200</v>
       </c>
@@ -7569,7 +7952,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1203</v>
       </c>
@@ -7580,7 +7963,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1205</v>
       </c>
@@ -7591,7 +7974,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1208</v>
       </c>
@@ -7602,7 +7985,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1211</v>
       </c>
@@ -7613,7 +7996,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1214</v>
       </c>
@@ -7624,7 +8007,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1217</v>
       </c>
@@ -7635,7 +8018,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1220</v>
       </c>
@@ -7646,7 +8029,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1223</v>
       </c>
@@ -7657,7 +8040,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1226</v>
       </c>
@@ -7665,7 +8048,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1228</v>
       </c>
@@ -7673,7 +8056,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1230</v>
       </c>
@@ -7681,7 +8064,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1232</v>
       </c>
@@ -7689,7 +8072,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1234</v>
       </c>
@@ -7697,7 +8080,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1236</v>
       </c>
@@ -7705,7 +8088,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1238</v>
       </c>
@@ -7716,7 +8099,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1241</v>
       </c>
@@ -7727,7 +8110,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1244</v>
       </c>
@@ -7738,7 +8121,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1247</v>
       </c>
@@ -7749,7 +8132,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1250</v>
       </c>
@@ -7760,7 +8143,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1253</v>
       </c>
@@ -7771,7 +8154,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1041</v>
       </c>
@@ -7782,7 +8165,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1044</v>
       </c>
@@ -7793,7 +8176,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1047</v>
       </c>
@@ -7804,7 +8187,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1050</v>
       </c>
@@ -7815,7 +8198,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1053</v>
       </c>
@@ -7826,7 +8209,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1056</v>
       </c>
@@ -7837,7 +8220,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1059</v>
       </c>
@@ -7848,7 +8231,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1257</v>
       </c>
@@ -7859,7 +8242,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1260</v>
       </c>
@@ -7870,7 +8253,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1263</v>
       </c>
@@ -7881,7 +8264,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1266</v>
       </c>
@@ -7889,7 +8272,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1268</v>
       </c>
@@ -7897,7 +8280,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1270</v>
       </c>
@@ -7905,7 +8288,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>355</v>
       </c>
@@ -7916,7 +8299,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1274</v>
       </c>
@@ -7927,7 +8310,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1277</v>
       </c>
@@ -7935,7 +8318,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1279</v>
       </c>
@@ -7946,7 +8329,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1282</v>
       </c>
@@ -7954,7 +8337,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1540</v>
       </c>
@@ -7965,7 +8348,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1285</v>
       </c>
@@ -7973,7 +8356,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1287</v>
       </c>
@@ -7981,7 +8364,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1289</v>
       </c>
@@ -7989,7 +8372,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1291</v>
       </c>
@@ -7997,7 +8380,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1293</v>
       </c>
@@ -8005,7 +8388,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1295</v>
       </c>
@@ -8013,7 +8396,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1192</v>
       </c>
@@ -8024,7 +8407,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1297</v>
       </c>
@@ -8035,7 +8418,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1298</v>
       </c>
@@ -8043,7 +8426,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>494</v>
       </c>
@@ -8054,7 +8437,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>474</v>
       </c>
@@ -8065,7 +8448,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1299</v>
       </c>
@@ -8073,12 +8456,12 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1301</v>
       </c>
@@ -8089,7 +8472,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1303</v>
       </c>
@@ -8100,7 +8483,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1305</v>
       </c>
@@ -8111,7 +8494,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>479</v>
       </c>
@@ -8122,7 +8505,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1308</v>
       </c>
@@ -8130,7 +8513,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>461</v>
       </c>
@@ -8141,7 +8524,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1311</v>
       </c>
@@ -8152,7 +8535,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1314</v>
       </c>
@@ -8163,7 +8546,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1316</v>
       </c>
@@ -8174,7 +8557,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>482</v>
       </c>
@@ -8185,7 +8568,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1319</v>
       </c>
@@ -8196,7 +8579,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1321</v>
       </c>
@@ -8204,7 +8587,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1323</v>
       </c>
@@ -8212,7 +8595,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1325</v>
       </c>
@@ -8223,7 +8606,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1328</v>
       </c>
@@ -8234,7 +8617,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1331</v>
       </c>
@@ -8245,7 +8628,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1333</v>
       </c>
@@ -8256,7 +8639,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1336</v>
       </c>
@@ -8267,7 +8650,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1339</v>
       </c>
@@ -8278,7 +8661,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1342</v>
       </c>
@@ -8289,7 +8672,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1345</v>
       </c>
@@ -8300,7 +8683,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1118</v>
       </c>
@@ -8311,7 +8694,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1121</v>
       </c>
@@ -8322,7 +8705,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1124</v>
       </c>
@@ -8333,7 +8716,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1100</v>
       </c>
@@ -8344,7 +8727,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1351</v>
       </c>
@@ -8355,7 +8738,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1106</v>
       </c>
@@ -8366,7 +8749,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1352</v>
       </c>
@@ -8377,7 +8760,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1354</v>
       </c>
@@ -8385,7 +8768,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1356</v>
       </c>
@@ -8396,7 +8779,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1359</v>
       </c>
@@ -8407,7 +8790,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1361</v>
       </c>
@@ -8418,7 +8801,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1364</v>
       </c>
@@ -8429,7 +8812,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1366</v>
       </c>
@@ -8440,7 +8823,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1368</v>
       </c>
@@ -8451,7 +8834,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1370</v>
       </c>
@@ -8462,7 +8845,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1372</v>
       </c>
@@ -8473,7 +8856,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1374</v>
       </c>
@@ -8484,7 +8867,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1376</v>
       </c>
@@ -8495,7 +8878,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1378</v>
       </c>
@@ -8506,7 +8889,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1380</v>
       </c>
@@ -8517,7 +8900,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1382</v>
       </c>
@@ -8528,7 +8911,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1384</v>
       </c>
@@ -8539,7 +8922,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1386</v>
       </c>
@@ -8550,7 +8933,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1388</v>
       </c>
@@ -8561,7 +8944,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1390</v>
       </c>
@@ -8572,7 +8955,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1392</v>
       </c>
@@ -8583,7 +8966,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1394</v>
       </c>
@@ -8591,7 +8974,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1396</v>
       </c>
@@ -8602,7 +8985,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1399</v>
       </c>
@@ -8613,7 +8996,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1402</v>
       </c>
@@ -8624,7 +9007,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1405</v>
       </c>
@@ -8635,7 +9018,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1408</v>
       </c>
@@ -8646,7 +9029,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1410</v>
       </c>
@@ -8654,7 +9037,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1411</v>
       </c>
@@ -8665,7 +9048,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1414</v>
       </c>
@@ -8676,7 +9059,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1417</v>
       </c>
@@ -8687,7 +9070,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1420</v>
       </c>
@@ -8698,12 +9081,12 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1423</v>
       </c>
@@ -8714,7 +9097,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -8725,7 +9108,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1426</v>
       </c>
@@ -8736,7 +9119,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1429</v>
       </c>
@@ -8747,7 +9130,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1432</v>
       </c>
@@ -8758,7 +9141,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1434</v>
       </c>
@@ -8769,7 +9152,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1437</v>
       </c>
@@ -8780,7 +9163,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1439</v>
       </c>
@@ -8791,7 +9174,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1442</v>
       </c>
@@ -8802,7 +9185,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1445</v>
       </c>
@@ -8813,7 +9196,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1448</v>
       </c>
@@ -8824,7 +9207,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1451</v>
       </c>
@@ -8832,7 +9215,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1452</v>
       </c>
@@ -8843,7 +9226,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1455</v>
       </c>
@@ -8854,7 +9237,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>530</v>
       </c>
@@ -8862,7 +9245,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1459</v>
       </c>
@@ -8873,7 +9256,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1462</v>
       </c>
@@ -8884,7 +9267,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1465</v>
       </c>
@@ -8895,7 +9278,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>541</v>
       </c>
@@ -8903,7 +9286,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>560</v>
       </c>
@@ -8914,7 +9297,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>548</v>
       </c>
@@ -8925,7 +9308,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>546</v>
       </c>
@@ -8936,7 +9319,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>558</v>
       </c>
@@ -8947,7 +9330,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>533</v>
       </c>
@@ -8958,7 +9341,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>568</v>
       </c>
@@ -8969,7 +9352,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>571</v>
       </c>
@@ -8980,7 +9363,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>573</v>
       </c>
@@ -8991,7 +9374,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>576</v>
       </c>
@@ -9002,7 +9385,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1470</v>
       </c>
@@ -9013,7 +9396,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>585</v>
       </c>
@@ -9021,7 +9404,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>581</v>
       </c>
@@ -9029,7 +9412,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1471</v>
       </c>
@@ -9040,7 +9423,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>663</v>
       </c>
@@ -9048,7 +9431,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1475</v>
       </c>
@@ -9059,7 +9442,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>633</v>
       </c>
@@ -9070,7 +9453,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1478</v>
       </c>
@@ -9078,7 +9461,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1480</v>
       </c>
@@ -9089,7 +9472,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>458</v>
       </c>
@@ -9100,7 +9483,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>471</v>
       </c>
@@ -9108,7 +9491,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1484</v>
       </c>
@@ -9119,7 +9502,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1487</v>
       </c>
@@ -9130,7 +9513,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1490</v>
       </c>
@@ -9141,7 +9524,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1493</v>
       </c>
@@ -9149,7 +9532,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1495</v>
       </c>
@@ -9157,7 +9540,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1497</v>
       </c>
@@ -9165,7 +9548,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1499</v>
       </c>
@@ -9173,7 +9556,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1501</v>
       </c>
@@ -9184,7 +9567,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1504</v>
       </c>
@@ -9195,7 +9578,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1507</v>
       </c>
@@ -9206,7 +9589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1508</v>
       </c>
@@ -9214,7 +9597,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1509</v>
       </c>
@@ -9222,7 +9605,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1511</v>
       </c>
@@ -9230,7 +9613,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1513</v>
       </c>
@@ -9241,7 +9624,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1516</v>
       </c>
@@ -9249,7 +9632,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1518</v>
       </c>
@@ -9257,7 +9640,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1520</v>
       </c>
@@ -9265,7 +9648,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1522</v>
       </c>
@@ -9273,7 +9656,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1523</v>
       </c>
@@ -9284,7 +9667,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1526</v>
       </c>
@@ -9292,7 +9675,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1527</v>
       </c>
@@ -9300,7 +9683,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1529</v>
       </c>
@@ -9311,12 +9694,12 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1564</v>
       </c>
@@ -9327,7 +9710,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1567</v>
       </c>
@@ -9338,7 +9721,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1570</v>
       </c>
@@ -9346,7 +9729,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1572</v>
       </c>
@@ -9354,7 +9737,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1574</v>
       </c>
@@ -9365,7 +9748,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1577</v>
       </c>
@@ -9376,7 +9759,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1580</v>
       </c>
@@ -9387,7 +9770,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1583</v>
       </c>
@@ -9398,7 +9781,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1586</v>
       </c>
@@ -9406,7 +9789,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1588</v>
       </c>
@@ -9417,7 +9800,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1591</v>
       </c>
@@ -9428,7 +9811,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1593</v>
       </c>
@@ -9436,7 +9819,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1595</v>
       </c>
@@ -9444,7 +9827,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1597</v>
       </c>
@@ -9452,7 +9835,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1599</v>
       </c>
@@ -9460,7 +9843,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1601</v>
       </c>
@@ -9468,7 +9851,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1603</v>
       </c>
@@ -9476,7 +9859,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1605</v>
       </c>
@@ -9484,7 +9867,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>667</v>
       </c>
@@ -9492,7 +9875,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1608</v>
       </c>
@@ -9500,7 +9883,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1610</v>
       </c>
@@ -9508,7 +9891,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1612</v>
       </c>
@@ -9516,7 +9899,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>648</v>
       </c>
@@ -9527,7 +9910,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>626</v>
       </c>
@@ -9538,7 +9921,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1614</v>
       </c>
@@ -9549,7 +9932,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>598</v>
       </c>
@@ -9557,7 +9940,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1617</v>
       </c>
@@ -9565,7 +9948,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1619</v>
       </c>
@@ -9576,7 +9959,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1622</v>
       </c>
@@ -9587,7 +9970,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1625</v>
       </c>
@@ -9598,7 +9981,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1628</v>
       </c>
@@ -9606,7 +9989,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1630</v>
       </c>
@@ -9617,7 +10000,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1633</v>
       </c>
@@ -9628,7 +10011,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1636</v>
       </c>
@@ -9639,7 +10022,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1639</v>
       </c>
@@ -9650,7 +10033,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1642</v>
       </c>
@@ -9658,7 +10041,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1644</v>
       </c>
@@ -9666,7 +10049,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1646</v>
       </c>
@@ -9674,7 +10057,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1648</v>
       </c>
@@ -9682,7 +10065,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1650</v>
       </c>
@@ -9690,7 +10073,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1652</v>
       </c>
@@ -9698,7 +10081,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1654</v>
       </c>
@@ -9709,7 +10092,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1657</v>
       </c>
@@ -9720,7 +10103,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1660</v>
       </c>
@@ -9728,7 +10111,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1662</v>
       </c>
@@ -9736,7 +10119,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1664</v>
       </c>
@@ -9744,7 +10127,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1666</v>
       </c>
@@ -9752,7 +10135,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1668</v>
       </c>
@@ -9763,7 +10146,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1671</v>
       </c>
@@ -9771,7 +10154,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1673</v>
       </c>
@@ -9779,12 +10162,12 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1676</v>
       </c>
@@ -9792,7 +10175,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1678</v>
       </c>
@@ -9800,7 +10183,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1680</v>
       </c>
@@ -9811,7 +10194,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1683</v>
       </c>
@@ -9819,7 +10202,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1685</v>
       </c>
@@ -9830,7 +10213,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1688</v>
       </c>
@@ -9841,7 +10224,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1691</v>
       </c>
@@ -9852,7 +10235,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1694</v>
       </c>
@@ -9863,7 +10246,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1697</v>
       </c>
@@ -9874,7 +10257,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1700</v>
       </c>
@@ -9882,7 +10265,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1702</v>
       </c>
@@ -9893,7 +10276,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1704</v>
       </c>
@@ -9904,7 +10287,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1706</v>
       </c>
@@ -9915,7 +10298,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1708</v>
       </c>
@@ -9926,7 +10309,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1710</v>
       </c>
@@ -9934,7 +10317,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1712</v>
       </c>
@@ -9945,7 +10328,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1714</v>
       </c>
@@ -9956,7 +10339,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1716</v>
       </c>
@@ -9967,7 +10350,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1718</v>
       </c>
@@ -9978,7 +10361,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1720</v>
       </c>
@@ -9989,7 +10372,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1722</v>
       </c>
@@ -10000,7 +10383,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1723</v>
       </c>
@@ -10011,7 +10394,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1725</v>
       </c>
@@ -10022,7 +10405,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1726</v>
       </c>
@@ -10033,7 +10416,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>947</v>
       </c>
@@ -10041,7 +10424,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>961</v>
       </c>
@@ -10049,7 +10432,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1730</v>
       </c>
@@ -10060,7 +10443,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1732</v>
       </c>
@@ -10071,7 +10454,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1734</v>
       </c>
@@ -10082,7 +10465,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1737</v>
       </c>
@@ -10093,7 +10476,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1740</v>
       </c>
@@ -10104,7 +10487,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1743</v>
       </c>
@@ -10115,7 +10498,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1746</v>
       </c>
@@ -10126,7 +10509,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1749</v>
       </c>
@@ -10137,7 +10520,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1751</v>
       </c>
@@ -10148,7 +10531,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>527</v>
       </c>
@@ -10159,7 +10542,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1754</v>
       </c>
@@ -10170,7 +10553,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>523</v>
       </c>
@@ -10181,7 +10564,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1757</v>
       </c>
@@ -10192,7 +10575,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1760</v>
       </c>
@@ -10203,7 +10586,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1763</v>
       </c>
@@ -10214,7 +10597,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1765</v>
       </c>
@@ -10225,7 +10608,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1768</v>
       </c>
@@ -10236,7 +10619,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1770</v>
       </c>
@@ -10244,7 +10627,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1772</v>
       </c>
@@ -10252,7 +10635,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1774</v>
       </c>
@@ -10260,7 +10643,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1776</v>
       </c>
@@ -10268,7 +10651,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1778</v>
       </c>
@@ -10276,7 +10659,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1780</v>
       </c>
@@ -10284,7 +10667,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1782</v>
       </c>
@@ -10292,7 +10675,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1811</v>
       </c>
@@ -10303,7 +10686,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1785</v>
       </c>
@@ -10311,7 +10694,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1787</v>
       </c>
@@ -10322,7 +10705,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1790</v>
       </c>
@@ -10330,7 +10713,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1792</v>
       </c>
@@ -10338,7 +10721,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1794</v>
       </c>
@@ -10349,7 +10732,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1797</v>
       </c>
@@ -10357,7 +10740,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1799</v>
       </c>
@@ -10368,7 +10751,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1801</v>
       </c>
@@ -10379,7 +10762,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1804</v>
       </c>
@@ -10387,7 +10770,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1806</v>
       </c>
@@ -10398,7 +10781,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1809</v>
       </c>
@@ -10409,3585 +10792,4123 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>544</v>
+      </c>
+      <c r="B457" t="s">
+        <v>543</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>566</v>
+      </c>
+      <c r="B458" t="s">
+        <v>565</v>
+      </c>
+      <c r="C458" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>437</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>237</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B507" t="s">
         <v>238</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C507" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>239</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B508" t="s">
         <v>240</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C508" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>241</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B509" t="s">
         <v>242</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C509" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
         <v>244</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B510" t="s">
         <v>245</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C510" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>247</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B511" t="s">
         <v>248</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C511" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
         <v>250</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B512" t="s">
         <v>251</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C512" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>253</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B513" t="s">
         <v>254</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C513" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
         <v>256</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B514" t="s">
         <v>257</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C514" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
         <v>259</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B515" t="s">
         <v>260</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C515" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
         <v>262</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B516" t="s">
         <v>263</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C516" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
         <v>265</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B517" t="s">
         <v>266</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C517" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>268</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B518" t="s">
         <v>269</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C518" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
         <v>271</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B519" t="s">
         <v>272</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C519" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
         <v>274</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B520" t="s">
         <v>275</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C520" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
         <v>277</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B521" t="s">
         <v>278</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C521" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
         <v>280</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B522" t="s">
         <v>281</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C522" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
         <v>283</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B523" t="s">
         <v>284</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C523" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
         <v>286</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B524" t="s">
         <v>287</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C524" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
         <v>289</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B525" t="s">
         <v>290</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C525" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
         <v>292</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B526" t="s">
         <v>293</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C526" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
         <v>295</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B527" t="s">
         <v>296</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C527" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
         <v>298</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B528" t="s">
         <v>299</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C528" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
         <v>300</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B529" t="s">
         <v>301</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C529" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
         <v>303</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B530" t="s">
         <v>304</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C530" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
         <v>305</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B531" t="s">
         <v>306</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C531" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
         <v>308</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B532" t="s">
         <v>309</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C532" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
         <v>311</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C533" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
         <v>313</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B534" t="s">
         <v>314</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C534" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
         <v>316</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B535" t="s">
         <v>317</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C535" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
         <v>319</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B536" t="s">
         <v>320</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C536" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
         <v>322</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C537" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
         <v>323</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B538" t="s">
         <v>324</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C538" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
         <v>326</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B539" t="s">
         <v>327</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C539" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
         <v>21</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B540" t="s">
         <v>329</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C540" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
         <v>331</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B541" t="s">
         <v>332</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C541" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
         <v>334</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C542" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
         <v>336</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C543" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
         <v>338</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C544" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
         <v>340</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C545" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
         <v>342</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B546" t="s">
         <v>343</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C546" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
         <v>345</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C547" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
         <v>347</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B548" t="s">
         <v>348</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C548" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
         <v>458</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B550" t="s">
         <v>457</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C550" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
         <v>461</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B551" t="s">
         <v>460</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C551" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
         <v>464</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B552" t="s">
         <v>463</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C552" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
         <v>466</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B553" t="s">
         <v>465</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C553" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
         <v>381</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B554" t="s">
         <v>382</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C554" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
         <v>469</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B555" t="s">
         <v>468</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C555" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
         <v>472</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B556" t="s">
         <v>471</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C556" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
         <v>398</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B557" t="s">
         <v>399</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C557" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
         <v>474</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B558" t="s">
         <v>473</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C558" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
         <v>476</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B559" t="s">
         <v>475</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C559" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
         <v>161</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B560" t="s">
         <v>162</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C560" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
         <v>479</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B561" t="s">
         <v>478</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C561" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
         <v>365</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B562" t="s">
         <v>366</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C562" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
         <v>482</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B563" t="s">
         <v>481</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C563" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
         <v>485</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B564" t="s">
         <v>484</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C564" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
         <v>488</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B565" t="s">
         <v>487</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C565" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
         <v>491</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B566" t="s">
         <v>490</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C566" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
         <v>494</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B567" t="s">
         <v>493</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C567" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
         <v>497</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B568" t="s">
         <v>496</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C568" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
         <v>500</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B569" t="s">
         <v>499</v>
       </c>
-      <c r="C513" t="s">
+      <c r="C569" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
         <v>503</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B570" t="s">
         <v>502</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C570" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
         <v>505</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B571" t="s">
         <v>504</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C571" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
         <v>508</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B572" t="s">
         <v>507</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C572" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
         <v>511</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B573" t="s">
         <v>510</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C573" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
         <v>513</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B574" t="s">
         <v>391</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C574" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
         <v>516</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B575" t="s">
         <v>515</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C575" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
         <v>518</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B576" t="s">
         <v>384</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C576" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
         <v>520</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B577" t="s">
         <v>519</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C577" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
         <v>523</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B578" t="s">
         <v>522</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C578" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
         <v>527</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B580" t="s">
         <v>526</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C580" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
         <v>530</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B581" t="s">
         <v>529</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C581" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
         <v>533</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B582" t="s">
         <v>532</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C582" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
         <v>536</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B583" t="s">
         <v>535</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C583" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
         <v>539</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B584" t="s">
         <v>538</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C584" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
         <v>542</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B585" t="s">
         <v>541</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C585" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
         <v>544</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B586" t="s">
         <v>543</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C586" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
         <v>546</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B587" t="s">
         <v>545</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C587" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
         <v>548</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B588" t="s">
         <v>547</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C588" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
         <v>550</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B589" t="s">
         <v>549</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C589" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
         <v>553</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B590" t="s">
         <v>552</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C590" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
         <v>555</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B591" t="s">
         <v>554</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C591" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
         <v>558</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B592" t="s">
         <v>557</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C592" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
         <v>560</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B593" t="s">
         <v>1127</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C593" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
         <v>563</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B594" t="s">
         <v>562</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C594" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
         <v>566</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B595" t="s">
         <v>565</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C595" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
         <v>568</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B596" t="s">
         <v>567</v>
       </c>
-      <c r="C540" t="s">
+      <c r="C596" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
         <v>571</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B597" t="s">
         <v>570</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C597" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
         <v>573</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B598" t="s">
         <v>572</v>
       </c>
-      <c r="C542" t="s">
+      <c r="C598" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
         <v>576</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B599" t="s">
         <v>575</v>
       </c>
-      <c r="C543" t="s">
+      <c r="C599" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
         <v>579</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B600" t="s">
         <v>578</v>
       </c>
-      <c r="C544" t="s">
+      <c r="C600" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
         <v>582</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B601" t="s">
         <v>581</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C601" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
         <v>583</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B602" t="s">
         <v>120</v>
       </c>
-      <c r="C546" t="s">
+      <c r="C602" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
         <v>586</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B603" t="s">
         <v>585</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C603" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
         <v>590</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B605" t="s">
         <v>589</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C605" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
         <v>593</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B606" t="s">
         <v>592</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C606" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
         <v>596</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B607" t="s">
         <v>595</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C607" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
         <v>599</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B608" t="s">
         <v>598</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C608" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
         <v>602</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B609" t="s">
         <v>601</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C609" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
         <v>605</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B610" t="s">
         <v>604</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C610" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
         <v>608</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B611" t="s">
         <v>607</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C611" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
         <v>611</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B612" t="s">
         <v>610</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C612" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
         <v>614</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B613" t="s">
         <v>613</v>
       </c>
-      <c r="C557" t="s">
+      <c r="C613" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
         <v>617</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B614" t="s">
         <v>616</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C614" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
         <v>620</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B615" t="s">
         <v>619</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C615" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
         <v>405</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B616" t="s">
         <v>406</v>
       </c>
-      <c r="C560" t="s">
+      <c r="C616" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
         <v>623</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B617" t="s">
         <v>622</v>
       </c>
-      <c r="C561" t="s">
+      <c r="C617" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
         <v>58</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B618" t="s">
         <v>59</v>
       </c>
-      <c r="C562" t="s">
+      <c r="C618" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
         <v>626</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B619" t="s">
         <v>625</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C619" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
         <v>629</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B620" t="s">
         <v>628</v>
       </c>
-      <c r="C564" t="s">
+      <c r="C620" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
         <v>61</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B621" t="s">
         <v>62</v>
       </c>
-      <c r="C565" t="s">
+      <c r="C621" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
         <v>633</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B622" t="s">
         <v>632</v>
       </c>
-      <c r="C566" t="s">
+      <c r="C622" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
         <v>636</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B623" t="s">
         <v>635</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C623" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
         <v>639</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B624" t="s">
         <v>638</v>
       </c>
-      <c r="C568" t="s">
+      <c r="C624" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
         <v>82</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B625" t="s">
         <v>83</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C625" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
         <v>642</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B626" t="s">
         <v>641</v>
       </c>
-      <c r="C570" t="s">
+      <c r="C626" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
         <v>645</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B627" t="s">
         <v>644</v>
       </c>
-      <c r="C571" t="s">
+      <c r="C627" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
         <v>648</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B628" t="s">
         <v>647</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C628" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
         <v>651</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B629" t="s">
         <v>650</v>
       </c>
-      <c r="C573" t="s">
+      <c r="C629" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
         <v>652</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B630" t="s">
         <v>70</v>
       </c>
-      <c r="C574" t="s">
+      <c r="C630" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
         <v>653</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B631" t="s">
         <v>84</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C631" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
         <v>654</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B632" t="s">
         <v>86</v>
       </c>
-      <c r="C576" t="s">
+      <c r="C632" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
         <v>403</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B633" t="s">
         <v>404</v>
       </c>
-      <c r="C577" t="s">
+      <c r="C633" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
         <v>657</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B634" t="s">
         <v>656</v>
       </c>
-      <c r="C578" t="s">
+      <c r="C634" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
         <v>660</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B635" t="s">
         <v>659</v>
       </c>
-      <c r="C579" t="s">
+      <c r="C635" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
         <v>661</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B636" t="s">
         <v>102</v>
       </c>
-      <c r="C580" t="s">
+      <c r="C636" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
         <v>664</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B637" t="s">
         <v>663</v>
       </c>
-      <c r="C581" t="s">
+      <c r="C637" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
         <v>666</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B638" t="s">
         <v>106</v>
       </c>
-      <c r="C582" t="s">
+      <c r="C638" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
         <v>668</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B639" t="s">
         <v>667</v>
       </c>
-      <c r="C583" t="s">
+      <c r="C639" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
         <v>671</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B640" t="s">
         <v>670</v>
       </c>
-      <c r="C584" t="s">
+      <c r="C640" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
         <v>675</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B642" t="s">
         <v>674</v>
       </c>
-      <c r="C586" t="s">
+      <c r="C642" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
         <v>678</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B643" t="s">
         <v>677</v>
       </c>
-      <c r="C587" t="s">
+      <c r="C643" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
         <v>681</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B644" t="s">
         <v>680</v>
       </c>
-      <c r="C588" t="s">
+      <c r="C644" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
         <v>684</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B645" t="s">
         <v>683</v>
       </c>
-      <c r="C589" t="s">
+      <c r="C645" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
         <v>687</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B646" t="s">
         <v>686</v>
       </c>
-      <c r="C590" t="s">
+      <c r="C646" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
         <v>690</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B647" t="s">
         <v>689</v>
       </c>
-      <c r="C591" t="s">
+      <c r="C647" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
         <v>693</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B648" t="s">
         <v>692</v>
       </c>
-      <c r="C592" t="s">
+      <c r="C648" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
         <v>696</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B649" t="s">
         <v>695</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C649" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
         <v>699</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B650" t="s">
         <v>698</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C650" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
         <v>702</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B651" t="s">
         <v>701</v>
       </c>
-      <c r="C595" t="s">
+      <c r="C651" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
         <v>705</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B652" t="s">
         <v>704</v>
       </c>
-      <c r="C596" t="s">
+      <c r="C652" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
         <v>401</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B653" t="s">
         <v>707</v>
       </c>
-      <c r="C597" t="s">
+      <c r="C653" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
         <v>710</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B654" t="s">
         <v>709</v>
       </c>
-      <c r="C598" t="s">
+      <c r="C654" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
         <v>713</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B655" t="s">
         <v>712</v>
       </c>
-      <c r="C599" t="s">
+      <c r="C655" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
         <v>716</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B656" t="s">
         <v>715</v>
       </c>
-      <c r="C600" t="s">
+      <c r="C656" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
         <v>719</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B657" t="s">
         <v>718</v>
       </c>
-      <c r="C601" t="s">
+      <c r="C657" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
         <v>721</v>
       </c>
-      <c r="B603">
+      <c r="B659">
         <v>1</v>
       </c>
-      <c r="C603" t="s">
+      <c r="C659" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
         <v>722</v>
       </c>
-      <c r="B604">
+      <c r="B660">
         <v>2</v>
       </c>
-      <c r="C604" t="s">
+      <c r="C660" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
         <v>723</v>
       </c>
-      <c r="B605">
+      <c r="B661">
         <v>3</v>
       </c>
-      <c r="C605" t="s">
+      <c r="C661" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
         <v>724</v>
       </c>
-      <c r="B606">
+      <c r="B662">
         <v>4</v>
       </c>
-      <c r="C606" t="s">
+      <c r="C662" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
         <v>725</v>
       </c>
-      <c r="B607">
+      <c r="B663">
         <v>5</v>
       </c>
-      <c r="C607" t="s">
+      <c r="C663" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
         <v>726</v>
       </c>
-      <c r="B608">
+      <c r="B664">
         <v>6</v>
       </c>
-      <c r="C608" t="s">
+      <c r="C664" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
         <v>727</v>
       </c>
-      <c r="B609">
+      <c r="B665">
         <v>7</v>
       </c>
-      <c r="C609" t="s">
+      <c r="C665" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
         <v>728</v>
       </c>
-      <c r="B610">
+      <c r="B666">
         <v>8</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C666" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
         <v>729</v>
       </c>
-      <c r="B611">
+      <c r="B667">
         <v>9</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C667" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
         <v>730</v>
       </c>
-      <c r="B612">
+      <c r="B668">
         <v>10</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C668" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
         <v>1007</v>
       </c>
-      <c r="B613">
+      <c r="B669">
         <v>20</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C669" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
         <v>1008</v>
       </c>
-      <c r="B614">
+      <c r="B670">
         <v>30</v>
       </c>
-      <c r="C614" t="s">
+      <c r="C670" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
         <v>1009</v>
       </c>
-      <c r="B615">
+      <c r="B671">
         <v>40</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C671" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
         <v>1010</v>
       </c>
-      <c r="B616">
+      <c r="B672">
         <v>50</v>
       </c>
-      <c r="C616" t="s">
+      <c r="C672" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
         <v>1011</v>
       </c>
-      <c r="B617">
+      <c r="B673">
         <v>60</v>
       </c>
-      <c r="C617" t="s">
+      <c r="C673" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
         <v>1012</v>
       </c>
-      <c r="B618">
+      <c r="B674">
         <v>70</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C674" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
         <v>1013</v>
       </c>
-      <c r="B619">
+      <c r="B675">
         <v>80</v>
       </c>
-      <c r="C619" t="s">
+      <c r="C675" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
         <v>1014</v>
       </c>
-      <c r="B620">
+      <c r="B676">
         <v>90</v>
       </c>
-      <c r="C620" t="s">
+      <c r="C676" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
         <v>430</v>
       </c>
-      <c r="B621">
+      <c r="B677">
         <v>100</v>
       </c>
-      <c r="C621" t="s">
+      <c r="C677" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
         <v>1015</v>
       </c>
-      <c r="B622">
+      <c r="B678">
         <v>200</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C678" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
         <v>1016</v>
       </c>
-      <c r="B623">
+      <c r="B679">
         <v>300</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C679" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
         <v>1017</v>
       </c>
-      <c r="B624">
+      <c r="B680">
         <v>400</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C680" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
         <v>1018</v>
       </c>
-      <c r="B625">
+      <c r="B681">
         <v>500</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C681" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
         <v>1019</v>
       </c>
-      <c r="B626">
+      <c r="B682">
         <v>600</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C682" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
         <v>1020</v>
       </c>
-      <c r="B627">
+      <c r="B683">
         <v>700</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C683" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
         <v>1021</v>
       </c>
-      <c r="B628">
+      <c r="B684">
         <v>800</v>
       </c>
-      <c r="C628" t="s">
+      <c r="C684" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
         <v>1022</v>
       </c>
-      <c r="B629">
+      <c r="B685">
         <v>900</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C685" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
         <v>432</v>
       </c>
-      <c r="B630">
+      <c r="B686">
         <v>1000</v>
       </c>
-      <c r="C630" t="s">
+      <c r="C686" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
         <v>1023</v>
       </c>
-      <c r="B631">
+      <c r="B687">
         <v>2000</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C687" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
         <v>1024</v>
       </c>
-      <c r="B632">
+      <c r="B688">
         <v>3000</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C688" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
         <v>1025</v>
       </c>
-      <c r="B633">
+      <c r="B689">
         <v>4000</v>
       </c>
-      <c r="C633" t="s">
+      <c r="C689" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
         <v>1026</v>
       </c>
-      <c r="B634">
+      <c r="B690">
         <v>5000</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C690" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
         <v>1027</v>
       </c>
-      <c r="B635">
+      <c r="B691">
         <v>6000</v>
       </c>
-      <c r="C635" t="s">
+      <c r="C691" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
         <v>1028</v>
       </c>
-      <c r="B636">
+      <c r="B692">
         <v>7000</v>
       </c>
-      <c r="C636" t="s">
+      <c r="C692" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
         <v>1029</v>
       </c>
-      <c r="B637">
+      <c r="B693">
         <v>8000</v>
       </c>
-      <c r="C637" t="s">
+      <c r="C693" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
         <v>1030</v>
       </c>
-      <c r="B638">
+      <c r="B694">
         <v>9000</v>
       </c>
-      <c r="C638" t="s">
+      <c r="C694" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
         <v>1031</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B695" t="s">
         <v>1162</v>
       </c>
-      <c r="C639" t="s">
+      <c r="C695" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
         <v>1032</v>
       </c>
-      <c r="B640">
+      <c r="B696">
         <v>20000</v>
       </c>
-      <c r="C640" t="s">
+      <c r="C696" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
         <v>1033</v>
       </c>
-      <c r="B641">
+      <c r="B697">
         <v>30000</v>
       </c>
-      <c r="C641" t="s">
+      <c r="C697" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
         <v>1034</v>
       </c>
-      <c r="B642">
+      <c r="B698">
         <v>40000</v>
       </c>
-      <c r="C642" t="s">
+      <c r="C698" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
         <v>1035</v>
       </c>
-      <c r="B643">
+      <c r="B699">
         <v>50000</v>
       </c>
-      <c r="C643" t="s">
+      <c r="C699" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
         <v>1036</v>
       </c>
-      <c r="B644">
+      <c r="B700">
         <v>60000</v>
       </c>
-      <c r="C644" t="s">
+      <c r="C700" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
         <v>1037</v>
       </c>
-      <c r="B645">
+      <c r="B701">
         <v>70000</v>
       </c>
-      <c r="C645" t="s">
+      <c r="C701" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
         <v>1038</v>
       </c>
-      <c r="B646">
+      <c r="B702">
         <v>80000</v>
       </c>
-      <c r="C646" t="s">
+      <c r="C702" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
         <v>1039</v>
       </c>
-      <c r="B647">
+      <c r="B703">
         <v>90000</v>
       </c>
-      <c r="C647" t="s">
+      <c r="C703" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
         <v>434</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B704" t="s">
         <v>435</v>
       </c>
-      <c r="C648" t="s">
+      <c r="C704" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
         <v>1040</v>
       </c>
-      <c r="B649" t="s">
+      <c r="B705" t="s">
         <v>1171</v>
       </c>
-      <c r="C649" t="s">
+      <c r="C705" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
         <v>1172</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B706" t="s">
         <v>1173</v>
       </c>
-      <c r="C650" t="s">
+      <c r="C706" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
         <v>733</v>
       </c>
-      <c r="B652" t="s">
+      <c r="B708" t="s">
         <v>732</v>
       </c>
-      <c r="C652" t="s">
+      <c r="C708" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
         <v>736</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B709" t="s">
         <v>735</v>
       </c>
-      <c r="C653" t="s">
+      <c r="C709" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
         <v>739</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B710" t="s">
         <v>738</v>
       </c>
-      <c r="C654" t="s">
+      <c r="C710" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
         <v>742</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B711" t="s">
         <v>741</v>
       </c>
-      <c r="C655" t="s">
+      <c r="C711" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
         <v>745</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B712" t="s">
         <v>744</v>
       </c>
-      <c r="C656" t="s">
+      <c r="C712" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
         <v>748</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B713" t="s">
         <v>747</v>
       </c>
-      <c r="C657" t="s">
+      <c r="C713" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
         <v>751</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B714" t="s">
         <v>750</v>
       </c>
-      <c r="C658" t="s">
+      <c r="C714" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
         <v>754</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B715" t="s">
         <v>753</v>
       </c>
-      <c r="C659" t="s">
+      <c r="C715" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
         <v>757</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B716" t="s">
         <v>756</v>
       </c>
-      <c r="C660" t="s">
+      <c r="C716" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
         <v>760</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B717" t="s">
         <v>759</v>
       </c>
-      <c r="C661" t="s">
+      <c r="C717" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
         <v>763</v>
       </c>
-      <c r="B662" t="s">
+      <c r="B718" t="s">
         <v>762</v>
       </c>
-      <c r="C662" t="s">
+      <c r="C718" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
         <v>766</v>
       </c>
-      <c r="B663" t="s">
+      <c r="B719" t="s">
         <v>765</v>
       </c>
-      <c r="C663" t="s">
+      <c r="C719" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
         <v>769</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B720" t="s">
         <v>768</v>
       </c>
-      <c r="C664" t="s">
+      <c r="C720" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
         <v>772</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B721" t="s">
         <v>771</v>
       </c>
-      <c r="C665" t="s">
+      <c r="C721" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
         <v>775</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B722" t="s">
         <v>774</v>
       </c>
-      <c r="C666" t="s">
+      <c r="C722" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
         <v>777</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B723" t="s">
         <v>776</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C723" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
         <v>780</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B724" t="s">
         <v>779</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C724" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
         <v>783</v>
       </c>
-      <c r="B669" t="s">
+      <c r="B725" t="s">
         <v>782</v>
       </c>
-      <c r="C669" t="s">
+      <c r="C725" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
         <v>786</v>
       </c>
-      <c r="B670" t="s">
+      <c r="B726" t="s">
         <v>785</v>
       </c>
-      <c r="C670" t="s">
+      <c r="C726" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
         <v>789</v>
       </c>
-      <c r="B671" t="s">
+      <c r="B727" t="s">
         <v>788</v>
       </c>
-      <c r="C671" t="s">
+      <c r="C727" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
         <v>792</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B728" t="s">
         <v>791</v>
       </c>
-      <c r="C672" t="s">
+      <c r="C728" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
         <v>795</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B729" t="s">
         <v>794</v>
       </c>
-      <c r="C673" t="s">
+      <c r="C729" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
         <v>798</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B730" t="s">
         <v>797</v>
       </c>
-      <c r="C674" t="s">
+      <c r="C730" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
         <v>801</v>
       </c>
-      <c r="B675" t="s">
+      <c r="B731" t="s">
         <v>800</v>
       </c>
-      <c r="C675" t="s">
+      <c r="C731" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
         <v>804</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B732" t="s">
         <v>803</v>
       </c>
-      <c r="C676" t="s">
+      <c r="C732" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
         <v>807</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B733" t="s">
         <v>806</v>
       </c>
-      <c r="C677" t="s">
+      <c r="C733" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
         <v>810</v>
       </c>
-      <c r="B678" t="s">
+      <c r="B734" t="s">
         <v>809</v>
       </c>
-      <c r="C678" t="s">
+      <c r="C734" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
         <v>813</v>
       </c>
-      <c r="B679" t="s">
+      <c r="B735" t="s">
         <v>812</v>
       </c>
-      <c r="C679" t="s">
+      <c r="C735" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
         <v>816</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B736" t="s">
         <v>815</v>
       </c>
-      <c r="C680" t="s">
+      <c r="C736" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
         <v>819</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B737" t="s">
         <v>818</v>
       </c>
-      <c r="C681" t="s">
+      <c r="C737" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
         <v>822</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B738" t="s">
         <v>821</v>
       </c>
-      <c r="C682" t="s">
+      <c r="C738" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
         <v>825</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B739" t="s">
         <v>824</v>
       </c>
-      <c r="C683" t="s">
+      <c r="C739" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
         <v>828</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B740" t="s">
         <v>827</v>
       </c>
-      <c r="C684" t="s">
+      <c r="C740" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
         <v>831</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B741" t="s">
         <v>830</v>
       </c>
-      <c r="C685" t="s">
+      <c r="C741" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
         <v>834</v>
       </c>
-      <c r="B686" t="s">
+      <c r="B742" t="s">
         <v>833</v>
       </c>
-      <c r="C686" t="s">
+      <c r="C742" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
         <v>837</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B743" t="s">
         <v>836</v>
       </c>
-      <c r="C687" t="s">
+      <c r="C743" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
         <v>840</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B744" t="s">
         <v>839</v>
       </c>
-      <c r="C688" t="s">
+      <c r="C744" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
         <v>843</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B745" t="s">
         <v>842</v>
       </c>
-      <c r="C689" t="s">
+      <c r="C745" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
         <v>846</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B746" t="s">
         <v>845</v>
       </c>
-      <c r="C690" t="s">
+      <c r="C746" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
         <v>849</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B747" t="s">
         <v>848</v>
       </c>
-      <c r="C691" t="s">
+      <c r="C747" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
         <v>852</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B748" t="s">
         <v>851</v>
       </c>
-      <c r="C692" t="s">
+      <c r="C748" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
         <v>855</v>
       </c>
-      <c r="B693" t="s">
+      <c r="B749" t="s">
         <v>854</v>
       </c>
-      <c r="C693" t="s">
+      <c r="C749" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
         <v>859</v>
       </c>
-      <c r="B695" t="s">
+      <c r="B751" t="s">
         <v>858</v>
       </c>
-      <c r="C695" t="s">
+      <c r="C751" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
         <v>862</v>
       </c>
-      <c r="B696" t="s">
+      <c r="B752" t="s">
         <v>861</v>
       </c>
-      <c r="C696" t="s">
+      <c r="C752" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
         <v>865</v>
       </c>
-      <c r="B697" t="s">
+      <c r="B753" t="s">
         <v>864</v>
       </c>
-      <c r="C697" t="s">
+      <c r="C753" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
         <v>868</v>
       </c>
-      <c r="B698" t="s">
+      <c r="B754" t="s">
         <v>867</v>
       </c>
-      <c r="C698" t="s">
+      <c r="C754" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
         <v>871</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B755" t="s">
         <v>870</v>
       </c>
-      <c r="C699" t="s">
+      <c r="C755" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
         <v>859</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B756" t="s">
         <v>873</v>
       </c>
-      <c r="C700" t="s">
+      <c r="C756" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
         <v>876</v>
       </c>
-      <c r="B701" t="s">
+      <c r="B757" t="s">
         <v>875</v>
       </c>
-      <c r="C701" t="s">
+      <c r="C757" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
         <v>879</v>
       </c>
-      <c r="B702" t="s">
+      <c r="B758" t="s">
         <v>878</v>
       </c>
-      <c r="C702" t="s">
+      <c r="C758" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
         <v>882</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B759" t="s">
         <v>881</v>
       </c>
-      <c r="C703" t="s">
+      <c r="C759" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
         <v>885</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B760" t="s">
         <v>884</v>
       </c>
-      <c r="C704" t="s">
+      <c r="C760" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
         <v>888</v>
       </c>
-      <c r="B705" t="s">
+      <c r="B761" t="s">
         <v>887</v>
       </c>
-      <c r="C705" t="s">
+      <c r="C761" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
         <v>891</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B762" t="s">
         <v>890</v>
       </c>
-      <c r="C706" t="s">
+      <c r="C762" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
         <v>894</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B763" t="s">
         <v>893</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C763" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
         <v>897</v>
       </c>
-      <c r="B708" t="s">
+      <c r="B764" t="s">
         <v>896</v>
       </c>
-      <c r="C708" t="s">
+      <c r="C764" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
         <v>900</v>
       </c>
-      <c r="B709" t="s">
+      <c r="B765" t="s">
         <v>899</v>
       </c>
-      <c r="C709" t="s">
+      <c r="C765" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
         <v>903</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B766" t="s">
         <v>902</v>
       </c>
-      <c r="C710" t="s">
+      <c r="C766" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
         <v>903</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B767" t="s">
         <v>905</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C767" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
         <v>908</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B768" t="s">
         <v>907</v>
       </c>
-      <c r="C712" t="s">
+      <c r="C768" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
         <v>911</v>
       </c>
-      <c r="B713" t="s">
+      <c r="B769" t="s">
         <v>910</v>
       </c>
-      <c r="C713" t="s">
+      <c r="C769" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
         <v>914</v>
       </c>
-      <c r="B714" t="s">
+      <c r="B770" t="s">
         <v>913</v>
       </c>
-      <c r="C714" t="s">
+      <c r="C770" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
         <v>917</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B771" t="s">
         <v>916</v>
       </c>
-      <c r="C715" t="s">
+      <c r="C771" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
         <v>920</v>
       </c>
-      <c r="B716" t="s">
+      <c r="B772" t="s">
         <v>919</v>
       </c>
-      <c r="C716" t="s">
+      <c r="C772" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
         <v>923</v>
       </c>
-      <c r="B717" t="s">
+      <c r="B773" t="s">
         <v>922</v>
       </c>
-      <c r="C717" t="s">
+      <c r="C773" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
         <v>926</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B774" t="s">
         <v>925</v>
       </c>
-      <c r="C718" t="s">
+      <c r="C774" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
         <v>929</v>
       </c>
-      <c r="B719" t="s">
+      <c r="B775" t="s">
         <v>928</v>
       </c>
-      <c r="C719" t="s">
+      <c r="C775" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
         <v>932</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B776" t="s">
         <v>931</v>
       </c>
-      <c r="C720" t="s">
+      <c r="C776" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
         <v>935</v>
       </c>
-      <c r="B721" t="s">
+      <c r="B777" t="s">
         <v>934</v>
       </c>
-      <c r="C721" t="s">
+      <c r="C777" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
         <v>938</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B778" t="s">
         <v>937</v>
       </c>
-      <c r="C722" t="s">
+      <c r="C778" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
         <v>941</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B779" t="s">
         <v>940</v>
       </c>
-      <c r="C723" t="s">
+      <c r="C779" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
         <v>944</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B780" t="s">
         <v>943</v>
       </c>
-      <c r="C724" t="s">
+      <c r="C780" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
         <v>947</v>
       </c>
-      <c r="B725" t="s">
+      <c r="B781" t="s">
         <v>946</v>
       </c>
-      <c r="C725" t="s">
+      <c r="C781" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
         <v>949</v>
       </c>
-      <c r="B726" t="s">
+      <c r="B782" t="s">
         <v>949</v>
       </c>
-      <c r="C726" t="s">
+      <c r="C782" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
         <v>952</v>
       </c>
-      <c r="B727" t="s">
+      <c r="B783" t="s">
         <v>951</v>
       </c>
-      <c r="C727" t="s">
+      <c r="C783" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
         <v>955</v>
       </c>
-      <c r="B728" t="s">
+      <c r="B784" t="s">
         <v>954</v>
       </c>
-      <c r="C728" t="s">
+      <c r="C784" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
         <v>958</v>
       </c>
-      <c r="B729" t="s">
+      <c r="B785" t="s">
         <v>957</v>
       </c>
-      <c r="C729" t="s">
+      <c r="C785" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
         <v>961</v>
       </c>
-      <c r="B730" t="s">
+      <c r="B786" t="s">
         <v>960</v>
       </c>
-      <c r="C730" t="s">
+      <c r="C786" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
         <v>963</v>
       </c>
-      <c r="C731" t="s">
+      <c r="C787" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
         <v>966</v>
       </c>
-      <c r="B732" t="s">
+      <c r="B788" t="s">
         <v>965</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C788" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
         <v>969</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B789" t="s">
         <v>968</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C789" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
         <v>966</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B790" t="s">
         <v>971</v>
       </c>
-      <c r="C734" t="s">
+      <c r="C790" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
         <v>974</v>
       </c>
-      <c r="B735" t="s">
+      <c r="B791" t="s">
         <v>973</v>
       </c>
-      <c r="C735" t="s">
+      <c r="C791" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
         <v>977</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B792" t="s">
         <v>976</v>
       </c>
-      <c r="C736" t="s">
+      <c r="C792" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
         <v>980</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B793" t="s">
         <v>979</v>
       </c>
-      <c r="C737" t="s">
+      <c r="C793" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
         <v>983</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B794" t="s">
         <v>982</v>
       </c>
-      <c r="C738" t="s">
+      <c r="C794" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
         <v>986</v>
       </c>
-      <c r="B739" t="s">
+      <c r="B795" t="s">
         <v>985</v>
       </c>
-      <c r="C739" t="s">
+      <c r="C795" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
         <v>989</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B796" t="s">
         <v>988</v>
       </c>
-      <c r="C740" t="s">
+      <c r="C796" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
         <v>991</v>
       </c>
-      <c r="C741" t="s">
+      <c r="C797" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
         <v>994</v>
       </c>
-      <c r="B742" t="s">
+      <c r="B798" t="s">
         <v>993</v>
       </c>
-      <c r="C742" t="s">
+      <c r="C798" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
         <v>997</v>
       </c>
-      <c r="B743" t="s">
+      <c r="B799" t="s">
         <v>996</v>
       </c>
-      <c r="C743" t="s">
+      <c r="C799" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
         <v>999</v>
       </c>
-      <c r="B744" t="s">
+      <c r="B800" t="s">
         <v>998</v>
       </c>
-      <c r="C744" t="s">
+      <c r="C800" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
         <v>1002</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B801" t="s">
         <v>1001</v>
       </c>
-      <c r="C745" t="s">
+      <c r="C801" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
         <v>1005</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B802" t="s">
         <v>1004</v>
       </c>
-      <c r="C746" t="s">
+      <c r="C802" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
         <v>1041</v>
       </c>
-      <c r="B748" t="s">
+      <c r="B804" t="s">
         <v>1042</v>
       </c>
-      <c r="C748" t="s">
+      <c r="C804" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
         <v>1044</v>
       </c>
-      <c r="B749" t="s">
+      <c r="B805" t="s">
         <v>1045</v>
       </c>
-      <c r="C749" t="s">
+      <c r="C805" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
         <v>1047</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B806" t="s">
         <v>1048</v>
       </c>
-      <c r="C750" t="s">
+      <c r="C806" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
         <v>1050</v>
       </c>
-      <c r="B751" t="s">
+      <c r="B807" t="s">
         <v>1051</v>
       </c>
-      <c r="C751" t="s">
+      <c r="C807" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
         <v>1053</v>
       </c>
-      <c r="B752" t="s">
+      <c r="B808" t="s">
         <v>1054</v>
       </c>
-      <c r="C752" t="s">
+      <c r="C808" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
         <v>1056</v>
       </c>
-      <c r="B753" t="s">
+      <c r="B809" t="s">
         <v>1057</v>
       </c>
-      <c r="C753" t="s">
+      <c r="C809" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
         <v>1059</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B810" t="s">
         <v>1060</v>
       </c>
-      <c r="C754" t="s">
+      <c r="C810" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
         <v>1062</v>
       </c>
-      <c r="B755" t="s">
+      <c r="B811" t="s">
         <v>1063</v>
       </c>
-      <c r="C755" t="s">
+      <c r="C811" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
         <v>1064</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B812" t="s">
         <v>1065</v>
       </c>
-      <c r="C756" t="s">
+      <c r="C812" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
         <v>1066</v>
       </c>
-      <c r="B757" t="s">
+      <c r="B813" t="s">
         <v>1067</v>
       </c>
-      <c r="C757" t="s">
+      <c r="C813" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
         <v>1068</v>
       </c>
-      <c r="B758" t="s">
+      <c r="B814" t="s">
         <v>1069</v>
       </c>
-      <c r="C758" t="s">
+      <c r="C814" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
         <v>1070</v>
       </c>
-      <c r="B759" t="s">
+      <c r="B815" t="s">
         <v>1071</v>
       </c>
-      <c r="C759" t="s">
+      <c r="C815" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
         <v>1072</v>
       </c>
-      <c r="B760" t="s">
+      <c r="B816" t="s">
         <v>1073</v>
       </c>
-      <c r="C760" t="s">
+      <c r="C816" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
         <v>1074</v>
       </c>
-      <c r="B761" t="s">
+      <c r="B817" t="s">
         <v>1075</v>
       </c>
-      <c r="C761" t="s">
+      <c r="C817" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
         <v>1076</v>
       </c>
-      <c r="B762" t="s">
+      <c r="B818" t="s">
         <v>1077</v>
       </c>
-      <c r="C762" t="s">
+      <c r="C818" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
         <v>1078</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B819" t="s">
         <v>1079</v>
       </c>
-      <c r="C763" t="s">
+      <c r="C819" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
         <v>1080</v>
       </c>
-      <c r="B764" t="s">
+      <c r="B820" t="s">
         <v>1081</v>
       </c>
-      <c r="C764" t="s">
+      <c r="C820" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
         <v>1082</v>
       </c>
-      <c r="B765" t="s">
+      <c r="B821" t="s">
         <v>1083</v>
       </c>
-      <c r="C765" t="s">
+      <c r="C821" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
         <v>1084</v>
       </c>
-      <c r="B766" t="s">
+      <c r="B822" t="s">
         <v>1085</v>
       </c>
-      <c r="C766" t="s">
+      <c r="C822" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
         <v>1086</v>
       </c>
-      <c r="B767" t="s">
+      <c r="B823" t="s">
         <v>1087</v>
       </c>
-      <c r="C767" t="s">
+      <c r="C823" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
         <v>1088</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B824" t="s">
         <v>1089</v>
       </c>
-      <c r="C768" t="s">
+      <c r="C824" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
         <v>1090</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B825" t="s">
         <v>1091</v>
       </c>
-      <c r="C769" t="s">
+      <c r="C825" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
         <v>1092</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B826" t="s">
         <v>1093</v>
       </c>
-      <c r="C770" t="s">
+      <c r="C826" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
         <v>1094</v>
       </c>
-      <c r="B771" t="s">
+      <c r="B827" t="s">
         <v>1095</v>
       </c>
-      <c r="C771" t="s">
+      <c r="C827" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
         <v>1096</v>
       </c>
-      <c r="B772" t="s">
+      <c r="B828" t="s">
         <v>1097</v>
       </c>
-      <c r="C772" t="s">
+      <c r="C828" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
         <v>1098</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B829" t="s">
         <v>1099</v>
       </c>
-      <c r="C773" t="s">
+      <c r="C829" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
         <v>1100</v>
       </c>
-      <c r="B774" t="s">
+      <c r="B830" t="s">
         <v>1101</v>
       </c>
-      <c r="C774" t="s">
+      <c r="C830" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
         <v>1103</v>
       </c>
-      <c r="B775" t="s">
+      <c r="B831" t="s">
         <v>1104</v>
       </c>
-      <c r="C775" t="s">
+      <c r="C831" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
         <v>1106</v>
       </c>
-      <c r="B776" t="s">
+      <c r="B832" t="s">
         <v>1107</v>
       </c>
-      <c r="C776" t="s">
+      <c r="C832" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
         <v>1109</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B833" t="s">
         <v>1110</v>
       </c>
-      <c r="C777" t="s">
+      <c r="C833" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
         <v>1112</v>
       </c>
-      <c r="B778" t="s">
+      <c r="B834" t="s">
         <v>1113</v>
       </c>
-      <c r="C778" t="s">
+      <c r="C834" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
         <v>1115</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B835" t="s">
         <v>1116</v>
       </c>
-      <c r="C779" t="s">
+      <c r="C835" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
         <v>1118</v>
       </c>
-      <c r="B780" t="s">
+      <c r="B836" t="s">
         <v>1119</v>
       </c>
-      <c r="C780" t="s">
+      <c r="C836" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
         <v>1121</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B837" t="s">
         <v>1122</v>
       </c>
-      <c r="C781" t="s">
+      <c r="C837" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
         <v>1124</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B838" t="s">
         <v>1125</v>
       </c>
-      <c r="C782" t="s">
+      <c r="C838" t="s">
         <v>1126</v>
       </c>
     </row>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B5DB60-889D-46CE-873D-D39AE0B4E5A7}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5E253E-8019-49BB-B6D3-A47D571B41E5}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="2340" windowWidth="16140" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="2047">
   <si>
     <t>わたし</t>
   </si>
@@ -6019,6 +6019,328 @@
   </si>
   <si>
     <t>下次請再叫我(婉轉拒絕對方的邀請)</t>
+  </si>
+  <si>
+    <t>*第10課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>います</t>
+  </si>
+  <si>
+    <t>有/在(表示生物的存在)</t>
+  </si>
+  <si>
+    <t>有/在(表示無生物的存在)</t>
+  </si>
+  <si>
+    <t>いろいろ(な)</t>
+  </si>
+  <si>
+    <t>各式各樣(的)</t>
+  </si>
+  <si>
+    <t>おとこの ひと</t>
+  </si>
+  <si>
+    <t>男の人</t>
+  </si>
+  <si>
+    <t>男子</t>
+  </si>
+  <si>
+    <t>おんなの ひと</t>
+  </si>
+  <si>
+    <t>女の人</t>
+  </si>
+  <si>
+    <t>女子</t>
+  </si>
+  <si>
+    <t>おとこの こ</t>
+  </si>
+  <si>
+    <t>男の子</t>
+  </si>
+  <si>
+    <t>男孩</t>
+  </si>
+  <si>
+    <t>おんなの こ</t>
+  </si>
+  <si>
+    <t>女の子</t>
+  </si>
+  <si>
+    <t>女孩</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>ねこ</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>貓</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>樹/木頭</t>
+  </si>
+  <si>
+    <t>もの</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>物品/東西</t>
+  </si>
+  <si>
+    <t>フィルム</t>
+  </si>
+  <si>
+    <t>底片/膠卷</t>
+  </si>
+  <si>
+    <t>でんち</t>
+  </si>
+  <si>
+    <t>電池</t>
+  </si>
+  <si>
+    <t>はこ</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>盒子</t>
+  </si>
+  <si>
+    <t>スイッチ</t>
+  </si>
+  <si>
+    <t>開關</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>餐桌</t>
+  </si>
+  <si>
+    <t>べッド</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>たな</t>
+  </si>
+  <si>
+    <t>棚</t>
+  </si>
+  <si>
+    <t>架子</t>
+  </si>
+  <si>
+    <t>ドア</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>窓</t>
+  </si>
+  <si>
+    <t>窗戶</t>
+  </si>
+  <si>
+    <t>ポスト</t>
+  </si>
+  <si>
+    <t>郵筒/信箱</t>
+  </si>
+  <si>
+    <t>ビル</t>
+  </si>
+  <si>
+    <t>大廈/大樓</t>
+  </si>
+  <si>
+    <t>咖啡館</t>
+  </si>
+  <si>
+    <t>ほんや</t>
+  </si>
+  <si>
+    <t>本屋</t>
+  </si>
+  <si>
+    <t>書店</t>
+  </si>
+  <si>
+    <t>～や</t>
+  </si>
+  <si>
+    <t>～屋</t>
+  </si>
+  <si>
+    <t>～店</t>
+  </si>
+  <si>
+    <t>のりば</t>
+  </si>
+  <si>
+    <t>乗り場</t>
+  </si>
+  <si>
+    <t>搭乘火車,計程車等交通工具的場所</t>
+  </si>
+  <si>
+    <t>けん</t>
+  </si>
+  <si>
+    <t>県</t>
+  </si>
+  <si>
+    <t>縣</t>
+  </si>
+  <si>
+    <t>上/上面</t>
+  </si>
+  <si>
+    <t>下/下面</t>
+  </si>
+  <si>
+    <t>前/前面</t>
+  </si>
+  <si>
+    <t>後/後面</t>
+  </si>
+  <si>
+    <t>右(邊)</t>
+  </si>
+  <si>
+    <t>左(邊)</t>
+  </si>
+  <si>
+    <t>裡面/中間</t>
+  </si>
+  <si>
+    <t>隔壁/旁邊</t>
+  </si>
+  <si>
+    <t>ちかく</t>
+  </si>
+  <si>
+    <t>近く</t>
+  </si>
+  <si>
+    <t>あいだ</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>之間/中間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">～や </t>
+  </si>
+  <si>
+    <t>～啦</t>
+  </si>
+  <si>
+    <t>～など</t>
+  </si>
+  <si>
+    <t>～等</t>
+  </si>
+  <si>
+    <t>いちばん～</t>
+  </si>
+  <si>
+    <t>最～</t>
+  </si>
+  <si>
+    <t>いちばん うえ</t>
+  </si>
+  <si>
+    <t>最上面</t>
+  </si>
+  <si>
+    <t>…だんめ</t>
+  </si>
+  <si>
+    <t>…段目</t>
+  </si>
+  <si>
+    <t>第…層(架子的第…層)</t>
+  </si>
+  <si>
+    <t>かいわ</t>
+  </si>
+  <si>
+    <t>会話</t>
+  </si>
+  <si>
+    <t>會話</t>
+  </si>
+  <si>
+    <t>(どうも)すみません</t>
+  </si>
+  <si>
+    <t>謝謝</t>
+  </si>
+  <si>
+    <t>チリソース</t>
+  </si>
+  <si>
+    <t>辣醬</t>
+  </si>
+  <si>
+    <t>奥</t>
+  </si>
+  <si>
+    <t>スパイス・コーナー</t>
+  </si>
+  <si>
+    <t>香辣調味料專櫃</t>
+  </si>
+  <si>
+    <t>とう きょう</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>とう きょう ディズニーランド</t>
+  </si>
+  <si>
+    <t>東京ディズニーランド</t>
+  </si>
+  <si>
+    <t>東京迪士尼樂園</t>
   </si>
 </sst>
 </file>
@@ -6376,10 +6698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C838"/>
+  <dimension ref="A1:C891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C451" sqref="C451"/>
+    <sheetView tabSelected="1" topLeftCell="A528" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -11332,3583 +11654,4106 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>236</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>237</v>
-      </c>
-      <c r="B507" t="s">
-        <v>238</v>
+        <v>1941</v>
       </c>
       <c r="C507" t="s">
-        <v>234</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>239</v>
-      </c>
-      <c r="B508" t="s">
-        <v>240</v>
+        <v>1816</v>
       </c>
       <c r="C508" t="s">
-        <v>235</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>241</v>
-      </c>
-      <c r="B509" t="s">
-        <v>242</v>
+        <v>1944</v>
       </c>
       <c r="C509" t="s">
-        <v>243</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>244</v>
+        <v>1946</v>
       </c>
       <c r="B510" t="s">
-        <v>245</v>
+        <v>1947</v>
       </c>
       <c r="C510" t="s">
-        <v>246</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>247</v>
+        <v>1949</v>
       </c>
       <c r="B511" t="s">
-        <v>248</v>
+        <v>1950</v>
       </c>
       <c r="C511" t="s">
-        <v>249</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>250</v>
+        <v>1952</v>
       </c>
       <c r="B512" t="s">
-        <v>251</v>
+        <v>1953</v>
       </c>
       <c r="C512" t="s">
-        <v>252</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>253</v>
+        <v>1955</v>
       </c>
       <c r="B513" t="s">
-        <v>254</v>
+        <v>1956</v>
       </c>
       <c r="C513" t="s">
-        <v>255</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>256</v>
+        <v>1958</v>
       </c>
       <c r="B514" t="s">
-        <v>257</v>
+        <v>1959</v>
       </c>
       <c r="C514" t="s">
-        <v>258</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>259</v>
+        <v>1961</v>
       </c>
       <c r="B515" t="s">
-        <v>260</v>
+        <v>1962</v>
       </c>
       <c r="C515" t="s">
-        <v>261</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>262</v>
+        <v>1964</v>
       </c>
       <c r="B516" t="s">
-        <v>263</v>
+        <v>1965</v>
       </c>
       <c r="C516" t="s">
-        <v>264</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>265</v>
+        <v>1967</v>
       </c>
       <c r="B517" t="s">
-        <v>266</v>
+        <v>1968</v>
       </c>
       <c r="C517" t="s">
-        <v>267</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>268</v>
-      </c>
-      <c r="B518" t="s">
-        <v>269</v>
+        <v>1970</v>
       </c>
       <c r="C518" t="s">
-        <v>270</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>271</v>
+        <v>1972</v>
       </c>
       <c r="B519" t="s">
-        <v>272</v>
+        <v>1973</v>
       </c>
       <c r="C519" t="s">
-        <v>273</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>274</v>
+        <v>1974</v>
       </c>
       <c r="B520" t="s">
-        <v>275</v>
+        <v>1975</v>
       </c>
       <c r="C520" t="s">
-        <v>276</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>277</v>
-      </c>
-      <c r="B521" t="s">
-        <v>278</v>
+        <v>1977</v>
       </c>
       <c r="C521" t="s">
-        <v>279</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>280</v>
+        <v>657</v>
       </c>
       <c r="B522" t="s">
-        <v>281</v>
+        <v>656</v>
       </c>
       <c r="C522" t="s">
-        <v>282</v>
+        <v>655</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>283</v>
-      </c>
-      <c r="B523" t="s">
-        <v>284</v>
+        <v>1979</v>
       </c>
       <c r="C523" t="s">
-        <v>285</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>286</v>
-      </c>
-      <c r="B524" t="s">
-        <v>287</v>
+        <v>1981</v>
       </c>
       <c r="C524" t="s">
-        <v>288</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>289</v>
+        <v>1983</v>
       </c>
       <c r="B525" t="s">
-        <v>290</v>
+        <v>1984</v>
       </c>
       <c r="C525" t="s">
-        <v>291</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>292</v>
-      </c>
-      <c r="B526" t="s">
-        <v>293</v>
+        <v>1986</v>
       </c>
       <c r="C526" t="s">
-        <v>294</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>295</v>
+        <v>1988</v>
       </c>
       <c r="B527" t="s">
-        <v>296</v>
+        <v>1989</v>
       </c>
       <c r="C527" t="s">
-        <v>297</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>298</v>
-      </c>
-      <c r="B528" t="s">
-        <v>299</v>
+        <v>1991</v>
       </c>
       <c r="C528" t="s">
-        <v>299</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>300</v>
-      </c>
-      <c r="B529" t="s">
-        <v>301</v>
+        <v>1993</v>
       </c>
       <c r="C529" t="s">
-        <v>302</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>303</v>
+        <v>476</v>
       </c>
       <c r="B530" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="C530" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>305</v>
+        <v>488</v>
       </c>
       <c r="B531" t="s">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="C531" t="s">
-        <v>307</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>308</v>
+        <v>1996</v>
       </c>
       <c r="B532" t="s">
-        <v>309</v>
+        <v>1997</v>
       </c>
       <c r="C532" t="s">
-        <v>310</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>311</v>
+        <v>1999</v>
+      </c>
+      <c r="B533" t="s">
+        <v>2000</v>
       </c>
       <c r="C533" t="s">
-        <v>312</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>313</v>
+        <v>2002</v>
       </c>
       <c r="B534" t="s">
-        <v>314</v>
+        <v>2003</v>
       </c>
       <c r="C534" t="s">
-        <v>315</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>316</v>
+        <v>2005</v>
       </c>
       <c r="B535" t="s">
-        <v>317</v>
+        <v>2006</v>
       </c>
       <c r="C535" t="s">
-        <v>318</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>319</v>
+        <v>675</v>
       </c>
       <c r="B536" t="s">
-        <v>320</v>
+        <v>674</v>
       </c>
       <c r="C536" t="s">
-        <v>321</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>322</v>
+        <v>678</v>
+      </c>
+      <c r="B537" t="s">
+        <v>677</v>
       </c>
       <c r="C537" t="s">
-        <v>288</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>323</v>
+        <v>690</v>
       </c>
       <c r="B538" t="s">
-        <v>324</v>
+        <v>689</v>
       </c>
       <c r="C538" t="s">
-        <v>325</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>326</v>
-      </c>
-      <c r="B539" t="s">
-        <v>327</v>
+        <v>693</v>
       </c>
       <c r="C539" t="s">
-        <v>328</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>21</v>
+        <v>684</v>
       </c>
       <c r="B540" t="s">
-        <v>329</v>
+        <v>683</v>
       </c>
       <c r="C540" t="s">
-        <v>330</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>331</v>
+        <v>681</v>
       </c>
       <c r="B541" t="s">
-        <v>332</v>
+        <v>680</v>
       </c>
       <c r="C541" t="s">
-        <v>333</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>334</v>
+        <v>687</v>
+      </c>
+      <c r="B542" t="s">
+        <v>686</v>
       </c>
       <c r="C542" t="s">
-        <v>335</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>336</v>
+        <v>710</v>
+      </c>
+      <c r="B543" t="s">
+        <v>709</v>
       </c>
       <c r="C543" t="s">
-        <v>337</v>
+        <v>708</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>338</v>
+        <v>716</v>
+      </c>
+      <c r="B544" t="s">
+        <v>715</v>
       </c>
       <c r="C544" t="s">
-        <v>339</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>340</v>
+        <v>2016</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2017</v>
       </c>
       <c r="C545" t="s">
-        <v>341</v>
+        <v>711</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>342</v>
+        <v>2018</v>
       </c>
       <c r="B546" t="s">
-        <v>343</v>
+        <v>2019</v>
       </c>
       <c r="C546" t="s">
-        <v>344</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>345</v>
+        <v>2021</v>
       </c>
       <c r="C547" t="s">
-        <v>346</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>347</v>
-      </c>
-      <c r="B548" t="s">
-        <v>348</v>
+        <v>2023</v>
       </c>
       <c r="C548" t="s">
-        <v>349</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>456</v>
+        <v>2025</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2026</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>458</v>
-      </c>
-      <c r="B550" t="s">
-        <v>457</v>
+        <v>2027</v>
       </c>
       <c r="C550" t="s">
-        <v>457</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>461</v>
+        <v>2029</v>
       </c>
       <c r="B551" t="s">
-        <v>460</v>
+        <v>2030</v>
       </c>
       <c r="C551" t="s">
-        <v>459</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>464</v>
+        <v>2032</v>
       </c>
       <c r="B552" t="s">
-        <v>463</v>
+        <v>2033</v>
       </c>
       <c r="C552" t="s">
-        <v>462</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>466</v>
-      </c>
-      <c r="B553" t="s">
-        <v>465</v>
+        <v>2035</v>
       </c>
       <c r="C553" t="s">
-        <v>465</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>381</v>
-      </c>
-      <c r="B554" t="s">
-        <v>382</v>
+        <v>2037</v>
       </c>
       <c r="C554" t="s">
-        <v>383</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>469</v>
+        <v>1040</v>
       </c>
       <c r="B555" t="s">
-        <v>468</v>
+        <v>2039</v>
       </c>
       <c r="C555" t="s">
-        <v>467</v>
+        <v>706</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>472</v>
-      </c>
-      <c r="B556" t="s">
-        <v>471</v>
+        <v>2040</v>
       </c>
       <c r="C556" t="s">
-        <v>470</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>398</v>
+        <v>2042</v>
       </c>
       <c r="B557" t="s">
-        <v>399</v>
+        <v>2043</v>
       </c>
       <c r="C557" t="s">
-        <v>400</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>474</v>
+        <v>2044</v>
       </c>
       <c r="B558" t="s">
-        <v>473</v>
+        <v>2045</v>
       </c>
       <c r="C558" t="s">
-        <v>473</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>476</v>
-      </c>
-      <c r="B559" t="s">
-        <v>475</v>
-      </c>
-      <c r="C559" t="s">
-        <v>475</v>
+        <v>236</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="B560" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="C560" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>479</v>
+        <v>239</v>
       </c>
       <c r="B561" t="s">
-        <v>478</v>
+        <v>240</v>
       </c>
       <c r="C561" t="s">
-        <v>477</v>
+        <v>235</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="B562" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="C562" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>482</v>
+        <v>244</v>
       </c>
       <c r="B563" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="C563" t="s">
-        <v>480</v>
+        <v>246</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>485</v>
+        <v>247</v>
       </c>
       <c r="B564" t="s">
-        <v>484</v>
+        <v>248</v>
       </c>
       <c r="C564" t="s">
-        <v>483</v>
+        <v>249</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>488</v>
+        <v>250</v>
       </c>
       <c r="B565" t="s">
-        <v>487</v>
+        <v>251</v>
       </c>
       <c r="C565" t="s">
-        <v>486</v>
+        <v>252</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>491</v>
+        <v>253</v>
       </c>
       <c r="B566" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="C566" t="s">
-        <v>489</v>
+        <v>255</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>494</v>
+        <v>256</v>
       </c>
       <c r="B567" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
       <c r="C567" t="s">
-        <v>492</v>
+        <v>258</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>497</v>
+        <v>259</v>
       </c>
       <c r="B568" t="s">
-        <v>496</v>
+        <v>260</v>
       </c>
       <c r="C568" t="s">
-        <v>495</v>
+        <v>261</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="B569" t="s">
-        <v>499</v>
+        <v>263</v>
       </c>
       <c r="C569" t="s">
-        <v>498</v>
+        <v>264</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="B570" t="s">
-        <v>502</v>
+        <v>266</v>
       </c>
       <c r="C570" t="s">
-        <v>501</v>
+        <v>267</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>505</v>
+        <v>268</v>
       </c>
       <c r="B571" t="s">
-        <v>504</v>
+        <v>269</v>
       </c>
       <c r="C571" t="s">
-        <v>504</v>
+        <v>270</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="B572" t="s">
-        <v>507</v>
+        <v>272</v>
       </c>
       <c r="C572" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>511</v>
+        <v>274</v>
       </c>
       <c r="B573" t="s">
-        <v>510</v>
+        <v>275</v>
       </c>
       <c r="C573" t="s">
-        <v>509</v>
+        <v>276</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>513</v>
+        <v>277</v>
       </c>
       <c r="B574" t="s">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="C574" t="s">
-        <v>512</v>
+        <v>279</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>516</v>
+        <v>280</v>
       </c>
       <c r="B575" t="s">
-        <v>515</v>
+        <v>281</v>
       </c>
       <c r="C575" t="s">
-        <v>514</v>
+        <v>282</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>518</v>
+        <v>283</v>
       </c>
       <c r="B576" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="C576" t="s">
-        <v>517</v>
+        <v>285</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>520</v>
+        <v>286</v>
       </c>
       <c r="B577" t="s">
-        <v>519</v>
+        <v>287</v>
       </c>
       <c r="C577" t="s">
-        <v>519</v>
+        <v>288</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>523</v>
+        <v>289</v>
       </c>
       <c r="B578" t="s">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="C578" t="s">
-        <v>521</v>
+        <v>291</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>524</v>
+        <v>292</v>
+      </c>
+      <c r="B579" t="s">
+        <v>293</v>
+      </c>
+      <c r="C579" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>527</v>
+        <v>295</v>
       </c>
       <c r="B580" t="s">
-        <v>526</v>
+        <v>296</v>
       </c>
       <c r="C580" t="s">
-        <v>525</v>
+        <v>297</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="B581" t="s">
-        <v>529</v>
+        <v>299</v>
       </c>
       <c r="C581" t="s">
-        <v>528</v>
+        <v>299</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>533</v>
+        <v>300</v>
       </c>
       <c r="B582" t="s">
-        <v>532</v>
+        <v>301</v>
       </c>
       <c r="C582" t="s">
-        <v>531</v>
+        <v>302</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>536</v>
+        <v>303</v>
       </c>
       <c r="B583" t="s">
-        <v>535</v>
+        <v>304</v>
       </c>
       <c r="C583" t="s">
-        <v>534</v>
+        <v>304</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>539</v>
+        <v>305</v>
       </c>
       <c r="B584" t="s">
-        <v>538</v>
+        <v>306</v>
       </c>
       <c r="C584" t="s">
-        <v>537</v>
+        <v>307</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>542</v>
+        <v>308</v>
       </c>
       <c r="B585" t="s">
-        <v>541</v>
+        <v>309</v>
       </c>
       <c r="C585" t="s">
-        <v>540</v>
+        <v>310</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>544</v>
-      </c>
-      <c r="B586" t="s">
-        <v>543</v>
+        <v>311</v>
       </c>
       <c r="C586" t="s">
-        <v>543</v>
+        <v>312</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>546</v>
+        <v>313</v>
       </c>
       <c r="B587" t="s">
-        <v>545</v>
+        <v>314</v>
       </c>
       <c r="C587" t="s">
-        <v>545</v>
+        <v>315</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>548</v>
+        <v>316</v>
       </c>
       <c r="B588" t="s">
-        <v>547</v>
+        <v>317</v>
       </c>
       <c r="C588" t="s">
-        <v>547</v>
+        <v>318</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>550</v>
+        <v>319</v>
       </c>
       <c r="B589" t="s">
-        <v>549</v>
+        <v>320</v>
       </c>
       <c r="C589" t="s">
-        <v>549</v>
+        <v>321</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>553</v>
-      </c>
-      <c r="B590" t="s">
-        <v>552</v>
+        <v>322</v>
       </c>
       <c r="C590" t="s">
-        <v>551</v>
+        <v>288</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>555</v>
+        <v>323</v>
       </c>
       <c r="B591" t="s">
-        <v>554</v>
+        <v>324</v>
       </c>
       <c r="C591" t="s">
-        <v>554</v>
+        <v>325</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>558</v>
+        <v>326</v>
       </c>
       <c r="B592" t="s">
-        <v>557</v>
+        <v>327</v>
       </c>
       <c r="C592" t="s">
-        <v>556</v>
+        <v>328</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>560</v>
+        <v>21</v>
       </c>
       <c r="B593" t="s">
-        <v>1127</v>
+        <v>329</v>
       </c>
       <c r="C593" t="s">
-        <v>559</v>
+        <v>330</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>563</v>
+        <v>331</v>
       </c>
       <c r="B594" t="s">
-        <v>562</v>
+        <v>332</v>
       </c>
       <c r="C594" t="s">
-        <v>561</v>
+        <v>333</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>566</v>
-      </c>
-      <c r="B595" t="s">
-        <v>565</v>
+        <v>334</v>
       </c>
       <c r="C595" t="s">
-        <v>564</v>
+        <v>335</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>568</v>
-      </c>
-      <c r="B596" t="s">
-        <v>567</v>
+        <v>336</v>
       </c>
       <c r="C596" t="s">
-        <v>567</v>
+        <v>337</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>571</v>
-      </c>
-      <c r="B597" t="s">
-        <v>570</v>
+        <v>338</v>
       </c>
       <c r="C597" t="s">
-        <v>569</v>
+        <v>339</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>573</v>
-      </c>
-      <c r="B598" t="s">
-        <v>572</v>
+        <v>340</v>
       </c>
       <c r="C598" t="s">
-        <v>572</v>
+        <v>341</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>576</v>
+        <v>342</v>
       </c>
       <c r="B599" t="s">
-        <v>575</v>
+        <v>343</v>
       </c>
       <c r="C599" t="s">
-        <v>574</v>
+        <v>344</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>579</v>
-      </c>
-      <c r="B600" t="s">
-        <v>578</v>
+        <v>345</v>
       </c>
       <c r="C600" t="s">
-        <v>577</v>
+        <v>346</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>582</v>
+        <v>347</v>
       </c>
       <c r="B601" t="s">
-        <v>581</v>
+        <v>348</v>
       </c>
       <c r="C601" t="s">
-        <v>580</v>
+        <v>349</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>583</v>
-      </c>
-      <c r="B602" t="s">
-        <v>120</v>
-      </c>
-      <c r="C602" t="s">
-        <v>121</v>
+        <v>456</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>586</v>
+        <v>458</v>
       </c>
       <c r="B603" t="s">
-        <v>585</v>
+        <v>457</v>
       </c>
       <c r="C603" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>587</v>
+        <v>461</v>
+      </c>
+      <c r="B604" t="s">
+        <v>460</v>
+      </c>
+      <c r="C604" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>590</v>
+        <v>464</v>
       </c>
       <c r="B605" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
       <c r="C605" t="s">
-        <v>588</v>
+        <v>462</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="B606" t="s">
-        <v>592</v>
+        <v>465</v>
       </c>
       <c r="C606" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>596</v>
+        <v>381</v>
       </c>
       <c r="B607" t="s">
-        <v>595</v>
+        <v>382</v>
       </c>
       <c r="C607" t="s">
-        <v>594</v>
+        <v>383</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>599</v>
+        <v>469</v>
       </c>
       <c r="B608" t="s">
-        <v>598</v>
+        <v>468</v>
       </c>
       <c r="C608" t="s">
-        <v>597</v>
+        <v>467</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>602</v>
+        <v>472</v>
       </c>
       <c r="B609" t="s">
-        <v>601</v>
+        <v>471</v>
       </c>
       <c r="C609" t="s">
-        <v>600</v>
+        <v>470</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>605</v>
+        <v>398</v>
       </c>
       <c r="B610" t="s">
-        <v>604</v>
+        <v>399</v>
       </c>
       <c r="C610" t="s">
-        <v>603</v>
+        <v>400</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>608</v>
+        <v>474</v>
       </c>
       <c r="B611" t="s">
-        <v>607</v>
+        <v>473</v>
       </c>
       <c r="C611" t="s">
-        <v>606</v>
+        <v>473</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>611</v>
+        <v>476</v>
       </c>
       <c r="B612" t="s">
-        <v>610</v>
+        <v>475</v>
       </c>
       <c r="C612" t="s">
-        <v>609</v>
+        <v>475</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>614</v>
+        <v>161</v>
       </c>
       <c r="B613" t="s">
-        <v>613</v>
+        <v>162</v>
       </c>
       <c r="C613" t="s">
-        <v>612</v>
+        <v>163</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="B614" t="s">
-        <v>616</v>
+        <v>478</v>
       </c>
       <c r="C614" t="s">
-        <v>615</v>
+        <v>477</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>620</v>
+        <v>365</v>
       </c>
       <c r="B615" t="s">
-        <v>619</v>
+        <v>366</v>
       </c>
       <c r="C615" t="s">
-        <v>618</v>
+        <v>366</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="B616" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="C616" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>623</v>
+        <v>485</v>
       </c>
       <c r="B617" t="s">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="C617" t="s">
-        <v>621</v>
+        <v>483</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>58</v>
+        <v>488</v>
       </c>
       <c r="B618" t="s">
-        <v>59</v>
+        <v>487</v>
       </c>
       <c r="C618" t="s">
-        <v>624</v>
+        <v>486</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>626</v>
+        <v>491</v>
       </c>
       <c r="B619" t="s">
-        <v>625</v>
+        <v>490</v>
       </c>
       <c r="C619" t="s">
-        <v>625</v>
+        <v>489</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>629</v>
+        <v>494</v>
       </c>
       <c r="B620" t="s">
-        <v>628</v>
+        <v>493</v>
       </c>
       <c r="C620" t="s">
-        <v>627</v>
+        <v>492</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="B621" t="s">
-        <v>62</v>
+        <v>496</v>
       </c>
       <c r="C621" t="s">
-        <v>630</v>
+        <v>495</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="B622" t="s">
-        <v>632</v>
+        <v>499</v>
       </c>
       <c r="C622" t="s">
-        <v>631</v>
+        <v>498</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="B623" t="s">
-        <v>635</v>
+        <v>502</v>
       </c>
       <c r="C623" t="s">
-        <v>634</v>
+        <v>501</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>639</v>
+        <v>505</v>
       </c>
       <c r="B624" t="s">
-        <v>638</v>
+        <v>504</v>
       </c>
       <c r="C624" t="s">
-        <v>637</v>
+        <v>504</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="B625" t="s">
-        <v>83</v>
+        <v>507</v>
       </c>
       <c r="C625" t="s">
-        <v>83</v>
+        <v>506</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>642</v>
+        <v>511</v>
       </c>
       <c r="B626" t="s">
-        <v>641</v>
+        <v>510</v>
       </c>
       <c r="C626" t="s">
-        <v>640</v>
+        <v>509</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>645</v>
+        <v>513</v>
       </c>
       <c r="B627" t="s">
-        <v>644</v>
+        <v>391</v>
       </c>
       <c r="C627" t="s">
-        <v>643</v>
+        <v>512</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>648</v>
+        <v>516</v>
       </c>
       <c r="B628" t="s">
-        <v>647</v>
+        <v>515</v>
       </c>
       <c r="C628" t="s">
-        <v>646</v>
+        <v>514</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>651</v>
+        <v>518</v>
       </c>
       <c r="B629" t="s">
-        <v>650</v>
+        <v>384</v>
       </c>
       <c r="C629" t="s">
-        <v>649</v>
+        <v>517</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>652</v>
+        <v>520</v>
       </c>
       <c r="B630" t="s">
-        <v>70</v>
+        <v>519</v>
       </c>
       <c r="C630" t="s">
-        <v>71</v>
+        <v>519</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>653</v>
+        <v>523</v>
       </c>
       <c r="B631" t="s">
-        <v>84</v>
+        <v>522</v>
       </c>
       <c r="C631" t="s">
-        <v>85</v>
+        <v>521</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>654</v>
-      </c>
-      <c r="B632" t="s">
-        <v>86</v>
-      </c>
-      <c r="C632" t="s">
-        <v>87</v>
+        <v>524</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>403</v>
+        <v>527</v>
       </c>
       <c r="B633" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="C633" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>657</v>
+        <v>530</v>
       </c>
       <c r="B634" t="s">
-        <v>656</v>
+        <v>529</v>
       </c>
       <c r="C634" t="s">
-        <v>655</v>
+        <v>528</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>660</v>
+        <v>533</v>
       </c>
       <c r="B635" t="s">
-        <v>659</v>
+        <v>532</v>
       </c>
       <c r="C635" t="s">
-        <v>658</v>
+        <v>531</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>661</v>
+        <v>536</v>
       </c>
       <c r="B636" t="s">
-        <v>102</v>
+        <v>535</v>
       </c>
       <c r="C636" t="s">
-        <v>103</v>
+        <v>534</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>664</v>
+        <v>539</v>
       </c>
       <c r="B637" t="s">
-        <v>663</v>
+        <v>538</v>
       </c>
       <c r="C637" t="s">
-        <v>662</v>
+        <v>537</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>666</v>
+        <v>542</v>
       </c>
       <c r="B638" t="s">
-        <v>106</v>
+        <v>541</v>
       </c>
       <c r="C638" t="s">
-        <v>665</v>
+        <v>540</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>668</v>
+        <v>544</v>
       </c>
       <c r="B639" t="s">
-        <v>667</v>
+        <v>543</v>
       </c>
       <c r="C639" t="s">
-        <v>109</v>
+        <v>543</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>671</v>
+        <v>546</v>
       </c>
       <c r="B640" t="s">
-        <v>670</v>
+        <v>545</v>
       </c>
       <c r="C640" t="s">
-        <v>669</v>
+        <v>545</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>672</v>
+        <v>548</v>
+      </c>
+      <c r="B641" t="s">
+        <v>547</v>
+      </c>
+      <c r="C641" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="B642" t="s">
-        <v>674</v>
+        <v>549</v>
       </c>
       <c r="C642" t="s">
-        <v>673</v>
+        <v>549</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>678</v>
+        <v>553</v>
       </c>
       <c r="B643" t="s">
-        <v>677</v>
+        <v>552</v>
       </c>
       <c r="C643" t="s">
-        <v>676</v>
+        <v>551</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>681</v>
+        <v>555</v>
       </c>
       <c r="B644" t="s">
-        <v>680</v>
+        <v>554</v>
       </c>
       <c r="C644" t="s">
-        <v>679</v>
+        <v>554</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>684</v>
+        <v>558</v>
       </c>
       <c r="B645" t="s">
-        <v>683</v>
+        <v>557</v>
       </c>
       <c r="C645" t="s">
-        <v>682</v>
+        <v>556</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>687</v>
+        <v>560</v>
       </c>
       <c r="B646" t="s">
-        <v>686</v>
+        <v>1127</v>
       </c>
       <c r="C646" t="s">
-        <v>685</v>
+        <v>559</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>690</v>
+        <v>563</v>
       </c>
       <c r="B647" t="s">
-        <v>689</v>
+        <v>562</v>
       </c>
       <c r="C647" t="s">
-        <v>688</v>
+        <v>561</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>693</v>
+        <v>566</v>
       </c>
       <c r="B648" t="s">
-        <v>692</v>
+        <v>565</v>
       </c>
       <c r="C648" t="s">
-        <v>691</v>
+        <v>564</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>696</v>
+        <v>568</v>
       </c>
       <c r="B649" t="s">
-        <v>695</v>
+        <v>567</v>
       </c>
       <c r="C649" t="s">
-        <v>694</v>
+        <v>567</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>699</v>
+        <v>571</v>
       </c>
       <c r="B650" t="s">
-        <v>698</v>
+        <v>570</v>
       </c>
       <c r="C650" t="s">
-        <v>697</v>
+        <v>569</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>702</v>
+        <v>573</v>
       </c>
       <c r="B651" t="s">
-        <v>701</v>
+        <v>572</v>
       </c>
       <c r="C651" t="s">
-        <v>700</v>
+        <v>572</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>705</v>
+        <v>576</v>
       </c>
       <c r="B652" t="s">
-        <v>704</v>
+        <v>575</v>
       </c>
       <c r="C652" t="s">
-        <v>703</v>
+        <v>574</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>401</v>
+        <v>579</v>
       </c>
       <c r="B653" t="s">
-        <v>707</v>
+        <v>578</v>
       </c>
       <c r="C653" t="s">
-        <v>706</v>
+        <v>577</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="B654" t="s">
-        <v>709</v>
+        <v>581</v>
       </c>
       <c r="C654" t="s">
-        <v>708</v>
+        <v>580</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>713</v>
+        <v>583</v>
       </c>
       <c r="B655" t="s">
-        <v>712</v>
+        <v>120</v>
       </c>
       <c r="C655" t="s">
-        <v>711</v>
+        <v>121</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>716</v>
+        <v>586</v>
       </c>
       <c r="B656" t="s">
-        <v>715</v>
+        <v>585</v>
       </c>
       <c r="C656" t="s">
-        <v>714</v>
+        <v>584</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>719</v>
-      </c>
-      <c r="B657" t="s">
-        <v>718</v>
-      </c>
-      <c r="C657" t="s">
-        <v>717</v>
+        <v>587</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>720</v>
+        <v>590</v>
+      </c>
+      <c r="B658" t="s">
+        <v>589</v>
+      </c>
+      <c r="C658" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>721</v>
-      </c>
-      <c r="B659">
-        <v>1</v>
+        <v>593</v>
+      </c>
+      <c r="B659" t="s">
+        <v>592</v>
       </c>
       <c r="C659" t="s">
-        <v>1128</v>
+        <v>591</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>722</v>
-      </c>
-      <c r="B660">
-        <v>2</v>
+        <v>596</v>
+      </c>
+      <c r="B660" t="s">
+        <v>595</v>
       </c>
       <c r="C660" t="s">
-        <v>1129</v>
+        <v>594</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>723</v>
-      </c>
-      <c r="B661">
-        <v>3</v>
+        <v>599</v>
+      </c>
+      <c r="B661" t="s">
+        <v>598</v>
       </c>
       <c r="C661" t="s">
-        <v>1130</v>
+        <v>597</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>724</v>
-      </c>
-      <c r="B662">
-        <v>4</v>
+        <v>602</v>
+      </c>
+      <c r="B662" t="s">
+        <v>601</v>
       </c>
       <c r="C662" t="s">
-        <v>1131</v>
+        <v>600</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>725</v>
-      </c>
-      <c r="B663">
-        <v>5</v>
+        <v>605</v>
+      </c>
+      <c r="B663" t="s">
+        <v>604</v>
       </c>
       <c r="C663" t="s">
-        <v>1132</v>
+        <v>603</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>726</v>
-      </c>
-      <c r="B664">
-        <v>6</v>
+        <v>608</v>
+      </c>
+      <c r="B664" t="s">
+        <v>607</v>
       </c>
       <c r="C664" t="s">
-        <v>1133</v>
+        <v>606</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>727</v>
-      </c>
-      <c r="B665">
-        <v>7</v>
+        <v>611</v>
+      </c>
+      <c r="B665" t="s">
+        <v>610</v>
       </c>
       <c r="C665" t="s">
-        <v>1134</v>
+        <v>609</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>728</v>
-      </c>
-      <c r="B666">
-        <v>8</v>
+        <v>614</v>
+      </c>
+      <c r="B666" t="s">
+        <v>613</v>
       </c>
       <c r="C666" t="s">
-        <v>1135</v>
+        <v>612</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>729</v>
-      </c>
-      <c r="B667">
-        <v>9</v>
+        <v>617</v>
+      </c>
+      <c r="B667" t="s">
+        <v>616</v>
       </c>
       <c r="C667" t="s">
-        <v>1136</v>
+        <v>615</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>730</v>
-      </c>
-      <c r="B668">
-        <v>10</v>
+        <v>620</v>
+      </c>
+      <c r="B668" t="s">
+        <v>619</v>
       </c>
       <c r="C668" t="s">
-        <v>1137</v>
+        <v>618</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B669">
-        <v>20</v>
+        <v>405</v>
+      </c>
+      <c r="B669" t="s">
+        <v>406</v>
       </c>
       <c r="C669" t="s">
-        <v>1138</v>
+        <v>407</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B670">
-        <v>30</v>
+        <v>623</v>
+      </c>
+      <c r="B670" t="s">
+        <v>622</v>
       </c>
       <c r="C670" t="s">
-        <v>1139</v>
+        <v>621</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B671">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="B671" t="s">
+        <v>59</v>
       </c>
       <c r="C671" t="s">
-        <v>1140</v>
+        <v>624</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B672">
-        <v>50</v>
+        <v>626</v>
+      </c>
+      <c r="B672" t="s">
+        <v>625</v>
       </c>
       <c r="C672" t="s">
-        <v>1141</v>
+        <v>625</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B673">
-        <v>60</v>
+        <v>629</v>
+      </c>
+      <c r="B673" t="s">
+        <v>628</v>
       </c>
       <c r="C673" t="s">
-        <v>1142</v>
+        <v>627</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B674">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="B674" t="s">
+        <v>62</v>
       </c>
       <c r="C674" t="s">
-        <v>1143</v>
+        <v>630</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B675">
-        <v>80</v>
+        <v>633</v>
+      </c>
+      <c r="B675" t="s">
+        <v>632</v>
       </c>
       <c r="C675" t="s">
-        <v>1144</v>
+        <v>631</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B676">
-        <v>90</v>
+        <v>636</v>
+      </c>
+      <c r="B676" t="s">
+        <v>635</v>
       </c>
       <c r="C676" t="s">
-        <v>1145</v>
+        <v>634</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>430</v>
-      </c>
-      <c r="B677">
-        <v>100</v>
+        <v>639</v>
+      </c>
+      <c r="B677" t="s">
+        <v>638</v>
       </c>
       <c r="C677" t="s">
-        <v>431</v>
+        <v>637</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B678">
-        <v>200</v>
+        <v>82</v>
+      </c>
+      <c r="B678" t="s">
+        <v>83</v>
       </c>
       <c r="C678" t="s">
-        <v>1146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B679">
-        <v>300</v>
+        <v>642</v>
+      </c>
+      <c r="B679" t="s">
+        <v>641</v>
       </c>
       <c r="C679" t="s">
-        <v>1147</v>
+        <v>640</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B680">
-        <v>400</v>
+        <v>645</v>
+      </c>
+      <c r="B680" t="s">
+        <v>644</v>
       </c>
       <c r="C680" t="s">
-        <v>1148</v>
+        <v>643</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B681">
-        <v>500</v>
+        <v>648</v>
+      </c>
+      <c r="B681" t="s">
+        <v>647</v>
       </c>
       <c r="C681" t="s">
-        <v>1149</v>
+        <v>646</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B682">
-        <v>600</v>
+        <v>651</v>
+      </c>
+      <c r="B682" t="s">
+        <v>650</v>
       </c>
       <c r="C682" t="s">
-        <v>1150</v>
+        <v>649</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B683">
-        <v>700</v>
+        <v>652</v>
+      </c>
+      <c r="B683" t="s">
+        <v>70</v>
       </c>
       <c r="C683" t="s">
-        <v>1151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B684">
-        <v>800</v>
+        <v>653</v>
+      </c>
+      <c r="B684" t="s">
+        <v>84</v>
       </c>
       <c r="C684" t="s">
-        <v>1152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B685">
-        <v>900</v>
+        <v>654</v>
+      </c>
+      <c r="B685" t="s">
+        <v>86</v>
       </c>
       <c r="C685" t="s">
-        <v>1153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>432</v>
-      </c>
-      <c r="B686">
-        <v>1000</v>
+        <v>403</v>
+      </c>
+      <c r="B686" t="s">
+        <v>404</v>
       </c>
       <c r="C686" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B687">
-        <v>2000</v>
+        <v>657</v>
+      </c>
+      <c r="B687" t="s">
+        <v>656</v>
       </c>
       <c r="C687" t="s">
-        <v>1154</v>
+        <v>655</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B688">
-        <v>3000</v>
+        <v>660</v>
+      </c>
+      <c r="B688" t="s">
+        <v>659</v>
       </c>
       <c r="C688" t="s">
-        <v>1155</v>
+        <v>658</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B689">
-        <v>4000</v>
+        <v>661</v>
+      </c>
+      <c r="B689" t="s">
+        <v>102</v>
       </c>
       <c r="C689" t="s">
-        <v>1156</v>
+        <v>103</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B690">
-        <v>5000</v>
+        <v>664</v>
+      </c>
+      <c r="B690" t="s">
+        <v>663</v>
       </c>
       <c r="C690" t="s">
-        <v>1157</v>
+        <v>662</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B691">
-        <v>6000</v>
+        <v>666</v>
+      </c>
+      <c r="B691" t="s">
+        <v>106</v>
       </c>
       <c r="C691" t="s">
-        <v>1158</v>
+        <v>665</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B692">
-        <v>7000</v>
+        <v>668</v>
+      </c>
+      <c r="B692" t="s">
+        <v>667</v>
       </c>
       <c r="C692" t="s">
-        <v>1159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B693">
-        <v>8000</v>
+        <v>671</v>
+      </c>
+      <c r="B693" t="s">
+        <v>670</v>
       </c>
       <c r="C693" t="s">
-        <v>1160</v>
+        <v>669</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B694">
-        <v>9000</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1161</v>
+        <v>672</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1031</v>
+        <v>675</v>
       </c>
       <c r="B695" t="s">
-        <v>1162</v>
+        <v>674</v>
       </c>
       <c r="C695" t="s">
-        <v>436</v>
+        <v>673</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B696">
-        <v>20000</v>
+        <v>678</v>
+      </c>
+      <c r="B696" t="s">
+        <v>677</v>
       </c>
       <c r="C696" t="s">
-        <v>1163</v>
+        <v>676</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B697">
-        <v>30000</v>
+        <v>681</v>
+      </c>
+      <c r="B697" t="s">
+        <v>680</v>
       </c>
       <c r="C697" t="s">
-        <v>1164</v>
+        <v>679</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B698">
-        <v>40000</v>
+        <v>684</v>
+      </c>
+      <c r="B698" t="s">
+        <v>683</v>
       </c>
       <c r="C698" t="s">
-        <v>1165</v>
+        <v>682</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B699">
-        <v>50000</v>
+        <v>687</v>
+      </c>
+      <c r="B699" t="s">
+        <v>686</v>
       </c>
       <c r="C699" t="s">
-        <v>1166</v>
+        <v>685</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B700">
-        <v>60000</v>
+        <v>690</v>
+      </c>
+      <c r="B700" t="s">
+        <v>689</v>
       </c>
       <c r="C700" t="s">
-        <v>1167</v>
+        <v>688</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B701">
-        <v>70000</v>
+        <v>693</v>
+      </c>
+      <c r="B701" t="s">
+        <v>692</v>
       </c>
       <c r="C701" t="s">
-        <v>1168</v>
+        <v>691</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B702">
-        <v>80000</v>
+        <v>696</v>
+      </c>
+      <c r="B702" t="s">
+        <v>695</v>
       </c>
       <c r="C702" t="s">
-        <v>1169</v>
+        <v>694</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B703">
-        <v>90000</v>
+        <v>699</v>
+      </c>
+      <c r="B703" t="s">
+        <v>698</v>
       </c>
       <c r="C703" t="s">
-        <v>1170</v>
+        <v>697</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>434</v>
+        <v>702</v>
       </c>
       <c r="B704" t="s">
-        <v>435</v>
+        <v>701</v>
       </c>
       <c r="C704" t="s">
-        <v>436</v>
+        <v>700</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1040</v>
+        <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>1171</v>
+        <v>704</v>
       </c>
       <c r="C705" t="s">
-        <v>1171</v>
+        <v>703</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1172</v>
+        <v>401</v>
       </c>
       <c r="B706" t="s">
-        <v>1173</v>
+        <v>707</v>
       </c>
       <c r="C706" t="s">
-        <v>1173</v>
+        <v>706</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>1006</v>
+        <v>710</v>
+      </c>
+      <c r="B707" t="s">
+        <v>709</v>
+      </c>
+      <c r="C707" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="B708" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="C708" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="B709" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="C709" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="B710" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="C710" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>742</v>
-      </c>
-      <c r="B711" t="s">
-        <v>741</v>
-      </c>
-      <c r="C711" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>745</v>
-      </c>
-      <c r="B712" t="s">
-        <v>744</v>
+        <v>721</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
       </c>
       <c r="C712" t="s">
-        <v>743</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>748</v>
-      </c>
-      <c r="B713" t="s">
-        <v>747</v>
+        <v>722</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
       </c>
       <c r="C713" t="s">
-        <v>746</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>751</v>
-      </c>
-      <c r="B714" t="s">
-        <v>750</v>
+        <v>723</v>
+      </c>
+      <c r="B714">
+        <v>3</v>
       </c>
       <c r="C714" t="s">
-        <v>749</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>754</v>
-      </c>
-      <c r="B715" t="s">
-        <v>753</v>
+        <v>724</v>
+      </c>
+      <c r="B715">
+        <v>4</v>
       </c>
       <c r="C715" t="s">
-        <v>752</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>757</v>
-      </c>
-      <c r="B716" t="s">
-        <v>756</v>
+        <v>725</v>
+      </c>
+      <c r="B716">
+        <v>5</v>
       </c>
       <c r="C716" t="s">
-        <v>755</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>760</v>
-      </c>
-      <c r="B717" t="s">
-        <v>759</v>
+        <v>726</v>
+      </c>
+      <c r="B717">
+        <v>6</v>
       </c>
       <c r="C717" t="s">
-        <v>758</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>763</v>
-      </c>
-      <c r="B718" t="s">
-        <v>762</v>
+        <v>727</v>
+      </c>
+      <c r="B718">
+        <v>7</v>
       </c>
       <c r="C718" t="s">
-        <v>761</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>766</v>
-      </c>
-      <c r="B719" t="s">
-        <v>765</v>
+        <v>728</v>
+      </c>
+      <c r="B719">
+        <v>8</v>
       </c>
       <c r="C719" t="s">
-        <v>764</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>769</v>
-      </c>
-      <c r="B720" t="s">
-        <v>768</v>
+        <v>729</v>
+      </c>
+      <c r="B720">
+        <v>9</v>
       </c>
       <c r="C720" t="s">
-        <v>767</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>772</v>
-      </c>
-      <c r="B721" t="s">
-        <v>771</v>
+        <v>730</v>
+      </c>
+      <c r="B721">
+        <v>10</v>
       </c>
       <c r="C721" t="s">
-        <v>770</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>775</v>
-      </c>
-      <c r="B722" t="s">
-        <v>774</v>
+        <v>1007</v>
+      </c>
+      <c r="B722">
+        <v>20</v>
       </c>
       <c r="C722" t="s">
-        <v>773</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>777</v>
-      </c>
-      <c r="B723" t="s">
-        <v>776</v>
+        <v>1008</v>
+      </c>
+      <c r="B723">
+        <v>30</v>
       </c>
       <c r="C723" t="s">
-        <v>302</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>780</v>
-      </c>
-      <c r="B724" t="s">
-        <v>779</v>
+        <v>1009</v>
+      </c>
+      <c r="B724">
+        <v>40</v>
       </c>
       <c r="C724" t="s">
-        <v>778</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>783</v>
-      </c>
-      <c r="B725" t="s">
-        <v>782</v>
+        <v>1010</v>
+      </c>
+      <c r="B725">
+        <v>50</v>
       </c>
       <c r="C725" t="s">
-        <v>781</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>786</v>
-      </c>
-      <c r="B726" t="s">
-        <v>785</v>
+        <v>1011</v>
+      </c>
+      <c r="B726">
+        <v>60</v>
       </c>
       <c r="C726" t="s">
-        <v>784</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>789</v>
-      </c>
-      <c r="B727" t="s">
-        <v>788</v>
+        <v>1012</v>
+      </c>
+      <c r="B727">
+        <v>70</v>
       </c>
       <c r="C727" t="s">
-        <v>787</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>792</v>
-      </c>
-      <c r="B728" t="s">
-        <v>791</v>
+        <v>1013</v>
+      </c>
+      <c r="B728">
+        <v>80</v>
       </c>
       <c r="C728" t="s">
-        <v>790</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>795</v>
-      </c>
-      <c r="B729" t="s">
-        <v>794</v>
+        <v>1014</v>
+      </c>
+      <c r="B729">
+        <v>90</v>
       </c>
       <c r="C729" t="s">
-        <v>793</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>798</v>
-      </c>
-      <c r="B730" t="s">
-        <v>797</v>
+        <v>430</v>
+      </c>
+      <c r="B730">
+        <v>100</v>
       </c>
       <c r="C730" t="s">
-        <v>796</v>
+        <v>431</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>801</v>
-      </c>
-      <c r="B731" t="s">
-        <v>800</v>
+        <v>1015</v>
+      </c>
+      <c r="B731">
+        <v>200</v>
       </c>
       <c r="C731" t="s">
-        <v>799</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>804</v>
-      </c>
-      <c r="B732" t="s">
-        <v>803</v>
+        <v>1016</v>
+      </c>
+      <c r="B732">
+        <v>300</v>
       </c>
       <c r="C732" t="s">
-        <v>802</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>807</v>
-      </c>
-      <c r="B733" t="s">
-        <v>806</v>
+        <v>1017</v>
+      </c>
+      <c r="B733">
+        <v>400</v>
       </c>
       <c r="C733" t="s">
-        <v>805</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>810</v>
-      </c>
-      <c r="B734" t="s">
-        <v>809</v>
+        <v>1018</v>
+      </c>
+      <c r="B734">
+        <v>500</v>
       </c>
       <c r="C734" t="s">
-        <v>808</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>813</v>
-      </c>
-      <c r="B735" t="s">
-        <v>812</v>
+        <v>1019</v>
+      </c>
+      <c r="B735">
+        <v>600</v>
       </c>
       <c r="C735" t="s">
-        <v>811</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>816</v>
-      </c>
-      <c r="B736" t="s">
-        <v>815</v>
+        <v>1020</v>
+      </c>
+      <c r="B736">
+        <v>700</v>
       </c>
       <c r="C736" t="s">
-        <v>814</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>819</v>
-      </c>
-      <c r="B737" t="s">
-        <v>818</v>
+        <v>1021</v>
+      </c>
+      <c r="B737">
+        <v>800</v>
       </c>
       <c r="C737" t="s">
-        <v>817</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>822</v>
-      </c>
-      <c r="B738" t="s">
-        <v>821</v>
+        <v>1022</v>
+      </c>
+      <c r="B738">
+        <v>900</v>
       </c>
       <c r="C738" t="s">
-        <v>820</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>825</v>
-      </c>
-      <c r="B739" t="s">
-        <v>824</v>
+        <v>432</v>
+      </c>
+      <c r="B739">
+        <v>1000</v>
       </c>
       <c r="C739" t="s">
-        <v>823</v>
+        <v>433</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>828</v>
-      </c>
-      <c r="B740" t="s">
-        <v>827</v>
+        <v>1023</v>
+      </c>
+      <c r="B740">
+        <v>2000</v>
       </c>
       <c r="C740" t="s">
-        <v>826</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>831</v>
-      </c>
-      <c r="B741" t="s">
-        <v>830</v>
+        <v>1024</v>
+      </c>
+      <c r="B741">
+        <v>3000</v>
       </c>
       <c r="C741" t="s">
-        <v>829</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>834</v>
-      </c>
-      <c r="B742" t="s">
-        <v>833</v>
+        <v>1025</v>
+      </c>
+      <c r="B742">
+        <v>4000</v>
       </c>
       <c r="C742" t="s">
-        <v>832</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>837</v>
-      </c>
-      <c r="B743" t="s">
-        <v>836</v>
+        <v>1026</v>
+      </c>
+      <c r="B743">
+        <v>5000</v>
       </c>
       <c r="C743" t="s">
-        <v>835</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>840</v>
-      </c>
-      <c r="B744" t="s">
-        <v>839</v>
+        <v>1027</v>
+      </c>
+      <c r="B744">
+        <v>6000</v>
       </c>
       <c r="C744" t="s">
-        <v>838</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>843</v>
-      </c>
-      <c r="B745" t="s">
-        <v>842</v>
+        <v>1028</v>
+      </c>
+      <c r="B745">
+        <v>7000</v>
       </c>
       <c r="C745" t="s">
-        <v>841</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>846</v>
-      </c>
-      <c r="B746" t="s">
-        <v>845</v>
+        <v>1029</v>
+      </c>
+      <c r="B746">
+        <v>8000</v>
       </c>
       <c r="C746" t="s">
-        <v>844</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>849</v>
-      </c>
-      <c r="B747" t="s">
-        <v>848</v>
+        <v>1030</v>
+      </c>
+      <c r="B747">
+        <v>9000</v>
       </c>
       <c r="C747" t="s">
-        <v>847</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>852</v>
+        <v>1031</v>
       </c>
       <c r="B748" t="s">
-        <v>851</v>
+        <v>1162</v>
       </c>
       <c r="C748" t="s">
-        <v>850</v>
+        <v>436</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>855</v>
-      </c>
-      <c r="B749" t="s">
-        <v>854</v>
+        <v>1032</v>
+      </c>
+      <c r="B749">
+        <v>20000</v>
       </c>
       <c r="C749" t="s">
-        <v>853</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>856</v>
+        <v>1033</v>
+      </c>
+      <c r="B750">
+        <v>30000</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>859</v>
-      </c>
-      <c r="B751" t="s">
-        <v>858</v>
+        <v>1034</v>
+      </c>
+      <c r="B751">
+        <v>40000</v>
       </c>
       <c r="C751" t="s">
-        <v>857</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>862</v>
-      </c>
-      <c r="B752" t="s">
-        <v>861</v>
+        <v>1035</v>
+      </c>
+      <c r="B752">
+        <v>50000</v>
       </c>
       <c r="C752" t="s">
-        <v>860</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>865</v>
-      </c>
-      <c r="B753" t="s">
-        <v>864</v>
+        <v>1036</v>
+      </c>
+      <c r="B753">
+        <v>60000</v>
       </c>
       <c r="C753" t="s">
-        <v>863</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>868</v>
-      </c>
-      <c r="B754" t="s">
-        <v>867</v>
+        <v>1037</v>
+      </c>
+      <c r="B754">
+        <v>70000</v>
       </c>
       <c r="C754" t="s">
-        <v>866</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>871</v>
-      </c>
-      <c r="B755" t="s">
-        <v>870</v>
+        <v>1038</v>
+      </c>
+      <c r="B755">
+        <v>80000</v>
       </c>
       <c r="C755" t="s">
-        <v>869</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>859</v>
-      </c>
-      <c r="B756" t="s">
-        <v>873</v>
+        <v>1039</v>
+      </c>
+      <c r="B756">
+        <v>90000</v>
       </c>
       <c r="C756" t="s">
-        <v>872</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>876</v>
+        <v>434</v>
       </c>
       <c r="B757" t="s">
-        <v>875</v>
+        <v>435</v>
       </c>
       <c r="C757" t="s">
-        <v>874</v>
+        <v>436</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>879</v>
+        <v>1040</v>
       </c>
       <c r="B758" t="s">
-        <v>878</v>
+        <v>1171</v>
       </c>
       <c r="C758" t="s">
-        <v>877</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>882</v>
+        <v>1172</v>
       </c>
       <c r="B759" t="s">
-        <v>881</v>
+        <v>1173</v>
       </c>
       <c r="C759" t="s">
-        <v>880</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>885</v>
-      </c>
-      <c r="B760" t="s">
-        <v>884</v>
-      </c>
-      <c r="C760" t="s">
-        <v>883</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>888</v>
+        <v>733</v>
       </c>
       <c r="B761" t="s">
-        <v>887</v>
+        <v>732</v>
       </c>
       <c r="C761" t="s">
-        <v>886</v>
+        <v>731</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>891</v>
+        <v>736</v>
       </c>
       <c r="B762" t="s">
-        <v>890</v>
+        <v>735</v>
       </c>
       <c r="C762" t="s">
-        <v>889</v>
+        <v>734</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>894</v>
+        <v>739</v>
       </c>
       <c r="B763" t="s">
-        <v>893</v>
+        <v>738</v>
       </c>
       <c r="C763" t="s">
-        <v>892</v>
+        <v>737</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>897</v>
+        <v>742</v>
       </c>
       <c r="B764" t="s">
-        <v>896</v>
+        <v>741</v>
       </c>
       <c r="C764" t="s">
-        <v>895</v>
+        <v>740</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>900</v>
+        <v>745</v>
       </c>
       <c r="B765" t="s">
-        <v>899</v>
+        <v>744</v>
       </c>
       <c r="C765" t="s">
-        <v>898</v>
+        <v>743</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>903</v>
+        <v>748</v>
       </c>
       <c r="B766" t="s">
-        <v>902</v>
+        <v>747</v>
       </c>
       <c r="C766" t="s">
-        <v>901</v>
+        <v>746</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>903</v>
+        <v>751</v>
       </c>
       <c r="B767" t="s">
-        <v>905</v>
+        <v>750</v>
       </c>
       <c r="C767" t="s">
-        <v>904</v>
+        <v>749</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>908</v>
+        <v>754</v>
       </c>
       <c r="B768" t="s">
-        <v>907</v>
+        <v>753</v>
       </c>
       <c r="C768" t="s">
-        <v>906</v>
+        <v>752</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>911</v>
+        <v>757</v>
       </c>
       <c r="B769" t="s">
-        <v>910</v>
+        <v>756</v>
       </c>
       <c r="C769" t="s">
-        <v>909</v>
+        <v>755</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>914</v>
+        <v>760</v>
       </c>
       <c r="B770" t="s">
-        <v>913</v>
+        <v>759</v>
       </c>
       <c r="C770" t="s">
-        <v>912</v>
+        <v>758</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>917</v>
+        <v>763</v>
       </c>
       <c r="B771" t="s">
-        <v>916</v>
+        <v>762</v>
       </c>
       <c r="C771" t="s">
-        <v>915</v>
+        <v>761</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>920</v>
+        <v>766</v>
       </c>
       <c r="B772" t="s">
-        <v>919</v>
+        <v>765</v>
       </c>
       <c r="C772" t="s">
-        <v>918</v>
+        <v>764</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>923</v>
+        <v>769</v>
       </c>
       <c r="B773" t="s">
-        <v>922</v>
+        <v>768</v>
       </c>
       <c r="C773" t="s">
-        <v>921</v>
+        <v>767</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>926</v>
+        <v>772</v>
       </c>
       <c r="B774" t="s">
-        <v>925</v>
+        <v>771</v>
       </c>
       <c r="C774" t="s">
-        <v>924</v>
+        <v>770</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>929</v>
+        <v>775</v>
       </c>
       <c r="B775" t="s">
-        <v>928</v>
+        <v>774</v>
       </c>
       <c r="C775" t="s">
-        <v>927</v>
+        <v>773</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>932</v>
+        <v>777</v>
       </c>
       <c r="B776" t="s">
-        <v>931</v>
+        <v>776</v>
       </c>
       <c r="C776" t="s">
-        <v>930</v>
+        <v>302</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>935</v>
+        <v>780</v>
       </c>
       <c r="B777" t="s">
-        <v>934</v>
+        <v>779</v>
       </c>
       <c r="C777" t="s">
-        <v>933</v>
+        <v>778</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>938</v>
+        <v>783</v>
       </c>
       <c r="B778" t="s">
-        <v>937</v>
+        <v>782</v>
       </c>
       <c r="C778" t="s">
-        <v>936</v>
+        <v>781</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>941</v>
+        <v>786</v>
       </c>
       <c r="B779" t="s">
-        <v>940</v>
+        <v>785</v>
       </c>
       <c r="C779" t="s">
-        <v>939</v>
+        <v>784</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>944</v>
+        <v>789</v>
       </c>
       <c r="B780" t="s">
-        <v>943</v>
+        <v>788</v>
       </c>
       <c r="C780" t="s">
-        <v>942</v>
+        <v>787</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>947</v>
+        <v>792</v>
       </c>
       <c r="B781" t="s">
-        <v>946</v>
+        <v>791</v>
       </c>
       <c r="C781" t="s">
-        <v>945</v>
+        <v>790</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>949</v>
+        <v>795</v>
       </c>
       <c r="B782" t="s">
-        <v>949</v>
+        <v>794</v>
       </c>
       <c r="C782" t="s">
-        <v>948</v>
+        <v>793</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>952</v>
+        <v>798</v>
       </c>
       <c r="B783" t="s">
-        <v>951</v>
+        <v>797</v>
       </c>
       <c r="C783" t="s">
-        <v>950</v>
+        <v>796</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>955</v>
+        <v>801</v>
       </c>
       <c r="B784" t="s">
-        <v>954</v>
+        <v>800</v>
       </c>
       <c r="C784" t="s">
-        <v>953</v>
+        <v>799</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>958</v>
+        <v>804</v>
       </c>
       <c r="B785" t="s">
-        <v>957</v>
+        <v>803</v>
       </c>
       <c r="C785" t="s">
-        <v>956</v>
+        <v>802</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>961</v>
+        <v>807</v>
       </c>
       <c r="B786" t="s">
-        <v>960</v>
+        <v>806</v>
       </c>
       <c r="C786" t="s">
-        <v>959</v>
+        <v>805</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>963</v>
+        <v>810</v>
+      </c>
+      <c r="B787" t="s">
+        <v>809</v>
       </c>
       <c r="C787" t="s">
-        <v>962</v>
+        <v>808</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>966</v>
+        <v>813</v>
       </c>
       <c r="B788" t="s">
-        <v>965</v>
+        <v>812</v>
       </c>
       <c r="C788" t="s">
-        <v>964</v>
+        <v>811</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>969</v>
+        <v>816</v>
       </c>
       <c r="B789" t="s">
-        <v>968</v>
+        <v>815</v>
       </c>
       <c r="C789" t="s">
-        <v>967</v>
+        <v>814</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>966</v>
+        <v>819</v>
       </c>
       <c r="B790" t="s">
-        <v>971</v>
+        <v>818</v>
       </c>
       <c r="C790" t="s">
-        <v>970</v>
+        <v>817</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>974</v>
+        <v>822</v>
       </c>
       <c r="B791" t="s">
-        <v>973</v>
+        <v>821</v>
       </c>
       <c r="C791" t="s">
-        <v>972</v>
+        <v>820</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>977</v>
+        <v>825</v>
       </c>
       <c r="B792" t="s">
-        <v>976</v>
+        <v>824</v>
       </c>
       <c r="C792" t="s">
-        <v>975</v>
+        <v>823</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>980</v>
+        <v>828</v>
       </c>
       <c r="B793" t="s">
-        <v>979</v>
+        <v>827</v>
       </c>
       <c r="C793" t="s">
-        <v>978</v>
+        <v>826</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>983</v>
+        <v>831</v>
       </c>
       <c r="B794" t="s">
-        <v>982</v>
+        <v>830</v>
       </c>
       <c r="C794" t="s">
-        <v>981</v>
+        <v>829</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>986</v>
+        <v>834</v>
       </c>
       <c r="B795" t="s">
-        <v>985</v>
+        <v>833</v>
       </c>
       <c r="C795" t="s">
-        <v>984</v>
+        <v>832</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>989</v>
+        <v>837</v>
       </c>
       <c r="B796" t="s">
-        <v>988</v>
+        <v>836</v>
       </c>
       <c r="C796" t="s">
-        <v>987</v>
+        <v>835</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>991</v>
+        <v>840</v>
+      </c>
+      <c r="B797" t="s">
+        <v>839</v>
       </c>
       <c r="C797" t="s">
-        <v>990</v>
+        <v>838</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>994</v>
+        <v>843</v>
       </c>
       <c r="B798" t="s">
-        <v>993</v>
+        <v>842</v>
       </c>
       <c r="C798" t="s">
-        <v>992</v>
+        <v>841</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>997</v>
+        <v>846</v>
       </c>
       <c r="B799" t="s">
-        <v>996</v>
+        <v>845</v>
       </c>
       <c r="C799" t="s">
-        <v>995</v>
+        <v>844</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>999</v>
+        <v>849</v>
       </c>
       <c r="B800" t="s">
-        <v>998</v>
+        <v>848</v>
       </c>
       <c r="C800" t="s">
-        <v>998</v>
+        <v>847</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1002</v>
+        <v>852</v>
       </c>
       <c r="B801" t="s">
-        <v>1001</v>
+        <v>851</v>
       </c>
       <c r="C801" t="s">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1005</v>
+        <v>855</v>
       </c>
       <c r="B802" t="s">
-        <v>1004</v>
+        <v>854</v>
       </c>
       <c r="C802" t="s">
-        <v>1003</v>
+        <v>853</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1174</v>
+        <v>856</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1041</v>
+        <v>859</v>
       </c>
       <c r="B804" t="s">
-        <v>1042</v>
+        <v>858</v>
       </c>
       <c r="C804" t="s">
-        <v>1043</v>
+        <v>857</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1044</v>
+        <v>862</v>
       </c>
       <c r="B805" t="s">
-        <v>1045</v>
+        <v>861</v>
       </c>
       <c r="C805" t="s">
-        <v>1046</v>
+        <v>860</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1047</v>
+        <v>865</v>
       </c>
       <c r="B806" t="s">
-        <v>1048</v>
+        <v>864</v>
       </c>
       <c r="C806" t="s">
-        <v>1049</v>
+        <v>863</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1050</v>
+        <v>868</v>
       </c>
       <c r="B807" t="s">
-        <v>1051</v>
+        <v>867</v>
       </c>
       <c r="C807" t="s">
-        <v>1052</v>
+        <v>866</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1053</v>
+        <v>871</v>
       </c>
       <c r="B808" t="s">
-        <v>1054</v>
+        <v>870</v>
       </c>
       <c r="C808" t="s">
-        <v>1055</v>
+        <v>869</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1056</v>
+        <v>859</v>
       </c>
       <c r="B809" t="s">
-        <v>1057</v>
+        <v>873</v>
       </c>
       <c r="C809" t="s">
-        <v>1058</v>
+        <v>872</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1059</v>
+        <v>876</v>
       </c>
       <c r="B810" t="s">
-        <v>1060</v>
+        <v>875</v>
       </c>
       <c r="C810" t="s">
-        <v>1061</v>
+        <v>874</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1062</v>
+        <v>879</v>
       </c>
       <c r="B811" t="s">
-        <v>1063</v>
+        <v>878</v>
       </c>
       <c r="C811" t="s">
-        <v>1063</v>
+        <v>877</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1064</v>
+        <v>882</v>
       </c>
       <c r="B812" t="s">
-        <v>1065</v>
+        <v>881</v>
       </c>
       <c r="C812" t="s">
-        <v>1065</v>
+        <v>880</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1066</v>
+        <v>885</v>
       </c>
       <c r="B813" t="s">
-        <v>1067</v>
+        <v>884</v>
       </c>
       <c r="C813" t="s">
-        <v>1067</v>
+        <v>883</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1068</v>
+        <v>888</v>
       </c>
       <c r="B814" t="s">
-        <v>1069</v>
+        <v>887</v>
       </c>
       <c r="C814" t="s">
-        <v>1069</v>
+        <v>886</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1070</v>
+        <v>891</v>
       </c>
       <c r="B815" t="s">
-        <v>1071</v>
+        <v>890</v>
       </c>
       <c r="C815" t="s">
-        <v>1071</v>
+        <v>889</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1072</v>
+        <v>894</v>
       </c>
       <c r="B816" t="s">
-        <v>1073</v>
+        <v>893</v>
       </c>
       <c r="C816" t="s">
-        <v>1073</v>
+        <v>892</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1074</v>
+        <v>897</v>
       </c>
       <c r="B817" t="s">
-        <v>1075</v>
+        <v>896</v>
       </c>
       <c r="C817" t="s">
-        <v>1075</v>
+        <v>895</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1076</v>
+        <v>900</v>
       </c>
       <c r="B818" t="s">
-        <v>1077</v>
+        <v>899</v>
       </c>
       <c r="C818" t="s">
-        <v>1077</v>
+        <v>898</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1078</v>
+        <v>903</v>
       </c>
       <c r="B819" t="s">
-        <v>1079</v>
+        <v>902</v>
       </c>
       <c r="C819" t="s">
-        <v>1079</v>
+        <v>901</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1080</v>
+        <v>903</v>
       </c>
       <c r="B820" t="s">
-        <v>1081</v>
+        <v>905</v>
       </c>
       <c r="C820" t="s">
-        <v>1081</v>
+        <v>904</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1082</v>
+        <v>908</v>
       </c>
       <c r="B821" t="s">
-        <v>1083</v>
+        <v>907</v>
       </c>
       <c r="C821" t="s">
-        <v>1083</v>
+        <v>906</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1084</v>
+        <v>911</v>
       </c>
       <c r="B822" t="s">
-        <v>1085</v>
+        <v>910</v>
       </c>
       <c r="C822" t="s">
-        <v>1085</v>
+        <v>909</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1086</v>
+        <v>914</v>
       </c>
       <c r="B823" t="s">
-        <v>1087</v>
+        <v>913</v>
       </c>
       <c r="C823" t="s">
-        <v>1087</v>
+        <v>912</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1088</v>
+        <v>917</v>
       </c>
       <c r="B824" t="s">
-        <v>1089</v>
+        <v>916</v>
       </c>
       <c r="C824" t="s">
-        <v>1089</v>
+        <v>915</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1090</v>
+        <v>920</v>
       </c>
       <c r="B825" t="s">
-        <v>1091</v>
+        <v>919</v>
       </c>
       <c r="C825" t="s">
-        <v>1091</v>
+        <v>918</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1092</v>
+        <v>923</v>
       </c>
       <c r="B826" t="s">
-        <v>1093</v>
+        <v>922</v>
       </c>
       <c r="C826" t="s">
-        <v>1093</v>
+        <v>921</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1094</v>
+        <v>926</v>
       </c>
       <c r="B827" t="s">
-        <v>1095</v>
+        <v>925</v>
       </c>
       <c r="C827" t="s">
-        <v>1095</v>
+        <v>924</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1096</v>
+        <v>929</v>
       </c>
       <c r="B828" t="s">
-        <v>1097</v>
+        <v>928</v>
       </c>
       <c r="C828" t="s">
-        <v>1097</v>
+        <v>927</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1098</v>
+        <v>932</v>
       </c>
       <c r="B829" t="s">
-        <v>1099</v>
+        <v>931</v>
       </c>
       <c r="C829" t="s">
-        <v>1099</v>
+        <v>930</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1100</v>
+        <v>935</v>
       </c>
       <c r="B830" t="s">
-        <v>1101</v>
+        <v>934</v>
       </c>
       <c r="C830" t="s">
-        <v>1102</v>
+        <v>933</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1103</v>
+        <v>938</v>
       </c>
       <c r="B831" t="s">
-        <v>1104</v>
+        <v>937</v>
       </c>
       <c r="C831" t="s">
-        <v>1105</v>
+        <v>936</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1106</v>
+        <v>941</v>
       </c>
       <c r="B832" t="s">
-        <v>1107</v>
+        <v>940</v>
       </c>
       <c r="C832" t="s">
-        <v>1108</v>
+        <v>939</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1109</v>
+        <v>944</v>
       </c>
       <c r="B833" t="s">
-        <v>1110</v>
+        <v>943</v>
       </c>
       <c r="C833" t="s">
-        <v>1111</v>
+        <v>942</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1112</v>
+        <v>947</v>
       </c>
       <c r="B834" t="s">
-        <v>1113</v>
+        <v>946</v>
       </c>
       <c r="C834" t="s">
-        <v>1114</v>
+        <v>945</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1115</v>
+        <v>949</v>
       </c>
       <c r="B835" t="s">
-        <v>1116</v>
+        <v>949</v>
       </c>
       <c r="C835" t="s">
-        <v>1117</v>
+        <v>948</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1118</v>
+        <v>952</v>
       </c>
       <c r="B836" t="s">
-        <v>1119</v>
+        <v>951</v>
       </c>
       <c r="C836" t="s">
-        <v>1120</v>
+        <v>950</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1121</v>
+        <v>955</v>
       </c>
       <c r="B837" t="s">
-        <v>1122</v>
+        <v>954</v>
       </c>
       <c r="C837" t="s">
-        <v>1123</v>
+        <v>953</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
+        <v>958</v>
+      </c>
+      <c r="B838" t="s">
+        <v>957</v>
+      </c>
+      <c r="C838" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>961</v>
+      </c>
+      <c r="B839" t="s">
+        <v>960</v>
+      </c>
+      <c r="C839" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>963</v>
+      </c>
+      <c r="C840" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>966</v>
+      </c>
+      <c r="B841" t="s">
+        <v>965</v>
+      </c>
+      <c r="C841" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>969</v>
+      </c>
+      <c r="B842" t="s">
+        <v>968</v>
+      </c>
+      <c r="C842" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>966</v>
+      </c>
+      <c r="B843" t="s">
+        <v>971</v>
+      </c>
+      <c r="C843" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>974</v>
+      </c>
+      <c r="B844" t="s">
+        <v>973</v>
+      </c>
+      <c r="C844" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>977</v>
+      </c>
+      <c r="B845" t="s">
+        <v>976</v>
+      </c>
+      <c r="C845" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>980</v>
+      </c>
+      <c r="B846" t="s">
+        <v>979</v>
+      </c>
+      <c r="C846" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>983</v>
+      </c>
+      <c r="B847" t="s">
+        <v>982</v>
+      </c>
+      <c r="C847" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>986</v>
+      </c>
+      <c r="B848" t="s">
+        <v>985</v>
+      </c>
+      <c r="C848" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>989</v>
+      </c>
+      <c r="B849" t="s">
+        <v>988</v>
+      </c>
+      <c r="C849" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>991</v>
+      </c>
+      <c r="C850" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>994</v>
+      </c>
+      <c r="B851" t="s">
+        <v>993</v>
+      </c>
+      <c r="C851" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>997</v>
+      </c>
+      <c r="B852" t="s">
+        <v>996</v>
+      </c>
+      <c r="C852" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>999</v>
+      </c>
+      <c r="B853" t="s">
+        <v>998</v>
+      </c>
+      <c r="C853" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
         <v>1124</v>
       </c>
-      <c r="B838" t="s">
+      <c r="B891" t="s">
         <v>1125</v>
       </c>
-      <c r="C838" t="s">
+      <c r="C891" t="s">
         <v>1126</v>
       </c>
     </row>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5E253E-8019-49BB-B6D3-A47D571B41E5}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DBF22B-EF0C-4433-A79E-5DB1A8425F62}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1356" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="2065">
   <si>
     <t>わたし</t>
   </si>
@@ -6341,6 +6341,67 @@
   </si>
   <si>
     <t>東京迪士尼樂園</t>
+  </si>
+  <si>
+    <t>わたしわ マイク・ミラーです</t>
+  </si>
+  <si>
+    <t>ミラーさんは かい しゃいん ですが</t>
+  </si>
+  <si>
+    <t>ミラーさんは会社員ですが</t>
+  </si>
+  <si>
+    <t>サントスさんは がくせい じゃ では ありません</t>
+  </si>
+  <si>
+    <t>サントスさんは 学生じゃ では ありません</t>
+  </si>
+  <si>
+    <t>サントスさんも かいしゃいん です</t>
+  </si>
+  <si>
+    <t>サントスさんも会社員です</t>
+  </si>
+  <si>
+    <t>ワンさん は ぎんこういん ですか</t>
+  </si>
+  <si>
+    <t>ワンさん は 銀行員 ですか</t>
+  </si>
+  <si>
+    <t>はい ワんさんは ぎんこういん です</t>
+  </si>
+  <si>
+    <t>はい ワんさんは 銀行員 ぎんこういん です</t>
+  </si>
+  <si>
+    <t>米勒先生是公司職員嗎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三多斯先生不是學生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三多斯先生也是公司職員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王先生是銀行職員嗎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，王先生是銀行職員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我叫做麥可米勒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文型-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6698,16 +6759,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C891"/>
+  <dimension ref="A1:C898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551"/>
+    <sheetView tabSelected="1" topLeftCell="A887" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A893" sqref="A893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="55.625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15757,6 +15818,74 @@
         <v>1126</v>
       </c>
     </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C893" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C895" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C897" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C898" t="s">
+        <v>2062</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DBF22B-EF0C-4433-A79E-5DB1A8425F62}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCF89BE-C6CA-4246-A407-07A298D93870}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="2065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="2112">
   <si>
     <t>わたし</t>
   </si>
@@ -6402,6 +6402,150 @@
   <si>
     <t>*文型-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第18課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>できます</t>
+  </si>
+  <si>
+    <t>會/能夠/可以</t>
+  </si>
+  <si>
+    <t>あらいます</t>
+  </si>
+  <si>
+    <t>洗います</t>
+  </si>
+  <si>
+    <t>洗</t>
+  </si>
+  <si>
+    <t>ひきます</t>
+  </si>
+  <si>
+    <t>弾きます</t>
+  </si>
+  <si>
+    <t>彈(鋼琴等)</t>
+  </si>
+  <si>
+    <t>うたいます</t>
+  </si>
+  <si>
+    <t>歌います</t>
+  </si>
+  <si>
+    <t>あつめます</t>
+  </si>
+  <si>
+    <t>集めます</t>
+  </si>
+  <si>
+    <t>收集</t>
+  </si>
+  <si>
+    <t>すてます</t>
+  </si>
+  <si>
+    <t>捨てます</t>
+  </si>
+  <si>
+    <t>丟掉/捨棄</t>
+  </si>
+  <si>
+    <t>かえます</t>
+  </si>
+  <si>
+    <t>換えます</t>
+  </si>
+  <si>
+    <t>交換/變換</t>
+  </si>
+  <si>
+    <t>うんてんします</t>
+  </si>
+  <si>
+    <t>運転します</t>
+  </si>
+  <si>
+    <t>駕駛</t>
+  </si>
+  <si>
+    <t>よやくします</t>
+  </si>
+  <si>
+    <t>予約します</t>
+  </si>
+  <si>
+    <t>預約</t>
+  </si>
+  <si>
+    <t>けんがくします</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>見学します</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>參觀見習</t>
+  </si>
+  <si>
+    <t>ピアノ</t>
+  </si>
+  <si>
+    <t>鋼琴</t>
+  </si>
+  <si>
+    <t>…メートル</t>
+  </si>
+  <si>
+    <t>…公尺</t>
+  </si>
+  <si>
+    <t>こくさい～</t>
+  </si>
+  <si>
+    <t>国際～</t>
+  </si>
+  <si>
+    <t>國際～</t>
+  </si>
+  <si>
+    <t>げんきん</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>しゅみ</t>
+  </si>
+  <si>
+    <t>趣味</t>
+  </si>
+  <si>
+    <t>愛好/嗜好</t>
+  </si>
+  <si>
+    <t>にっき</t>
+  </si>
+  <si>
+    <t>日記</t>
+  </si>
+  <si>
+    <t>(お)いのり</t>
+  </si>
+  <si>
+    <t>(お)祈り</t>
+  </si>
+  <si>
+    <t>祈禱</t>
+  </si>
+  <si>
+    <t>を します (お)祈り を します</t>
   </si>
 </sst>
 </file>
@@ -6759,10 +6903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C898"/>
+  <dimension ref="A1:C917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A893" sqref="A893"/>
+    <sheetView tabSelected="1" topLeftCell="A608" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -12684,3205 +12828,3399 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>456</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>458</v>
-      </c>
-      <c r="B603" t="s">
-        <v>457</v>
+        <v>2066</v>
       </c>
       <c r="C603" t="s">
-        <v>457</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>461</v>
+        <v>2068</v>
       </c>
       <c r="B604" t="s">
-        <v>460</v>
+        <v>2069</v>
       </c>
       <c r="C604" t="s">
-        <v>459</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>464</v>
+        <v>2071</v>
       </c>
       <c r="B605" t="s">
-        <v>463</v>
+        <v>2072</v>
       </c>
       <c r="C605" t="s">
-        <v>462</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>466</v>
+        <v>2074</v>
       </c>
       <c r="B606" t="s">
-        <v>465</v>
+        <v>2075</v>
       </c>
       <c r="C606" t="s">
-        <v>465</v>
+        <v>749</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>381</v>
+        <v>2076</v>
       </c>
       <c r="B607" t="s">
-        <v>382</v>
+        <v>2077</v>
       </c>
       <c r="C607" t="s">
-        <v>383</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>469</v>
+        <v>2079</v>
       </c>
       <c r="B608" t="s">
-        <v>468</v>
+        <v>2080</v>
       </c>
       <c r="C608" t="s">
-        <v>467</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>472</v>
+        <v>2082</v>
       </c>
       <c r="B609" t="s">
-        <v>471</v>
+        <v>2083</v>
       </c>
       <c r="C609" t="s">
-        <v>470</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>398</v>
+        <v>2085</v>
       </c>
       <c r="B610" t="s">
-        <v>399</v>
+        <v>2086</v>
       </c>
       <c r="C610" t="s">
-        <v>400</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>474</v>
+        <v>2088</v>
       </c>
       <c r="B611" t="s">
-        <v>473</v>
+        <v>2089</v>
       </c>
       <c r="C611" t="s">
-        <v>473</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>476</v>
+        <v>2091</v>
       </c>
       <c r="B612" t="s">
-        <v>475</v>
+        <v>2092</v>
       </c>
       <c r="C612" t="s">
-        <v>475</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>161</v>
-      </c>
-      <c r="B613" t="s">
-        <v>162</v>
+        <v>2094</v>
       </c>
       <c r="C613" t="s">
-        <v>163</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>479</v>
-      </c>
-      <c r="B614" t="s">
-        <v>478</v>
+        <v>2096</v>
       </c>
       <c r="C614" t="s">
-        <v>477</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>365</v>
+        <v>2098</v>
       </c>
       <c r="B615" t="s">
-        <v>366</v>
+        <v>2099</v>
       </c>
       <c r="C615" t="s">
-        <v>366</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>482</v>
+        <v>2101</v>
       </c>
       <c r="B616" t="s">
-        <v>481</v>
+        <v>2102</v>
       </c>
       <c r="C616" t="s">
-        <v>480</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>485</v>
+        <v>2103</v>
       </c>
       <c r="B617" t="s">
-        <v>484</v>
+        <v>2104</v>
       </c>
       <c r="C617" t="s">
-        <v>483</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>488</v>
+        <v>2106</v>
       </c>
       <c r="B618" t="s">
-        <v>487</v>
+        <v>2107</v>
       </c>
       <c r="C618" t="s">
-        <v>486</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>491</v>
+        <v>2108</v>
       </c>
       <c r="B619" t="s">
-        <v>490</v>
+        <v>2109</v>
       </c>
       <c r="C619" t="s">
-        <v>489</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>494</v>
+        <v>2108</v>
       </c>
       <c r="B620" t="s">
-        <v>493</v>
+        <v>2111</v>
       </c>
       <c r="C620" t="s">
-        <v>492</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>497</v>
-      </c>
-      <c r="B621" t="s">
-        <v>496</v>
-      </c>
-      <c r="C621" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="B622" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="C622" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B623" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="C623" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="B624" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="C624" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="B625" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="C625" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>511</v>
+        <v>381</v>
       </c>
       <c r="B626" t="s">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="C626" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="B627" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="C627" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="B628" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="C628" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="B629" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C629" t="s">
-        <v>517</v>
+        <v>400</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="B630" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="C630" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="B631" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="C631" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>524</v>
+        <v>161</v>
+      </c>
+      <c r="B632" t="s">
+        <v>162</v>
+      </c>
+      <c r="C632" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="B633" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="C633" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>530</v>
+        <v>365</v>
       </c>
       <c r="B634" t="s">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="C634" t="s">
-        <v>528</v>
+        <v>366</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="B635" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="C635" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="B636" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="C636" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="B637" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="C637" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="B638" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="C638" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="B639" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C639" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="B640" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="C640" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="B641" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="C641" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="B642" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="C642" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="B643" t="s">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="C643" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="B644" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
       <c r="C644" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="B645" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="C645" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="B646" t="s">
-        <v>1127</v>
+        <v>391</v>
       </c>
       <c r="C646" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="B647" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="C647" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="B648" t="s">
-        <v>565</v>
+        <v>384</v>
       </c>
       <c r="C648" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>568</v>
+        <v>520</v>
       </c>
       <c r="B649" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="C649" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="B650" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="C650" t="s">
-        <v>569</v>
+        <v>521</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>573</v>
-      </c>
-      <c r="B651" t="s">
-        <v>572</v>
-      </c>
-      <c r="C651" t="s">
-        <v>572</v>
+        <v>524</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="B652" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="C652" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="B653" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="C653" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="B654" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="C654" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="B655" t="s">
-        <v>120</v>
+        <v>535</v>
       </c>
       <c r="C655" t="s">
-        <v>121</v>
+        <v>534</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="B656" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="C656" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>587</v>
+        <v>542</v>
+      </c>
+      <c r="B657" t="s">
+        <v>541</v>
+      </c>
+      <c r="C657" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>590</v>
+        <v>544</v>
       </c>
       <c r="B658" t="s">
-        <v>589</v>
+        <v>543</v>
       </c>
       <c r="C658" t="s">
-        <v>588</v>
+        <v>543</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="B659" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="C659" t="s">
-        <v>591</v>
+        <v>545</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="B660" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="C660" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="B661" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="C661" t="s">
-        <v>597</v>
+        <v>549</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="B662" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="C662" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="B663" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="C663" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="B664" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="C664" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="B665" t="s">
-        <v>610</v>
+        <v>1127</v>
       </c>
       <c r="C665" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="B666" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="C666" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="B667" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="C667" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="B668" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="C668" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>405</v>
+        <v>571</v>
       </c>
       <c r="B669" t="s">
-        <v>406</v>
+        <v>570</v>
       </c>
       <c r="C669" t="s">
-        <v>407</v>
+        <v>569</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="B670" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="C670" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>58</v>
+        <v>576</v>
       </c>
       <c r="B671" t="s">
-        <v>59</v>
+        <v>575</v>
       </c>
       <c r="C671" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="B672" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="C672" t="s">
-        <v>625</v>
+        <v>577</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="B673" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="C673" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>61</v>
+        <v>583</v>
       </c>
       <c r="B674" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C674" t="s">
-        <v>630</v>
+        <v>121</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="B675" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="C675" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>636</v>
-      </c>
-      <c r="B676" t="s">
-        <v>635</v>
-      </c>
-      <c r="C676" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="B677" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="C677" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="B678" t="s">
-        <v>83</v>
+        <v>592</v>
       </c>
       <c r="C678" t="s">
-        <v>83</v>
+        <v>591</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>642</v>
+        <v>596</v>
       </c>
       <c r="B679" t="s">
-        <v>641</v>
+        <v>595</v>
       </c>
       <c r="C679" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
       <c r="B680" t="s">
-        <v>644</v>
+        <v>598</v>
       </c>
       <c r="C680" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="B681" t="s">
-        <v>647</v>
+        <v>601</v>
       </c>
       <c r="C681" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
       <c r="B682" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="C682" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="B683" t="s">
-        <v>70</v>
+        <v>607</v>
       </c>
       <c r="C683" t="s">
-        <v>71</v>
+        <v>606</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="B684" t="s">
-        <v>84</v>
+        <v>610</v>
       </c>
       <c r="C684" t="s">
-        <v>85</v>
+        <v>609</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="B685" t="s">
-        <v>86</v>
+        <v>613</v>
       </c>
       <c r="C685" t="s">
-        <v>87</v>
+        <v>612</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>403</v>
+        <v>617</v>
       </c>
       <c r="B686" t="s">
-        <v>404</v>
+        <v>616</v>
       </c>
       <c r="C686" t="s">
-        <v>404</v>
+        <v>615</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>657</v>
+        <v>620</v>
       </c>
       <c r="B687" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="C687" t="s">
-        <v>655</v>
+        <v>618</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>660</v>
+        <v>405</v>
       </c>
       <c r="B688" t="s">
-        <v>659</v>
+        <v>406</v>
       </c>
       <c r="C688" t="s">
-        <v>658</v>
+        <v>407</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="B689" t="s">
-        <v>102</v>
+        <v>622</v>
       </c>
       <c r="C689" t="s">
-        <v>103</v>
+        <v>621</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>664</v>
+        <v>58</v>
       </c>
       <c r="B690" t="s">
-        <v>663</v>
+        <v>59</v>
       </c>
       <c r="C690" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="B691" t="s">
-        <v>106</v>
+        <v>625</v>
       </c>
       <c r="C691" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="B692" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="C692" t="s">
-        <v>109</v>
+        <v>627</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>671</v>
+        <v>61</v>
       </c>
       <c r="B693" t="s">
-        <v>670</v>
+        <v>62</v>
       </c>
       <c r="C693" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>672</v>
+        <v>633</v>
+      </c>
+      <c r="B694" t="s">
+        <v>632</v>
+      </c>
+      <c r="C694" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
       <c r="B695" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="C695" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="B696" t="s">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="C696" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>681</v>
+        <v>82</v>
       </c>
       <c r="B697" t="s">
-        <v>680</v>
+        <v>83</v>
       </c>
       <c r="C697" t="s">
-        <v>679</v>
+        <v>83</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="B698" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="C698" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="B699" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="C699" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="B700" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="C700" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="B701" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="C701" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="B702" t="s">
-        <v>695</v>
+        <v>70</v>
       </c>
       <c r="C702" t="s">
-        <v>694</v>
+        <v>71</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="B703" t="s">
-        <v>698</v>
+        <v>84</v>
       </c>
       <c r="C703" t="s">
-        <v>697</v>
+        <v>85</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="B704" t="s">
-        <v>701</v>
+        <v>86</v>
       </c>
       <c r="C704" t="s">
-        <v>700</v>
+        <v>87</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>705</v>
+        <v>403</v>
       </c>
       <c r="B705" t="s">
-        <v>704</v>
+        <v>404</v>
       </c>
       <c r="C705" t="s">
-        <v>703</v>
+        <v>404</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>401</v>
+        <v>657</v>
       </c>
       <c r="B706" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="C706" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="B707" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="C707" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="B708" t="s">
-        <v>712</v>
+        <v>102</v>
       </c>
       <c r="C708" t="s">
-        <v>711</v>
+        <v>103</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="B709" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="C709" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
       <c r="B710" t="s">
-        <v>718</v>
+        <v>106</v>
       </c>
       <c r="C710" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>720</v>
+        <v>668</v>
+      </c>
+      <c r="B711" t="s">
+        <v>667</v>
+      </c>
+      <c r="C711" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>721</v>
-      </c>
-      <c r="B712">
-        <v>1</v>
+        <v>671</v>
+      </c>
+      <c r="B712" t="s">
+        <v>670</v>
       </c>
       <c r="C712" t="s">
-        <v>1128</v>
+        <v>669</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>722</v>
-      </c>
-      <c r="B713">
-        <v>2</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1129</v>
+        <v>672</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>723</v>
-      </c>
-      <c r="B714">
-        <v>3</v>
+        <v>675</v>
+      </c>
+      <c r="B714" t="s">
+        <v>674</v>
       </c>
       <c r="C714" t="s">
-        <v>1130</v>
+        <v>673</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>724</v>
-      </c>
-      <c r="B715">
-        <v>4</v>
+        <v>678</v>
+      </c>
+      <c r="B715" t="s">
+        <v>677</v>
       </c>
       <c r="C715" t="s">
-        <v>1131</v>
+        <v>676</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>725</v>
-      </c>
-      <c r="B716">
-        <v>5</v>
+        <v>681</v>
+      </c>
+      <c r="B716" t="s">
+        <v>680</v>
       </c>
       <c r="C716" t="s">
-        <v>1132</v>
+        <v>679</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>726</v>
-      </c>
-      <c r="B717">
-        <v>6</v>
+        <v>684</v>
+      </c>
+      <c r="B717" t="s">
+        <v>683</v>
       </c>
       <c r="C717" t="s">
-        <v>1133</v>
+        <v>682</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>727</v>
-      </c>
-      <c r="B718">
-        <v>7</v>
+        <v>687</v>
+      </c>
+      <c r="B718" t="s">
+        <v>686</v>
       </c>
       <c r="C718" t="s">
-        <v>1134</v>
+        <v>685</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>728</v>
-      </c>
-      <c r="B719">
-        <v>8</v>
+        <v>690</v>
+      </c>
+      <c r="B719" t="s">
+        <v>689</v>
       </c>
       <c r="C719" t="s">
-        <v>1135</v>
+        <v>688</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>729</v>
-      </c>
-      <c r="B720">
-        <v>9</v>
+        <v>693</v>
+      </c>
+      <c r="B720" t="s">
+        <v>692</v>
       </c>
       <c r="C720" t="s">
-        <v>1136</v>
+        <v>691</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>730</v>
-      </c>
-      <c r="B721">
-        <v>10</v>
+        <v>696</v>
+      </c>
+      <c r="B721" t="s">
+        <v>695</v>
       </c>
       <c r="C721" t="s">
-        <v>1137</v>
+        <v>694</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B722">
-        <v>20</v>
+        <v>699</v>
+      </c>
+      <c r="B722" t="s">
+        <v>698</v>
       </c>
       <c r="C722" t="s">
-        <v>1138</v>
+        <v>697</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B723">
-        <v>30</v>
+        <v>702</v>
+      </c>
+      <c r="B723" t="s">
+        <v>701</v>
       </c>
       <c r="C723" t="s">
-        <v>1139</v>
+        <v>700</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B724">
-        <v>40</v>
+        <v>705</v>
+      </c>
+      <c r="B724" t="s">
+        <v>704</v>
       </c>
       <c r="C724" t="s">
-        <v>1140</v>
+        <v>703</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B725">
-        <v>50</v>
+        <v>401</v>
+      </c>
+      <c r="B725" t="s">
+        <v>707</v>
       </c>
       <c r="C725" t="s">
-        <v>1141</v>
+        <v>706</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B726">
-        <v>60</v>
+        <v>710</v>
+      </c>
+      <c r="B726" t="s">
+        <v>709</v>
       </c>
       <c r="C726" t="s">
-        <v>1142</v>
+        <v>708</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B727">
-        <v>70</v>
+        <v>713</v>
+      </c>
+      <c r="B727" t="s">
+        <v>712</v>
       </c>
       <c r="C727" t="s">
-        <v>1143</v>
+        <v>711</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B728">
-        <v>80</v>
+        <v>716</v>
+      </c>
+      <c r="B728" t="s">
+        <v>715</v>
       </c>
       <c r="C728" t="s">
-        <v>1144</v>
+        <v>714</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B729">
-        <v>90</v>
+        <v>719</v>
+      </c>
+      <c r="B729" t="s">
+        <v>718</v>
       </c>
       <c r="C729" t="s">
-        <v>1145</v>
+        <v>717</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>430</v>
-      </c>
-      <c r="B730">
-        <v>100</v>
-      </c>
-      <c r="C730" t="s">
-        <v>431</v>
+        <v>720</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1015</v>
+        <v>721</v>
       </c>
       <c r="B731">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C731" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1016</v>
+        <v>722</v>
       </c>
       <c r="B732">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="C732" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1017</v>
+        <v>723</v>
       </c>
       <c r="B733">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="C733" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1018</v>
+        <v>724</v>
       </c>
       <c r="B734">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="C734" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1019</v>
+        <v>725</v>
       </c>
       <c r="B735">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="C735" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1020</v>
+        <v>726</v>
       </c>
       <c r="B736">
-        <v>700</v>
+        <v>6</v>
       </c>
       <c r="C736" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1021</v>
+        <v>727</v>
       </c>
       <c r="B737">
-        <v>800</v>
+        <v>7</v>
       </c>
       <c r="C737" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1022</v>
+        <v>728</v>
       </c>
       <c r="B738">
-        <v>900</v>
+        <v>8</v>
       </c>
       <c r="C738" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>432</v>
+        <v>729</v>
       </c>
       <c r="B739">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="C739" t="s">
-        <v>433</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1023</v>
+        <v>730</v>
       </c>
       <c r="B740">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C740" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="B741">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="C741" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="B742">
-        <v>4000</v>
+        <v>30</v>
       </c>
       <c r="C742" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="B743">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="C743" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="B744">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="C744" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="B745">
-        <v>7000</v>
+        <v>60</v>
       </c>
       <c r="C745" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="B746">
-        <v>8000</v>
+        <v>70</v>
       </c>
       <c r="C746" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="B747">
-        <v>9000</v>
+        <v>80</v>
       </c>
       <c r="C747" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1162</v>
+        <v>1014</v>
+      </c>
+      <c r="B748">
+        <v>90</v>
       </c>
       <c r="C748" t="s">
-        <v>436</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1032</v>
+        <v>430</v>
       </c>
       <c r="B749">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="C749" t="s">
-        <v>1163</v>
+        <v>431</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="B750">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="C750" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="B751">
-        <v>40000</v>
+        <v>300</v>
       </c>
       <c r="C751" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="B752">
-        <v>50000</v>
+        <v>400</v>
       </c>
       <c r="C752" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="B753">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="C753" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="B754">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="C754" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="B755">
-        <v>80000</v>
+        <v>700</v>
       </c>
       <c r="C755" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="B756">
-        <v>90000</v>
+        <v>800</v>
       </c>
       <c r="C756" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>434</v>
-      </c>
-      <c r="B757" t="s">
-        <v>435</v>
+        <v>1022</v>
+      </c>
+      <c r="B757">
+        <v>900</v>
       </c>
       <c r="C757" t="s">
-        <v>436</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B758" t="s">
-        <v>1171</v>
+        <v>432</v>
+      </c>
+      <c r="B758">
+        <v>1000</v>
       </c>
       <c r="C758" t="s">
-        <v>1171</v>
+        <v>433</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B759" t="s">
-        <v>1173</v>
+        <v>1023</v>
+      </c>
+      <c r="B759">
+        <v>2000</v>
       </c>
       <c r="C759" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1006</v>
+        <v>1024</v>
+      </c>
+      <c r="B760">
+        <v>3000</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>733</v>
-      </c>
-      <c r="B761" t="s">
-        <v>732</v>
+        <v>1025</v>
+      </c>
+      <c r="B761">
+        <v>4000</v>
       </c>
       <c r="C761" t="s">
-        <v>731</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>736</v>
-      </c>
-      <c r="B762" t="s">
-        <v>735</v>
+        <v>1026</v>
+      </c>
+      <c r="B762">
+        <v>5000</v>
       </c>
       <c r="C762" t="s">
-        <v>734</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>739</v>
-      </c>
-      <c r="B763" t="s">
-        <v>738</v>
+        <v>1027</v>
+      </c>
+      <c r="B763">
+        <v>6000</v>
       </c>
       <c r="C763" t="s">
-        <v>737</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>742</v>
-      </c>
-      <c r="B764" t="s">
-        <v>741</v>
+        <v>1028</v>
+      </c>
+      <c r="B764">
+        <v>7000</v>
       </c>
       <c r="C764" t="s">
-        <v>740</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>745</v>
-      </c>
-      <c r="B765" t="s">
-        <v>744</v>
+        <v>1029</v>
+      </c>
+      <c r="B765">
+        <v>8000</v>
       </c>
       <c r="C765" t="s">
-        <v>743</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>748</v>
-      </c>
-      <c r="B766" t="s">
-        <v>747</v>
+        <v>1030</v>
+      </c>
+      <c r="B766">
+        <v>9000</v>
       </c>
       <c r="C766" t="s">
-        <v>746</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>751</v>
+        <v>1031</v>
       </c>
       <c r="B767" t="s">
-        <v>750</v>
+        <v>1162</v>
       </c>
       <c r="C767" t="s">
-        <v>749</v>
+        <v>436</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>754</v>
-      </c>
-      <c r="B768" t="s">
-        <v>753</v>
+        <v>1032</v>
+      </c>
+      <c r="B768">
+        <v>20000</v>
       </c>
       <c r="C768" t="s">
-        <v>752</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>757</v>
-      </c>
-      <c r="B769" t="s">
-        <v>756</v>
+        <v>1033</v>
+      </c>
+      <c r="B769">
+        <v>30000</v>
       </c>
       <c r="C769" t="s">
-        <v>755</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>760</v>
-      </c>
-      <c r="B770" t="s">
-        <v>759</v>
+        <v>1034</v>
+      </c>
+      <c r="B770">
+        <v>40000</v>
       </c>
       <c r="C770" t="s">
-        <v>758</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>763</v>
-      </c>
-      <c r="B771" t="s">
-        <v>762</v>
+        <v>1035</v>
+      </c>
+      <c r="B771">
+        <v>50000</v>
       </c>
       <c r="C771" t="s">
-        <v>761</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>766</v>
-      </c>
-      <c r="B772" t="s">
-        <v>765</v>
+        <v>1036</v>
+      </c>
+      <c r="B772">
+        <v>60000</v>
       </c>
       <c r="C772" t="s">
-        <v>764</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>769</v>
-      </c>
-      <c r="B773" t="s">
-        <v>768</v>
+        <v>1037</v>
+      </c>
+      <c r="B773">
+        <v>70000</v>
       </c>
       <c r="C773" t="s">
-        <v>767</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>772</v>
-      </c>
-      <c r="B774" t="s">
-        <v>771</v>
+        <v>1038</v>
+      </c>
+      <c r="B774">
+        <v>80000</v>
       </c>
       <c r="C774" t="s">
-        <v>770</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>775</v>
-      </c>
-      <c r="B775" t="s">
-        <v>774</v>
+        <v>1039</v>
+      </c>
+      <c r="B775">
+        <v>90000</v>
       </c>
       <c r="C775" t="s">
-        <v>773</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>777</v>
+        <v>434</v>
       </c>
       <c r="B776" t="s">
-        <v>776</v>
+        <v>435</v>
       </c>
       <c r="C776" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>780</v>
+        <v>1040</v>
       </c>
       <c r="B777" t="s">
-        <v>779</v>
+        <v>1171</v>
       </c>
       <c r="C777" t="s">
-        <v>778</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>783</v>
+        <v>1172</v>
       </c>
       <c r="B778" t="s">
-        <v>782</v>
+        <v>1173</v>
       </c>
       <c r="C778" t="s">
-        <v>781</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>786</v>
-      </c>
-      <c r="B779" t="s">
-        <v>785</v>
-      </c>
-      <c r="C779" t="s">
-        <v>784</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
       <c r="B780" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
       <c r="C780" t="s">
-        <v>787</v>
+        <v>731</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>792</v>
+        <v>736</v>
       </c>
       <c r="B781" t="s">
-        <v>791</v>
+        <v>735</v>
       </c>
       <c r="C781" t="s">
-        <v>790</v>
+        <v>734</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>795</v>
+        <v>739</v>
       </c>
       <c r="B782" t="s">
-        <v>794</v>
+        <v>738</v>
       </c>
       <c r="C782" t="s">
-        <v>793</v>
+        <v>737</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>798</v>
+        <v>742</v>
       </c>
       <c r="B783" t="s">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="C783" t="s">
-        <v>796</v>
+        <v>740</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>801</v>
+        <v>745</v>
       </c>
       <c r="B784" t="s">
-        <v>800</v>
+        <v>744</v>
       </c>
       <c r="C784" t="s">
-        <v>799</v>
+        <v>743</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="B785" t="s">
-        <v>803</v>
+        <v>747</v>
       </c>
       <c r="C785" t="s">
-        <v>802</v>
+        <v>746</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="B786" t="s">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="C786" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>810</v>
+        <v>754</v>
       </c>
       <c r="B787" t="s">
-        <v>809</v>
+        <v>753</v>
       </c>
       <c r="C787" t="s">
-        <v>808</v>
+        <v>752</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>813</v>
+        <v>757</v>
       </c>
       <c r="B788" t="s">
-        <v>812</v>
+        <v>756</v>
       </c>
       <c r="C788" t="s">
-        <v>811</v>
+        <v>755</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>816</v>
+        <v>760</v>
       </c>
       <c r="B789" t="s">
-        <v>815</v>
+        <v>759</v>
       </c>
       <c r="C789" t="s">
-        <v>814</v>
+        <v>758</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>819</v>
+        <v>763</v>
       </c>
       <c r="B790" t="s">
-        <v>818</v>
+        <v>762</v>
       </c>
       <c r="C790" t="s">
-        <v>817</v>
+        <v>761</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="B791" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="C791" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>825</v>
+        <v>769</v>
       </c>
       <c r="B792" t="s">
-        <v>824</v>
+        <v>768</v>
       </c>
       <c r="C792" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>828</v>
+        <v>772</v>
       </c>
       <c r="B793" t="s">
-        <v>827</v>
+        <v>771</v>
       </c>
       <c r="C793" t="s">
-        <v>826</v>
+        <v>770</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>831</v>
+        <v>775</v>
       </c>
       <c r="B794" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
       <c r="C794" t="s">
-        <v>829</v>
+        <v>773</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>834</v>
+        <v>777</v>
       </c>
       <c r="B795" t="s">
-        <v>833</v>
+        <v>776</v>
       </c>
       <c r="C795" t="s">
-        <v>832</v>
+        <v>302</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>837</v>
+        <v>780</v>
       </c>
       <c r="B796" t="s">
-        <v>836</v>
+        <v>779</v>
       </c>
       <c r="C796" t="s">
-        <v>835</v>
+        <v>778</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>840</v>
+        <v>783</v>
       </c>
       <c r="B797" t="s">
-        <v>839</v>
+        <v>782</v>
       </c>
       <c r="C797" t="s">
-        <v>838</v>
+        <v>781</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="B798" t="s">
-        <v>842</v>
+        <v>785</v>
       </c>
       <c r="C798" t="s">
-        <v>841</v>
+        <v>784</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>846</v>
+        <v>789</v>
       </c>
       <c r="B799" t="s">
-        <v>845</v>
+        <v>788</v>
       </c>
       <c r="C799" t="s">
-        <v>844</v>
+        <v>787</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>849</v>
+        <v>792</v>
       </c>
       <c r="B800" t="s">
-        <v>848</v>
+        <v>791</v>
       </c>
       <c r="C800" t="s">
-        <v>847</v>
+        <v>790</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>852</v>
+        <v>795</v>
       </c>
       <c r="B801" t="s">
-        <v>851</v>
+        <v>794</v>
       </c>
       <c r="C801" t="s">
-        <v>850</v>
+        <v>793</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>855</v>
+        <v>798</v>
       </c>
       <c r="B802" t="s">
-        <v>854</v>
+        <v>797</v>
       </c>
       <c r="C802" t="s">
-        <v>853</v>
+        <v>796</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>856</v>
+        <v>801</v>
+      </c>
+      <c r="B803" t="s">
+        <v>800</v>
+      </c>
+      <c r="C803" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>859</v>
+        <v>804</v>
       </c>
       <c r="B804" t="s">
-        <v>858</v>
+        <v>803</v>
       </c>
       <c r="C804" t="s">
-        <v>857</v>
+        <v>802</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>862</v>
+        <v>807</v>
       </c>
       <c r="B805" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="C805" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>865</v>
+        <v>810</v>
       </c>
       <c r="B806" t="s">
-        <v>864</v>
+        <v>809</v>
       </c>
       <c r="C806" t="s">
-        <v>863</v>
+        <v>808</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>868</v>
+        <v>813</v>
       </c>
       <c r="B807" t="s">
-        <v>867</v>
+        <v>812</v>
       </c>
       <c r="C807" t="s">
-        <v>866</v>
+        <v>811</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="B808" t="s">
-        <v>870</v>
+        <v>815</v>
       </c>
       <c r="C808" t="s">
-        <v>869</v>
+        <v>814</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="B809" t="s">
-        <v>873</v>
+        <v>818</v>
       </c>
       <c r="C809" t="s">
-        <v>872</v>
+        <v>817</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>876</v>
+        <v>822</v>
       </c>
       <c r="B810" t="s">
-        <v>875</v>
+        <v>821</v>
       </c>
       <c r="C810" t="s">
-        <v>874</v>
+        <v>820</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>879</v>
+        <v>825</v>
       </c>
       <c r="B811" t="s">
-        <v>878</v>
+        <v>824</v>
       </c>
       <c r="C811" t="s">
-        <v>877</v>
+        <v>823</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>882</v>
+        <v>828</v>
       </c>
       <c r="B812" t="s">
-        <v>881</v>
+        <v>827</v>
       </c>
       <c r="C812" t="s">
-        <v>880</v>
+        <v>826</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>885</v>
+        <v>831</v>
       </c>
       <c r="B813" t="s">
-        <v>884</v>
+        <v>830</v>
       </c>
       <c r="C813" t="s">
-        <v>883</v>
+        <v>829</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>888</v>
+        <v>834</v>
       </c>
       <c r="B814" t="s">
-        <v>887</v>
+        <v>833</v>
       </c>
       <c r="C814" t="s">
-        <v>886</v>
+        <v>832</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>891</v>
+        <v>837</v>
       </c>
       <c r="B815" t="s">
-        <v>890</v>
+        <v>836</v>
       </c>
       <c r="C815" t="s">
-        <v>889</v>
+        <v>835</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>894</v>
+        <v>840</v>
       </c>
       <c r="B816" t="s">
-        <v>893</v>
+        <v>839</v>
       </c>
       <c r="C816" t="s">
-        <v>892</v>
+        <v>838</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>897</v>
+        <v>843</v>
       </c>
       <c r="B817" t="s">
-        <v>896</v>
+        <v>842</v>
       </c>
       <c r="C817" t="s">
-        <v>895</v>
+        <v>841</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>900</v>
+        <v>846</v>
       </c>
       <c r="B818" t="s">
-        <v>899</v>
+        <v>845</v>
       </c>
       <c r="C818" t="s">
-        <v>898</v>
+        <v>844</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>903</v>
+        <v>849</v>
       </c>
       <c r="B819" t="s">
-        <v>902</v>
+        <v>848</v>
       </c>
       <c r="C819" t="s">
-        <v>901</v>
+        <v>847</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>903</v>
+        <v>852</v>
       </c>
       <c r="B820" t="s">
-        <v>905</v>
+        <v>851</v>
       </c>
       <c r="C820" t="s">
-        <v>904</v>
+        <v>850</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>908</v>
+        <v>855</v>
       </c>
       <c r="B821" t="s">
-        <v>907</v>
+        <v>854</v>
       </c>
       <c r="C821" t="s">
-        <v>906</v>
+        <v>853</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>911</v>
-      </c>
-      <c r="B822" t="s">
-        <v>910</v>
-      </c>
-      <c r="C822" t="s">
-        <v>909</v>
+        <v>856</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="B823" t="s">
-        <v>913</v>
+        <v>858</v>
       </c>
       <c r="C823" t="s">
-        <v>912</v>
+        <v>857</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>917</v>
+        <v>862</v>
       </c>
       <c r="B824" t="s">
-        <v>916</v>
+        <v>861</v>
       </c>
       <c r="C824" t="s">
-        <v>915</v>
+        <v>860</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>920</v>
+        <v>865</v>
       </c>
       <c r="B825" t="s">
-        <v>919</v>
+        <v>864</v>
       </c>
       <c r="C825" t="s">
-        <v>918</v>
+        <v>863</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>923</v>
+        <v>868</v>
       </c>
       <c r="B826" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="C826" t="s">
-        <v>921</v>
+        <v>866</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>926</v>
+        <v>871</v>
       </c>
       <c r="B827" t="s">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="C827" t="s">
-        <v>924</v>
+        <v>869</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>929</v>
+        <v>859</v>
       </c>
       <c r="B828" t="s">
-        <v>928</v>
+        <v>873</v>
       </c>
       <c r="C828" t="s">
-        <v>927</v>
+        <v>872</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>932</v>
+        <v>876</v>
       </c>
       <c r="B829" t="s">
-        <v>931</v>
+        <v>875</v>
       </c>
       <c r="C829" t="s">
-        <v>930</v>
+        <v>874</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>935</v>
+        <v>879</v>
       </c>
       <c r="B830" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
       <c r="C830" t="s">
-        <v>933</v>
+        <v>877</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>938</v>
+        <v>882</v>
       </c>
       <c r="B831" t="s">
-        <v>937</v>
+        <v>881</v>
       </c>
       <c r="C831" t="s">
-        <v>936</v>
+        <v>880</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>941</v>
+        <v>885</v>
       </c>
       <c r="B832" t="s">
-        <v>940</v>
+        <v>884</v>
       </c>
       <c r="C832" t="s">
-        <v>939</v>
+        <v>883</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>944</v>
+        <v>888</v>
       </c>
       <c r="B833" t="s">
-        <v>943</v>
+        <v>887</v>
       </c>
       <c r="C833" t="s">
-        <v>942</v>
+        <v>886</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>947</v>
+        <v>891</v>
       </c>
       <c r="B834" t="s">
-        <v>946</v>
+        <v>890</v>
       </c>
       <c r="C834" t="s">
-        <v>945</v>
+        <v>889</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>949</v>
+        <v>894</v>
       </c>
       <c r="B835" t="s">
-        <v>949</v>
+        <v>893</v>
       </c>
       <c r="C835" t="s">
-        <v>948</v>
+        <v>892</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="B836" t="s">
-        <v>951</v>
+        <v>896</v>
       </c>
       <c r="C836" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>955</v>
+        <v>900</v>
       </c>
       <c r="B837" t="s">
-        <v>954</v>
+        <v>899</v>
       </c>
       <c r="C837" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>958</v>
+        <v>903</v>
       </c>
       <c r="B838" t="s">
-        <v>957</v>
+        <v>902</v>
       </c>
       <c r="C838" t="s">
-        <v>956</v>
+        <v>901</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>961</v>
+        <v>903</v>
       </c>
       <c r="B839" t="s">
-        <v>960</v>
+        <v>905</v>
       </c>
       <c r="C839" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>963</v>
+        <v>908</v>
+      </c>
+      <c r="B840" t="s">
+        <v>907</v>
       </c>
       <c r="C840" t="s">
-        <v>962</v>
+        <v>906</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
       <c r="B841" t="s">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="C841" t="s">
-        <v>964</v>
+        <v>909</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="B842" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="C842" t="s">
-        <v>967</v>
+        <v>912</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>966</v>
+        <v>917</v>
       </c>
       <c r="B843" t="s">
-        <v>971</v>
+        <v>916</v>
       </c>
       <c r="C843" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>974</v>
+        <v>920</v>
       </c>
       <c r="B844" t="s">
-        <v>973</v>
+        <v>919</v>
       </c>
       <c r="C844" t="s">
-        <v>972</v>
+        <v>918</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>977</v>
+        <v>923</v>
       </c>
       <c r="B845" t="s">
-        <v>976</v>
+        <v>922</v>
       </c>
       <c r="C845" t="s">
-        <v>975</v>
+        <v>921</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>980</v>
+        <v>926</v>
       </c>
       <c r="B846" t="s">
-        <v>979</v>
+        <v>925</v>
       </c>
       <c r="C846" t="s">
-        <v>978</v>
+        <v>924</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>983</v>
+        <v>929</v>
       </c>
       <c r="B847" t="s">
-        <v>982</v>
+        <v>928</v>
       </c>
       <c r="C847" t="s">
-        <v>981</v>
+        <v>927</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>986</v>
+        <v>932</v>
       </c>
       <c r="B848" t="s">
-        <v>985</v>
+        <v>931</v>
       </c>
       <c r="C848" t="s">
-        <v>984</v>
+        <v>930</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>989</v>
+        <v>935</v>
       </c>
       <c r="B849" t="s">
-        <v>988</v>
+        <v>934</v>
       </c>
       <c r="C849" t="s">
-        <v>987</v>
+        <v>933</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>991</v>
+        <v>938</v>
+      </c>
+      <c r="B850" t="s">
+        <v>937</v>
       </c>
       <c r="C850" t="s">
-        <v>990</v>
+        <v>936</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>994</v>
+        <v>941</v>
       </c>
       <c r="B851" t="s">
-        <v>993</v>
+        <v>940</v>
       </c>
       <c r="C851" t="s">
-        <v>992</v>
+        <v>939</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>997</v>
+        <v>944</v>
       </c>
       <c r="B852" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
       <c r="C852" t="s">
-        <v>995</v>
+        <v>942</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>999</v>
+        <v>947</v>
       </c>
       <c r="B853" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
       <c r="C853" t="s">
-        <v>998</v>
+        <v>945</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>1002</v>
+        <v>949</v>
       </c>
       <c r="B854" t="s">
-        <v>1001</v>
+        <v>949</v>
       </c>
       <c r="C854" t="s">
-        <v>1000</v>
+        <v>948</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1005</v>
+        <v>952</v>
       </c>
       <c r="B855" t="s">
-        <v>1004</v>
+        <v>951</v>
       </c>
       <c r="C855" t="s">
-        <v>1003</v>
+        <v>950</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>1174</v>
+        <v>955</v>
+      </c>
+      <c r="B856" t="s">
+        <v>954</v>
+      </c>
+      <c r="C856" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>1041</v>
+        <v>958</v>
       </c>
       <c r="B857" t="s">
-        <v>1042</v>
+        <v>957</v>
       </c>
       <c r="C857" t="s">
-        <v>1043</v>
+        <v>956</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1044</v>
+        <v>961</v>
       </c>
       <c r="B858" t="s">
-        <v>1045</v>
+        <v>960</v>
       </c>
       <c r="C858" t="s">
-        <v>1046</v>
+        <v>959</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B859" t="s">
-        <v>1048</v>
+        <v>963</v>
       </c>
       <c r="C859" t="s">
-        <v>1049</v>
+        <v>962</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1050</v>
+        <v>966</v>
       </c>
       <c r="B860" t="s">
-        <v>1051</v>
+        <v>965</v>
       </c>
       <c r="C860" t="s">
-        <v>1052</v>
+        <v>964</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1053</v>
+        <v>969</v>
       </c>
       <c r="B861" t="s">
-        <v>1054</v>
+        <v>968</v>
       </c>
       <c r="C861" t="s">
-        <v>1055</v>
+        <v>967</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1056</v>
+        <v>966</v>
       </c>
       <c r="B862" t="s">
-        <v>1057</v>
+        <v>971</v>
       </c>
       <c r="C862" t="s">
-        <v>1058</v>
+        <v>970</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1059</v>
+        <v>974</v>
       </c>
       <c r="B863" t="s">
-        <v>1060</v>
+        <v>973</v>
       </c>
       <c r="C863" t="s">
-        <v>1061</v>
+        <v>972</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>1062</v>
+        <v>977</v>
       </c>
       <c r="B864" t="s">
-        <v>1063</v>
+        <v>976</v>
       </c>
       <c r="C864" t="s">
-        <v>1063</v>
+        <v>975</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>1064</v>
+        <v>980</v>
       </c>
       <c r="B865" t="s">
-        <v>1065</v>
+        <v>979</v>
       </c>
       <c r="C865" t="s">
-        <v>1065</v>
+        <v>978</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>1066</v>
+        <v>983</v>
       </c>
       <c r="B866" t="s">
-        <v>1067</v>
+        <v>982</v>
       </c>
       <c r="C866" t="s">
-        <v>1067</v>
+        <v>981</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>1068</v>
+        <v>986</v>
       </c>
       <c r="B867" t="s">
-        <v>1069</v>
+        <v>985</v>
       </c>
       <c r="C867" t="s">
-        <v>1069</v>
+        <v>984</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1070</v>
+        <v>989</v>
       </c>
       <c r="B868" t="s">
-        <v>1071</v>
+        <v>988</v>
       </c>
       <c r="C868" t="s">
-        <v>1071</v>
+        <v>987</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1073</v>
+        <v>991</v>
       </c>
       <c r="C869" t="s">
-        <v>1073</v>
+        <v>990</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1074</v>
+        <v>994</v>
       </c>
       <c r="B870" t="s">
-        <v>1075</v>
+        <v>993</v>
       </c>
       <c r="C870" t="s">
-        <v>1075</v>
+        <v>992</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1076</v>
+        <v>997</v>
       </c>
       <c r="B871" t="s">
-        <v>1077</v>
+        <v>996</v>
       </c>
       <c r="C871" t="s">
-        <v>1077</v>
+        <v>995</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1078</v>
+        <v>999</v>
       </c>
       <c r="B872" t="s">
-        <v>1079</v>
+        <v>998</v>
       </c>
       <c r="C872" t="s">
-        <v>1079</v>
+        <v>998</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>1080</v>
+        <v>1002</v>
       </c>
       <c r="B873" t="s">
-        <v>1081</v>
+        <v>1001</v>
       </c>
       <c r="C873" t="s">
-        <v>1081</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1082</v>
+        <v>1005</v>
       </c>
       <c r="B874" t="s">
-        <v>1083</v>
+        <v>1004</v>
       </c>
       <c r="C874" t="s">
-        <v>1083</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B875" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C875" t="s">
-        <v>1085</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1086</v>
+        <v>1041</v>
       </c>
       <c r="B876" t="s">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="C876" t="s">
-        <v>1087</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1088</v>
+        <v>1044</v>
       </c>
       <c r="B877" t="s">
-        <v>1089</v>
+        <v>1045</v>
       </c>
       <c r="C877" t="s">
-        <v>1089</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1090</v>
+        <v>1047</v>
       </c>
       <c r="B878" t="s">
-        <v>1091</v>
+        <v>1048</v>
       </c>
       <c r="C878" t="s">
-        <v>1091</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1092</v>
+        <v>1050</v>
       </c>
       <c r="B879" t="s">
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="C879" t="s">
-        <v>1093</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1094</v>
+        <v>1053</v>
       </c>
       <c r="B880" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="C880" t="s">
-        <v>1095</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1096</v>
+        <v>1056</v>
       </c>
       <c r="B881" t="s">
-        <v>1097</v>
+        <v>1057</v>
       </c>
       <c r="C881" t="s">
-        <v>1097</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>1098</v>
+        <v>1059</v>
       </c>
       <c r="B882" t="s">
-        <v>1099</v>
+        <v>1060</v>
       </c>
       <c r="C882" t="s">
-        <v>1099</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>1100</v>
+        <v>1062</v>
       </c>
       <c r="B883" t="s">
-        <v>1101</v>
+        <v>1063</v>
       </c>
       <c r="C883" t="s">
-        <v>1102</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="B884" t="s">
-        <v>1104</v>
+        <v>1065</v>
       </c>
       <c r="C884" t="s">
-        <v>1105</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>1106</v>
+        <v>1066</v>
       </c>
       <c r="B885" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="C885" t="s">
-        <v>1108</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>1109</v>
+        <v>1068</v>
       </c>
       <c r="B886" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="C886" t="s">
-        <v>1111</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>1112</v>
+        <v>1070</v>
       </c>
       <c r="B887" t="s">
-        <v>1113</v>
+        <v>1071</v>
       </c>
       <c r="C887" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>1115</v>
+        <v>1072</v>
       </c>
       <c r="B888" t="s">
-        <v>1116</v>
+        <v>1073</v>
       </c>
       <c r="C888" t="s">
-        <v>1117</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>1118</v>
+        <v>1074</v>
       </c>
       <c r="B889" t="s">
-        <v>1119</v>
+        <v>1075</v>
       </c>
       <c r="C889" t="s">
-        <v>1120</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>1121</v>
+        <v>1076</v>
       </c>
       <c r="B890" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="C890" t="s">
-        <v>1123</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>1124</v>
+        <v>1078</v>
       </c>
       <c r="B891" t="s">
-        <v>1125</v>
+        <v>1079</v>
       </c>
       <c r="C891" t="s">
-        <v>1126</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>2064</v>
+        <v>1080</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>2047</v>
+        <v>1082</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1083</v>
       </c>
       <c r="C893" t="s">
-        <v>2063</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>2048</v>
+        <v>1084</v>
       </c>
       <c r="B894" t="s">
-        <v>2049</v>
+        <v>1085</v>
       </c>
       <c r="C894" t="s">
-        <v>2058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>2050</v>
+        <v>1086</v>
       </c>
       <c r="B895" t="s">
-        <v>2051</v>
+        <v>1087</v>
       </c>
       <c r="C895" t="s">
-        <v>2059</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>2052</v>
+        <v>1088</v>
       </c>
       <c r="B896" t="s">
-        <v>2053</v>
+        <v>1089</v>
       </c>
       <c r="C896" t="s">
-        <v>2060</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>2054</v>
+        <v>1090</v>
       </c>
       <c r="B897" t="s">
-        <v>2055</v>
+        <v>1091</v>
       </c>
       <c r="C897" t="s">
-        <v>2061</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C912" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C913" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C914" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
         <v>2056</v>
       </c>
-      <c r="B898" t="s">
+      <c r="B917" t="s">
         <v>2057</v>
       </c>
-      <c r="C898" t="s">
+      <c r="C917" t="s">
         <v>2062</v>
       </c>
     </row>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4B3C17-9E5B-4444-91A7-C4986E810326}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E76C29-4878-42C1-B83C-94F87F66F878}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="2139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="2153">
   <si>
     <t>わたし</t>
   </si>
@@ -6339,67 +6339,6 @@
     <t>東京迪士尼樂園</t>
   </si>
   <si>
-    <t>わたしわ マイク・ミラーです</t>
-  </si>
-  <si>
-    <t>ミラーさんは かい しゃいん ですが</t>
-  </si>
-  <si>
-    <t>ミラーさんは会社員ですが</t>
-  </si>
-  <si>
-    <t>サントスさんは がくせい じゃ では ありません</t>
-  </si>
-  <si>
-    <t>サントスさんは 学生じゃ では ありません</t>
-  </si>
-  <si>
-    <t>サントスさんも かいしゃいん です</t>
-  </si>
-  <si>
-    <t>サントスさんも会社員です</t>
-  </si>
-  <si>
-    <t>ワンさん は ぎんこういん ですか</t>
-  </si>
-  <si>
-    <t>ワンさん は 銀行員 ですか</t>
-  </si>
-  <si>
-    <t>はい ワんさんは ぎんこういん です</t>
-  </si>
-  <si>
-    <t>はい ワんさんは 銀行員 ぎんこういん です</t>
-  </si>
-  <si>
-    <t>米勒先生是公司職員嗎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三多斯先生不是學生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三多斯先生也是公司職員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王先生是銀行職員嗎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，王先生是銀行職員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我叫做麥可米勒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*文型-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>できます</t>
   </si>
   <si>
@@ -6627,6 +6566,109 @@
   </si>
   <si>
     <t>*第17~18課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>促音便</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>い、ち、り　って</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>い音便</t>
+  </si>
+  <si>
+    <t>きいて ぎいで</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥音便</t>
+  </si>
+  <si>
+    <t>み、びんで</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>無音便</t>
+  </si>
+  <si>
+    <t>しして</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>行きます　à 行って</t>
+  </si>
+  <si>
+    <t>あいます あって</t>
+  </si>
+  <si>
+    <t>会います 会って</t>
+  </si>
+  <si>
+    <t>まちます まって</t>
+  </si>
+  <si>
+    <t>待ちます 待って</t>
+  </si>
+  <si>
+    <t>かえります かえって</t>
+  </si>
+  <si>
+    <t>帰ります 帰って</t>
+  </si>
+  <si>
+    <t>回(家)</t>
+  </si>
+  <si>
+    <t>かきます かいて</t>
+  </si>
+  <si>
+    <t>書きます 書いて</t>
+  </si>
+  <si>
+    <t>いそぎます いそいで</t>
+  </si>
+  <si>
+    <t>急ぎます 急いで</t>
+  </si>
+  <si>
+    <t>快點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>よみます よんで</t>
+  </si>
+  <si>
+    <t>読みます 読んで</t>
+  </si>
+  <si>
+    <t>よびます よんで</t>
+  </si>
+  <si>
+    <t>呼びます 呼んで</t>
+  </si>
+  <si>
+    <t>叫</t>
+  </si>
+  <si>
+    <t>かします かして</t>
+  </si>
+  <si>
+    <t>貸します 貸して</t>
+  </si>
+  <si>
+    <t>いきます いって</t>
+  </si>
+  <si>
+    <t>行きます 行って</t>
+  </si>
+  <si>
+    <t>*1st動詞て型變化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6634,7 +6676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6669,6 +6711,13 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6690,7 +6739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6701,6 +6750,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6985,17 +7038,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C928"/>
+  <dimension ref="A1:C936"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B571" sqref="B571"/>
+    <sheetView tabSelected="1" topLeftCell="A918" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A929" sqref="A929"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.59765625" customWidth="1"/>
+    <col min="1" max="1" width="55.625" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7019,7 +7072,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7030,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7041,7 +7094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7052,7 +7105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7074,7 +7127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7085,7 +7138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7094,7 +7147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7105,7 +7158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7116,7 +7169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -7127,7 +7180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -7138,7 +7191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -7149,7 +7202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -7160,7 +7213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -7171,7 +7224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -7182,7 +7235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -7193,7 +7246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -7204,7 +7257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -7213,7 +7266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
@@ -7224,7 +7277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -7235,7 +7288,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -7246,7 +7299,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -7255,7 +7308,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -7264,7 +7317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -7275,7 +7328,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -7286,7 +7339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -7295,7 +7348,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
@@ -7303,7 +7356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>181</v>
       </c>
@@ -7311,7 +7364,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -7322,7 +7375,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
@@ -7333,7 +7386,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>189</v>
       </c>
@@ -7344,7 +7397,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
@@ -7353,7 +7406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
@@ -7362,7 +7415,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -7371,7 +7424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
@@ -7382,7 +7435,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>200</v>
       </c>
@@ -7393,7 +7446,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>202</v>
       </c>
@@ -7404,7 +7457,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>204</v>
       </c>
@@ -7415,7 +7468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -7426,7 +7479,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>208</v>
       </c>
@@ -7437,7 +7490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>211</v>
       </c>
@@ -7446,7 +7499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -7457,7 +7510,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
@@ -7466,7 +7519,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
@@ -7477,7 +7530,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>220</v>
       </c>
@@ -7488,7 +7541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -7499,7 +7552,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>231</v>
       </c>
@@ -7510,7 +7563,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -7518,7 +7571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
@@ -7526,7 +7579,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
@@ -12464,7 +12517,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>2138</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -12910,40 +12963,40 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>2064</v>
+        <v>2046</v>
       </c>
       <c r="C602" t="s">
-        <v>2065</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>2066</v>
+        <v>2048</v>
       </c>
       <c r="B603" t="s">
-        <v>2067</v>
+        <v>2049</v>
       </c>
       <c r="C603" t="s">
-        <v>2068</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>2069</v>
+        <v>2051</v>
       </c>
       <c r="B604" t="s">
-        <v>2070</v>
+        <v>2052</v>
       </c>
       <c r="C604" t="s">
-        <v>2071</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>2072</v>
+        <v>2054</v>
       </c>
       <c r="B605" t="s">
-        <v>2073</v>
+        <v>2055</v>
       </c>
       <c r="C605" t="s">
         <v>748</v>
@@ -12951,264 +13004,264 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>2074</v>
+        <v>2056</v>
       </c>
       <c r="B606" t="s">
-        <v>2075</v>
+        <v>2057</v>
       </c>
       <c r="C606" t="s">
-        <v>2076</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>2077</v>
+        <v>2059</v>
       </c>
       <c r="B607" t="s">
-        <v>2078</v>
+        <v>2060</v>
       </c>
       <c r="C607" t="s">
-        <v>2079</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>2080</v>
+        <v>2062</v>
       </c>
       <c r="B608" t="s">
-        <v>2081</v>
+        <v>2063</v>
       </c>
       <c r="C608" t="s">
-        <v>2082</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>2083</v>
+        <v>2065</v>
       </c>
       <c r="B609" t="s">
-        <v>2084</v>
+        <v>2066</v>
       </c>
       <c r="C609" t="s">
-        <v>2085</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>2086</v>
+        <v>2068</v>
       </c>
       <c r="B610" t="s">
-        <v>2087</v>
+        <v>2069</v>
       </c>
       <c r="C610" t="s">
-        <v>2088</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>2089</v>
+        <v>2071</v>
       </c>
       <c r="B611" t="s">
-        <v>2090</v>
+        <v>2072</v>
       </c>
       <c r="C611" t="s">
-        <v>2091</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>2092</v>
+        <v>2074</v>
       </c>
       <c r="C612" t="s">
-        <v>2093</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>2094</v>
+        <v>2076</v>
       </c>
       <c r="C613" t="s">
-        <v>2095</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>2096</v>
+        <v>2078</v>
       </c>
       <c r="B614" t="s">
-        <v>2097</v>
+        <v>2079</v>
       </c>
       <c r="C614" t="s">
-        <v>2098</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>2099</v>
+        <v>2081</v>
       </c>
       <c r="B615" t="s">
-        <v>2100</v>
+        <v>2082</v>
       </c>
       <c r="C615" t="s">
-        <v>2100</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>2101</v>
+        <v>2083</v>
       </c>
       <c r="B616" t="s">
-        <v>2102</v>
+        <v>2084</v>
       </c>
       <c r="C616" t="s">
-        <v>2103</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>2104</v>
+        <v>2086</v>
       </c>
       <c r="B617" t="s">
-        <v>2105</v>
+        <v>2087</v>
       </c>
       <c r="C617" t="s">
-        <v>2105</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>2106</v>
+        <v>2088</v>
       </c>
       <c r="B618" t="s">
-        <v>2107</v>
+        <v>2089</v>
       </c>
       <c r="C618" t="s">
-        <v>2108</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>2109</v>
+        <v>2091</v>
       </c>
       <c r="B619" t="s">
-        <v>2110</v>
+        <v>2092</v>
       </c>
       <c r="C619" t="s">
-        <v>2108</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>2111</v>
+        <v>2093</v>
       </c>
       <c r="B620" t="s">
-        <v>2112</v>
+        <v>2094</v>
       </c>
       <c r="C620" t="s">
-        <v>2113</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>2114</v>
+        <v>2096</v>
       </c>
       <c r="B621" t="s">
-        <v>2115</v>
+        <v>2097</v>
       </c>
       <c r="C621" t="s">
-        <v>2116</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>2117</v>
+        <v>2099</v>
       </c>
       <c r="B622" t="s">
-        <v>2118</v>
+        <v>2100</v>
       </c>
       <c r="C622" t="s">
-        <v>2119</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>2120</v>
+        <v>2102</v>
       </c>
       <c r="B623" t="s">
-        <v>2121</v>
+        <v>2103</v>
       </c>
       <c r="C623" t="s">
-        <v>2121</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>2122</v>
+        <v>2104</v>
       </c>
       <c r="B624" t="s">
-        <v>2123</v>
+        <v>2105</v>
       </c>
       <c r="C624" t="s">
-        <v>2123</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>2124</v>
+        <v>2106</v>
       </c>
       <c r="C625" t="s">
-        <v>2125</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>2126</v>
+        <v>2108</v>
       </c>
       <c r="C626" t="s">
-        <v>2127</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>2128</v>
+        <v>2110</v>
       </c>
       <c r="C627" t="s">
-        <v>2129</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>2130</v>
+        <v>2112</v>
       </c>
       <c r="B628" t="s">
-        <v>2131</v>
+        <v>2113</v>
       </c>
       <c r="C628" t="s">
-        <v>2131</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>2132</v>
+        <v>2114</v>
       </c>
       <c r="C629" t="s">
-        <v>2133</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
       <c r="C630" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>2136</v>
+        <v>2118</v>
       </c>
       <c r="C631" t="s">
-        <v>2137</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -16349,70 +16402,146 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>2063</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A923" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C923" t="s">
-        <v>2062</v>
+      <c r="A923" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>2122</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A924" t="s">
-        <v>2047</v>
-      </c>
-      <c r="B924" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C924" t="s">
-        <v>2057</v>
+      <c r="A924" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>2124</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A925" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B925" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C925" t="s">
-        <v>2058</v>
+      <c r="A925" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A926" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B926" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C926" t="s">
-        <v>2059</v>
+      <c r="A926" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>2128</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A927" t="s">
-        <v>2053</v>
-      </c>
-      <c r="B927" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C927" t="s">
-        <v>2060</v>
+      <c r="A927" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B927" s="5" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>2055</v>
+        <v>2131</v>
       </c>
       <c r="B928" t="s">
-        <v>2056</v>
+        <v>2132</v>
       </c>
       <c r="C928" t="s">
-        <v>2061</v>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B929" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C929" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C931" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C933" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C936" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E76C29-4878-42C1-B83C-94F87F66F878}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81668DCB-17D0-45D7-98D1-AEE360B2580D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6573,103 +6573,104 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>い、ち、り　って</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>い音便</t>
   </si>
   <si>
-    <t>きいて ぎいで</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>撥音便</t>
   </si>
   <si>
-    <t>み、びんで</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>無音便</t>
   </si>
   <si>
-    <t>しして</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊</t>
   </si>
   <si>
-    <t>行きます　à 行って</t>
-  </si>
-  <si>
-    <t>あいます あって</t>
-  </si>
-  <si>
-    <t>会います 会って</t>
-  </si>
-  <si>
-    <t>まちます まって</t>
-  </si>
-  <si>
-    <t>待ちます 待って</t>
-  </si>
-  <si>
-    <t>かえります かえって</t>
-  </si>
-  <si>
-    <t>帰ります 帰って</t>
-  </si>
-  <si>
     <t>回(家)</t>
-  </si>
-  <si>
-    <t>かきます かいて</t>
-  </si>
-  <si>
-    <t>書きます 書いて</t>
-  </si>
-  <si>
-    <t>いそぎます いそいで</t>
-  </si>
-  <si>
-    <t>急ぎます 急いで</t>
   </si>
   <si>
     <t>快點</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>よみます よんで</t>
-  </si>
-  <si>
-    <t>読みます 読んで</t>
-  </si>
-  <si>
-    <t>よびます よんで</t>
-  </si>
-  <si>
-    <t>呼びます 呼んで</t>
-  </si>
-  <si>
     <t>叫</t>
-  </si>
-  <si>
-    <t>かします かして</t>
-  </si>
-  <si>
-    <t>貸します 貸して</t>
-  </si>
-  <si>
-    <t>いきます いって</t>
-  </si>
-  <si>
-    <t>行きます 行って</t>
   </si>
   <si>
     <t>*1st動詞て型變化</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>い、ち、り ==&gt; って</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>き==&gt;いて, ぎ ==&gt; いで</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>み、び ==&gt; んで</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>し ==&gt; して</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行きます 行って</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいます, あって</t>
+  </si>
+  <si>
+    <t>会います, 会って</t>
+  </si>
+  <si>
+    <t>まちます, まって</t>
+  </si>
+  <si>
+    <t>待ちます, 待って</t>
+  </si>
+  <si>
+    <t>かえります, かえって</t>
+  </si>
+  <si>
+    <t>帰ります, 帰って</t>
+  </si>
+  <si>
+    <t>かきます, かいて</t>
+  </si>
+  <si>
+    <t>書きます, 書いて</t>
+  </si>
+  <si>
+    <t>いそぎます, いそいで</t>
+  </si>
+  <si>
+    <t>急ぎます, 急いで</t>
+  </si>
+  <si>
+    <t>よみます, よんで</t>
+  </si>
+  <si>
+    <t>読みます, 読んで</t>
+  </si>
+  <si>
+    <t>よびます, よんで</t>
+  </si>
+  <si>
+    <t>呼びます, 呼んで</t>
+  </si>
+  <si>
+    <t>かします, かして</t>
+  </si>
+  <si>
+    <t>貸します, 貸して</t>
+  </si>
+  <si>
+    <t>いきます, いって</t>
+  </si>
+  <si>
+    <t>行きます, 行って</t>
   </si>
 </sst>
 </file>
@@ -7041,7 +7042,7 @@
   <dimension ref="A1:C936"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A918" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A929" sqref="A929"/>
+      <selection activeCell="C923" sqref="C923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -16402,7 +16403,7 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>2152</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
@@ -16410,47 +16411,47 @@
         <v>2121</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>2122</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" s="4" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>2128</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" s="5" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="B927" s="5" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="B928" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="C928" t="s">
         <v>730</v>
@@ -16458,10 +16459,10 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="B929" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="C929" t="s">
         <v>849</v>
@@ -16469,21 +16470,21 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="B930" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="C930" t="s">
-        <v>2137</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="B931" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="C931" t="s">
         <v>763</v>
@@ -16491,21 +16492,21 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="B932" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="C932" t="s">
-        <v>2142</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="B933" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="C933" t="s">
         <v>852</v>
@@ -16513,21 +16514,21 @@
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="B934" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="C934" t="s">
-        <v>2147</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B935" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="C935" t="s">
         <v>1575</v>
@@ -16535,10 +16536,10 @@
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="B936" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C936" t="s">
         <v>742</v>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69217C85-823F-462F-A448-47BF47CCC226}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0655C55B-A6A2-4705-85BE-5740F943DB5C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="2332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="2393">
   <si>
     <t>わたし</t>
   </si>
@@ -7212,6 +7212,190 @@
   </si>
   <si>
     <t>庫克船長(1728～79)</t>
+  </si>
+  <si>
+    <t>*第22課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>着ます</t>
+  </si>
+  <si>
+    <t>穿[襯衫等]</t>
+  </si>
+  <si>
+    <t>シャツをきます</t>
+  </si>
+  <si>
+    <t>シャツを着ます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穿襯衫 </t>
+  </si>
+  <si>
+    <t>はきます</t>
+  </si>
+  <si>
+    <t>穿[鞋,褲子]</t>
+  </si>
+  <si>
+    <t>くつをはきます</t>
+  </si>
+  <si>
+    <t>靴をはきます</t>
+  </si>
+  <si>
+    <t>穿鞋</t>
+  </si>
+  <si>
+    <t>かぶります</t>
+  </si>
+  <si>
+    <t>戴[帽子等]</t>
+  </si>
+  <si>
+    <t>ぼうしをかぶります</t>
+  </si>
+  <si>
+    <t>帽子をかぶります</t>
+  </si>
+  <si>
+    <t>戴帽子</t>
+  </si>
+  <si>
+    <t>戴[眼鏡]</t>
+  </si>
+  <si>
+    <t>めがねをかけます</t>
+  </si>
+  <si>
+    <t>眼鏡をかけます</t>
+  </si>
+  <si>
+    <t>戴眼鏡</t>
+  </si>
+  <si>
+    <t>うまれます</t>
+  </si>
+  <si>
+    <t>生まれます</t>
+  </si>
+  <si>
+    <t>出生</t>
+  </si>
+  <si>
+    <t>大衣,外套</t>
+  </si>
+  <si>
+    <t>スーツ</t>
+  </si>
+  <si>
+    <t>西裝</t>
+  </si>
+  <si>
+    <t>毛衣</t>
+  </si>
+  <si>
+    <t>ぼうし</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>めがね</t>
+  </si>
+  <si>
+    <t>眼鏡</t>
+  </si>
+  <si>
+    <t>經常</t>
+  </si>
+  <si>
+    <t>おめでとう ございます</t>
+  </si>
+  <si>
+    <t>恭喜(用於生日,婚禮,新年等時)</t>
+  </si>
+  <si>
+    <t>這("これ"的禮貌形)</t>
+  </si>
+  <si>
+    <t>やちん</t>
+  </si>
+  <si>
+    <t>家賃</t>
+  </si>
+  <si>
+    <t>房租</t>
+  </si>
+  <si>
+    <t>うーん</t>
+  </si>
+  <si>
+    <t>我想想看。</t>
+  </si>
+  <si>
+    <t>ダイニングキチン</t>
+  </si>
+  <si>
+    <t>兼作餐廳的廚房</t>
+  </si>
+  <si>
+    <t>わしつ</t>
+  </si>
+  <si>
+    <t>和室</t>
+  </si>
+  <si>
+    <t>おしいれ</t>
+  </si>
+  <si>
+    <t>押し入れ</t>
+  </si>
+  <si>
+    <t>日式壁櫥</t>
+  </si>
+  <si>
+    <t>ふとん</t>
+  </si>
+  <si>
+    <t>布団</t>
+  </si>
+  <si>
+    <t>棉被和墊被</t>
+  </si>
+  <si>
+    <t>パリ</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>ばんり の ちょうじょう</t>
+  </si>
+  <si>
+    <t>万里の長城</t>
+  </si>
+  <si>
+    <t>萬里長城</t>
+  </si>
+  <si>
+    <t>よかかいはつセンター</t>
+  </si>
+  <si>
+    <t>余暇開発センター</t>
+  </si>
+  <si>
+    <t>休閒活動開發中心</t>
+  </si>
+  <si>
+    <t>レジャーはくしょ</t>
+  </si>
+  <si>
+    <t>レジャー白書</t>
+  </si>
+  <si>
+    <t>休閒白皮書</t>
   </si>
 </sst>
 </file>
@@ -7580,10 +7764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1014"/>
+  <dimension ref="A1:C1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A694" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A707" sqref="A707"/>
+    <sheetView tabSelected="1" topLeftCell="A728" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A739" sqref="A739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -14549,3281 +14733,3555 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>455</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>457</v>
+        <v>1302</v>
       </c>
       <c r="B711" t="s">
-        <v>456</v>
+        <v>2333</v>
       </c>
       <c r="C711" t="s">
-        <v>456</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>460</v>
+        <v>2335</v>
       </c>
       <c r="B712" t="s">
-        <v>459</v>
+        <v>2336</v>
       </c>
       <c r="C712" t="s">
-        <v>458</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>463</v>
-      </c>
-      <c r="B713" t="s">
-        <v>462</v>
+        <v>2338</v>
       </c>
       <c r="C713" t="s">
-        <v>461</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>465</v>
+        <v>2340</v>
       </c>
       <c r="B714" t="s">
-        <v>464</v>
+        <v>2341</v>
       </c>
       <c r="C714" t="s">
-        <v>464</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>380</v>
-      </c>
-      <c r="B715" t="s">
-        <v>381</v>
+        <v>2343</v>
       </c>
       <c r="C715" t="s">
-        <v>382</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>468</v>
+        <v>2345</v>
       </c>
       <c r="B716" t="s">
-        <v>467</v>
+        <v>2346</v>
       </c>
       <c r="C716" t="s">
-        <v>466</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>471</v>
-      </c>
-      <c r="B717" t="s">
-        <v>470</v>
+        <v>1584</v>
       </c>
       <c r="C717" t="s">
-        <v>469</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>397</v>
+        <v>2349</v>
       </c>
       <c r="B718" t="s">
-        <v>398</v>
+        <v>2350</v>
       </c>
       <c r="C718" t="s">
-        <v>399</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>473</v>
+        <v>2352</v>
       </c>
       <c r="B719" t="s">
-        <v>472</v>
+        <v>2353</v>
       </c>
       <c r="C719" t="s">
-        <v>472</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>475</v>
-      </c>
-      <c r="B720" t="s">
-        <v>474</v>
+        <v>594</v>
       </c>
       <c r="C720" t="s">
-        <v>474</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>161</v>
-      </c>
-      <c r="B721" t="s">
-        <v>162</v>
+        <v>2356</v>
       </c>
       <c r="C721" t="s">
-        <v>163</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>478</v>
-      </c>
-      <c r="B722" t="s">
-        <v>477</v>
+        <v>603</v>
       </c>
       <c r="C722" t="s">
-        <v>476</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>364</v>
+        <v>2359</v>
       </c>
       <c r="B723" t="s">
-        <v>365</v>
+        <v>2360</v>
       </c>
       <c r="C723" t="s">
-        <v>365</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>481</v>
+        <v>2361</v>
       </c>
       <c r="B724" t="s">
-        <v>480</v>
+        <v>2362</v>
       </c>
       <c r="C724" t="s">
-        <v>479</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>484</v>
-      </c>
-      <c r="B725" t="s">
-        <v>483</v>
+        <v>1904</v>
       </c>
       <c r="C725" t="s">
-        <v>482</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>487</v>
-      </c>
-      <c r="B726" t="s">
-        <v>486</v>
+        <v>2364</v>
       </c>
       <c r="C726" t="s">
-        <v>485</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>490</v>
-      </c>
-      <c r="B727" t="s">
-        <v>489</v>
+        <v>353</v>
       </c>
       <c r="C727" t="s">
-        <v>488</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>493</v>
+        <v>2367</v>
       </c>
       <c r="B728" t="s">
-        <v>492</v>
+        <v>2368</v>
       </c>
       <c r="C728" t="s">
-        <v>491</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>496</v>
-      </c>
-      <c r="B729" t="s">
-        <v>495</v>
+        <v>2370</v>
       </c>
       <c r="C729" t="s">
-        <v>494</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>499</v>
-      </c>
-      <c r="B730" t="s">
-        <v>498</v>
+        <v>2372</v>
       </c>
       <c r="C730" t="s">
-        <v>497</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>502</v>
+        <v>2374</v>
       </c>
       <c r="B731" t="s">
-        <v>501</v>
+        <v>2375</v>
       </c>
       <c r="C731" t="s">
-        <v>500</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>504</v>
+        <v>2376</v>
       </c>
       <c r="B732" t="s">
-        <v>503</v>
+        <v>2377</v>
       </c>
       <c r="C732" t="s">
-        <v>503</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>507</v>
+        <v>2379</v>
       </c>
       <c r="B733" t="s">
-        <v>506</v>
+        <v>2380</v>
       </c>
       <c r="C733" t="s">
-        <v>505</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>510</v>
-      </c>
-      <c r="B734" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C734" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>512</v>
-      </c>
-      <c r="B735" t="s">
-        <v>390</v>
+        <v>2382</v>
       </c>
       <c r="C735" t="s">
-        <v>511</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>515</v>
+        <v>2384</v>
       </c>
       <c r="B736" t="s">
-        <v>514</v>
+        <v>2385</v>
       </c>
       <c r="C736" t="s">
-        <v>513</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>517</v>
+        <v>2387</v>
       </c>
       <c r="B737" t="s">
-        <v>383</v>
+        <v>2388</v>
       </c>
       <c r="C737" t="s">
-        <v>516</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>519</v>
+        <v>2390</v>
       </c>
       <c r="B738" t="s">
-        <v>518</v>
+        <v>2391</v>
       </c>
       <c r="C738" t="s">
-        <v>518</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>522</v>
-      </c>
-      <c r="B739" t="s">
-        <v>521</v>
-      </c>
-      <c r="C739" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>523</v>
+        <v>457</v>
+      </c>
+      <c r="B740" t="s">
+        <v>456</v>
+      </c>
+      <c r="C740" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="B741" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="C741" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="B742" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="C742" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="B743" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="C743" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>535</v>
+        <v>380</v>
       </c>
       <c r="B744" t="s">
-        <v>534</v>
+        <v>381</v>
       </c>
       <c r="C744" t="s">
-        <v>533</v>
+        <v>382</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>538</v>
+        <v>468</v>
       </c>
       <c r="B745" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="C745" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
       <c r="B746" t="s">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="C746" t="s">
-        <v>539</v>
+        <v>469</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>543</v>
+        <v>397</v>
       </c>
       <c r="B747" t="s">
-        <v>542</v>
+        <v>398</v>
       </c>
       <c r="C747" t="s">
-        <v>542</v>
+        <v>399</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>545</v>
+        <v>473</v>
       </c>
       <c r="B748" t="s">
-        <v>544</v>
+        <v>472</v>
       </c>
       <c r="C748" t="s">
-        <v>544</v>
+        <v>472</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>547</v>
+        <v>475</v>
       </c>
       <c r="B749" t="s">
-        <v>546</v>
+        <v>474</v>
       </c>
       <c r="C749" t="s">
-        <v>546</v>
+        <v>474</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>549</v>
+        <v>161</v>
       </c>
       <c r="B750" t="s">
-        <v>548</v>
+        <v>162</v>
       </c>
       <c r="C750" t="s">
-        <v>548</v>
+        <v>163</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>552</v>
+        <v>478</v>
       </c>
       <c r="B751" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="C751" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>554</v>
+        <v>364</v>
       </c>
       <c r="B752" t="s">
-        <v>553</v>
+        <v>365</v>
       </c>
       <c r="C752" t="s">
-        <v>553</v>
+        <v>365</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="B753" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="C753" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>559</v>
+        <v>484</v>
       </c>
       <c r="B754" t="s">
-        <v>1126</v>
+        <v>483</v>
       </c>
       <c r="C754" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>562</v>
+        <v>487</v>
       </c>
       <c r="B755" t="s">
-        <v>561</v>
+        <v>486</v>
       </c>
       <c r="C755" t="s">
-        <v>560</v>
+        <v>485</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>565</v>
+        <v>490</v>
       </c>
       <c r="B756" t="s">
-        <v>564</v>
+        <v>489</v>
       </c>
       <c r="C756" t="s">
-        <v>563</v>
+        <v>488</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="B757" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="C757" t="s">
-        <v>566</v>
+        <v>491</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>570</v>
+        <v>496</v>
       </c>
       <c r="B758" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="C758" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="B759" t="s">
-        <v>571</v>
+        <v>498</v>
       </c>
       <c r="C759" t="s">
-        <v>571</v>
+        <v>497</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>575</v>
+        <v>502</v>
       </c>
       <c r="B760" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="C760" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="B761" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="C761" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="B762" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="C762" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="B763" t="s">
-        <v>120</v>
+        <v>509</v>
       </c>
       <c r="C763" t="s">
-        <v>121</v>
+        <v>508</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>585</v>
+        <v>512</v>
       </c>
       <c r="B764" t="s">
-        <v>584</v>
+        <v>390</v>
       </c>
       <c r="C764" t="s">
-        <v>583</v>
+        <v>511</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>586</v>
+        <v>515</v>
+      </c>
+      <c r="B765" t="s">
+        <v>514</v>
+      </c>
+      <c r="C765" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>589</v>
+        <v>517</v>
       </c>
       <c r="B766" t="s">
-        <v>588</v>
+        <v>383</v>
       </c>
       <c r="C766" t="s">
-        <v>587</v>
+        <v>516</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
       <c r="B767" t="s">
-        <v>591</v>
+        <v>518</v>
       </c>
       <c r="C767" t="s">
-        <v>590</v>
+        <v>518</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>595</v>
+        <v>522</v>
       </c>
       <c r="B768" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="C768" t="s">
-        <v>593</v>
+        <v>520</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>598</v>
-      </c>
-      <c r="B769" t="s">
-        <v>597</v>
-      </c>
-      <c r="C769" t="s">
-        <v>596</v>
+        <v>523</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>601</v>
+        <v>526</v>
       </c>
       <c r="B770" t="s">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="C770" t="s">
-        <v>599</v>
+        <v>524</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="B771" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="C771" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>607</v>
+        <v>532</v>
       </c>
       <c r="B772" t="s">
-        <v>606</v>
+        <v>531</v>
       </c>
       <c r="C772" t="s">
-        <v>605</v>
+        <v>530</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>610</v>
+        <v>535</v>
       </c>
       <c r="B773" t="s">
-        <v>609</v>
+        <v>534</v>
       </c>
       <c r="C773" t="s">
-        <v>608</v>
+        <v>533</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>613</v>
+        <v>538</v>
       </c>
       <c r="B774" t="s">
-        <v>612</v>
+        <v>537</v>
       </c>
       <c r="C774" t="s">
-        <v>611</v>
+        <v>536</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="B775" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="C775" t="s">
-        <v>614</v>
+        <v>539</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>619</v>
+        <v>543</v>
       </c>
       <c r="B776" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
       <c r="C776" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
       <c r="B777" t="s">
-        <v>405</v>
+        <v>544</v>
       </c>
       <c r="C777" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>622</v>
+        <v>547</v>
       </c>
       <c r="B778" t="s">
-        <v>621</v>
+        <v>546</v>
       </c>
       <c r="C778" t="s">
-        <v>620</v>
+        <v>546</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>58</v>
+        <v>549</v>
       </c>
       <c r="B779" t="s">
-        <v>59</v>
+        <v>548</v>
       </c>
       <c r="C779" t="s">
-        <v>623</v>
+        <v>548</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
       <c r="B780" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
       <c r="C780" t="s">
-        <v>624</v>
+        <v>550</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
       <c r="B781" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="C781" t="s">
-        <v>626</v>
+        <v>553</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>61</v>
+        <v>557</v>
       </c>
       <c r="B782" t="s">
-        <v>62</v>
+        <v>556</v>
       </c>
       <c r="C782" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="B783" t="s">
-        <v>631</v>
+        <v>1126</v>
       </c>
       <c r="C783" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="B784" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
       <c r="C784" t="s">
-        <v>633</v>
+        <v>560</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="B785" t="s">
-        <v>637</v>
+        <v>564</v>
       </c>
       <c r="C785" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="B786" t="s">
-        <v>83</v>
+        <v>566</v>
       </c>
       <c r="C786" t="s">
-        <v>83</v>
+        <v>566</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="B787" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="C787" t="s">
-        <v>639</v>
+        <v>568</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>644</v>
+        <v>572</v>
       </c>
       <c r="B788" t="s">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="C788" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="B789" t="s">
-        <v>646</v>
+        <v>574</v>
       </c>
       <c r="C789" t="s">
-        <v>645</v>
+        <v>573</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>650</v>
+        <v>578</v>
       </c>
       <c r="B790" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
       <c r="C790" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>651</v>
+        <v>581</v>
       </c>
       <c r="B791" t="s">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="C791" t="s">
-        <v>71</v>
+        <v>579</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>652</v>
+        <v>582</v>
       </c>
       <c r="B792" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C792" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="B793" t="s">
-        <v>86</v>
+        <v>584</v>
       </c>
       <c r="C793" t="s">
-        <v>87</v>
+        <v>583</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>402</v>
-      </c>
-      <c r="B794" t="s">
-        <v>403</v>
-      </c>
-      <c r="C794" t="s">
-        <v>403</v>
+        <v>586</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="B795" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="C795" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="B796" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="C796" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>660</v>
+        <v>595</v>
       </c>
       <c r="B797" t="s">
-        <v>102</v>
+        <v>594</v>
       </c>
       <c r="C797" t="s">
-        <v>103</v>
+        <v>593</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>663</v>
+        <v>598</v>
       </c>
       <c r="B798" t="s">
-        <v>662</v>
+        <v>597</v>
       </c>
       <c r="C798" t="s">
-        <v>661</v>
+        <v>596</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="B799" t="s">
-        <v>106</v>
+        <v>600</v>
       </c>
       <c r="C799" t="s">
-        <v>664</v>
+        <v>599</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>667</v>
+        <v>604</v>
       </c>
       <c r="B800" t="s">
-        <v>666</v>
+        <v>603</v>
       </c>
       <c r="C800" t="s">
-        <v>109</v>
+        <v>602</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>670</v>
+        <v>607</v>
       </c>
       <c r="B801" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="C801" t="s">
-        <v>668</v>
+        <v>605</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>671</v>
+        <v>610</v>
+      </c>
+      <c r="B802" t="s">
+        <v>609</v>
+      </c>
+      <c r="C802" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="B803" t="s">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="C803" t="s">
-        <v>672</v>
+        <v>611</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="B804" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="C804" t="s">
-        <v>675</v>
+        <v>614</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="B805" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="C805" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>683</v>
+        <v>404</v>
       </c>
       <c r="B806" t="s">
-        <v>682</v>
+        <v>405</v>
       </c>
       <c r="C806" t="s">
-        <v>681</v>
+        <v>406</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="B807" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C807" t="s">
-        <v>684</v>
+        <v>620</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>689</v>
+        <v>58</v>
       </c>
       <c r="B808" t="s">
-        <v>688</v>
+        <v>59</v>
       </c>
       <c r="C808" t="s">
-        <v>687</v>
+        <v>623</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="B809" t="s">
-        <v>691</v>
+        <v>624</v>
       </c>
       <c r="C809" t="s">
-        <v>690</v>
+        <v>624</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>695</v>
+        <v>628</v>
       </c>
       <c r="B810" t="s">
-        <v>694</v>
+        <v>627</v>
       </c>
       <c r="C810" t="s">
-        <v>693</v>
+        <v>626</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>698</v>
+        <v>61</v>
       </c>
       <c r="B811" t="s">
-        <v>697</v>
+        <v>62</v>
       </c>
       <c r="C811" t="s">
-        <v>696</v>
+        <v>629</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>701</v>
+        <v>632</v>
       </c>
       <c r="B812" t="s">
-        <v>700</v>
+        <v>631</v>
       </c>
       <c r="C812" t="s">
-        <v>699</v>
+        <v>630</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>704</v>
+        <v>635</v>
       </c>
       <c r="B813" t="s">
-        <v>703</v>
+        <v>634</v>
       </c>
       <c r="C813" t="s">
-        <v>702</v>
+        <v>633</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>400</v>
+        <v>638</v>
       </c>
       <c r="B814" t="s">
-        <v>706</v>
+        <v>637</v>
       </c>
       <c r="C814" t="s">
-        <v>705</v>
+        <v>636</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>709</v>
+        <v>82</v>
       </c>
       <c r="B815" t="s">
-        <v>708</v>
+        <v>83</v>
       </c>
       <c r="C815" t="s">
-        <v>707</v>
+        <v>83</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>712</v>
+        <v>641</v>
       </c>
       <c r="B816" t="s">
-        <v>711</v>
+        <v>640</v>
       </c>
       <c r="C816" t="s">
-        <v>710</v>
+        <v>639</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>715</v>
+        <v>644</v>
       </c>
       <c r="B817" t="s">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="C817" t="s">
-        <v>713</v>
+        <v>642</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>718</v>
+        <v>647</v>
       </c>
       <c r="B818" t="s">
-        <v>717</v>
+        <v>646</v>
       </c>
       <c r="C818" t="s">
-        <v>716</v>
+        <v>645</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>719</v>
+        <v>650</v>
+      </c>
+      <c r="B819" t="s">
+        <v>649</v>
+      </c>
+      <c r="C819" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>720</v>
-      </c>
-      <c r="B820">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="B820" t="s">
+        <v>70</v>
       </c>
       <c r="C820" t="s">
-        <v>1127</v>
+        <v>71</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>721</v>
-      </c>
-      <c r="B821">
-        <v>2</v>
+        <v>652</v>
+      </c>
+      <c r="B821" t="s">
+        <v>84</v>
       </c>
       <c r="C821" t="s">
-        <v>1128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>722</v>
-      </c>
-      <c r="B822">
-        <v>3</v>
+        <v>653</v>
+      </c>
+      <c r="B822" t="s">
+        <v>86</v>
       </c>
       <c r="C822" t="s">
-        <v>1129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>723</v>
-      </c>
-      <c r="B823">
-        <v>4</v>
+        <v>402</v>
+      </c>
+      <c r="B823" t="s">
+        <v>403</v>
       </c>
       <c r="C823" t="s">
-        <v>1130</v>
+        <v>403</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>724</v>
-      </c>
-      <c r="B824">
-        <v>5</v>
+        <v>656</v>
+      </c>
+      <c r="B824" t="s">
+        <v>655</v>
       </c>
       <c r="C824" t="s">
-        <v>1131</v>
+        <v>654</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>725</v>
-      </c>
-      <c r="B825">
-        <v>6</v>
+        <v>659</v>
+      </c>
+      <c r="B825" t="s">
+        <v>658</v>
       </c>
       <c r="C825" t="s">
-        <v>1132</v>
+        <v>657</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>726</v>
-      </c>
-      <c r="B826">
-        <v>7</v>
+        <v>660</v>
+      </c>
+      <c r="B826" t="s">
+        <v>102</v>
       </c>
       <c r="C826" t="s">
-        <v>1133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>727</v>
-      </c>
-      <c r="B827">
-        <v>8</v>
+        <v>663</v>
+      </c>
+      <c r="B827" t="s">
+        <v>662</v>
       </c>
       <c r="C827" t="s">
-        <v>1134</v>
+        <v>661</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>728</v>
-      </c>
-      <c r="B828">
-        <v>9</v>
+        <v>665</v>
+      </c>
+      <c r="B828" t="s">
+        <v>106</v>
       </c>
       <c r="C828" t="s">
-        <v>1135</v>
+        <v>664</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>729</v>
-      </c>
-      <c r="B829">
-        <v>10</v>
+        <v>667</v>
+      </c>
+      <c r="B829" t="s">
+        <v>666</v>
       </c>
       <c r="C829" t="s">
-        <v>1136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B830">
-        <v>20</v>
+        <v>670</v>
+      </c>
+      <c r="B830" t="s">
+        <v>669</v>
       </c>
       <c r="C830" t="s">
-        <v>1137</v>
+        <v>668</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B831">
-        <v>30</v>
-      </c>
-      <c r="C831" t="s">
-        <v>1138</v>
+        <v>671</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B832">
-        <v>40</v>
+        <v>674</v>
+      </c>
+      <c r="B832" t="s">
+        <v>673</v>
       </c>
       <c r="C832" t="s">
-        <v>1139</v>
+        <v>672</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B833">
-        <v>50</v>
+        <v>677</v>
+      </c>
+      <c r="B833" t="s">
+        <v>676</v>
       </c>
       <c r="C833" t="s">
-        <v>1140</v>
+        <v>675</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B834">
-        <v>60</v>
+        <v>680</v>
+      </c>
+      <c r="B834" t="s">
+        <v>679</v>
       </c>
       <c r="C834" t="s">
-        <v>1141</v>
+        <v>678</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B835">
-        <v>70</v>
+        <v>683</v>
+      </c>
+      <c r="B835" t="s">
+        <v>682</v>
       </c>
       <c r="C835" t="s">
-        <v>1142</v>
+        <v>681</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B836">
-        <v>80</v>
+        <v>686</v>
+      </c>
+      <c r="B836" t="s">
+        <v>685</v>
       </c>
       <c r="C836" t="s">
-        <v>1143</v>
+        <v>684</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B837">
-        <v>90</v>
+        <v>689</v>
+      </c>
+      <c r="B837" t="s">
+        <v>688</v>
       </c>
       <c r="C837" t="s">
-        <v>1144</v>
+        <v>687</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>429</v>
-      </c>
-      <c r="B838">
-        <v>100</v>
+        <v>692</v>
+      </c>
+      <c r="B838" t="s">
+        <v>691</v>
       </c>
       <c r="C838" t="s">
-        <v>430</v>
+        <v>690</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B839">
-        <v>200</v>
+        <v>695</v>
+      </c>
+      <c r="B839" t="s">
+        <v>694</v>
       </c>
       <c r="C839" t="s">
-        <v>1145</v>
+        <v>693</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B840">
-        <v>300</v>
+        <v>698</v>
+      </c>
+      <c r="B840" t="s">
+        <v>697</v>
       </c>
       <c r="C840" t="s">
-        <v>1146</v>
+        <v>696</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B841">
-        <v>400</v>
+        <v>701</v>
+      </c>
+      <c r="B841" t="s">
+        <v>700</v>
       </c>
       <c r="C841" t="s">
-        <v>1147</v>
+        <v>699</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B842">
-        <v>500</v>
+        <v>704</v>
+      </c>
+      <c r="B842" t="s">
+        <v>703</v>
       </c>
       <c r="C842" t="s">
-        <v>1148</v>
+        <v>702</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B843">
-        <v>600</v>
+        <v>400</v>
+      </c>
+      <c r="B843" t="s">
+        <v>706</v>
       </c>
       <c r="C843" t="s">
-        <v>1149</v>
+        <v>705</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B844">
-        <v>700</v>
+        <v>709</v>
+      </c>
+      <c r="B844" t="s">
+        <v>708</v>
       </c>
       <c r="C844" t="s">
-        <v>1150</v>
+        <v>707</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B845">
-        <v>800</v>
+        <v>712</v>
+      </c>
+      <c r="B845" t="s">
+        <v>711</v>
       </c>
       <c r="C845" t="s">
-        <v>1151</v>
+        <v>710</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B846">
-        <v>900</v>
+        <v>715</v>
+      </c>
+      <c r="B846" t="s">
+        <v>714</v>
       </c>
       <c r="C846" t="s">
-        <v>1152</v>
+        <v>713</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>431</v>
-      </c>
-      <c r="B847">
-        <v>1000</v>
+        <v>718</v>
+      </c>
+      <c r="B847" t="s">
+        <v>717</v>
       </c>
       <c r="C847" t="s">
-        <v>432</v>
+        <v>716</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B848">
-        <v>2000</v>
-      </c>
-      <c r="C848" t="s">
-        <v>1153</v>
+        <v>719</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>1023</v>
+        <v>720</v>
       </c>
       <c r="B849">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="C849" t="s">
-        <v>1154</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>1024</v>
+        <v>721</v>
       </c>
       <c r="B850">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="C850" t="s">
-        <v>1155</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>1025</v>
+        <v>722</v>
       </c>
       <c r="B851">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="C851" t="s">
-        <v>1156</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1026</v>
+        <v>723</v>
       </c>
       <c r="B852">
-        <v>6000</v>
+        <v>4</v>
       </c>
       <c r="C852" t="s">
-        <v>1157</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1027</v>
+        <v>724</v>
       </c>
       <c r="B853">
-        <v>7000</v>
+        <v>5</v>
       </c>
       <c r="C853" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>1028</v>
+        <v>725</v>
       </c>
       <c r="B854">
-        <v>8000</v>
+        <v>6</v>
       </c>
       <c r="C854" t="s">
-        <v>1159</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1029</v>
+        <v>726</v>
       </c>
       <c r="B855">
-        <v>9000</v>
+        <v>7</v>
       </c>
       <c r="C855" t="s">
-        <v>1160</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B856" t="s">
-        <v>1161</v>
+        <v>727</v>
+      </c>
+      <c r="B856">
+        <v>8</v>
       </c>
       <c r="C856" t="s">
-        <v>435</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>1031</v>
+        <v>728</v>
       </c>
       <c r="B857">
-        <v>20000</v>
+        <v>9</v>
       </c>
       <c r="C857" t="s">
-        <v>1162</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1032</v>
+        <v>729</v>
       </c>
       <c r="B858">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="C858" t="s">
-        <v>1163</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="B859">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="C859" t="s">
-        <v>1164</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="B860">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="C860" t="s">
-        <v>1165</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
       <c r="B861">
-        <v>60000</v>
+        <v>40</v>
       </c>
       <c r="C861" t="s">
-        <v>1166</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="B862">
-        <v>70000</v>
+        <v>50</v>
       </c>
       <c r="C862" t="s">
-        <v>1167</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1037</v>
+        <v>1010</v>
       </c>
       <c r="B863">
-        <v>80000</v>
+        <v>60</v>
       </c>
       <c r="C863" t="s">
-        <v>1168</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="B864">
-        <v>90000</v>
+        <v>70</v>
       </c>
       <c r="C864" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>433</v>
-      </c>
-      <c r="B865" t="s">
-        <v>434</v>
+        <v>1012</v>
+      </c>
+      <c r="B865">
+        <v>80</v>
       </c>
       <c r="C865" t="s">
-        <v>435</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B866" t="s">
-        <v>1170</v>
+        <v>1013</v>
+      </c>
+      <c r="B866">
+        <v>90</v>
       </c>
       <c r="C866" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1172</v>
+        <v>429</v>
+      </c>
+      <c r="B867">
+        <v>100</v>
       </c>
       <c r="C867" t="s">
-        <v>1172</v>
+        <v>430</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1005</v>
+        <v>1014</v>
+      </c>
+      <c r="B868">
+        <v>200</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>732</v>
-      </c>
-      <c r="B869" t="s">
-        <v>731</v>
+        <v>1015</v>
+      </c>
+      <c r="B869">
+        <v>300</v>
       </c>
       <c r="C869" t="s">
-        <v>730</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>735</v>
-      </c>
-      <c r="B870" t="s">
-        <v>734</v>
+        <v>1016</v>
+      </c>
+      <c r="B870">
+        <v>400</v>
       </c>
       <c r="C870" t="s">
-        <v>733</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>738</v>
-      </c>
-      <c r="B871" t="s">
-        <v>737</v>
+        <v>1017</v>
+      </c>
+      <c r="B871">
+        <v>500</v>
       </c>
       <c r="C871" t="s">
-        <v>736</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>741</v>
-      </c>
-      <c r="B872" t="s">
-        <v>740</v>
+        <v>1018</v>
+      </c>
+      <c r="B872">
+        <v>600</v>
       </c>
       <c r="C872" t="s">
-        <v>739</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>744</v>
-      </c>
-      <c r="B873" t="s">
-        <v>743</v>
+        <v>1019</v>
+      </c>
+      <c r="B873">
+        <v>700</v>
       </c>
       <c r="C873" t="s">
-        <v>742</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>747</v>
-      </c>
-      <c r="B874" t="s">
-        <v>746</v>
+        <v>1020</v>
+      </c>
+      <c r="B874">
+        <v>800</v>
       </c>
       <c r="C874" t="s">
-        <v>745</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>750</v>
-      </c>
-      <c r="B875" t="s">
-        <v>749</v>
+        <v>1021</v>
+      </c>
+      <c r="B875">
+        <v>900</v>
       </c>
       <c r="C875" t="s">
-        <v>748</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>753</v>
-      </c>
-      <c r="B876" t="s">
-        <v>752</v>
+        <v>431</v>
+      </c>
+      <c r="B876">
+        <v>1000</v>
       </c>
       <c r="C876" t="s">
-        <v>751</v>
+        <v>432</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>756</v>
-      </c>
-      <c r="B877" t="s">
-        <v>755</v>
+        <v>1022</v>
+      </c>
+      <c r="B877">
+        <v>2000</v>
       </c>
       <c r="C877" t="s">
-        <v>754</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>759</v>
-      </c>
-      <c r="B878" t="s">
-        <v>758</v>
+        <v>1023</v>
+      </c>
+      <c r="B878">
+        <v>3000</v>
       </c>
       <c r="C878" t="s">
-        <v>757</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>762</v>
-      </c>
-      <c r="B879" t="s">
-        <v>761</v>
+        <v>1024</v>
+      </c>
+      <c r="B879">
+        <v>4000</v>
       </c>
       <c r="C879" t="s">
-        <v>760</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>765</v>
-      </c>
-      <c r="B880" t="s">
-        <v>764</v>
+        <v>1025</v>
+      </c>
+      <c r="B880">
+        <v>5000</v>
       </c>
       <c r="C880" t="s">
-        <v>763</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>768</v>
-      </c>
-      <c r="B881" t="s">
-        <v>767</v>
+        <v>1026</v>
+      </c>
+      <c r="B881">
+        <v>6000</v>
       </c>
       <c r="C881" t="s">
-        <v>766</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>771</v>
-      </c>
-      <c r="B882" t="s">
-        <v>770</v>
+        <v>1027</v>
+      </c>
+      <c r="B882">
+        <v>7000</v>
       </c>
       <c r="C882" t="s">
-        <v>769</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>774</v>
-      </c>
-      <c r="B883" t="s">
-        <v>773</v>
+        <v>1028</v>
+      </c>
+      <c r="B883">
+        <v>8000</v>
       </c>
       <c r="C883" t="s">
-        <v>772</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>776</v>
-      </c>
-      <c r="B884" t="s">
-        <v>775</v>
+        <v>1029</v>
+      </c>
+      <c r="B884">
+        <v>9000</v>
       </c>
       <c r="C884" t="s">
-        <v>301</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>779</v>
+        <v>1030</v>
       </c>
       <c r="B885" t="s">
-        <v>778</v>
+        <v>1161</v>
       </c>
       <c r="C885" t="s">
-        <v>777</v>
+        <v>435</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>782</v>
-      </c>
-      <c r="B886" t="s">
-        <v>781</v>
+        <v>1031</v>
+      </c>
+      <c r="B886">
+        <v>20000</v>
       </c>
       <c r="C886" t="s">
-        <v>780</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>785</v>
-      </c>
-      <c r="B887" t="s">
-        <v>784</v>
+        <v>1032</v>
+      </c>
+      <c r="B887">
+        <v>30000</v>
       </c>
       <c r="C887" t="s">
-        <v>783</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>788</v>
-      </c>
-      <c r="B888" t="s">
-        <v>787</v>
+        <v>1033</v>
+      </c>
+      <c r="B888">
+        <v>40000</v>
       </c>
       <c r="C888" t="s">
-        <v>786</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>791</v>
-      </c>
-      <c r="B889" t="s">
-        <v>790</v>
+        <v>1034</v>
+      </c>
+      <c r="B889">
+        <v>50000</v>
       </c>
       <c r="C889" t="s">
-        <v>789</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>794</v>
-      </c>
-      <c r="B890" t="s">
-        <v>793</v>
+        <v>1035</v>
+      </c>
+      <c r="B890">
+        <v>60000</v>
       </c>
       <c r="C890" t="s">
-        <v>792</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>797</v>
-      </c>
-      <c r="B891" t="s">
-        <v>796</v>
+        <v>1036</v>
+      </c>
+      <c r="B891">
+        <v>70000</v>
       </c>
       <c r="C891" t="s">
-        <v>795</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>800</v>
-      </c>
-      <c r="B892" t="s">
-        <v>799</v>
+        <v>1037</v>
+      </c>
+      <c r="B892">
+        <v>80000</v>
       </c>
       <c r="C892" t="s">
-        <v>798</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>803</v>
-      </c>
-      <c r="B893" t="s">
-        <v>802</v>
+        <v>1038</v>
+      </c>
+      <c r="B893">
+        <v>90000</v>
       </c>
       <c r="C893" t="s">
-        <v>801</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>806</v>
+        <v>433</v>
       </c>
       <c r="B894" t="s">
-        <v>805</v>
+        <v>434</v>
       </c>
       <c r="C894" t="s">
-        <v>804</v>
+        <v>435</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>809</v>
+        <v>1039</v>
       </c>
       <c r="B895" t="s">
-        <v>808</v>
+        <v>1170</v>
       </c>
       <c r="C895" t="s">
-        <v>807</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>812</v>
+        <v>1171</v>
       </c>
       <c r="B896" t="s">
-        <v>811</v>
+        <v>1172</v>
       </c>
       <c r="C896" t="s">
-        <v>810</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>815</v>
-      </c>
-      <c r="B897" t="s">
-        <v>814</v>
-      </c>
-      <c r="C897" t="s">
-        <v>813</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>818</v>
+        <v>732</v>
       </c>
       <c r="B898" t="s">
-        <v>817</v>
+        <v>731</v>
       </c>
       <c r="C898" t="s">
-        <v>816</v>
+        <v>730</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>821</v>
+        <v>735</v>
       </c>
       <c r="B899" t="s">
-        <v>820</v>
+        <v>734</v>
       </c>
       <c r="C899" t="s">
-        <v>819</v>
+        <v>733</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>824</v>
+        <v>738</v>
       </c>
       <c r="B900" t="s">
-        <v>823</v>
+        <v>737</v>
       </c>
       <c r="C900" t="s">
-        <v>822</v>
+        <v>736</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>827</v>
+        <v>741</v>
       </c>
       <c r="B901" t="s">
-        <v>826</v>
+        <v>740</v>
       </c>
       <c r="C901" t="s">
-        <v>825</v>
+        <v>739</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>830</v>
+        <v>744</v>
       </c>
       <c r="B902" t="s">
-        <v>829</v>
+        <v>743</v>
       </c>
       <c r="C902" t="s">
-        <v>828</v>
+        <v>742</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>833</v>
+        <v>747</v>
       </c>
       <c r="B903" t="s">
-        <v>832</v>
+        <v>746</v>
       </c>
       <c r="C903" t="s">
-        <v>831</v>
+        <v>745</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>836</v>
+        <v>750</v>
       </c>
       <c r="B904" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="C904" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>839</v>
+        <v>753</v>
       </c>
       <c r="B905" t="s">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="C905" t="s">
-        <v>837</v>
+        <v>751</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>842</v>
+        <v>756</v>
       </c>
       <c r="B906" t="s">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="C906" t="s">
-        <v>840</v>
+        <v>754</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>845</v>
+        <v>759</v>
       </c>
       <c r="B907" t="s">
-        <v>844</v>
+        <v>758</v>
       </c>
       <c r="C907" t="s">
-        <v>843</v>
+        <v>757</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>848</v>
+        <v>762</v>
       </c>
       <c r="B908" t="s">
-        <v>847</v>
+        <v>761</v>
       </c>
       <c r="C908" t="s">
-        <v>846</v>
+        <v>760</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>851</v>
+        <v>765</v>
       </c>
       <c r="B909" t="s">
-        <v>850</v>
+        <v>764</v>
       </c>
       <c r="C909" t="s">
-        <v>849</v>
+        <v>763</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>854</v>
+        <v>768</v>
       </c>
       <c r="B910" t="s">
-        <v>853</v>
+        <v>767</v>
       </c>
       <c r="C910" t="s">
-        <v>852</v>
+        <v>766</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>855</v>
+        <v>771</v>
+      </c>
+      <c r="B911" t="s">
+        <v>770</v>
+      </c>
+      <c r="C911" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>858</v>
+        <v>774</v>
       </c>
       <c r="B912" t="s">
-        <v>857</v>
+        <v>773</v>
       </c>
       <c r="C912" t="s">
-        <v>856</v>
+        <v>772</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>861</v>
+        <v>776</v>
       </c>
       <c r="B913" t="s">
-        <v>860</v>
+        <v>775</v>
       </c>
       <c r="C913" t="s">
-        <v>859</v>
+        <v>301</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>864</v>
+        <v>779</v>
       </c>
       <c r="B914" t="s">
-        <v>863</v>
+        <v>778</v>
       </c>
       <c r="C914" t="s">
-        <v>862</v>
+        <v>777</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>867</v>
+        <v>782</v>
       </c>
       <c r="B915" t="s">
-        <v>866</v>
+        <v>781</v>
       </c>
       <c r="C915" t="s">
-        <v>865</v>
+        <v>780</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>870</v>
+        <v>785</v>
       </c>
       <c r="B916" t="s">
-        <v>869</v>
+        <v>784</v>
       </c>
       <c r="C916" t="s">
-        <v>868</v>
+        <v>783</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>858</v>
+        <v>788</v>
       </c>
       <c r="B917" t="s">
-        <v>872</v>
+        <v>787</v>
       </c>
       <c r="C917" t="s">
-        <v>871</v>
+        <v>786</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="B918" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="C918" t="s">
-        <v>873</v>
+        <v>789</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>878</v>
+        <v>794</v>
       </c>
       <c r="B919" t="s">
-        <v>877</v>
+        <v>793</v>
       </c>
       <c r="C919" t="s">
-        <v>876</v>
+        <v>792</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="B920" t="s">
-        <v>880</v>
+        <v>796</v>
       </c>
       <c r="C920" t="s">
-        <v>879</v>
+        <v>795</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>884</v>
+        <v>800</v>
       </c>
       <c r="B921" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="C921" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="B922" t="s">
-        <v>886</v>
+        <v>802</v>
       </c>
       <c r="C922" t="s">
-        <v>885</v>
+        <v>801</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="B923" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="C923" t="s">
-        <v>888</v>
+        <v>804</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>893</v>
+        <v>809</v>
       </c>
       <c r="B924" t="s">
-        <v>892</v>
+        <v>808</v>
       </c>
       <c r="C924" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>896</v>
+        <v>812</v>
       </c>
       <c r="B925" t="s">
-        <v>895</v>
+        <v>811</v>
       </c>
       <c r="C925" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>899</v>
+        <v>815</v>
       </c>
       <c r="B926" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="C926" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>902</v>
+        <v>818</v>
       </c>
       <c r="B927" t="s">
-        <v>901</v>
+        <v>817</v>
       </c>
       <c r="C927" t="s">
-        <v>900</v>
+        <v>816</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>902</v>
+        <v>821</v>
       </c>
       <c r="B928" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="C928" t="s">
-        <v>903</v>
+        <v>819</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>907</v>
+        <v>824</v>
       </c>
       <c r="B929" t="s">
-        <v>906</v>
+        <v>823</v>
       </c>
       <c r="C929" t="s">
-        <v>905</v>
+        <v>822</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>910</v>
+        <v>827</v>
       </c>
       <c r="B930" t="s">
-        <v>909</v>
+        <v>826</v>
       </c>
       <c r="C930" t="s">
-        <v>908</v>
+        <v>825</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>913</v>
+        <v>830</v>
       </c>
       <c r="B931" t="s">
-        <v>912</v>
+        <v>829</v>
       </c>
       <c r="C931" t="s">
-        <v>911</v>
+        <v>828</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>916</v>
+        <v>833</v>
       </c>
       <c r="B932" t="s">
-        <v>915</v>
+        <v>832</v>
       </c>
       <c r="C932" t="s">
-        <v>914</v>
+        <v>831</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>919</v>
+        <v>836</v>
       </c>
       <c r="B933" t="s">
-        <v>918</v>
+        <v>835</v>
       </c>
       <c r="C933" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>922</v>
+        <v>839</v>
       </c>
       <c r="B934" t="s">
-        <v>921</v>
+        <v>838</v>
       </c>
       <c r="C934" t="s">
-        <v>920</v>
+        <v>837</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>925</v>
+        <v>842</v>
       </c>
       <c r="B935" t="s">
-        <v>924</v>
+        <v>841</v>
       </c>
       <c r="C935" t="s">
-        <v>923</v>
+        <v>840</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>928</v>
+        <v>845</v>
       </c>
       <c r="B936" t="s">
-        <v>927</v>
+        <v>844</v>
       </c>
       <c r="C936" t="s">
-        <v>926</v>
+        <v>843</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>931</v>
+        <v>848</v>
       </c>
       <c r="B937" t="s">
-        <v>930</v>
+        <v>847</v>
       </c>
       <c r="C937" t="s">
-        <v>929</v>
+        <v>846</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>934</v>
+        <v>851</v>
       </c>
       <c r="B938" t="s">
-        <v>933</v>
+        <v>850</v>
       </c>
       <c r="C938" t="s">
-        <v>932</v>
+        <v>849</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>937</v>
+        <v>854</v>
       </c>
       <c r="B939" t="s">
-        <v>936</v>
+        <v>853</v>
       </c>
       <c r="C939" t="s">
-        <v>935</v>
+        <v>852</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>940</v>
-      </c>
-      <c r="B940" t="s">
-        <v>939</v>
-      </c>
-      <c r="C940" t="s">
-        <v>938</v>
+        <v>855</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>943</v>
+        <v>858</v>
       </c>
       <c r="B941" t="s">
-        <v>942</v>
+        <v>857</v>
       </c>
       <c r="C941" t="s">
-        <v>941</v>
+        <v>856</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>946</v>
+        <v>861</v>
       </c>
       <c r="B942" t="s">
-        <v>945</v>
+        <v>860</v>
       </c>
       <c r="C942" t="s">
-        <v>944</v>
+        <v>859</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>948</v>
+        <v>864</v>
       </c>
       <c r="B943" t="s">
-        <v>948</v>
+        <v>863</v>
       </c>
       <c r="C943" t="s">
-        <v>947</v>
+        <v>862</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>951</v>
+        <v>867</v>
       </c>
       <c r="B944" t="s">
-        <v>950</v>
+        <v>866</v>
       </c>
       <c r="C944" t="s">
-        <v>949</v>
+        <v>865</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="B945" t="s">
-        <v>953</v>
+        <v>869</v>
       </c>
       <c r="C945" t="s">
-        <v>952</v>
+        <v>868</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>957</v>
+        <v>858</v>
       </c>
       <c r="B946" t="s">
-        <v>956</v>
+        <v>872</v>
       </c>
       <c r="C946" t="s">
-        <v>955</v>
+        <v>871</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>960</v>
+        <v>875</v>
       </c>
       <c r="B947" t="s">
-        <v>959</v>
+        <v>874</v>
       </c>
       <c r="C947" t="s">
-        <v>958</v>
+        <v>873</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>962</v>
+        <v>878</v>
+      </c>
+      <c r="B948" t="s">
+        <v>877</v>
       </c>
       <c r="C948" t="s">
-        <v>961</v>
+        <v>876</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>965</v>
+        <v>881</v>
       </c>
       <c r="B949" t="s">
-        <v>964</v>
+        <v>880</v>
       </c>
       <c r="C949" t="s">
-        <v>963</v>
+        <v>879</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="B950" t="s">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="C950" t="s">
-        <v>966</v>
+        <v>882</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>965</v>
+        <v>887</v>
       </c>
       <c r="B951" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="C951" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>973</v>
+        <v>890</v>
       </c>
       <c r="B952" t="s">
-        <v>972</v>
+        <v>889</v>
       </c>
       <c r="C952" t="s">
-        <v>971</v>
+        <v>888</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>976</v>
+        <v>893</v>
       </c>
       <c r="B953" t="s">
-        <v>975</v>
+        <v>892</v>
       </c>
       <c r="C953" t="s">
-        <v>974</v>
+        <v>891</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>979</v>
+        <v>896</v>
       </c>
       <c r="B954" t="s">
-        <v>978</v>
+        <v>895</v>
       </c>
       <c r="C954" t="s">
-        <v>977</v>
+        <v>894</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>982</v>
+        <v>899</v>
       </c>
       <c r="B955" t="s">
-        <v>981</v>
+        <v>898</v>
       </c>
       <c r="C955" t="s">
-        <v>980</v>
+        <v>897</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>985</v>
+        <v>902</v>
       </c>
       <c r="B956" t="s">
-        <v>984</v>
+        <v>901</v>
       </c>
       <c r="C956" t="s">
-        <v>983</v>
+        <v>900</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>988</v>
+        <v>902</v>
       </c>
       <c r="B957" t="s">
-        <v>987</v>
+        <v>904</v>
       </c>
       <c r="C957" t="s">
-        <v>986</v>
+        <v>903</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>990</v>
+        <v>907</v>
+      </c>
+      <c r="B958" t="s">
+        <v>906</v>
       </c>
       <c r="C958" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>993</v>
+        <v>910</v>
       </c>
       <c r="B959" t="s">
-        <v>992</v>
+        <v>909</v>
       </c>
       <c r="C959" t="s">
-        <v>991</v>
+        <v>908</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>996</v>
+        <v>913</v>
       </c>
       <c r="B960" t="s">
-        <v>995</v>
+        <v>912</v>
       </c>
       <c r="C960" t="s">
-        <v>994</v>
+        <v>911</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>998</v>
+        <v>916</v>
       </c>
       <c r="B961" t="s">
-        <v>997</v>
+        <v>915</v>
       </c>
       <c r="C961" t="s">
-        <v>997</v>
+        <v>914</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>1001</v>
+        <v>919</v>
       </c>
       <c r="B962" t="s">
-        <v>1000</v>
+        <v>918</v>
       </c>
       <c r="C962" t="s">
-        <v>999</v>
+        <v>917</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>1004</v>
+        <v>922</v>
       </c>
       <c r="B963" t="s">
-        <v>1003</v>
+        <v>921</v>
       </c>
       <c r="C963" t="s">
-        <v>1002</v>
+        <v>920</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>1173</v>
+        <v>925</v>
+      </c>
+      <c r="B964" t="s">
+        <v>924</v>
+      </c>
+      <c r="C964" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>1040</v>
+        <v>928</v>
       </c>
       <c r="B965" t="s">
-        <v>1041</v>
+        <v>927</v>
       </c>
       <c r="C965" t="s">
-        <v>1042</v>
+        <v>926</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>1043</v>
+        <v>931</v>
       </c>
       <c r="B966" t="s">
-        <v>1044</v>
+        <v>930</v>
       </c>
       <c r="C966" t="s">
-        <v>1045</v>
+        <v>929</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>1046</v>
+        <v>934</v>
       </c>
       <c r="B967" t="s">
-        <v>1047</v>
+        <v>933</v>
       </c>
       <c r="C967" t="s">
-        <v>1048</v>
+        <v>932</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>1049</v>
+        <v>937</v>
       </c>
       <c r="B968" t="s">
-        <v>1050</v>
+        <v>936</v>
       </c>
       <c r="C968" t="s">
-        <v>1051</v>
+        <v>935</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>1052</v>
+        <v>940</v>
       </c>
       <c r="B969" t="s">
-        <v>1053</v>
+        <v>939</v>
       </c>
       <c r="C969" t="s">
-        <v>1054</v>
+        <v>938</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>1055</v>
+        <v>943</v>
       </c>
       <c r="B970" t="s">
-        <v>1056</v>
+        <v>942</v>
       </c>
       <c r="C970" t="s">
-        <v>1057</v>
+        <v>941</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>1058</v>
+        <v>946</v>
       </c>
       <c r="B971" t="s">
-        <v>1059</v>
+        <v>945</v>
       </c>
       <c r="C971" t="s">
-        <v>1060</v>
+        <v>944</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>1061</v>
+        <v>948</v>
       </c>
       <c r="B972" t="s">
-        <v>1062</v>
+        <v>948</v>
       </c>
       <c r="C972" t="s">
-        <v>1062</v>
+        <v>947</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>1063</v>
+        <v>951</v>
       </c>
       <c r="B973" t="s">
-        <v>1064</v>
+        <v>950</v>
       </c>
       <c r="C973" t="s">
-        <v>1064</v>
+        <v>949</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>1065</v>
+        <v>954</v>
       </c>
       <c r="B974" t="s">
-        <v>1066</v>
+        <v>953</v>
       </c>
       <c r="C974" t="s">
-        <v>1066</v>
+        <v>952</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>1067</v>
+        <v>957</v>
       </c>
       <c r="B975" t="s">
-        <v>1068</v>
+        <v>956</v>
       </c>
       <c r="C975" t="s">
-        <v>1068</v>
+        <v>955</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>1069</v>
+        <v>960</v>
       </c>
       <c r="B976" t="s">
-        <v>1070</v>
+        <v>959</v>
       </c>
       <c r="C976" t="s">
-        <v>1070</v>
+        <v>958</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B977" t="s">
-        <v>1072</v>
+        <v>962</v>
       </c>
       <c r="C977" t="s">
-        <v>1072</v>
+        <v>961</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>1073</v>
+        <v>965</v>
       </c>
       <c r="B978" t="s">
-        <v>1074</v>
+        <v>964</v>
       </c>
       <c r="C978" t="s">
-        <v>1074</v>
+        <v>963</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>1075</v>
+        <v>968</v>
       </c>
       <c r="B979" t="s">
-        <v>1076</v>
+        <v>967</v>
       </c>
       <c r="C979" t="s">
-        <v>1076</v>
+        <v>966</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>1077</v>
+        <v>965</v>
       </c>
       <c r="B980" t="s">
-        <v>1078</v>
+        <v>970</v>
       </c>
       <c r="C980" t="s">
-        <v>1078</v>
+        <v>969</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>1079</v>
+        <v>973</v>
       </c>
       <c r="B981" t="s">
-        <v>1080</v>
+        <v>972</v>
       </c>
       <c r="C981" t="s">
-        <v>1080</v>
+        <v>971</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>1081</v>
+        <v>976</v>
       </c>
       <c r="B982" t="s">
-        <v>1082</v>
+        <v>975</v>
       </c>
       <c r="C982" t="s">
-        <v>1082</v>
+        <v>974</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>1083</v>
+        <v>979</v>
       </c>
       <c r="B983" t="s">
-        <v>1084</v>
+        <v>978</v>
       </c>
       <c r="C983" t="s">
-        <v>1084</v>
+        <v>977</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>1085</v>
+        <v>982</v>
       </c>
       <c r="B984" t="s">
-        <v>1086</v>
+        <v>981</v>
       </c>
       <c r="C984" t="s">
-        <v>1086</v>
+        <v>980</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1087</v>
+        <v>985</v>
       </c>
       <c r="B985" t="s">
-        <v>1088</v>
+        <v>984</v>
       </c>
       <c r="C985" t="s">
-        <v>1088</v>
+        <v>983</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>1089</v>
+        <v>988</v>
       </c>
       <c r="B986" t="s">
-        <v>1090</v>
+        <v>987</v>
       </c>
       <c r="C986" t="s">
-        <v>1090</v>
+        <v>986</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1092</v>
+        <v>990</v>
       </c>
       <c r="C987" t="s">
-        <v>1092</v>
+        <v>989</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>1093</v>
+        <v>993</v>
       </c>
       <c r="B988" t="s">
-        <v>1094</v>
+        <v>992</v>
       </c>
       <c r="C988" t="s">
-        <v>1094</v>
+        <v>991</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>1095</v>
+        <v>996</v>
       </c>
       <c r="B989" t="s">
-        <v>1096</v>
+        <v>995</v>
       </c>
       <c r="C989" t="s">
-        <v>1096</v>
+        <v>994</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>1097</v>
+        <v>998</v>
       </c>
       <c r="B990" t="s">
-        <v>1098</v>
+        <v>997</v>
       </c>
       <c r="C990" t="s">
-        <v>1098</v>
+        <v>997</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>1099</v>
+        <v>1001</v>
       </c>
       <c r="B991" t="s">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C991" t="s">
-        <v>1101</v>
+        <v>999</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1102</v>
+        <v>1004</v>
       </c>
       <c r="B992" t="s">
-        <v>1103</v>
+        <v>1003</v>
       </c>
       <c r="C992" t="s">
-        <v>1104</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B993" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C993" t="s">
-        <v>1107</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1108</v>
+        <v>1040</v>
       </c>
       <c r="B994" t="s">
-        <v>1109</v>
+        <v>1041</v>
       </c>
       <c r="C994" t="s">
-        <v>1110</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1111</v>
+        <v>1043</v>
       </c>
       <c r="B995" t="s">
-        <v>1112</v>
+        <v>1044</v>
       </c>
       <c r="C995" t="s">
-        <v>1113</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1114</v>
+        <v>1046</v>
       </c>
       <c r="B996" t="s">
-        <v>1115</v>
+        <v>1047</v>
       </c>
       <c r="C996" t="s">
-        <v>1116</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>1117</v>
+        <v>1049</v>
       </c>
       <c r="B997" t="s">
-        <v>1118</v>
+        <v>1050</v>
       </c>
       <c r="C997" t="s">
-        <v>1119</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>1120</v>
+        <v>1052</v>
       </c>
       <c r="B998" t="s">
-        <v>1121</v>
+        <v>1053</v>
       </c>
       <c r="C998" t="s">
-        <v>1122</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>1123</v>
+        <v>1055</v>
       </c>
       <c r="B999" t="s">
-        <v>1124</v>
+        <v>1056</v>
       </c>
       <c r="C999" t="s">
-        <v>1125</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>2128</v>
+        <v>1058</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1001" s="4" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B1001" s="4" t="s">
-        <v>2129</v>
+      <c r="A1001" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1002" s="4" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B1002" s="4" t="s">
-        <v>2130</v>
+      <c r="A1002" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1003" s="4" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B1003" s="4" t="s">
-        <v>2131</v>
+      <c r="A1003" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1004" s="4" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B1004" s="4" t="s">
-        <v>2132</v>
+      <c r="A1004" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1005" s="5" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B1005" s="5" t="s">
-        <v>2133</v>
+      <c r="A1005" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>2134</v>
+        <v>1071</v>
       </c>
       <c r="B1006" t="s">
-        <v>2135</v>
+        <v>1072</v>
       </c>
       <c r="C1006" t="s">
-        <v>730</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>2136</v>
+        <v>1073</v>
       </c>
       <c r="B1007" t="s">
-        <v>2137</v>
+        <v>1074</v>
       </c>
       <c r="C1007" t="s">
-        <v>849</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>2138</v>
+        <v>1075</v>
       </c>
       <c r="B1008" t="s">
-        <v>2139</v>
+        <v>1076</v>
       </c>
       <c r="C1008" t="s">
-        <v>2125</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>2140</v>
+        <v>1077</v>
       </c>
       <c r="B1009" t="s">
-        <v>2141</v>
+        <v>1078</v>
       </c>
       <c r="C1009" t="s">
-        <v>763</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>2142</v>
+        <v>1079</v>
       </c>
       <c r="B1010" t="s">
-        <v>2143</v>
+        <v>1080</v>
       </c>
       <c r="C1010" t="s">
-        <v>2126</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>2144</v>
+        <v>1081</v>
       </c>
       <c r="B1011" t="s">
-        <v>2145</v>
+        <v>1082</v>
       </c>
       <c r="C1011" t="s">
-        <v>852</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>2146</v>
+        <v>1083</v>
       </c>
       <c r="B1012" t="s">
-        <v>2147</v>
+        <v>1084</v>
       </c>
       <c r="C1012" t="s">
-        <v>2127</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>2148</v>
+        <v>1085</v>
       </c>
       <c r="B1013" t="s">
-        <v>2149</v>
+        <v>1086</v>
       </c>
       <c r="C1013" t="s">
-        <v>1574</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1030" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1031" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1032" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1033" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1034" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1034" s="5" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
         <v>2150</v>
       </c>
-      <c r="B1014" t="s">
+      <c r="B1043" t="s">
         <v>2151</v>
       </c>
-      <c r="C1014" t="s">
+      <c r="C1043" t="s">
         <v>742</v>
       </c>
     </row>

--- a/00-日文單字.xlsx
+++ b/00-日文單字.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guandamachine-my.sharepoint.com/personal/ec03_gd_guandamachine_com_tw/Documents/Fly/日語/日語練習網站/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0655C55B-A6A2-4705-85BE-5740F943DB5C}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_AD4DBB64A54DDB1B405E38AFBD9A2E1F4F90DF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E868CCC-9CD0-4888-88D8-5D87511E291D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="2393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="2743">
   <si>
     <t>わたし</t>
   </si>
@@ -7396,6 +7396,1061 @@
   </si>
   <si>
     <t>休閒白皮書</t>
+  </si>
+  <si>
+    <t>*第20課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>いります</t>
+  </si>
+  <si>
+    <t>要ります</t>
+  </si>
+  <si>
+    <t>要,需要</t>
+  </si>
+  <si>
+    <t>ザがいります</t>
+  </si>
+  <si>
+    <t>ビザが要ります</t>
+  </si>
+  <si>
+    <t>需要簽證</t>
+  </si>
+  <si>
+    <t>しらべます</t>
+  </si>
+  <si>
+    <t>調べます</t>
+  </si>
+  <si>
+    <t>調查</t>
+  </si>
+  <si>
+    <t>なおします</t>
+  </si>
+  <si>
+    <t>直します</t>
+  </si>
+  <si>
+    <t>修理,改正</t>
+  </si>
+  <si>
+    <t>しゅうりします</t>
+  </si>
+  <si>
+    <t>修理します</t>
+  </si>
+  <si>
+    <t>修理</t>
+  </si>
+  <si>
+    <t>でんわします</t>
+  </si>
+  <si>
+    <t>電話します</t>
+  </si>
+  <si>
+    <t>ぼく</t>
+  </si>
+  <si>
+    <t>僕</t>
+  </si>
+  <si>
+    <t>我(男性用語,不如 わたし 禮貌)</t>
+  </si>
+  <si>
+    <t>きみ</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>你(男性對晚輩或同輩用,不如 あなた 禮貌)</t>
+  </si>
+  <si>
+    <t>～君</t>
+  </si>
+  <si>
+    <t>～君(男性稱呼晚輩或同輩用,不如 さん 禮貌)</t>
+  </si>
+  <si>
+    <t>うん</t>
+  </si>
+  <si>
+    <t>對(不如 はい 禮貌)</t>
+  </si>
+  <si>
+    <t>ううん</t>
+  </si>
+  <si>
+    <t>不對(不如 いいえ 禮貌)</t>
+  </si>
+  <si>
+    <t>サラリーマン</t>
+  </si>
+  <si>
+    <t>薪水階級,上班族</t>
+  </si>
+  <si>
+    <t>ことば</t>
+  </si>
+  <si>
+    <t>單字,語言</t>
+  </si>
+  <si>
+    <t>ぶっか</t>
+  </si>
+  <si>
+    <t>物価</t>
+  </si>
+  <si>
+    <t>物價</t>
+  </si>
+  <si>
+    <t>きもの</t>
+  </si>
+  <si>
+    <t>着物</t>
+  </si>
+  <si>
+    <t>和服(傳統的日本服裝)</t>
+  </si>
+  <si>
+    <t>ビザ</t>
+  </si>
+  <si>
+    <t>簽證</t>
+  </si>
+  <si>
+    <t>はじめ</t>
+  </si>
+  <si>
+    <t>初め</t>
+  </si>
+  <si>
+    <t>おわり</t>
+  </si>
+  <si>
+    <t>終わり</t>
+  </si>
+  <si>
+    <t>こっち</t>
+  </si>
+  <si>
+    <t>這邊(不如 こちら 禮貌)</t>
+  </si>
+  <si>
+    <t>そっち</t>
+  </si>
+  <si>
+    <t>那邊(不如 そちら 禮貌)</t>
+  </si>
+  <si>
+    <t>あっち</t>
+  </si>
+  <si>
+    <t>那邊(不如 あちら 禮貌)</t>
+  </si>
+  <si>
+    <t>どっち</t>
+  </si>
+  <si>
+    <t>哪邊(不如 どちら 禮貌)</t>
+  </si>
+  <si>
+    <t>このあいだ</t>
+  </si>
+  <si>
+    <t>この間</t>
+  </si>
+  <si>
+    <t>日前,前些天</t>
+  </si>
+  <si>
+    <t>みんなで</t>
+  </si>
+  <si>
+    <t>大家一起</t>
+  </si>
+  <si>
+    <t>～けど</t>
+  </si>
+  <si>
+    <t>但是(不如 が 正式)</t>
+  </si>
+  <si>
+    <t>国へ 帰るの?</t>
+  </si>
+  <si>
+    <t>你要回國嗎?</t>
+  </si>
+  <si>
+    <t>どう するの?</t>
+  </si>
+  <si>
+    <t>你準備怎麼做?</t>
+  </si>
+  <si>
+    <t>どう しようかな</t>
+  </si>
+  <si>
+    <t>我該怎麼做呢?</t>
+  </si>
+  <si>
+    <t>よかったら</t>
+  </si>
+  <si>
+    <t>如果方便的話,如果你願意</t>
+  </si>
+  <si>
+    <t>いろいろ</t>
+  </si>
+  <si>
+    <t>各式各樣</t>
+  </si>
+  <si>
+    <t>言葉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第11課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有...</t>
+  </si>
+  <si>
+    <t>こどもがいます</t>
+  </si>
+  <si>
+    <t>子どもが有</t>
+  </si>
+  <si>
+    <t>有孩子</t>
+  </si>
+  <si>
+    <t>在...</t>
+  </si>
+  <si>
+    <t>にほんにいます</t>
+  </si>
+  <si>
+    <t>日本にいます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在日本 </t>
+  </si>
+  <si>
+    <t>かかります</t>
+  </si>
+  <si>
+    <t>花費(金錢或時間)</t>
+  </si>
+  <si>
+    <t>向...請假</t>
+  </si>
+  <si>
+    <t>かいしゃをやすみます</t>
+  </si>
+  <si>
+    <t>会社を休みます</t>
+  </si>
+  <si>
+    <t>向[公司]請假</t>
+  </si>
+  <si>
+    <t>ひとつ</t>
+  </si>
+  <si>
+    <t>1つ</t>
+  </si>
+  <si>
+    <t>一個(用於計算物品)</t>
+  </si>
+  <si>
+    <t>ふたつ</t>
+  </si>
+  <si>
+    <t>2つ</t>
+  </si>
+  <si>
+    <t>二個</t>
+  </si>
+  <si>
+    <t>みっつ</t>
+  </si>
+  <si>
+    <t>3つ</t>
+  </si>
+  <si>
+    <t>三個</t>
+  </si>
+  <si>
+    <t>よっつ</t>
+  </si>
+  <si>
+    <t>4つ</t>
+  </si>
+  <si>
+    <t>四個</t>
+  </si>
+  <si>
+    <t>いつつ</t>
+  </si>
+  <si>
+    <t>5つ</t>
+  </si>
+  <si>
+    <t>五個</t>
+  </si>
+  <si>
+    <t>むっつ</t>
+  </si>
+  <si>
+    <t>6つ</t>
+  </si>
+  <si>
+    <t>六個</t>
+  </si>
+  <si>
+    <t>ななつ</t>
+  </si>
+  <si>
+    <t>7つ</t>
+  </si>
+  <si>
+    <t>七個</t>
+  </si>
+  <si>
+    <t>やっつ</t>
+  </si>
+  <si>
+    <t>8つ</t>
+  </si>
+  <si>
+    <t>八個</t>
+  </si>
+  <si>
+    <t>ここのつ</t>
+  </si>
+  <si>
+    <t>9つ</t>
+  </si>
+  <si>
+    <t>九個</t>
+  </si>
+  <si>
+    <t>とお</t>
+  </si>
+  <si>
+    <t>10つ</t>
+  </si>
+  <si>
+    <t>十個</t>
+  </si>
+  <si>
+    <t>いくつ</t>
+  </si>
+  <si>
+    <t>幾個</t>
+  </si>
+  <si>
+    <t>ひとり</t>
+  </si>
+  <si>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>一個人</t>
+  </si>
+  <si>
+    <t>ふたり</t>
+  </si>
+  <si>
+    <t>2人</t>
+  </si>
+  <si>
+    <t>二個人</t>
+  </si>
+  <si>
+    <t>…にん</t>
+  </si>
+  <si>
+    <t>…人</t>
+  </si>
+  <si>
+    <t>…個人</t>
+  </si>
+  <si>
+    <t>…だい</t>
+  </si>
+  <si>
+    <t>…台(用於計算機械、車輛等機械類時)</t>
+  </si>
+  <si>
+    <t>…まい</t>
+  </si>
+  <si>
+    <t>…回</t>
+  </si>
+  <si>
+    <t>…次</t>
+  </si>
+  <si>
+    <t>りんご</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>みかん</t>
+  </si>
+  <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+  </si>
+  <si>
+    <t>三明治</t>
+  </si>
+  <si>
+    <t>カレー[ライス]</t>
+  </si>
+  <si>
+    <t>咖哩[飯]</t>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+  </si>
+  <si>
+    <t>冰淇淋</t>
+  </si>
+  <si>
+    <t>はがき</t>
+  </si>
+  <si>
+    <t>明信片</t>
+  </si>
+  <si>
+    <t>ふうとう</t>
+  </si>
+  <si>
+    <t>封筒</t>
+  </si>
+  <si>
+    <t>信封</t>
+  </si>
+  <si>
+    <t>そくたつ</t>
+  </si>
+  <si>
+    <t>速達</t>
+  </si>
+  <si>
+    <t>限時信</t>
+  </si>
+  <si>
+    <t>かきとめ</t>
+  </si>
+  <si>
+    <t>書留</t>
+  </si>
+  <si>
+    <t>掛號信</t>
+  </si>
+  <si>
+    <t>エアメール</t>
+  </si>
+  <si>
+    <t>航空郵件,航空信</t>
+  </si>
+  <si>
+    <t>こうくうびん</t>
+  </si>
+  <si>
+    <t>航空便</t>
+  </si>
+  <si>
+    <t>ふなびん</t>
+  </si>
+  <si>
+    <t>船便</t>
+  </si>
+  <si>
+    <t>船運</t>
+  </si>
+  <si>
+    <t>りょうしん</t>
+  </si>
+  <si>
+    <t>両親</t>
+  </si>
+  <si>
+    <t>雙親</t>
+  </si>
+  <si>
+    <t>きょうだい</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+  </si>
+  <si>
+    <t>兄弟姊妹</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>(我)哥哥</t>
+  </si>
+  <si>
+    <t>おにいさん</t>
+  </si>
+  <si>
+    <t>お兄さん</t>
+  </si>
+  <si>
+    <t>(他人的)哥哥</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>姉</t>
+  </si>
+  <si>
+    <t>(我)姊姊</t>
+  </si>
+  <si>
+    <t>おねえさん</t>
+  </si>
+  <si>
+    <t>お姉さん</t>
+  </si>
+  <si>
+    <t>(他人的)姊姊</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>弟</t>
+  </si>
+  <si>
+    <t>(我)弟弟</t>
+  </si>
+  <si>
+    <t>おとうとさん</t>
+  </si>
+  <si>
+    <t>弟さん</t>
+  </si>
+  <si>
+    <t>(他人的)弟弟</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>妹</t>
+  </si>
+  <si>
+    <t>(我)妹妹</t>
+  </si>
+  <si>
+    <t>いもうとさん</t>
+  </si>
+  <si>
+    <t>妹さん</t>
+  </si>
+  <si>
+    <t>(他人的)妹妹</t>
+  </si>
+  <si>
+    <t>がいこく</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>外國</t>
+  </si>
+  <si>
+    <t>…じかん</t>
+  </si>
+  <si>
+    <t>…時間</t>
+  </si>
+  <si>
+    <t>…小時</t>
+  </si>
+  <si>
+    <t>…しゅうかん</t>
+  </si>
+  <si>
+    <t>…週間</t>
+  </si>
+  <si>
+    <t>…星期</t>
+  </si>
+  <si>
+    <t>…かげつ</t>
+  </si>
+  <si>
+    <t>…か月</t>
+  </si>
+  <si>
+    <t>…個月</t>
+  </si>
+  <si>
+    <t>…ねん</t>
+  </si>
+  <si>
+    <t>…年</t>
+  </si>
+  <si>
+    <t>～ぐらい</t>
+  </si>
+  <si>
+    <t>～左右</t>
+  </si>
+  <si>
+    <t>どのぐらい</t>
+  </si>
+  <si>
+    <t>多久</t>
+  </si>
+  <si>
+    <t>ぜんぶで</t>
+  </si>
+  <si>
+    <t>全部で</t>
+  </si>
+  <si>
+    <t>一共</t>
+  </si>
+  <si>
+    <t>みんな</t>
+  </si>
+  <si>
+    <t>全部,全體</t>
+  </si>
+  <si>
+    <t>～だけ</t>
+  </si>
+  <si>
+    <t>只～,僅～</t>
+  </si>
+  <si>
+    <t>いらっしゃいませ</t>
+  </si>
+  <si>
+    <t>歡迎光臨(商店、行號在顧客光臨時用)</t>
+  </si>
+  <si>
+    <t>…枚(用於計算紙張、郵票等薄的物品時)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*第12課</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>いい[お]てんきですね</t>
+  </si>
+  <si>
+    <t>いい[お]天気ですね</t>
+  </si>
+  <si>
+    <t>真是好天氣呀。</t>
+  </si>
+  <si>
+    <t>おでかけですか</t>
+  </si>
+  <si>
+    <t>お出かけですか</t>
+  </si>
+  <si>
+    <t>您外出呀</t>
+  </si>
+  <si>
+    <t>ちょっと ～まで</t>
+  </si>
+  <si>
+    <t>我去一下～</t>
+  </si>
+  <si>
+    <t>いって いらっしゃい</t>
+  </si>
+  <si>
+    <t>行って いらっしゃい</t>
+  </si>
+  <si>
+    <t>你慢走(會再回來)</t>
+  </si>
+  <si>
+    <t>いって まいります</t>
+  </si>
+  <si>
+    <t>行って まいります</t>
+  </si>
+  <si>
+    <t>我走了(會再回來)</t>
+  </si>
+  <si>
+    <t>還有,另外</t>
+  </si>
+  <si>
+    <t>オーストラリア</t>
+  </si>
+  <si>
+    <t>澳洲</t>
+  </si>
+  <si>
+    <t>かんたん[な]</t>
+  </si>
+  <si>
+    <t>簡単[な]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">簡單,單純 </t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>遠</t>
+  </si>
+  <si>
+    <t>速い、早い</t>
+  </si>
+  <si>
+    <t>快,早</t>
+  </si>
+  <si>
+    <t>慢,晚</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>[人]多,多</t>
+  </si>
+  <si>
+    <t>すくない</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>ひとがすくない</t>
+  </si>
+  <si>
+    <t>人がすくない</t>
+  </si>
+  <si>
+    <t>人少</t>
+  </si>
+  <si>
+    <t>暖かい,温かい</t>
+  </si>
+  <si>
+    <t>溫暖,溫熱</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>辛い</t>
+  </si>
+  <si>
+    <t>辣,鹹</t>
+  </si>
+  <si>
+    <t>重</t>
+  </si>
+  <si>
+    <t>輕</t>
+  </si>
+  <si>
+    <t>コーヒーがいい</t>
+  </si>
+  <si>
+    <t>好咖啡</t>
+  </si>
+  <si>
+    <t>てんき</t>
+  </si>
+  <si>
+    <t>天気</t>
+  </si>
+  <si>
+    <t>天氣</t>
+  </si>
+  <si>
+    <t>あめ</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>雨,下雨</t>
+  </si>
+  <si>
+    <t>ゆき</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>雪,下雪</t>
+  </si>
+  <si>
+    <t>くもり</t>
+  </si>
+  <si>
+    <t>曇り</t>
+  </si>
+  <si>
+    <t>陰天</t>
+  </si>
+  <si>
+    <t>飯店,旅館</t>
+  </si>
+  <si>
+    <t>くうこう</t>
+  </si>
+  <si>
+    <t>空港</t>
+  </si>
+  <si>
+    <t>機場</t>
+  </si>
+  <si>
+    <t>うみ</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>せかい</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>パーティー</t>
+  </si>
+  <si>
+    <t>舞會,餐會(～を します：辦舞會</t>
+  </si>
+  <si>
+    <t>パーティーをします</t>
+  </si>
+  <si>
+    <t>辦舞會</t>
+  </si>
+  <si>
+    <t>[お]まつり</t>
+  </si>
+  <si>
+    <t>[お]祭り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">節慶,慶典 </t>
+  </si>
+  <si>
+    <t>しけん</t>
+  </si>
+  <si>
+    <t>試験</t>
+  </si>
+  <si>
+    <t>考試</t>
+  </si>
+  <si>
+    <t>すきやき</t>
+  </si>
+  <si>
+    <t>すき焼き</t>
+  </si>
+  <si>
+    <t>壽喜燒(牛肉和蔬菜的火鍋)</t>
+  </si>
+  <si>
+    <t>さしみ</t>
+  </si>
+  <si>
+    <t>刺身</t>
+  </si>
+  <si>
+    <t>生魚片</t>
+  </si>
+  <si>
+    <t>[お]すし</t>
+  </si>
+  <si>
+    <t>壽司</t>
+  </si>
+  <si>
+    <t>てんぷら</t>
+  </si>
+  <si>
+    <t>天麩羅</t>
+  </si>
+  <si>
+    <t>いけばな</t>
+  </si>
+  <si>
+    <t>生け花</t>
+  </si>
+  <si>
+    <t>花道,插花</t>
+  </si>
+  <si>
+    <t>いけばなをします</t>
+  </si>
+  <si>
+    <t>生け花します</t>
+  </si>
+  <si>
+    <t>插花</t>
+  </si>
+  <si>
+    <t>もみじ</t>
+  </si>
+  <si>
+    <t>紅葉</t>
+  </si>
+  <si>
+    <t>紅葉(秋天的各種變色葉)</t>
+  </si>
+  <si>
+    <t>哪邊(自二者選一)</t>
+  </si>
+  <si>
+    <t>どちらも</t>
+  </si>
+  <si>
+    <t>二者都</t>
+  </si>
+  <si>
+    <t>ずっと</t>
+  </si>
+  <si>
+    <t>～得多,～得很</t>
+  </si>
+  <si>
+    <t>はじめて</t>
+  </si>
+  <si>
+    <t>初めて</t>
+  </si>
+  <si>
+    <t>第一次</t>
+  </si>
+  <si>
+    <t>ひとがおおい</t>
+  </si>
+  <si>
+    <t>人が多い</t>
+  </si>
+  <si>
+    <t>人多</t>
+  </si>
+  <si>
+    <t>ただいま</t>
+  </si>
+  <si>
+    <t>我回來了</t>
+  </si>
+  <si>
+    <t>おかえりなさい</t>
+  </si>
+  <si>
+    <t>お帰りなさい</t>
+  </si>
+  <si>
+    <t>你回來啦</t>
+  </si>
+  <si>
+    <t>すごいですね</t>
+  </si>
+  <si>
+    <t>真是了不起呀</t>
+  </si>
+  <si>
+    <t>でも</t>
+  </si>
+  <si>
+    <t>然而,不過</t>
+  </si>
+  <si>
+    <t>つかれました</t>
+  </si>
+  <si>
+    <t>疲れました</t>
+  </si>
+  <si>
+    <t>(我)累了</t>
+  </si>
+  <si>
+    <t>ぎおんまつり</t>
+  </si>
+  <si>
+    <t>祇園祭</t>
+  </si>
+  <si>
+    <t>祇園祭(京都最有名的慶典活動)</t>
+  </si>
+  <si>
+    <t>ホンコン</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>シンガポール</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>まいにちや</t>
+  </si>
+  <si>
+    <t>毎日屋</t>
+  </si>
+  <si>
+    <t>每日屋超市(虛構的超級市場名)</t>
+  </si>
+  <si>
+    <t>ＡＢＣストア</t>
+  </si>
+  <si>
+    <t>ABC商店(虛構的超級市場)</t>
+  </si>
+  <si>
+    <t>ジャパン</t>
+  </si>
+  <si>
+    <t>日本超市(虛構的超級市場名)</t>
   </si>
 </sst>
 </file>
@@ -7764,17 +8819,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1043"/>
+  <dimension ref="A1:C1197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A728" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A739" sqref="A739"/>
+    <sheetView tabSelected="1" topLeftCell="A659" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A681" sqref="A681"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.625" customWidth="1"/>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="55.59765625" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7798,7 +8853,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7820,7 +8875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7831,7 +8886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +8897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -7853,7 +8908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7864,7 +8919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7873,7 +8928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7884,7 +8939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7895,7 +8950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -7906,7 +8961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -7917,7 +8972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -7928,7 +8983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -7939,7 +8994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -7950,7 +9005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -7961,7 +9016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -7972,7 +9027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -7983,7 +9038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -7992,7 +9047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>158</v>
       </c>
@@ -8003,7 +9058,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -8014,7 +9069,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -8025,7 +9080,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -8034,7 +9089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>169</v>
       </c>
@@ -8043,7 +9098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -8054,7 +9109,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -8065,7 +9120,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
@@ -8074,7 +9129,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
@@ -8082,7 +9137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>181</v>
       </c>
@@ -8090,7 +9145,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -8101,7 +9156,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
@@ -8112,7 +9167,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>189</v>
       </c>
@@ -8123,7 +9178,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
@@ -8132,7 +9187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
@@ -8141,7 +9196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -8150,7 +9205,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>197</v>
       </c>
@@ -8161,7 +9216,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>200</v>
       </c>
@@ -8172,7 +9227,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>202</v>
       </c>
@@ -8183,7 +9238,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>204</v>
       </c>
@@ -8194,7 +9249,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -8205,7 +9260,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>208</v>
       </c>
@@ -8216,7 +9271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>211</v>
       </c>
@@ -8225,7 +9280,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>213</v>
       </c>
@@ -8236,7 +9291,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
@@ -8245,7 +9300,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>218</v>
       </c>
@@ -8256,7 +9311,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>220</v>
       </c>
@@ -8267,7 +9322,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -8278,7 +9333,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>231</v>
       </c>
@@ -8289,7 +9344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -8297,7 +9352,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>226</v>
       </c>
@@ -8305,7 +9360,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
@@ -13243,5045 +14298,6559 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>2119</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>236</v>
-      </c>
-      <c r="B560" t="s">
-        <v>237</v>
+        <v>1939</v>
       </c>
       <c r="C560" t="s">
-        <v>234</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>238</v>
+        <v>2467</v>
       </c>
       <c r="B561" t="s">
-        <v>239</v>
+        <v>2468</v>
       </c>
       <c r="C561" t="s">
-        <v>235</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>240</v>
-      </c>
-      <c r="B562" t="s">
-        <v>241</v>
+        <v>1939</v>
       </c>
       <c r="C562" t="s">
-        <v>242</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>243</v>
+        <v>2471</v>
       </c>
       <c r="B563" t="s">
-        <v>244</v>
+        <v>2472</v>
       </c>
       <c r="C563" t="s">
-        <v>245</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>246</v>
-      </c>
-      <c r="B564" t="s">
-        <v>247</v>
+        <v>2474</v>
       </c>
       <c r="C564" t="s">
-        <v>248</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>249</v>
+        <v>1183</v>
       </c>
       <c r="B565" t="s">
-        <v>250</v>
+        <v>1184</v>
       </c>
       <c r="C565" t="s">
-        <v>251</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>252</v>
+        <v>2477</v>
       </c>
       <c r="B566" t="s">
-        <v>253</v>
+        <v>2478</v>
       </c>
       <c r="C566" t="s">
-        <v>254</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>255</v>
+        <v>2480</v>
       </c>
       <c r="B567" t="s">
-        <v>256</v>
+        <v>2481</v>
       </c>
       <c r="C567" t="s">
-        <v>257</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>258</v>
+        <v>2483</v>
       </c>
       <c r="B568" t="s">
-        <v>259</v>
+        <v>2484</v>
       </c>
       <c r="C568" t="s">
-        <v>260</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>261</v>
+        <v>2486</v>
       </c>
       <c r="B569" t="s">
-        <v>262</v>
+        <v>2487</v>
       </c>
       <c r="C569" t="s">
-        <v>263</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>264</v>
+        <v>2489</v>
       </c>
       <c r="B570" t="s">
-        <v>265</v>
+        <v>2490</v>
       </c>
       <c r="C570" t="s">
-        <v>266</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>267</v>
+        <v>2492</v>
       </c>
       <c r="B571" t="s">
-        <v>268</v>
+        <v>2493</v>
       </c>
       <c r="C571" t="s">
-        <v>269</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>270</v>
+        <v>2495</v>
       </c>
       <c r="B572" t="s">
-        <v>271</v>
+        <v>2496</v>
       </c>
       <c r="C572" t="s">
-        <v>272</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>273</v>
+        <v>2498</v>
       </c>
       <c r="B573" t="s">
-        <v>274</v>
+        <v>2499</v>
       </c>
       <c r="C573" t="s">
-        <v>275</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>276</v>
+        <v>2501</v>
       </c>
       <c r="B574" t="s">
-        <v>277</v>
+        <v>2502</v>
       </c>
       <c r="C574" t="s">
-        <v>278</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>279</v>
+        <v>2504</v>
       </c>
       <c r="B575" t="s">
-        <v>280</v>
+        <v>2505</v>
       </c>
       <c r="C575" t="s">
-        <v>281</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>282</v>
+        <v>2507</v>
       </c>
       <c r="B576" t="s">
-        <v>283</v>
+        <v>2508</v>
       </c>
       <c r="C576" t="s">
-        <v>284</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>285</v>
-      </c>
-      <c r="B577" t="s">
-        <v>286</v>
+        <v>2510</v>
       </c>
       <c r="C577" t="s">
-        <v>287</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>288</v>
+        <v>2512</v>
       </c>
       <c r="B578" t="s">
-        <v>289</v>
+        <v>2513</v>
       </c>
       <c r="C578" t="s">
-        <v>290</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>291</v>
+        <v>2515</v>
       </c>
       <c r="B579" t="s">
-        <v>292</v>
+        <v>2516</v>
       </c>
       <c r="C579" t="s">
-        <v>293</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>294</v>
+        <v>2518</v>
       </c>
       <c r="B580" t="s">
-        <v>295</v>
+        <v>2519</v>
       </c>
       <c r="C580" t="s">
-        <v>296</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>297</v>
-      </c>
-      <c r="B581" t="s">
-        <v>298</v>
+        <v>2521</v>
       </c>
       <c r="C581" t="s">
-        <v>298</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>299</v>
-      </c>
-      <c r="B582" t="s">
-        <v>300</v>
+        <v>2523</v>
       </c>
       <c r="C582" t="s">
-        <v>301</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
       <c r="B583" t="s">
-        <v>303</v>
+        <v>2524</v>
       </c>
       <c r="C583" t="s">
-        <v>303</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>304</v>
-      </c>
-      <c r="B584" t="s">
-        <v>305</v>
+        <v>2526</v>
       </c>
       <c r="C584" t="s">
-        <v>306</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>307</v>
-      </c>
-      <c r="B585" t="s">
-        <v>308</v>
+        <v>2528</v>
       </c>
       <c r="C585" t="s">
-        <v>309</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>310</v>
+        <v>2530</v>
       </c>
       <c r="C586" t="s">
-        <v>311</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>312</v>
-      </c>
-      <c r="B587" t="s">
-        <v>313</v>
+        <v>2532</v>
       </c>
       <c r="C587" t="s">
-        <v>314</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>315</v>
-      </c>
-      <c r="B588" t="s">
-        <v>316</v>
+        <v>2534</v>
       </c>
       <c r="C588" t="s">
-        <v>317</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>318</v>
+        <v>635</v>
       </c>
       <c r="B589" t="s">
-        <v>319</v>
+        <v>634</v>
       </c>
       <c r="C589" t="s">
-        <v>320</v>
+        <v>633</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>321</v>
+        <v>2536</v>
       </c>
       <c r="C590" t="s">
-        <v>287</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>322</v>
+        <v>2538</v>
       </c>
       <c r="B591" t="s">
-        <v>323</v>
+        <v>2539</v>
       </c>
       <c r="C591" t="s">
-        <v>324</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>325</v>
+        <v>2541</v>
       </c>
       <c r="B592" t="s">
-        <v>326</v>
+        <v>2542</v>
       </c>
       <c r="C592" t="s">
-        <v>327</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>21</v>
+        <v>2544</v>
       </c>
       <c r="B593" t="s">
-        <v>328</v>
+        <v>2545</v>
       </c>
       <c r="C593" t="s">
-        <v>329</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>330</v>
-      </c>
-      <c r="B594" t="s">
-        <v>331</v>
+        <v>2547</v>
       </c>
       <c r="C594" t="s">
-        <v>332</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>333</v>
-      </c>
-      <c r="C595" t="s">
-        <v>334</v>
+        <v>2549</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2550</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>335</v>
+        <v>2551</v>
+      </c>
+      <c r="B596" t="s">
+        <v>2552</v>
       </c>
       <c r="C596" t="s">
-        <v>336</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>337</v>
+        <v>2554</v>
+      </c>
+      <c r="B597" t="s">
+        <v>2555</v>
       </c>
       <c r="C597" t="s">
-        <v>338</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>339</v>
+        <v>2557</v>
+      </c>
+      <c r="B598" t="s">
+        <v>2558</v>
       </c>
       <c r="C598" t="s">
-        <v>340</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>341</v>
+        <v>2560</v>
       </c>
       <c r="B599" t="s">
-        <v>342</v>
+        <v>2561</v>
       </c>
       <c r="C599" t="s">
-        <v>343</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>344</v>
+        <v>2563</v>
+      </c>
+      <c r="B600" t="s">
+        <v>2564</v>
       </c>
       <c r="C600" t="s">
-        <v>345</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>346</v>
+        <v>2566</v>
       </c>
       <c r="B601" t="s">
-        <v>347</v>
+        <v>2567</v>
       </c>
       <c r="C601" t="s">
-        <v>348</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>2045</v>
+        <v>2569</v>
+      </c>
+      <c r="B602" t="s">
+        <v>2570</v>
       </c>
       <c r="C602" t="s">
-        <v>2046</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>2047</v>
+        <v>2572</v>
       </c>
       <c r="B603" t="s">
-        <v>2048</v>
+        <v>2573</v>
       </c>
       <c r="C603" t="s">
-        <v>2049</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>2050</v>
+        <v>2575</v>
       </c>
       <c r="B604" t="s">
-        <v>2051</v>
+        <v>2576</v>
       </c>
       <c r="C604" t="s">
-        <v>2052</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>2053</v>
+        <v>2578</v>
       </c>
       <c r="B605" t="s">
-        <v>2054</v>
+        <v>2579</v>
       </c>
       <c r="C605" t="s">
-        <v>748</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>2055</v>
+        <v>2581</v>
       </c>
       <c r="B606" t="s">
-        <v>2056</v>
+        <v>2582</v>
       </c>
       <c r="C606" t="s">
-        <v>2057</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>2058</v>
+        <v>2584</v>
       </c>
       <c r="B607" t="s">
-        <v>2059</v>
+        <v>2585</v>
       </c>
       <c r="C607" t="s">
-        <v>2060</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>2061</v>
+        <v>2587</v>
       </c>
       <c r="B608" t="s">
-        <v>2062</v>
+        <v>2588</v>
       </c>
       <c r="C608" t="s">
-        <v>2063</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>2064</v>
+        <v>2590</v>
       </c>
       <c r="B609" t="s">
-        <v>2065</v>
+        <v>2591</v>
       </c>
       <c r="C609" t="s">
-        <v>2066</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>2067</v>
+        <v>2593</v>
       </c>
       <c r="B610" t="s">
-        <v>2068</v>
+        <v>2594</v>
       </c>
       <c r="C610" t="s">
-        <v>2069</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>2070</v>
+        <v>2596</v>
       </c>
       <c r="B611" t="s">
-        <v>2071</v>
+        <v>2597</v>
       </c>
       <c r="C611" t="s">
-        <v>2072</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>2073</v>
+        <v>2598</v>
       </c>
       <c r="C612" t="s">
-        <v>2074</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>2075</v>
+        <v>2600</v>
       </c>
       <c r="C613" t="s">
-        <v>2076</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>2077</v>
+        <v>2602</v>
       </c>
       <c r="B614" t="s">
-        <v>2078</v>
+        <v>2603</v>
       </c>
       <c r="C614" t="s">
-        <v>2079</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>2080</v>
-      </c>
-      <c r="B615" t="s">
-        <v>2081</v>
+        <v>2605</v>
       </c>
       <c r="C615" t="s">
-        <v>2081</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>2082</v>
-      </c>
-      <c r="B616" t="s">
-        <v>2083</v>
+        <v>2607</v>
       </c>
       <c r="C616" t="s">
-        <v>2084</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B617" t="s">
-        <v>2086</v>
+        <v>2609</v>
       </c>
       <c r="C617" t="s">
-        <v>2086</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>2087</v>
+        <v>2613</v>
       </c>
       <c r="B618" t="s">
-        <v>2088</v>
+        <v>2614</v>
       </c>
       <c r="C618" t="s">
-        <v>2089</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>2090</v>
+        <v>2616</v>
       </c>
       <c r="B619" t="s">
-        <v>2091</v>
+        <v>2617</v>
       </c>
       <c r="C619" t="s">
-        <v>2089</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>2092</v>
-      </c>
-      <c r="B620" t="s">
-        <v>2093</v>
+        <v>2619</v>
       </c>
       <c r="C620" t="s">
-        <v>2094</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>2095</v>
+        <v>2621</v>
       </c>
       <c r="B621" t="s">
-        <v>2096</v>
+        <v>2622</v>
       </c>
       <c r="C621" t="s">
-        <v>2097</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>2098</v>
+        <v>2624</v>
       </c>
       <c r="B622" t="s">
-        <v>2099</v>
+        <v>2625</v>
       </c>
       <c r="C622" t="s">
-        <v>2100</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>2101</v>
-      </c>
-      <c r="B623" t="s">
-        <v>2102</v>
+        <v>1515</v>
       </c>
       <c r="C623" t="s">
-        <v>2102</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B624" t="s">
-        <v>2104</v>
+        <v>2628</v>
       </c>
       <c r="C624" t="s">
-        <v>2104</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C625" t="s">
-        <v>2106</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>2107</v>
+        <v>2630</v>
+      </c>
+      <c r="B626" t="s">
+        <v>2631</v>
       </c>
       <c r="C626" t="s">
-        <v>2108</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>2109</v>
+        <v>878</v>
+      </c>
+      <c r="B627" t="s">
+        <v>877</v>
       </c>
       <c r="C627" t="s">
-        <v>2110</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>2111</v>
+        <v>881</v>
       </c>
       <c r="B628" t="s">
-        <v>2112</v>
+        <v>880</v>
       </c>
       <c r="C628" t="s">
-        <v>2112</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>2113</v>
+        <v>902</v>
+      </c>
+      <c r="B629" t="s">
+        <v>2635</v>
       </c>
       <c r="C629" t="s">
-        <v>2114</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>2115</v>
+        <v>907</v>
+      </c>
+      <c r="B630" t="s">
+        <v>906</v>
       </c>
       <c r="C630" t="s">
-        <v>2116</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>2117</v>
+        <v>2638</v>
+      </c>
+      <c r="B631" t="s">
+        <v>2639</v>
       </c>
       <c r="C631" t="s">
-        <v>2118</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>2152</v>
+        <v>2714</v>
+      </c>
+      <c r="B632" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2716</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>2153</v>
+        <v>2641</v>
       </c>
       <c r="B633" t="s">
-        <v>2154</v>
+        <v>2642</v>
       </c>
       <c r="C633" t="s">
-        <v>2155</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>2156</v>
+        <v>2644</v>
       </c>
       <c r="B634" t="s">
-        <v>2157</v>
+        <v>2645</v>
       </c>
       <c r="C634" t="s">
-        <v>2158</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>2159</v>
+        <v>867</v>
       </c>
       <c r="B635" t="s">
-        <v>2160</v>
+        <v>2647</v>
       </c>
       <c r="C635" t="s">
-        <v>2161</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>2162</v>
+        <v>870</v>
       </c>
       <c r="B636" t="s">
-        <v>2163</v>
+        <v>869</v>
       </c>
       <c r="C636" t="s">
-        <v>2164</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>2165</v>
+        <v>957</v>
       </c>
       <c r="B637" t="s">
-        <v>2166</v>
+        <v>956</v>
       </c>
       <c r="C637" t="s">
-        <v>2167</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>2168</v>
+        <v>2650</v>
       </c>
       <c r="B638" t="s">
-        <v>2169</v>
+        <v>2651</v>
       </c>
       <c r="C638" t="s">
-        <v>2170</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>2171</v>
+        <v>893</v>
       </c>
       <c r="B639" t="s">
-        <v>2172</v>
+        <v>892</v>
       </c>
       <c r="C639" t="s">
-        <v>2173</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>2174</v>
+        <v>890</v>
+      </c>
+      <c r="B640" t="s">
+        <v>889</v>
       </c>
       <c r="C640" t="s">
-        <v>2175</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B641" t="s">
-        <v>2177</v>
+        <v>931</v>
       </c>
       <c r="C641" t="s">
-        <v>2178</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>887</v>
-      </c>
-      <c r="B642" t="s">
-        <v>886</v>
+        <v>2655</v>
       </c>
       <c r="C642" t="s">
-        <v>2179</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>884</v>
+        <v>1061</v>
       </c>
       <c r="B643" t="s">
-        <v>883</v>
+        <v>1062</v>
       </c>
       <c r="C643" t="s">
-        <v>2180</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>2181</v>
+        <v>1067</v>
       </c>
       <c r="B644" t="s">
-        <v>2182</v>
+        <v>1068</v>
       </c>
       <c r="C644" t="s">
-        <v>2183</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>2184</v>
+        <v>1069</v>
       </c>
       <c r="B645" t="s">
-        <v>2185</v>
+        <v>1070</v>
       </c>
       <c r="C645" t="s">
-        <v>2186</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>2187</v>
+        <v>1071</v>
       </c>
       <c r="B646" t="s">
-        <v>2188</v>
+        <v>1072</v>
       </c>
       <c r="C646" t="s">
-        <v>2189</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>2190</v>
+        <v>1073</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1074</v>
       </c>
       <c r="C647" t="s">
-        <v>2191</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>2192</v>
+        <v>2657</v>
+      </c>
+      <c r="B648" t="s">
+        <v>2658</v>
       </c>
       <c r="C648" t="s">
-        <v>2193</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>2194</v>
+        <v>2660</v>
       </c>
       <c r="B649" t="s">
-        <v>2195</v>
+        <v>2661</v>
       </c>
       <c r="C649" t="s">
-        <v>2195</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>2196</v>
+        <v>2663</v>
+      </c>
+      <c r="B650" t="s">
+        <v>2664</v>
       </c>
       <c r="C650" t="s">
-        <v>2197</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>2198</v>
+        <v>2666</v>
+      </c>
+      <c r="B651" t="s">
+        <v>2667</v>
       </c>
       <c r="C651" t="s">
-        <v>2199</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>570</v>
-      </c>
-      <c r="B652" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="C652" t="s">
-        <v>2200</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>2201</v>
+        <v>2670</v>
       </c>
       <c r="B653" t="s">
-        <v>2202</v>
+        <v>2671</v>
       </c>
       <c r="C653" t="s">
-        <v>2203</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>2204</v>
+        <v>2673</v>
       </c>
       <c r="B654" t="s">
-        <v>2205</v>
+        <v>2674</v>
       </c>
       <c r="C654" t="s">
-        <v>2206</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>2207</v>
+        <v>2675</v>
       </c>
       <c r="B655" t="s">
-        <v>2208</v>
+        <v>2676</v>
       </c>
       <c r="C655" t="s">
-        <v>2209</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>2210</v>
+        <v>2677</v>
       </c>
       <c r="C656" t="s">
-        <v>2211</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>2212</v>
+        <v>2679</v>
       </c>
       <c r="C657" t="s">
-        <v>2213</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>2214</v>
+        <v>2681</v>
+      </c>
+      <c r="B658" t="s">
+        <v>2682</v>
       </c>
       <c r="C658" t="s">
-        <v>2215</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>2216</v>
+        <v>2684</v>
       </c>
       <c r="B659" t="s">
-        <v>2217</v>
+        <v>2685</v>
       </c>
       <c r="C659" t="s">
-        <v>2216</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>2218</v>
+        <v>2687</v>
       </c>
       <c r="B660" t="s">
-        <v>2219</v>
+        <v>2688</v>
       </c>
       <c r="C660" t="s">
-        <v>2220</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>2221</v>
+        <v>2690</v>
+      </c>
+      <c r="B661" t="s">
+        <v>2691</v>
       </c>
       <c r="C661" t="s">
-        <v>2222</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>2223</v>
+        <v>2693</v>
       </c>
       <c r="C662" t="s">
-        <v>2224</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B663" t="s">
-        <v>2226</v>
+        <v>2695</v>
       </c>
       <c r="C663" t="s">
-        <v>2227</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>2228</v>
+        <v>2697</v>
+      </c>
+      <c r="B664" t="s">
+        <v>2698</v>
       </c>
       <c r="C664" t="s">
-        <v>2229</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>2230</v>
+        <v>2700</v>
       </c>
       <c r="B665" t="s">
-        <v>2231</v>
+        <v>2701</v>
       </c>
       <c r="C665" t="s">
-        <v>2232</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>2233</v>
+        <v>2703</v>
       </c>
       <c r="B666" t="s">
-        <v>2234</v>
+        <v>2704</v>
       </c>
       <c r="C666" t="s">
-        <v>2235</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>2236</v>
+        <v>356</v>
       </c>
       <c r="C667" t="s">
-        <v>2237</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>2239</v>
+        <v>2707</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2708</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B669" t="s">
-        <v>2241</v>
+        <v>2709</v>
       </c>
       <c r="C669" t="s">
-        <v>2242</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>2243</v>
+        <v>2711</v>
       </c>
       <c r="B670" t="s">
-        <v>2244</v>
+        <v>2712</v>
       </c>
       <c r="C670" t="s">
-        <v>739</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B671" t="s">
-        <v>2246</v>
+        <v>2717</v>
       </c>
       <c r="C671" t="s">
-        <v>2247</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>2248</v>
+        <v>2719</v>
       </c>
       <c r="B672" t="s">
-        <v>2249</v>
+        <v>2720</v>
       </c>
       <c r="C672" t="s">
-        <v>2250</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B673" t="s">
-        <v>2252</v>
+        <v>2722</v>
       </c>
       <c r="C673" t="s">
-        <v>2253</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1814</v>
+        <v>2724</v>
       </c>
       <c r="C674" t="s">
-        <v>2254</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>2255</v>
+        <v>2726</v>
       </c>
       <c r="B675" t="s">
-        <v>2256</v>
+        <v>2727</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2728</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>2257</v>
+        <v>2729</v>
       </c>
       <c r="B676" t="s">
-        <v>2258</v>
+        <v>2730</v>
       </c>
       <c r="C676" t="s">
-        <v>2259</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>2260</v>
+        <v>2732</v>
       </c>
       <c r="C677" t="s">
-        <v>2261</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B678" t="s">
-        <v>2263</v>
+        <v>2734</v>
       </c>
       <c r="C678" t="s">
-        <v>2264</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>2265</v>
+        <v>2736</v>
       </c>
       <c r="B679" t="s">
-        <v>2266</v>
+        <v>2737</v>
       </c>
       <c r="C679" t="s">
-        <v>2267</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>2268</v>
+        <v>2739</v>
       </c>
       <c r="C680" t="s">
-        <v>2269</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B681" t="s">
-        <v>2271</v>
+        <v>2741</v>
       </c>
       <c r="C681" t="s">
-        <v>2272</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B682" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C682" t="s">
-        <v>2275</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>2276</v>
+        <v>236</v>
       </c>
       <c r="B683" t="s">
-        <v>2277</v>
+        <v>237</v>
       </c>
       <c r="C683" t="s">
-        <v>2277</v>
+        <v>234</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>2278</v>
+        <v>238</v>
+      </c>
+      <c r="B684" t="s">
+        <v>239</v>
       </c>
       <c r="C684" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>2279</v>
+        <v>240</v>
+      </c>
+      <c r="B685" t="s">
+        <v>241</v>
       </c>
       <c r="C685" t="s">
-        <v>2280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>2281</v>
+        <v>243</v>
+      </c>
+      <c r="B686" t="s">
+        <v>244</v>
       </c>
       <c r="C686" t="s">
-        <v>2282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>2283</v>
+        <v>246</v>
       </c>
       <c r="B687" t="s">
-        <v>2284</v>
+        <v>247</v>
       </c>
       <c r="C687" t="s">
-        <v>2285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>2286</v>
+        <v>249</v>
+      </c>
+      <c r="B688" t="s">
+        <v>250</v>
       </c>
       <c r="C688" t="s">
-        <v>2287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>2288</v>
+        <v>252</v>
+      </c>
+      <c r="B689" t="s">
+        <v>253</v>
       </c>
       <c r="C689" t="s">
-        <v>2287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>2289</v>
+        <v>255</v>
       </c>
       <c r="B690" t="s">
-        <v>2290</v>
+        <v>256</v>
       </c>
       <c r="C690" t="s">
-        <v>2290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>2291</v>
+        <v>258</v>
       </c>
       <c r="B691" t="s">
-        <v>2292</v>
+        <v>259</v>
       </c>
       <c r="C691" t="s">
-        <v>2293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>2294</v>
+        <v>261</v>
+      </c>
+      <c r="B692" t="s">
+        <v>262</v>
       </c>
       <c r="C692" t="s">
-        <v>2295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>2296</v>
+        <v>264</v>
+      </c>
+      <c r="B693" t="s">
+        <v>265</v>
       </c>
       <c r="C693" t="s">
-        <v>2297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>2298</v>
+        <v>267</v>
+      </c>
+      <c r="B694" t="s">
+        <v>268</v>
       </c>
       <c r="C694" t="s">
-        <v>2299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>2300</v>
+        <v>270</v>
       </c>
       <c r="B695" t="s">
-        <v>2301</v>
+        <v>271</v>
       </c>
       <c r="C695" t="s">
-        <v>2301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>2302</v>
+        <v>273</v>
+      </c>
+      <c r="B696" t="s">
+        <v>274</v>
       </c>
       <c r="C696" t="s">
-        <v>2303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>2304</v>
+        <v>276</v>
       </c>
       <c r="B697" t="s">
-        <v>2305</v>
+        <v>277</v>
       </c>
       <c r="C697" t="s">
-        <v>2305</v>
+        <v>278</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>2306</v>
+        <v>279</v>
+      </c>
+      <c r="B698" t="s">
+        <v>280</v>
       </c>
       <c r="C698" t="s">
-        <v>2307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>2308</v>
+        <v>282</v>
+      </c>
+      <c r="B699" t="s">
+        <v>283</v>
       </c>
       <c r="C699" t="s">
-        <v>2309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>2310</v>
+        <v>285</v>
+      </c>
+      <c r="B700" t="s">
+        <v>286</v>
       </c>
       <c r="C700" t="s">
-        <v>2311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>2312</v>
+        <v>288</v>
+      </c>
+      <c r="B701" t="s">
+        <v>289</v>
       </c>
       <c r="C701" t="s">
-        <v>2313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>2314</v>
+        <v>291</v>
+      </c>
+      <c r="B702" t="s">
+        <v>292</v>
       </c>
       <c r="C702" t="s">
-        <v>2315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>2316</v>
+        <v>294</v>
+      </c>
+      <c r="B703" t="s">
+        <v>295</v>
       </c>
       <c r="C703" t="s">
-        <v>2317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>2318</v>
+        <v>297</v>
+      </c>
+      <c r="B704" t="s">
+        <v>298</v>
       </c>
       <c r="C704" t="s">
-        <v>2319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>2320</v>
+        <v>299</v>
       </c>
       <c r="B705" t="s">
-        <v>2321</v>
+        <v>300</v>
       </c>
       <c r="C705" t="s">
-        <v>2322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>2323</v>
+        <v>302</v>
       </c>
       <c r="B706" t="s">
-        <v>2324</v>
+        <v>303</v>
       </c>
       <c r="C706" t="s">
-        <v>2325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>2326</v>
+        <v>304</v>
+      </c>
+      <c r="B707" t="s">
+        <v>305</v>
       </c>
       <c r="C707" t="s">
-        <v>2327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>2328</v>
+        <v>307</v>
+      </c>
+      <c r="B708" t="s">
+        <v>308</v>
       </c>
       <c r="C708" t="s">
-        <v>2329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>2330</v>
+        <v>310</v>
       </c>
       <c r="C709" t="s">
-        <v>2331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>2332</v>
+        <v>312</v>
+      </c>
+      <c r="B710" t="s">
+        <v>313</v>
+      </c>
+      <c r="C710" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>1302</v>
+        <v>315</v>
       </c>
       <c r="B711" t="s">
-        <v>2333</v>
+        <v>316</v>
       </c>
       <c r="C711" t="s">
-        <v>2334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>2335</v>
+        <v>318</v>
       </c>
       <c r="B712" t="s">
-        <v>2336</v>
+        <v>319</v>
       </c>
       <c r="C712" t="s">
-        <v>2337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>2338</v>
+        <v>321</v>
       </c>
       <c r="C713" t="s">
-        <v>2339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>2340</v>
+        <v>322</v>
       </c>
       <c r="B714" t="s">
-        <v>2341</v>
+        <v>323</v>
       </c>
       <c r="C714" t="s">
-        <v>2342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>2343</v>
+        <v>325</v>
+      </c>
+      <c r="B715" t="s">
+        <v>326</v>
       </c>
       <c r="C715" t="s">
-        <v>2344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>2345</v>
+        <v>21</v>
       </c>
       <c r="B716" t="s">
-        <v>2346</v>
+        <v>328</v>
       </c>
       <c r="C716" t="s">
-        <v>2347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1584</v>
+        <v>330</v>
+      </c>
+      <c r="B717" t="s">
+        <v>331</v>
       </c>
       <c r="C717" t="s">
-        <v>2348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>2349</v>
-      </c>
-      <c r="B718" t="s">
-        <v>2350</v>
+        <v>333</v>
       </c>
       <c r="C718" t="s">
-        <v>2351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>2352</v>
-      </c>
-      <c r="B719" t="s">
-        <v>2353</v>
+        <v>335</v>
       </c>
       <c r="C719" t="s">
-        <v>2354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>594</v>
+        <v>337</v>
       </c>
       <c r="C720" t="s">
-        <v>2355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>2356</v>
+        <v>339</v>
       </c>
       <c r="C721" t="s">
-        <v>2357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>603</v>
+        <v>341</v>
+      </c>
+      <c r="B722" t="s">
+        <v>342</v>
       </c>
       <c r="C722" t="s">
-        <v>2358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B723" t="s">
-        <v>2360</v>
+        <v>344</v>
       </c>
       <c r="C723" t="s">
-        <v>2360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>2361</v>
+        <v>346</v>
       </c>
       <c r="B724" t="s">
-        <v>2362</v>
+        <v>347</v>
       </c>
       <c r="C724" t="s">
-        <v>2362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1904</v>
+        <v>2045</v>
       </c>
       <c r="C725" t="s">
-        <v>2363</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>2364</v>
+        <v>2047</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2048</v>
       </c>
       <c r="C726" t="s">
-        <v>2365</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>353</v>
+        <v>2050</v>
+      </c>
+      <c r="B727" t="s">
+        <v>2051</v>
       </c>
       <c r="C727" t="s">
-        <v>2366</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>2367</v>
+        <v>2053</v>
       </c>
       <c r="B728" t="s">
-        <v>2368</v>
+        <v>2054</v>
       </c>
       <c r="C728" t="s">
-        <v>2369</v>
+        <v>748</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>2370</v>
+        <v>2055</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2056</v>
       </c>
       <c r="C729" t="s">
-        <v>2371</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>2372</v>
+        <v>2058</v>
+      </c>
+      <c r="B730" t="s">
+        <v>2059</v>
       </c>
       <c r="C730" t="s">
-        <v>2373</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>2374</v>
+        <v>2061</v>
       </c>
       <c r="B731" t="s">
-        <v>2375</v>
+        <v>2062</v>
       </c>
       <c r="C731" t="s">
-        <v>2375</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>2376</v>
+        <v>2064</v>
       </c>
       <c r="B732" t="s">
-        <v>2377</v>
+        <v>2065</v>
       </c>
       <c r="C732" t="s">
-        <v>2378</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>2379</v>
+        <v>2067</v>
       </c>
       <c r="B733" t="s">
-        <v>2380</v>
+        <v>2068</v>
       </c>
       <c r="C733" t="s">
-        <v>2381</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>506</v>
+        <v>2070</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2071</v>
       </c>
       <c r="C734" t="s">
-        <v>505</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>2382</v>
+        <v>2073</v>
       </c>
       <c r="C735" t="s">
-        <v>2383</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B736" t="s">
-        <v>2385</v>
+        <v>2075</v>
       </c>
       <c r="C736" t="s">
-        <v>2386</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>2387</v>
+        <v>2077</v>
       </c>
       <c r="B737" t="s">
-        <v>2388</v>
+        <v>2078</v>
       </c>
       <c r="C737" t="s">
-        <v>2389</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>2390</v>
+        <v>2080</v>
       </c>
       <c r="B738" t="s">
-        <v>2391</v>
+        <v>2081</v>
       </c>
       <c r="C738" t="s">
-        <v>2392</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>455</v>
+        <v>2082</v>
+      </c>
+      <c r="B739" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C739" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>457</v>
+        <v>2085</v>
       </c>
       <c r="B740" t="s">
-        <v>456</v>
+        <v>2086</v>
       </c>
       <c r="C740" t="s">
-        <v>456</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>460</v>
+        <v>2087</v>
       </c>
       <c r="B741" t="s">
-        <v>459</v>
+        <v>2088</v>
       </c>
       <c r="C741" t="s">
-        <v>458</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>463</v>
+        <v>2090</v>
       </c>
       <c r="B742" t="s">
-        <v>462</v>
+        <v>2091</v>
       </c>
       <c r="C742" t="s">
-        <v>461</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>465</v>
+        <v>2092</v>
       </c>
       <c r="B743" t="s">
-        <v>464</v>
+        <v>2093</v>
       </c>
       <c r="C743" t="s">
-        <v>464</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>380</v>
+        <v>2095</v>
       </c>
       <c r="B744" t="s">
-        <v>381</v>
+        <v>2096</v>
       </c>
       <c r="C744" t="s">
-        <v>382</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>468</v>
+        <v>2098</v>
       </c>
       <c r="B745" t="s">
-        <v>467</v>
+        <v>2099</v>
       </c>
       <c r="C745" t="s">
-        <v>466</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>471</v>
+        <v>2101</v>
       </c>
       <c r="B746" t="s">
-        <v>470</v>
+        <v>2102</v>
       </c>
       <c r="C746" t="s">
-        <v>469</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>397</v>
+        <v>2103</v>
       </c>
       <c r="B747" t="s">
-        <v>398</v>
+        <v>2104</v>
       </c>
       <c r="C747" t="s">
-        <v>399</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>473</v>
-      </c>
-      <c r="B748" t="s">
-        <v>472</v>
+        <v>2105</v>
       </c>
       <c r="C748" t="s">
-        <v>472</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>475</v>
-      </c>
-      <c r="B749" t="s">
-        <v>474</v>
+        <v>2107</v>
       </c>
       <c r="C749" t="s">
-        <v>474</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>161</v>
-      </c>
-      <c r="B750" t="s">
-        <v>162</v>
+        <v>2109</v>
       </c>
       <c r="C750" t="s">
-        <v>163</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>478</v>
+        <v>2111</v>
       </c>
       <c r="B751" t="s">
-        <v>477</v>
+        <v>2112</v>
       </c>
       <c r="C751" t="s">
-        <v>476</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>364</v>
-      </c>
-      <c r="B752" t="s">
-        <v>365</v>
+        <v>2113</v>
       </c>
       <c r="C752" t="s">
-        <v>365</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>481</v>
-      </c>
-      <c r="B753" t="s">
-        <v>480</v>
+        <v>2115</v>
       </c>
       <c r="C753" t="s">
-        <v>479</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>484</v>
-      </c>
-      <c r="B754" t="s">
-        <v>483</v>
+        <v>2117</v>
       </c>
       <c r="C754" t="s">
-        <v>482</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>487</v>
-      </c>
-      <c r="B755" t="s">
-        <v>486</v>
-      </c>
-      <c r="C755" t="s">
-        <v>485</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>490</v>
+        <v>2153</v>
       </c>
       <c r="B756" t="s">
-        <v>489</v>
+        <v>2154</v>
       </c>
       <c r="C756" t="s">
-        <v>488</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>493</v>
+        <v>2156</v>
       </c>
       <c r="B757" t="s">
-        <v>492</v>
+        <v>2157</v>
       </c>
       <c r="C757" t="s">
-        <v>491</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>496</v>
+        <v>2159</v>
       </c>
       <c r="B758" t="s">
-        <v>495</v>
+        <v>2160</v>
       </c>
       <c r="C758" t="s">
-        <v>494</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>499</v>
+        <v>2162</v>
       </c>
       <c r="B759" t="s">
-        <v>498</v>
+        <v>2163</v>
       </c>
       <c r="C759" t="s">
-        <v>497</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>502</v>
+        <v>2165</v>
       </c>
       <c r="B760" t="s">
-        <v>501</v>
+        <v>2166</v>
       </c>
       <c r="C760" t="s">
-        <v>500</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>504</v>
+        <v>2168</v>
       </c>
       <c r="B761" t="s">
-        <v>503</v>
+        <v>2169</v>
       </c>
       <c r="C761" t="s">
-        <v>503</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>507</v>
+        <v>2171</v>
       </c>
       <c r="B762" t="s">
-        <v>506</v>
+        <v>2172</v>
       </c>
       <c r="C762" t="s">
-        <v>505</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>510</v>
-      </c>
-      <c r="B763" t="s">
-        <v>509</v>
+        <v>2174</v>
       </c>
       <c r="C763" t="s">
-        <v>508</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>512</v>
+        <v>2176</v>
       </c>
       <c r="B764" t="s">
-        <v>390</v>
+        <v>2177</v>
       </c>
       <c r="C764" t="s">
-        <v>511</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>515</v>
+        <v>887</v>
       </c>
       <c r="B765" t="s">
-        <v>514</v>
+        <v>886</v>
       </c>
       <c r="C765" t="s">
-        <v>513</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>517</v>
+        <v>884</v>
       </c>
       <c r="B766" t="s">
-        <v>383</v>
+        <v>883</v>
       </c>
       <c r="C766" t="s">
-        <v>516</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>519</v>
+        <v>2181</v>
       </c>
       <c r="B767" t="s">
-        <v>518</v>
+        <v>2182</v>
       </c>
       <c r="C767" t="s">
-        <v>518</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>522</v>
+        <v>2184</v>
       </c>
       <c r="B768" t="s">
-        <v>521</v>
+        <v>2185</v>
       </c>
       <c r="C768" t="s">
-        <v>520</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>523</v>
+        <v>2187</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2189</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>526</v>
-      </c>
-      <c r="B770" t="s">
-        <v>525</v>
+        <v>2190</v>
       </c>
       <c r="C770" t="s">
-        <v>524</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>529</v>
-      </c>
-      <c r="B771" t="s">
-        <v>528</v>
+        <v>2192</v>
       </c>
       <c r="C771" t="s">
-        <v>527</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>532</v>
+        <v>2194</v>
       </c>
       <c r="B772" t="s">
-        <v>531</v>
+        <v>2195</v>
       </c>
       <c r="C772" t="s">
-        <v>530</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>535</v>
-      </c>
-      <c r="B773" t="s">
-        <v>534</v>
+        <v>2196</v>
       </c>
       <c r="C773" t="s">
-        <v>533</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>538</v>
-      </c>
-      <c r="B774" t="s">
-        <v>537</v>
+        <v>2198</v>
       </c>
       <c r="C774" t="s">
-        <v>536</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="B775" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="C775" t="s">
-        <v>539</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>543</v>
+        <v>2201</v>
       </c>
       <c r="B776" t="s">
-        <v>542</v>
+        <v>2202</v>
       </c>
       <c r="C776" t="s">
-        <v>542</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>545</v>
+        <v>2204</v>
       </c>
       <c r="B777" t="s">
-        <v>544</v>
+        <v>2205</v>
       </c>
       <c r="C777" t="s">
-        <v>544</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>547</v>
+        <v>2207</v>
       </c>
       <c r="B778" t="s">
-        <v>546</v>
+        <v>2208</v>
       </c>
       <c r="C778" t="s">
-        <v>546</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>549</v>
-      </c>
-      <c r="B779" t="s">
-        <v>548</v>
+        <v>2210</v>
       </c>
       <c r="C779" t="s">
-        <v>548</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>552</v>
-      </c>
-      <c r="B780" t="s">
-        <v>551</v>
+        <v>2212</v>
       </c>
       <c r="C780" t="s">
-        <v>550</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>554</v>
-      </c>
-      <c r="B781" t="s">
-        <v>553</v>
+        <v>2214</v>
       </c>
       <c r="C781" t="s">
-        <v>553</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>557</v>
+        <v>2216</v>
       </c>
       <c r="B782" t="s">
-        <v>556</v>
+        <v>2217</v>
       </c>
       <c r="C782" t="s">
-        <v>555</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>559</v>
+        <v>2218</v>
       </c>
       <c r="B783" t="s">
-        <v>1126</v>
+        <v>2219</v>
       </c>
       <c r="C783" t="s">
-        <v>558</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>562</v>
-      </c>
-      <c r="B784" t="s">
-        <v>561</v>
+        <v>2221</v>
       </c>
       <c r="C784" t="s">
-        <v>560</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>565</v>
-      </c>
-      <c r="B785" t="s">
-        <v>564</v>
+        <v>2223</v>
       </c>
       <c r="C785" t="s">
-        <v>563</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>567</v>
+        <v>2225</v>
       </c>
       <c r="B786" t="s">
-        <v>566</v>
+        <v>2226</v>
       </c>
       <c r="C786" t="s">
-        <v>566</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>570</v>
-      </c>
-      <c r="B787" t="s">
-        <v>569</v>
+        <v>2228</v>
       </c>
       <c r="C787" t="s">
-        <v>568</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>572</v>
+        <v>2230</v>
       </c>
       <c r="B788" t="s">
-        <v>571</v>
+        <v>2231</v>
       </c>
       <c r="C788" t="s">
-        <v>571</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>575</v>
+        <v>2233</v>
       </c>
       <c r="B789" t="s">
-        <v>574</v>
+        <v>2234</v>
       </c>
       <c r="C789" t="s">
-        <v>573</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>578</v>
-      </c>
-      <c r="B790" t="s">
-        <v>577</v>
+        <v>2236</v>
       </c>
       <c r="C790" t="s">
-        <v>576</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>581</v>
-      </c>
-      <c r="B791" t="s">
-        <v>580</v>
-      </c>
-      <c r="C791" t="s">
-        <v>579</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>582</v>
+        <v>2394</v>
       </c>
       <c r="B792" t="s">
-        <v>120</v>
+        <v>2395</v>
       </c>
       <c r="C792" t="s">
-        <v>121</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>585</v>
+        <v>2397</v>
       </c>
       <c r="B793" t="s">
-        <v>584</v>
+        <v>2398</v>
       </c>
       <c r="C793" t="s">
-        <v>583</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>586</v>
+        <v>2400</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>589</v>
+        <v>2403</v>
       </c>
       <c r="B795" t="s">
-        <v>588</v>
+        <v>2404</v>
       </c>
       <c r="C795" t="s">
-        <v>587</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>592</v>
+        <v>2406</v>
       </c>
       <c r="B796" t="s">
-        <v>591</v>
+        <v>2407</v>
       </c>
       <c r="C796" t="s">
-        <v>590</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>595</v>
+        <v>2409</v>
       </c>
       <c r="B797" t="s">
-        <v>594</v>
+        <v>2410</v>
       </c>
       <c r="C797" t="s">
-        <v>593</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>598</v>
+        <v>2411</v>
       </c>
       <c r="B798" t="s">
-        <v>597</v>
+        <v>2412</v>
       </c>
       <c r="C798" t="s">
-        <v>596</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>601</v>
+        <v>2414</v>
       </c>
       <c r="B799" t="s">
-        <v>600</v>
+        <v>2415</v>
       </c>
       <c r="C799" t="s">
-        <v>599</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>604</v>
+        <v>16</v>
       </c>
       <c r="B800" t="s">
-        <v>603</v>
+        <v>2417</v>
       </c>
       <c r="C800" t="s">
-        <v>602</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>607</v>
-      </c>
-      <c r="B801" t="s">
-        <v>606</v>
+        <v>2419</v>
       </c>
       <c r="C801" t="s">
-        <v>605</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>610</v>
-      </c>
-      <c r="B802" t="s">
-        <v>609</v>
+        <v>2421</v>
       </c>
       <c r="C802" t="s">
-        <v>608</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>613</v>
-      </c>
-      <c r="B803" t="s">
-        <v>612</v>
+        <v>2423</v>
       </c>
       <c r="C803" t="s">
-        <v>611</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>616</v>
+        <v>2425</v>
       </c>
       <c r="B804" t="s">
-        <v>615</v>
+        <v>2464</v>
       </c>
       <c r="C804" t="s">
-        <v>614</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>619</v>
+        <v>2427</v>
       </c>
       <c r="B805" t="s">
-        <v>618</v>
+        <v>2428</v>
       </c>
       <c r="C805" t="s">
-        <v>617</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>404</v>
+        <v>2430</v>
       </c>
       <c r="B806" t="s">
-        <v>405</v>
+        <v>2431</v>
       </c>
       <c r="C806" t="s">
-        <v>406</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>622</v>
-      </c>
-      <c r="B807" t="s">
-        <v>621</v>
+        <v>2433</v>
       </c>
       <c r="C807" t="s">
-        <v>620</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>58</v>
+        <v>2435</v>
       </c>
       <c r="B808" t="s">
-        <v>59</v>
+        <v>2436</v>
       </c>
       <c r="C808" t="s">
-        <v>623</v>
+        <v>837</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>625</v>
+        <v>2437</v>
       </c>
       <c r="B809" t="s">
-        <v>624</v>
+        <v>2438</v>
       </c>
       <c r="C809" t="s">
-        <v>624</v>
+        <v>754</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>628</v>
-      </c>
-      <c r="B810" t="s">
-        <v>627</v>
+        <v>2439</v>
       </c>
       <c r="C810" t="s">
-        <v>626</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>61</v>
-      </c>
-      <c r="B811" t="s">
-        <v>62</v>
+        <v>2441</v>
       </c>
       <c r="C811" t="s">
-        <v>629</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>632</v>
-      </c>
-      <c r="B812" t="s">
-        <v>631</v>
+        <v>2443</v>
       </c>
       <c r="C812" t="s">
-        <v>630</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>635</v>
-      </c>
-      <c r="B813" t="s">
-        <v>634</v>
+        <v>2445</v>
       </c>
       <c r="C813" t="s">
-        <v>633</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>638</v>
+        <v>2447</v>
       </c>
       <c r="B814" t="s">
-        <v>637</v>
+        <v>2448</v>
       </c>
       <c r="C814" t="s">
-        <v>636</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>82</v>
-      </c>
-      <c r="B815" t="s">
-        <v>83</v>
+        <v>2450</v>
       </c>
       <c r="C815" t="s">
-        <v>83</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>641</v>
-      </c>
-      <c r="B816" t="s">
-        <v>640</v>
+        <v>2452</v>
       </c>
       <c r="C816" t="s">
-        <v>639</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>644</v>
-      </c>
-      <c r="B817" t="s">
-        <v>643</v>
+        <v>2454</v>
       </c>
       <c r="C817" t="s">
-        <v>642</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>647</v>
-      </c>
-      <c r="B818" t="s">
-        <v>646</v>
+        <v>2456</v>
       </c>
       <c r="C818" t="s">
-        <v>645</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>650</v>
-      </c>
-      <c r="B819" t="s">
-        <v>649</v>
+        <v>2458</v>
       </c>
       <c r="C819" t="s">
-        <v>648</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>651</v>
-      </c>
-      <c r="B820" t="s">
-        <v>70</v>
+        <v>2460</v>
       </c>
       <c r="C820" t="s">
-        <v>71</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>652</v>
-      </c>
-      <c r="B821" t="s">
-        <v>84</v>
+        <v>2462</v>
       </c>
       <c r="C821" t="s">
-        <v>85</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>653</v>
-      </c>
-      <c r="B822" t="s">
-        <v>86</v>
-      </c>
-      <c r="C822" t="s">
-        <v>87</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>402</v>
+        <v>2240</v>
       </c>
       <c r="B823" t="s">
-        <v>403</v>
+        <v>2241</v>
       </c>
       <c r="C823" t="s">
-        <v>403</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>656</v>
+        <v>2243</v>
       </c>
       <c r="B824" t="s">
-        <v>655</v>
+        <v>2244</v>
       </c>
       <c r="C824" t="s">
-        <v>654</v>
+        <v>739</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>659</v>
+        <v>2245</v>
       </c>
       <c r="B825" t="s">
-        <v>658</v>
+        <v>2246</v>
       </c>
       <c r="C825" t="s">
-        <v>657</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>660</v>
+        <v>2248</v>
       </c>
       <c r="B826" t="s">
-        <v>102</v>
+        <v>2249</v>
       </c>
       <c r="C826" t="s">
-        <v>103</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>663</v>
+        <v>2251</v>
       </c>
       <c r="B827" t="s">
-        <v>662</v>
+        <v>2252</v>
       </c>
       <c r="C827" t="s">
-        <v>661</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>665</v>
-      </c>
-      <c r="B828" t="s">
-        <v>106</v>
+        <v>1814</v>
       </c>
       <c r="C828" t="s">
-        <v>664</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>667</v>
+        <v>2255</v>
       </c>
       <c r="B829" t="s">
-        <v>666</v>
-      </c>
-      <c r="C829" t="s">
-        <v>109</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>670</v>
+        <v>2257</v>
       </c>
       <c r="B830" t="s">
-        <v>669</v>
+        <v>2258</v>
       </c>
       <c r="C830" t="s">
-        <v>668</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>671</v>
+        <v>2260</v>
+      </c>
+      <c r="C831" t="s">
+        <v>2261</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>674</v>
+        <v>2262</v>
       </c>
       <c r="B832" t="s">
-        <v>673</v>
+        <v>2263</v>
       </c>
       <c r="C832" t="s">
-        <v>672</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>677</v>
+        <v>2265</v>
       </c>
       <c r="B833" t="s">
-        <v>676</v>
+        <v>2266</v>
       </c>
       <c r="C833" t="s">
-        <v>675</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>680</v>
-      </c>
-      <c r="B834" t="s">
-        <v>679</v>
+        <v>2268</v>
       </c>
       <c r="C834" t="s">
-        <v>678</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>683</v>
+        <v>2270</v>
       </c>
       <c r="B835" t="s">
-        <v>682</v>
+        <v>2271</v>
       </c>
       <c r="C835" t="s">
-        <v>681</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>686</v>
+        <v>2273</v>
       </c>
       <c r="B836" t="s">
-        <v>685</v>
+        <v>2274</v>
       </c>
       <c r="C836" t="s">
-        <v>684</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>689</v>
+        <v>2276</v>
       </c>
       <c r="B837" t="s">
-        <v>688</v>
+        <v>2277</v>
       </c>
       <c r="C837" t="s">
-        <v>687</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>692</v>
-      </c>
-      <c r="B838" t="s">
-        <v>691</v>
+        <v>2278</v>
       </c>
       <c r="C838" t="s">
-        <v>690</v>
+        <v>68</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>695</v>
-      </c>
-      <c r="B839" t="s">
-        <v>694</v>
+        <v>2279</v>
       </c>
       <c r="C839" t="s">
-        <v>693</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>698</v>
-      </c>
-      <c r="B840" t="s">
-        <v>697</v>
+        <v>2281</v>
       </c>
       <c r="C840" t="s">
-        <v>696</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>701</v>
+        <v>2283</v>
       </c>
       <c r="B841" t="s">
-        <v>700</v>
+        <v>2284</v>
       </c>
       <c r="C841" t="s">
-        <v>699</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>704</v>
-      </c>
-      <c r="B842" t="s">
-        <v>703</v>
+        <v>2286</v>
       </c>
       <c r="C842" t="s">
-        <v>702</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>400</v>
-      </c>
-      <c r="B843" t="s">
-        <v>706</v>
+        <v>2288</v>
       </c>
       <c r="C843" t="s">
-        <v>705</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>709</v>
+        <v>2289</v>
       </c>
       <c r="B844" t="s">
-        <v>708</v>
+        <v>2290</v>
       </c>
       <c r="C844" t="s">
-        <v>707</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>712</v>
+        <v>2291</v>
       </c>
       <c r="B845" t="s">
-        <v>711</v>
+        <v>2292</v>
       </c>
       <c r="C845" t="s">
-        <v>710</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>715</v>
-      </c>
-      <c r="B846" t="s">
-        <v>714</v>
+        <v>2294</v>
       </c>
       <c r="C846" t="s">
-        <v>713</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>718</v>
-      </c>
-      <c r="B847" t="s">
-        <v>717</v>
+        <v>2296</v>
       </c>
       <c r="C847" t="s">
-        <v>716</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>719</v>
+        <v>2298</v>
+      </c>
+      <c r="C848" t="s">
+        <v>2299</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>720</v>
-      </c>
-      <c r="B849">
-        <v>1</v>
+        <v>2300</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2301</v>
       </c>
       <c r="C849" t="s">
-        <v>1127</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>721</v>
-      </c>
-      <c r="B850">
-        <v>2</v>
+        <v>2302</v>
       </c>
       <c r="C850" t="s">
-        <v>1128</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>722</v>
-      </c>
-      <c r="B851">
-        <v>3</v>
+        <v>2304</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2305</v>
       </c>
       <c r="C851" t="s">
-        <v>1129</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>723</v>
-      </c>
-      <c r="B852">
-        <v>4</v>
+        <v>2306</v>
       </c>
       <c r="C852" t="s">
-        <v>1130</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>724</v>
-      </c>
-      <c r="B853">
-        <v>5</v>
+        <v>2308</v>
       </c>
       <c r="C853" t="s">
-        <v>1131</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>725</v>
-      </c>
-      <c r="B854">
-        <v>6</v>
+        <v>2310</v>
       </c>
       <c r="C854" t="s">
-        <v>1132</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>726</v>
-      </c>
-      <c r="B855">
-        <v>7</v>
+        <v>2312</v>
       </c>
       <c r="C855" t="s">
-        <v>1133</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>727</v>
-      </c>
-      <c r="B856">
-        <v>8</v>
+        <v>2314</v>
       </c>
       <c r="C856" t="s">
-        <v>1134</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>728</v>
-      </c>
-      <c r="B857">
-        <v>9</v>
+        <v>2316</v>
       </c>
       <c r="C857" t="s">
-        <v>1135</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>729</v>
-      </c>
-      <c r="B858">
-        <v>10</v>
+        <v>2318</v>
       </c>
       <c r="C858" t="s">
-        <v>1136</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B859">
-        <v>20</v>
+        <v>2320</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2321</v>
       </c>
       <c r="C859" t="s">
-        <v>1137</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B860">
-        <v>30</v>
+        <v>2323</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2324</v>
       </c>
       <c r="C860" t="s">
-        <v>1138</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B861">
-        <v>40</v>
+        <v>2326</v>
       </c>
       <c r="C861" t="s">
-        <v>1139</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B862">
-        <v>50</v>
+        <v>2328</v>
       </c>
       <c r="C862" t="s">
-        <v>1140</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B863">
-        <v>60</v>
+        <v>2330</v>
       </c>
       <c r="C863" t="s">
-        <v>1141</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B864">
-        <v>70</v>
-      </c>
-      <c r="C864" t="s">
-        <v>1142</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B865">
-        <v>80</v>
+        <v>1302</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2333</v>
       </c>
       <c r="C865" t="s">
-        <v>1143</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B866">
-        <v>90</v>
+        <v>2335</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2336</v>
       </c>
       <c r="C866" t="s">
-        <v>1144</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>429</v>
-      </c>
-      <c r="B867">
-        <v>100</v>
+        <v>2338</v>
       </c>
       <c r="C867" t="s">
-        <v>430</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B868">
-        <v>200</v>
+        <v>2340</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2341</v>
       </c>
       <c r="C868" t="s">
-        <v>1145</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B869">
-        <v>300</v>
+        <v>2343</v>
       </c>
       <c r="C869" t="s">
-        <v>1146</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B870">
-        <v>400</v>
+        <v>2345</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2346</v>
       </c>
       <c r="C870" t="s">
-        <v>1147</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B871">
-        <v>500</v>
+        <v>1584</v>
       </c>
       <c r="C871" t="s">
-        <v>1148</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B872">
-        <v>600</v>
+        <v>2349</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2350</v>
       </c>
       <c r="C872" t="s">
-        <v>1149</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B873">
-        <v>700</v>
+        <v>2352</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2353</v>
       </c>
       <c r="C873" t="s">
-        <v>1150</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B874">
-        <v>800</v>
+        <v>594</v>
       </c>
       <c r="C874" t="s">
-        <v>1151</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B875">
-        <v>900</v>
+        <v>2356</v>
       </c>
       <c r="C875" t="s">
-        <v>1152</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>431</v>
-      </c>
-      <c r="B876">
-        <v>1000</v>
+        <v>603</v>
       </c>
       <c r="C876" t="s">
-        <v>432</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B877">
-        <v>2000</v>
+        <v>2359</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2360</v>
       </c>
       <c r="C877" t="s">
-        <v>1153</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B878">
-        <v>3000</v>
+        <v>2361</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2362</v>
       </c>
       <c r="C878" t="s">
-        <v>1154</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B879">
-        <v>4000</v>
+        <v>1904</v>
       </c>
       <c r="C879" t="s">
-        <v>1155</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B880">
-        <v>5000</v>
+        <v>2364</v>
       </c>
       <c r="C880" t="s">
-        <v>1156</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B881">
-        <v>6000</v>
+        <v>353</v>
       </c>
       <c r="C881" t="s">
-        <v>1157</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B882">
-        <v>7000</v>
+        <v>2367</v>
+      </c>
+      <c r="B882" t="s">
+        <v>2368</v>
       </c>
       <c r="C882" t="s">
-        <v>1158</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B883">
-        <v>8000</v>
+        <v>2370</v>
       </c>
       <c r="C883" t="s">
-        <v>1159</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B884">
-        <v>9000</v>
+        <v>2372</v>
       </c>
       <c r="C884" t="s">
-        <v>1160</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>1030</v>
+        <v>2374</v>
       </c>
       <c r="B885" t="s">
-        <v>1161</v>
+        <v>2375</v>
       </c>
       <c r="C885" t="s">
-        <v>435</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B886">
-        <v>20000</v>
+        <v>2376</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2377</v>
       </c>
       <c r="C886" t="s">
-        <v>1162</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B887">
-        <v>30000</v>
+        <v>2379</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2380</v>
       </c>
       <c r="C887" t="s">
-        <v>1163</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B888">
-        <v>40000</v>
+        <v>506</v>
       </c>
       <c r="C888" t="s">
-        <v>1164</v>
+        <v>505</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B889">
-        <v>50000</v>
+        <v>2382</v>
       </c>
       <c r="C889" t="s">
-        <v>1165</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B890">
-        <v>60000</v>
+        <v>2384</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2385</v>
       </c>
       <c r="C890" t="s">
-        <v>1166</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B891">
-        <v>70000</v>
+        <v>2387</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2388</v>
       </c>
       <c r="C891" t="s">
-        <v>1167</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B892">
-        <v>80000</v>
+        <v>2390</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2391</v>
       </c>
       <c r="C892" t="s">
-        <v>1168</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B893">
-        <v>90000</v>
-      </c>
-      <c r="C893" t="s">
-        <v>1169</v>
+        <v>455</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="B894" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="C894" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1039</v>
+        <v>460</v>
       </c>
       <c r="B895" t="s">
-        <v>1170</v>
+        <v>459</v>
       </c>
       <c r="C895" t="s">
-        <v>1170</v>
+        <v>458</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1171</v>
+        <v>463</v>
       </c>
       <c r="B896" t="s">
-        <v>1172</v>
+        <v>462</v>
       </c>
       <c r="C896" t="s">
-        <v>1172</v>
+        <v>461</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1005</v>
+        <v>465</v>
+      </c>
+      <c r="B897" t="s">
+        <v>464</v>
+      </c>
+      <c r="C897" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>732</v>
+        <v>380</v>
       </c>
       <c r="B898" t="s">
-        <v>731</v>
+        <v>381</v>
       </c>
       <c r="C898" t="s">
-        <v>730</v>
+        <v>382</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>735</v>
+        <v>468</v>
       </c>
       <c r="B899" t="s">
-        <v>734</v>
+        <v>467</v>
       </c>
       <c r="C899" t="s">
-        <v>733</v>
+        <v>466</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>738</v>
+        <v>471</v>
       </c>
       <c r="B900" t="s">
-        <v>737</v>
+        <v>470</v>
       </c>
       <c r="C900" t="s">
-        <v>736</v>
+        <v>469</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>741</v>
+        <v>397</v>
       </c>
       <c r="B901" t="s">
-        <v>740</v>
+        <v>398</v>
       </c>
       <c r="C901" t="s">
-        <v>739</v>
+        <v>399</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>744</v>
+        <v>473</v>
       </c>
       <c r="B902" t="s">
-        <v>743</v>
+        <v>472</v>
       </c>
       <c r="C902" t="s">
-        <v>742</v>
+        <v>472</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>747</v>
+        <v>475</v>
       </c>
       <c r="B903" t="s">
-        <v>746</v>
+        <v>474</v>
       </c>
       <c r="C903" t="s">
-        <v>745</v>
+        <v>474</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>750</v>
+        <v>161</v>
       </c>
       <c r="B904" t="s">
-        <v>749</v>
+        <v>162</v>
       </c>
       <c r="C904" t="s">
-        <v>748</v>
+        <v>163</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>753</v>
+        <v>478</v>
       </c>
       <c r="B905" t="s">
-        <v>752</v>
+        <v>477</v>
       </c>
       <c r="C905" t="s">
-        <v>751</v>
+        <v>476</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>756</v>
+        <v>364</v>
       </c>
       <c r="B906" t="s">
-        <v>755</v>
+        <v>365</v>
       </c>
       <c r="C906" t="s">
-        <v>754</v>
+        <v>365</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>759</v>
+        <v>481</v>
       </c>
       <c r="B907" t="s">
-        <v>758</v>
+        <v>480</v>
       </c>
       <c r="C907" t="s">
-        <v>757</v>
+        <v>479</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>762</v>
+        <v>484</v>
       </c>
       <c r="B908" t="s">
-        <v>761</v>
+        <v>483</v>
       </c>
       <c r="C908" t="s">
-        <v>760</v>
+        <v>482</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>765</v>
+        <v>487</v>
       </c>
       <c r="B909" t="s">
-        <v>764</v>
+        <v>486</v>
       </c>
       <c r="C909" t="s">
-        <v>763</v>
+        <v>485</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>768</v>
+        <v>490</v>
       </c>
       <c r="B910" t="s">
-        <v>767</v>
+        <v>489</v>
       </c>
       <c r="C910" t="s">
-        <v>766</v>
+        <v>488</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>771</v>
+        <v>493</v>
       </c>
       <c r="B911" t="s">
-        <v>770</v>
+        <v>492</v>
       </c>
       <c r="C911" t="s">
-        <v>769</v>
+        <v>491</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>774</v>
+        <v>496</v>
       </c>
       <c r="B912" t="s">
-        <v>773</v>
+        <v>495</v>
       </c>
       <c r="C912" t="s">
-        <v>772</v>
+        <v>494</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>776</v>
+        <v>499</v>
       </c>
       <c r="B913" t="s">
-        <v>775</v>
+        <v>498</v>
       </c>
       <c r="C913" t="s">
-        <v>301</v>
+        <v>497</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>779</v>
+        <v>502</v>
       </c>
       <c r="B914" t="s">
-        <v>778</v>
+        <v>501</v>
       </c>
       <c r="C914" t="s">
-        <v>777</v>
+        <v>500</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>782</v>
+        <v>504</v>
       </c>
       <c r="B915" t="s">
-        <v>781</v>
+        <v>503</v>
       </c>
       <c r="C915" t="s">
-        <v>780</v>
+        <v>503</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>785</v>
+        <v>507</v>
       </c>
       <c r="B916" t="s">
-        <v>784</v>
+        <v>506</v>
       </c>
       <c r="C916" t="s">
-        <v>783</v>
+        <v>505</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>788</v>
+        <v>510</v>
       </c>
       <c r="B917" t="s">
-        <v>787</v>
+        <v>509</v>
       </c>
       <c r="C917" t="s">
-        <v>786</v>
+        <v>508</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>791</v>
+        <v>512</v>
       </c>
       <c r="B918" t="s">
-        <v>790</v>
+        <v>390</v>
       </c>
       <c r="C918" t="s">
-        <v>789</v>
+        <v>511</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>794</v>
+        <v>515</v>
       </c>
       <c r="B919" t="s">
-        <v>793</v>
+        <v>514</v>
       </c>
       <c r="C919" t="s">
-        <v>792</v>
+        <v>513</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>797</v>
+        <v>517</v>
       </c>
       <c r="B920" t="s">
-        <v>796</v>
+        <v>383</v>
       </c>
       <c r="C920" t="s">
-        <v>795</v>
+        <v>516</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>800</v>
+        <v>519</v>
       </c>
       <c r="B921" t="s">
-        <v>799</v>
+        <v>518</v>
       </c>
       <c r="C921" t="s">
-        <v>798</v>
+        <v>518</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>803</v>
+        <v>522</v>
       </c>
       <c r="B922" t="s">
-        <v>802</v>
+        <v>521</v>
       </c>
       <c r="C922" t="s">
-        <v>801</v>
+        <v>520</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>806</v>
-      </c>
-      <c r="B923" t="s">
-        <v>805</v>
-      </c>
-      <c r="C923" t="s">
-        <v>804</v>
+        <v>523</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>809</v>
+        <v>526</v>
       </c>
       <c r="B924" t="s">
-        <v>808</v>
+        <v>525</v>
       </c>
       <c r="C924" t="s">
-        <v>807</v>
+        <v>524</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>812</v>
+        <v>529</v>
       </c>
       <c r="B925" t="s">
-        <v>811</v>
+        <v>528</v>
       </c>
       <c r="C925" t="s">
-        <v>810</v>
+        <v>527</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>815</v>
+        <v>532</v>
       </c>
       <c r="B926" t="s">
-        <v>814</v>
+        <v>531</v>
       </c>
       <c r="C926" t="s">
-        <v>813</v>
+        <v>530</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>818</v>
+        <v>535</v>
       </c>
       <c r="B927" t="s">
-        <v>817</v>
+        <v>534</v>
       </c>
       <c r="C927" t="s">
-        <v>816</v>
+        <v>533</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>821</v>
+        <v>538</v>
       </c>
       <c r="B928" t="s">
-        <v>820</v>
+        <v>537</v>
       </c>
       <c r="C928" t="s">
-        <v>819</v>
+        <v>536</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>824</v>
+        <v>541</v>
       </c>
       <c r="B929" t="s">
-        <v>823</v>
+        <v>540</v>
       </c>
       <c r="C929" t="s">
-        <v>822</v>
+        <v>539</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>827</v>
+        <v>543</v>
       </c>
       <c r="B930" t="s">
-        <v>826</v>
+        <v>542</v>
       </c>
       <c r="C930" t="s">
-        <v>825</v>
+        <v>542</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>830</v>
+        <v>545</v>
       </c>
       <c r="B931" t="s">
-        <v>829</v>
+        <v>544</v>
       </c>
       <c r="C931" t="s">
-        <v>828</v>
+        <v>544</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>833</v>
+        <v>547</v>
       </c>
       <c r="B932" t="s">
-        <v>832</v>
+        <v>546</v>
       </c>
       <c r="C932" t="s">
-        <v>831</v>
+        <v>546</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>836</v>
+        <v>549</v>
       </c>
       <c r="B933" t="s">
-        <v>835</v>
+        <v>548</v>
       </c>
       <c r="C933" t="s">
-        <v>834</v>
+        <v>548</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>839</v>
+        <v>552</v>
       </c>
       <c r="B934" t="s">
-        <v>838</v>
+        <v>551</v>
       </c>
       <c r="C934" t="s">
-        <v>837</v>
+        <v>550</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>842</v>
+        <v>554</v>
       </c>
       <c r="B935" t="s">
-        <v>841</v>
+        <v>553</v>
       </c>
       <c r="C935" t="s">
-        <v>840</v>
+        <v>553</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>845</v>
+        <v>557</v>
       </c>
       <c r="B936" t="s">
-        <v>844</v>
+        <v>556</v>
       </c>
       <c r="C936" t="s">
-        <v>843</v>
+        <v>555</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>848</v>
+        <v>559</v>
       </c>
       <c r="B937" t="s">
-        <v>847</v>
+        <v>1126</v>
       </c>
       <c r="C937" t="s">
-        <v>846</v>
+        <v>558</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>851</v>
+        <v>562</v>
       </c>
       <c r="B938" t="s">
-        <v>850</v>
+        <v>561</v>
       </c>
       <c r="C938" t="s">
-        <v>849</v>
+        <v>560</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>854</v>
+        <v>565</v>
       </c>
       <c r="B939" t="s">
-        <v>853</v>
+        <v>564</v>
       </c>
       <c r="C939" t="s">
-        <v>852</v>
+        <v>563</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>855</v>
+        <v>567</v>
+      </c>
+      <c r="B940" t="s">
+        <v>566</v>
+      </c>
+      <c r="C940" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>858</v>
+        <v>570</v>
       </c>
       <c r="B941" t="s">
-        <v>857</v>
+        <v>569</v>
       </c>
       <c r="C941" t="s">
-        <v>856</v>
+        <v>568</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>861</v>
+        <v>572</v>
       </c>
       <c r="B942" t="s">
-        <v>860</v>
+        <v>571</v>
       </c>
       <c r="C942" t="s">
-        <v>859</v>
+        <v>571</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>864</v>
+        <v>575</v>
       </c>
       <c r="B943" t="s">
-        <v>863</v>
+        <v>574</v>
       </c>
       <c r="C943" t="s">
-        <v>862</v>
+        <v>573</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>867</v>
+        <v>578</v>
       </c>
       <c r="B944" t="s">
-        <v>866</v>
+        <v>577</v>
       </c>
       <c r="C944" t="s">
-        <v>865</v>
+        <v>576</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>870</v>
+        <v>581</v>
       </c>
       <c r="B945" t="s">
-        <v>869</v>
+        <v>580</v>
       </c>
       <c r="C945" t="s">
-        <v>868</v>
+        <v>579</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>858</v>
+        <v>582</v>
       </c>
       <c r="B946" t="s">
-        <v>872</v>
+        <v>120</v>
       </c>
       <c r="C946" t="s">
-        <v>871</v>
+        <v>121</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>875</v>
+        <v>585</v>
       </c>
       <c r="B947" t="s">
-        <v>874</v>
+        <v>584</v>
       </c>
       <c r="C947" t="s">
-        <v>873</v>
+        <v>583</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>878</v>
-      </c>
-      <c r="B948" t="s">
-        <v>877</v>
-      </c>
-      <c r="C948" t="s">
-        <v>876</v>
+        <v>586</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>881</v>
+        <v>589</v>
       </c>
       <c r="B949" t="s">
-        <v>880</v>
+        <v>588</v>
       </c>
       <c r="C949" t="s">
-        <v>879</v>
+        <v>587</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>884</v>
+        <v>592</v>
       </c>
       <c r="B950" t="s">
-        <v>883</v>
+        <v>591</v>
       </c>
       <c r="C950" t="s">
-        <v>882</v>
+        <v>590</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>887</v>
+        <v>595</v>
       </c>
       <c r="B951" t="s">
-        <v>886</v>
+        <v>594</v>
       </c>
       <c r="C951" t="s">
-        <v>885</v>
+        <v>593</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>890</v>
+        <v>598</v>
       </c>
       <c r="B952" t="s">
-        <v>889</v>
+        <v>597</v>
       </c>
       <c r="C952" t="s">
-        <v>888</v>
+        <v>596</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>893</v>
+        <v>601</v>
       </c>
       <c r="B953" t="s">
-        <v>892</v>
+        <v>600</v>
       </c>
       <c r="C953" t="s">
-        <v>891</v>
+        <v>599</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>896</v>
+        <v>604</v>
       </c>
       <c r="B954" t="s">
-        <v>895</v>
+        <v>603</v>
       </c>
       <c r="C954" t="s">
-        <v>894</v>
+        <v>602</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>899</v>
+        <v>607</v>
       </c>
       <c r="B955" t="s">
-        <v>898</v>
+        <v>606</v>
       </c>
       <c r="C955" t="s">
-        <v>897</v>
+        <v>605</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>902</v>
+        <v>610</v>
       </c>
       <c r="B956" t="s">
-        <v>901</v>
+        <v>609</v>
       </c>
       <c r="C956" t="s">
-        <v>900</v>
+        <v>608</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>902</v>
+        <v>613</v>
       </c>
       <c r="B957" t="s">
-        <v>904</v>
+        <v>612</v>
       </c>
       <c r="C957" t="s">
-        <v>903</v>
+        <v>611</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>907</v>
+        <v>616</v>
       </c>
       <c r="B958" t="s">
-        <v>906</v>
+        <v>615</v>
       </c>
       <c r="C958" t="s">
-        <v>905</v>
+        <v>614</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>910</v>
+        <v>619</v>
       </c>
       <c r="B959" t="s">
-        <v>909</v>
+        <v>618</v>
       </c>
       <c r="C959" t="s">
-        <v>908</v>
+        <v>617</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>913</v>
+        <v>404</v>
       </c>
       <c r="B960" t="s">
-        <v>912</v>
+        <v>405</v>
       </c>
       <c r="C960" t="s">
-        <v>911</v>
+        <v>406</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>916</v>
+        <v>622</v>
       </c>
       <c r="B961" t="s">
-        <v>915</v>
+        <v>621</v>
       </c>
       <c r="C961" t="s">
-        <v>914</v>
+        <v>620</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>919</v>
+        <v>58</v>
       </c>
       <c r="B962" t="s">
-        <v>918</v>
+        <v>59</v>
       </c>
       <c r="C962" t="s">
-        <v>917</v>
+        <v>623</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>922</v>
+        <v>625</v>
       </c>
       <c r="B963" t="s">
-        <v>921</v>
+        <v>624</v>
       </c>
       <c r="C963" t="s">
-        <v>920</v>
+        <v>624</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>925</v>
+        <v>628</v>
       </c>
       <c r="B964" t="s">
-        <v>924</v>
+        <v>627</v>
       </c>
       <c r="C964" t="s">
-        <v>923</v>
+        <v>626</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>928</v>
+        <v>61</v>
       </c>
       <c r="B965" t="s">
-        <v>927</v>
+        <v>62</v>
       </c>
       <c r="C965" t="s">
-        <v>926</v>
+        <v>629</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>931</v>
+        <v>632</v>
       </c>
       <c r="B966" t="s">
-        <v>930</v>
+        <v>631</v>
       </c>
       <c r="C966" t="s">
-        <v>929</v>
+        <v>630</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>934</v>
+        <v>635</v>
       </c>
       <c r="B967" t="s">
-        <v>933</v>
+        <v>634</v>
       </c>
       <c r="C967" t="s">
-        <v>932</v>
+        <v>633</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>937</v>
+        <v>638</v>
       </c>
       <c r="B968" t="s">
-        <v>936</v>
+        <v>637</v>
       </c>
       <c r="C968" t="s">
-        <v>935</v>
+        <v>636</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>940</v>
+        <v>82</v>
       </c>
       <c r="B969" t="s">
-        <v>939</v>
+        <v>83</v>
       </c>
       <c r="C969" t="s">
-        <v>938</v>
+        <v>83</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>943</v>
+        <v>641</v>
       </c>
       <c r="B970" t="s">
-        <v>942</v>
+        <v>640</v>
       </c>
       <c r="C970" t="s">
-        <v>941</v>
+        <v>639</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>946</v>
+        <v>644</v>
       </c>
       <c r="B971" t="s">
-        <v>945</v>
+        <v>643</v>
       </c>
       <c r="C971" t="s">
-        <v>944</v>
+        <v>642</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>948</v>
+        <v>647</v>
       </c>
       <c r="B972" t="s">
-        <v>948</v>
+        <v>646</v>
       </c>
       <c r="C972" t="s">
-        <v>947</v>
+        <v>645</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>951</v>
+        <v>650</v>
       </c>
       <c r="B973" t="s">
-        <v>950</v>
+        <v>649</v>
       </c>
       <c r="C973" t="s">
-        <v>949</v>
+        <v>648</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>954</v>
+        <v>651</v>
       </c>
       <c r="B974" t="s">
-        <v>953</v>
+        <v>70</v>
       </c>
       <c r="C974" t="s">
-        <v>952</v>
+        <v>71</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>957</v>
+        <v>652</v>
       </c>
       <c r="B975" t="s">
-        <v>956</v>
+        <v>84</v>
       </c>
       <c r="C975" t="s">
-        <v>955</v>
+        <v>85</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>960</v>
+        <v>653</v>
       </c>
       <c r="B976" t="s">
-        <v>959</v>
+        <v>86</v>
       </c>
       <c r="C976" t="s">
-        <v>958</v>
+        <v>87</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>962</v>
+        <v>402</v>
+      </c>
+      <c r="B977" t="s">
+        <v>403</v>
       </c>
       <c r="C977" t="s">
-        <v>961</v>
+        <v>403</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>965</v>
+        <v>656</v>
       </c>
       <c r="B978" t="s">
-        <v>964</v>
+        <v>655</v>
       </c>
       <c r="C978" t="s">
-        <v>963</v>
+        <v>654</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>968</v>
+        <v>659</v>
       </c>
       <c r="B979" t="s">
-        <v>967</v>
+        <v>658</v>
       </c>
       <c r="C979" t="s">
-        <v>966</v>
+        <v>657</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>965</v>
+        <v>660</v>
       </c>
       <c r="B980" t="s">
-        <v>970</v>
+        <v>102</v>
       </c>
       <c r="C980" t="s">
-        <v>969</v>
+        <v>103</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>973</v>
+        <v>663</v>
       </c>
       <c r="B981" t="s">
-        <v>972</v>
+        <v>662</v>
       </c>
       <c r="C981" t="s">
-        <v>971</v>
+        <v>661</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>976</v>
+        <v>665</v>
       </c>
       <c r="B982" t="s">
-        <v>975</v>
+        <v>106</v>
       </c>
       <c r="C982" t="s">
-        <v>974</v>
+        <v>664</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>979</v>
+        <v>667</v>
       </c>
       <c r="B983" t="s">
-        <v>978</v>
+        <v>666</v>
       </c>
       <c r="C983" t="s">
-        <v>977</v>
+        <v>109</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>982</v>
+        <v>670</v>
       </c>
       <c r="B984" t="s">
-        <v>981</v>
+        <v>669</v>
       </c>
       <c r="C984" t="s">
-        <v>980</v>
+        <v>668</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>985</v>
-      </c>
-      <c r="B985" t="s">
-        <v>984</v>
-      </c>
-      <c r="C985" t="s">
-        <v>983</v>
+        <v>671</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>988</v>
+        <v>674</v>
       </c>
       <c r="B986" t="s">
-        <v>987</v>
+        <v>673</v>
       </c>
       <c r="C986" t="s">
-        <v>986</v>
+        <v>672</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>990</v>
+        <v>677</v>
+      </c>
+      <c r="B987" t="s">
+        <v>676</v>
       </c>
       <c r="C987" t="s">
-        <v>989</v>
+        <v>675</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>993</v>
+        <v>680</v>
       </c>
       <c r="B988" t="s">
-        <v>992</v>
+        <v>679</v>
       </c>
       <c r="C988" t="s">
-        <v>991</v>
+        <v>678</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>996</v>
+        <v>683</v>
       </c>
       <c r="B989" t="s">
-        <v>995</v>
+        <v>682</v>
       </c>
       <c r="C989" t="s">
-        <v>994</v>
+        <v>681</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>998</v>
+        <v>686</v>
       </c>
       <c r="B990" t="s">
-        <v>997</v>
+        <v>685</v>
       </c>
       <c r="C990" t="s">
-        <v>997</v>
+        <v>684</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>1001</v>
+        <v>689</v>
       </c>
       <c r="B991" t="s">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="C991" t="s">
-        <v>999</v>
+        <v>687</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1004</v>
+        <v>692</v>
       </c>
       <c r="B992" t="s">
-        <v>1003</v>
+        <v>691</v>
       </c>
       <c r="C992" t="s">
-        <v>1002</v>
+        <v>690</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1173</v>
+        <v>695</v>
+      </c>
+      <c r="B993" t="s">
+        <v>694</v>
+      </c>
+      <c r="C993" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1040</v>
+        <v>698</v>
       </c>
       <c r="B994" t="s">
-        <v>1041</v>
+        <v>697</v>
       </c>
       <c r="C994" t="s">
-        <v>1042</v>
+        <v>696</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1043</v>
+        <v>701</v>
       </c>
       <c r="B995" t="s">
-        <v>1044</v>
+        <v>700</v>
       </c>
       <c r="C995" t="s">
-        <v>1045</v>
+        <v>699</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1046</v>
+        <v>704</v>
       </c>
       <c r="B996" t="s">
-        <v>1047</v>
+        <v>703</v>
       </c>
       <c r="C996" t="s">
-        <v>1048</v>
+        <v>702</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>1049</v>
+        <v>400</v>
       </c>
       <c r="B997" t="s">
-        <v>1050</v>
+        <v>706</v>
       </c>
       <c r="C997" t="s">
-        <v>1051</v>
+        <v>705</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>1052</v>
+        <v>709</v>
       </c>
       <c r="B998" t="s">
-        <v>1053</v>
+        <v>708</v>
       </c>
       <c r="C998" t="s">
-        <v>1054</v>
+        <v>707</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>1055</v>
+        <v>712</v>
       </c>
       <c r="B999" t="s">
-        <v>1056</v>
+        <v>711</v>
       </c>
       <c r="C999" t="s">
-        <v>1057</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1058</v>
+        <v>715</v>
       </c>
       <c r="B1000" t="s">
-        <v>1059</v>
+        <v>714</v>
       </c>
       <c r="C1000" t="s">
-        <v>1060</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>1061</v>
+        <v>718</v>
       </c>
       <c r="B1001" t="s">
-        <v>1062</v>
+        <v>717</v>
       </c>
       <c r="C1001" t="s">
-        <v>1062</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>1064</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1066</v>
+        <v>720</v>
+      </c>
+      <c r="B1003">
+        <v>1</v>
       </c>
       <c r="C1003" t="s">
-        <v>1066</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1068</v>
+        <v>721</v>
+      </c>
+      <c r="B1004">
+        <v>2</v>
       </c>
       <c r="C1004" t="s">
-        <v>1068</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>1070</v>
+        <v>722</v>
+      </c>
+      <c r="B1005">
+        <v>3</v>
       </c>
       <c r="C1005" t="s">
-        <v>1070</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>1072</v>
+        <v>723</v>
+      </c>
+      <c r="B1006">
+        <v>4</v>
       </c>
       <c r="C1006" t="s">
-        <v>1072</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>1074</v>
+        <v>724</v>
+      </c>
+      <c r="B1007">
+        <v>5</v>
       </c>
       <c r="C1007" t="s">
-        <v>1074</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>1076</v>
+        <v>725</v>
+      </c>
+      <c r="B1008">
+        <v>6</v>
       </c>
       <c r="C1008" t="s">
-        <v>1076</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>1078</v>
+        <v>726</v>
+      </c>
+      <c r="B1009">
+        <v>7</v>
       </c>
       <c r="C1009" t="s">
-        <v>1078</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1080</v>
+        <v>727</v>
+      </c>
+      <c r="B1010">
+        <v>8</v>
       </c>
       <c r="C1010" t="s">
-        <v>1080</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>1082</v>
+        <v>728</v>
+      </c>
+      <c r="B1011">
+        <v>9</v>
       </c>
       <c r="C1011" t="s">
-        <v>1082</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>1084</v>
+        <v>729</v>
+      </c>
+      <c r="B1012">
+        <v>10</v>
       </c>
       <c r="C1012" t="s">
-        <v>1084</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>1086</v>
+        <v>1006</v>
+      </c>
+      <c r="B1013">
+        <v>20</v>
       </c>
       <c r="C1013" t="s">
-        <v>1086</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>1088</v>
+        <v>1007</v>
+      </c>
+      <c r="B1014">
+        <v>30</v>
       </c>
       <c r="C1014" t="s">
-        <v>1088</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>1090</v>
+        <v>1008</v>
+      </c>
+      <c r="B1015">
+        <v>40</v>
       </c>
       <c r="C1015" t="s">
-        <v>1090</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1092</v>
+        <v>1009</v>
+      </c>
+      <c r="B1016">
+        <v>50</v>
       </c>
       <c r="C1016" t="s">
-        <v>1092</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>1094</v>
+        <v>1010</v>
+      </c>
+      <c r="B1017">
+        <v>60</v>
       </c>
       <c r="C1017" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>1096</v>
+        <v>1011</v>
+      </c>
+      <c r="B1018">
+        <v>70</v>
       </c>
       <c r="C1018" t="s">
-        <v>1096</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1098</v>
+        <v>1012</v>
+      </c>
+      <c r="B1019">
+        <v>80</v>
       </c>
       <c r="C1019" t="s">
-        <v>1098</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1100</v>
+        <v>1013</v>
+      </c>
+      <c r="B1020">
+        <v>90</v>
       </c>
       <c r="C1020" t="s">
-        <v>1101</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>1103</v>
+        <v>429</v>
+      </c>
+      <c r="B1021">
+        <v>100</v>
       </c>
       <c r="C1021" t="s">
-        <v>1104</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>1106</v>
+        <v>1014</v>
+      </c>
+      <c r="B1022">
+        <v>200</v>
       </c>
       <c r="C1022" t="s">
-        <v>1107</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>1109</v>
+        <v>1015</v>
+      </c>
+      <c r="B1023">
+        <v>300</v>
       </c>
       <c r="C1023" t="s">
-        <v>1110</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>1112</v>
+        <v>1016</v>
+      </c>
+      <c r="B1024">
+        <v>400</v>
       </c>
       <c r="C1024" t="s">
-        <v>1113</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>1115</v>
+        <v>1017</v>
+      </c>
+      <c r="B1025">
+        <v>500</v>
       </c>
       <c r="C1025" t="s">
-        <v>1116</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>1118</v>
+        <v>1018</v>
+      </c>
+      <c r="B1026">
+        <v>600</v>
       </c>
       <c r="C1026" t="s">
-        <v>1119</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>1121</v>
+        <v>1019</v>
+      </c>
+      <c r="B1027">
+        <v>700</v>
       </c>
       <c r="C1027" t="s">
-        <v>1122</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>1124</v>
+        <v>1020</v>
+      </c>
+      <c r="B1028">
+        <v>800</v>
       </c>
       <c r="C1028" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>2128</v>
+        <v>1021</v>
+      </c>
+      <c r="B1029">
+        <v>900</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1030" s="4" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B1030" s="4" t="s">
-        <v>2129</v>
+      <c r="A1030" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1030">
+        <v>1000</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1031" s="4" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B1031" s="4" t="s">
-        <v>2130</v>
+      <c r="A1031" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1031">
+        <v>2000</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1032" s="4" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B1032" s="4" t="s">
-        <v>2131</v>
+      <c r="A1032" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1032">
+        <v>3000</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1033" s="4" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B1033" s="4" t="s">
-        <v>2132</v>
+      <c r="A1033" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1033">
+        <v>4000</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1034" s="5" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B1034" s="5" t="s">
-        <v>2133</v>
+      <c r="A1034" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1034">
+        <v>5000</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>2135</v>
+        <v>1026</v>
+      </c>
+      <c r="B1035">
+        <v>6000</v>
       </c>
       <c r="C1035" t="s">
-        <v>730</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>2137</v>
+        <v>1027</v>
+      </c>
+      <c r="B1036">
+        <v>7000</v>
       </c>
       <c r="C1036" t="s">
-        <v>849</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>2139</v>
+        <v>1028</v>
+      </c>
+      <c r="B1037">
+        <v>8000</v>
       </c>
       <c r="C1037" t="s">
-        <v>2125</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>2141</v>
+        <v>1029</v>
+      </c>
+      <c r="B1038">
+        <v>9000</v>
       </c>
       <c r="C1038" t="s">
-        <v>763</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>2142</v>
+        <v>1030</v>
       </c>
       <c r="B1039" t="s">
-        <v>2143</v>
+        <v>1161</v>
       </c>
       <c r="C1039" t="s">
-        <v>2126</v>
+        <v>435</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>2145</v>
+        <v>1031</v>
+      </c>
+      <c r="B1040">
+        <v>20000</v>
       </c>
       <c r="C1040" t="s">
-        <v>852</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>2147</v>
+        <v>1032</v>
+      </c>
+      <c r="B1041">
+        <v>30000</v>
       </c>
       <c r="C1041" t="s">
-        <v>2127</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>2149</v>
+        <v>1033</v>
+      </c>
+      <c r="B1042">
+        <v>40000</v>
       </c>
       <c r="C1042" t="s">
-        <v>1574</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1043">
+        <v>50000</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1044">
+        <v>60000</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1045">
+        <v>70000</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1046">
+        <v>80000</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1047">
+        <v>90000</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>755</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>761</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>767</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>771</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>770</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>778</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>785</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>796</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>802</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>814</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>839</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>851</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>857</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>864</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>867</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>886</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>889</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>892</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>895</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>898</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>907</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>912</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>922</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>925</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>924</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>928</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>927</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>930</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>936</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>939</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>942</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>950</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>960</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>967</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>965</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>970</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>973</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>972</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>976</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>981</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>992</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>997</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1184" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1185" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1185" s="4" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1186" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1187" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1188" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1188" s="5" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
         <v>2150</v>
       </c>
-      <c r="B1043" t="s">
+      <c r="B1197" t="s">
         <v>2151</v>
       </c>
-      <c r="C1043" t="s">
+      <c r="C1197" t="s">
         <v>742</v>
       </c>
     </row>
